--- a/驾意险业务统计表.xlsx
+++ b/驾意险业务统计表.xlsx
@@ -23,7 +23,7 @@
     <t>驾意险业务统计表</t>
   </si>
   <si>
-    <t>数据统计范围：2020-1-1 至 03-07</t>
+    <t>数据统计范围：2020-1-1 至 03-08</t>
   </si>
   <si>
     <t>中心支公司</t>
@@ -888,40 +888,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5">
-        <v>0.7855640000000002</v>
+        <v>0.8049980000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="E5" s="6">
-        <v>0.09271523178807947</v>
+        <v>0.08902691511387163</v>
       </c>
       <c r="F5" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G5" s="5">
-        <v>0.8555270000000003</v>
+        <v>0.8749610000000002</v>
       </c>
       <c r="H5" s="3">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="I5" s="6">
-        <v>0.09221311475409837</v>
+        <v>0.08880308880308881</v>
       </c>
       <c r="J5" s="3">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K5" s="5">
-        <v>7.445467999999976</v>
+        <v>7.464901999999976</v>
       </c>
       <c r="L5" s="3">
-        <v>3546</v>
+        <v>3575</v>
       </c>
       <c r="M5" s="6">
-        <v>0.1068809926677947</v>
+        <v>0.1062937062937063</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -929,40 +929,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" s="5">
-        <v>1.510077</v>
+        <v>1.544179</v>
       </c>
       <c r="D6" s="3">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="E6" s="6">
-        <v>0.1763085399449036</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="F6" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G6" s="5">
-        <v>1.630738</v>
+        <v>1.664839999999999</v>
       </c>
       <c r="H6" s="3">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="I6" s="6">
-        <v>0.1761658031088083</v>
+        <v>0.1745635910224439</v>
       </c>
       <c r="J6" s="3">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="K6" s="5">
-        <v>17.47040899999995</v>
+        <v>17.50451099999995</v>
       </c>
       <c r="L6" s="3">
-        <v>3824</v>
+        <v>3839</v>
       </c>
       <c r="M6" s="6">
-        <v>0.1979602510460251</v>
+        <v>0.1977077363896848</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -970,40 +970,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5">
-        <v>0.4930919999999999</v>
+        <v>0.5028659999999999</v>
       </c>
       <c r="D7" s="3">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="E7" s="6">
-        <v>0.08387096774193549</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="F7" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="5">
-        <v>0.5758</v>
+        <v>0.5855739999999999</v>
       </c>
       <c r="H7" s="3">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="I7" s="6">
-        <v>0.08605341246290801</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="J7" s="3">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K7" s="5">
-        <v>6.893180999999985</v>
+        <v>6.902954999999985</v>
       </c>
       <c r="L7" s="3">
-        <v>2685</v>
+        <v>2711</v>
       </c>
       <c r="M7" s="6">
-        <v>0.1124767225325885</v>
+        <v>0.1117668756916267</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1011,40 +1011,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C8" s="5">
-        <v>1.13946</v>
+        <v>1.370438</v>
       </c>
       <c r="D8" s="3">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E8" s="6">
-        <v>0.2824858757062147</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="F8" s="3">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G8" s="5">
-        <v>1.254795</v>
+        <v>1.485773</v>
       </c>
       <c r="H8" s="3">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I8" s="6">
-        <v>0.2669902912621359</v>
+        <v>0.2813852813852814</v>
       </c>
       <c r="J8" s="3">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K8" s="5">
-        <v>10.23307699999997</v>
+        <v>10.46405499999996</v>
       </c>
       <c r="L8" s="3">
-        <v>1587</v>
+        <v>1612</v>
       </c>
       <c r="M8" s="6">
-        <v>0.2879647132955261</v>
+        <v>0.2897022332506203</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1058,10 +1058,10 @@
         <v>0.102973</v>
       </c>
       <c r="D9" s="3">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E9" s="6">
-        <v>0.08196721311475409</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="F9" s="3">
         <v>6</v>
@@ -1070,10 +1070,10 @@
         <v>0.122407</v>
       </c>
       <c r="H9" s="3">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I9" s="6">
-        <v>0.08450704225352113</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="J9" s="3">
         <v>102</v>
@@ -1082,10 +1082,10 @@
         <v>2.170574000000001</v>
       </c>
       <c r="L9" s="3">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="M9" s="6">
-        <v>0.201980198019802</v>
+        <v>0.1988304093567251</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1093,40 +1093,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5">
-        <v>0.7288810000000002</v>
+        <v>0.7949570000000002</v>
       </c>
       <c r="D10" s="3">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E10" s="6">
-        <v>0.1525423728813559</v>
+        <v>0.1541501976284585</v>
       </c>
       <c r="F10" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5">
-        <v>0.7677490000000002</v>
+        <v>0.8338250000000004</v>
       </c>
       <c r="H10" s="3">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="I10" s="6">
-        <v>0.1496062992125984</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="J10" s="3">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K10" s="5">
-        <v>8.337980999999955</v>
+        <v>8.404056999999954</v>
       </c>
       <c r="L10" s="3">
-        <v>2119</v>
+        <v>2135</v>
       </c>
       <c r="M10" s="6">
-        <v>0.1915998112317131</v>
+        <v>0.1915690866510539</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1140,10 +1140,10 @@
         <v>0.212335</v>
       </c>
       <c r="D11" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" s="6">
-        <v>0.1282051282051282</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="F11" s="3">
         <v>5</v>
@@ -1152,10 +1152,10 @@
         <v>0.212335</v>
       </c>
       <c r="H11" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I11" s="6">
-        <v>0.119047619047619</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J11" s="3">
         <v>84</v>
@@ -1164,10 +1164,10 @@
         <v>2.382603000000001</v>
       </c>
       <c r="L11" s="3">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M11" s="6">
-        <v>0.2568807339449541</v>
+        <v>0.2545454545454545</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1205,10 +1205,10 @@
         <v>0.2258790000000001</v>
       </c>
       <c r="L12" s="3">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M12" s="6">
-        <v>0.04639175257731959</v>
+        <v>0.04615384615384616</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1216,40 +1216,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C13" s="5">
-        <v>4.972382000000001</v>
+        <v>5.332746000000001</v>
       </c>
       <c r="D13" s="3">
-        <v>1678</v>
+        <v>1803</v>
       </c>
       <c r="E13" s="6">
-        <v>0.1358760429082241</v>
+        <v>0.1358846367165835</v>
       </c>
       <c r="F13" s="3">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G13" s="5">
-        <v>5.419351000000002</v>
+        <v>5.779715</v>
       </c>
       <c r="H13" s="3">
-        <v>1824</v>
+        <v>1949</v>
       </c>
       <c r="I13" s="6">
-        <v>0.1348684210526316</v>
+        <v>0.1349409953822473</v>
       </c>
       <c r="J13" s="3">
-        <v>2496</v>
+        <v>2513</v>
       </c>
       <c r="K13" s="5">
-        <v>55.15917199999983</v>
+        <v>55.51953599999983</v>
       </c>
       <c r="L13" s="3">
-        <v>14787</v>
+        <v>14910</v>
       </c>
       <c r="M13" s="6">
-        <v>0.1687969162101846</v>
+        <v>0.1685446009389671</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1359,10 +1359,10 @@
         <v>0.046642</v>
       </c>
       <c r="D19" s="3">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E19" s="6">
-        <v>0.02702702702702703</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="F19" s="3">
         <v>4</v>
@@ -1371,10 +1371,10 @@
         <v>0.09717100000000001</v>
       </c>
       <c r="H19" s="3">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I19" s="6">
-        <v>0.04597701149425287</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="J19" s="3">
         <v>23</v>
@@ -1383,10 +1383,10 @@
         <v>0.587931</v>
       </c>
       <c r="L19" s="3">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="M19" s="6">
-        <v>0.03571428571428571</v>
+        <v>0.0352760736196319</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1400,10 +1400,10 @@
         <v>0.006762000000000001</v>
       </c>
       <c r="D20" s="3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E20" s="6">
-        <v>0.01075268817204301</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1412,10 +1412,10 @@
         <v>0.006762000000000001</v>
       </c>
       <c r="H20" s="3">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I20" s="6">
-        <v>0.009900990099009901</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="J20" s="3">
         <v>12</v>
@@ -1424,10 +1424,10 @@
         <v>0.3082150000000001</v>
       </c>
       <c r="L20" s="3">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="M20" s="6">
-        <v>0.01591511936339523</v>
+        <v>0.0158102766798419</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1482,10 +1482,10 @@
         <v>0.077736</v>
       </c>
       <c r="D22" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E22" s="6">
-        <v>0.0975609756097561</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="F22" s="3">
         <v>4</v>
@@ -1494,10 +1494,10 @@
         <v>0.077736</v>
       </c>
       <c r="H22" s="3">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I22" s="6">
-        <v>0.09302325581395349</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="J22" s="3">
         <v>25</v>
@@ -1506,10 +1506,10 @@
         <v>0.4986240000000002</v>
       </c>
       <c r="L22" s="3">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M22" s="6">
-        <v>0.09765625</v>
+        <v>0.09541984732824428</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1523,10 +1523,10 @@
         <v>0.068302</v>
       </c>
       <c r="D23" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E23" s="6">
-        <v>0.05660377358490566</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="F23" s="3">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>0.068302</v>
       </c>
       <c r="H23" s="3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I23" s="6">
-        <v>0.05263157894736842</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="J23" s="3">
         <v>18</v>
@@ -1547,10 +1547,10 @@
         <v>0.4903780000000001</v>
       </c>
       <c r="L23" s="3">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M23" s="6">
-        <v>0.04639175257731959</v>
+        <v>0.04615384615384616</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1558,40 +1558,40 @@
         <v>25</v>
       </c>
       <c r="B24" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="5">
-        <v>0.3773250000000001</v>
+        <v>0.3967590000000001</v>
       </c>
       <c r="D24" s="3">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E24" s="6">
-        <v>0.2</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="F24" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G24" s="5">
-        <v>0.3967590000000001</v>
+        <v>0.4161930000000001</v>
       </c>
       <c r="H24" s="3">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I24" s="6">
-        <v>0.1954022988505747</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="J24" s="3">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K24" s="5">
-        <v>3.450515999999999</v>
+        <v>3.469949999999999</v>
       </c>
       <c r="L24" s="3">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="M24" s="6">
-        <v>0.2160737812911726</v>
+        <v>0.2156862745098039</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1605,10 +1605,10 @@
         <v>0.032958</v>
       </c>
       <c r="D25" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="6">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="F25" s="3">
         <v>4</v>
@@ -1617,10 +1617,10 @@
         <v>0.032958</v>
       </c>
       <c r="H25" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I25" s="6">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J25" s="3">
         <v>62</v>
@@ -1629,10 +1629,10 @@
         <v>0.862081</v>
       </c>
       <c r="L25" s="3">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M25" s="6">
-        <v>0.3115577889447236</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1646,10 +1646,10 @@
         <v>0.09327300000000001</v>
       </c>
       <c r="D26" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="6">
-        <v>0.09090909090909091</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="F26" s="3">
         <v>7</v>
@@ -1658,10 +1658,10 @@
         <v>0.09327300000000001</v>
       </c>
       <c r="H26" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" s="6">
-        <v>0.08974358974358974</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="J26" s="3">
         <v>59</v>
@@ -1670,10 +1670,10 @@
         <v>0.9513830000000002</v>
       </c>
       <c r="L26" s="3">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M26" s="6">
-        <v>0.115234375</v>
+        <v>0.115009746588694</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1681,40 +1681,40 @@
         <v>28</v>
       </c>
       <c r="B27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" s="5">
-        <v>0.05147199999999999</v>
+        <v>0.08557399999999998</v>
       </c>
       <c r="D27" s="3">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E27" s="6">
-        <v>0.03896103896103896</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="5">
-        <v>0.05147199999999999</v>
+        <v>0.08557399999999998</v>
       </c>
       <c r="H27" s="3">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I27" s="6">
-        <v>0.03703703703703703</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J27" s="3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K27" s="5">
-        <v>1.911595</v>
+        <v>1.945697</v>
       </c>
       <c r="L27" s="3">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="M27" s="6">
-        <v>0.09717514124293786</v>
+        <v>0.09898762654668167</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1728,10 +1728,10 @@
         <v>0.120492</v>
       </c>
       <c r="D28" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E28" s="6">
-        <v>0.08620689655172414</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F28" s="3">
         <v>5</v>
@@ -1740,10 +1740,10 @@
         <v>0.120492</v>
       </c>
       <c r="H28" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I28" s="6">
-        <v>0.07936507936507936</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J28" s="3">
         <v>51</v>
@@ -1752,10 +1752,10 @@
         <v>1.175327</v>
       </c>
       <c r="L28" s="3">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M28" s="6">
-        <v>0.07533234859675036</v>
+        <v>0.07511045655375552</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1769,10 +1769,10 @@
         <v>0.752343</v>
       </c>
       <c r="D29" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="6">
-        <v>0.3370786516853932</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F29" s="3">
         <v>31</v>
@@ -1781,10 +1781,10 @@
         <v>0.7795509999999999</v>
       </c>
       <c r="H29" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I29" s="6">
-        <v>0.3406593406593407</v>
+        <v>0.3369565217391304</v>
       </c>
       <c r="J29" s="3">
         <v>277</v>
@@ -1793,10 +1793,10 @@
         <v>6.365157000000001</v>
       </c>
       <c r="L29" s="3">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M29" s="6">
-        <v>0.3664021164021164</v>
+        <v>0.3659180977542932</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1810,10 +1810,10 @@
         <v>0.310262</v>
       </c>
       <c r="D30" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E30" s="6">
-        <v>0.26</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="F30" s="3">
         <v>14</v>
@@ -1822,10 +1822,10 @@
         <v>0.329696</v>
       </c>
       <c r="H30" s="3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I30" s="6">
-        <v>0.25</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="J30" s="3">
         <v>134</v>
@@ -1834,10 +1834,10 @@
         <v>3.240413</v>
       </c>
       <c r="L30" s="3">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M30" s="6">
-        <v>0.2723577235772358</v>
+        <v>0.2701612903225806</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1851,10 +1851,10 @@
         <v>0.125792</v>
       </c>
       <c r="D31" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" s="6">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="F31" s="3">
         <v>6</v>
@@ -1863,10 +1863,10 @@
         <v>0.125792</v>
       </c>
       <c r="H31" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I31" s="6">
-        <v>0.3529411764705883</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J31" s="3">
         <v>57</v>
@@ -1875,10 +1875,10 @@
         <v>1.37756</v>
       </c>
       <c r="L31" s="3">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M31" s="6">
-        <v>0.3220338983050847</v>
+        <v>0.3202247191011236</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1892,10 +1892,10 @@
         <v>0.09107399999999999</v>
       </c>
       <c r="D32" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E32" s="6">
-        <v>0.08771929824561403</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="F32" s="3">
         <v>6</v>
@@ -1904,10 +1904,10 @@
         <v>0.11665</v>
       </c>
       <c r="H32" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I32" s="6">
-        <v>0.1016949152542373</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="J32" s="3">
         <v>74</v>
@@ -1916,10 +1916,10 @@
         <v>1.150568</v>
       </c>
       <c r="L32" s="3">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M32" s="6">
-        <v>0.1335740072202166</v>
+        <v>0.1328545780969479</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I34" s="6">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>0.389794</v>
       </c>
       <c r="L34" s="3">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M34" s="6">
-        <v>0.08016877637130802</v>
+        <v>0.07983193277310924</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2015,10 +2015,10 @@
         <v>0.046642</v>
       </c>
       <c r="D35" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E35" s="6">
-        <v>0.2222222222222222</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="F35" s="3">
         <v>3</v>
@@ -2027,10 +2027,10 @@
         <v>0.066076</v>
       </c>
       <c r="H35" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I35" s="6">
-        <v>0.2727272727272727</v>
+        <v>0.2</v>
       </c>
       <c r="J35" s="3">
         <v>40</v>
@@ -2039,10 +2039,10 @@
         <v>0.8395520000000002</v>
       </c>
       <c r="L35" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M35" s="6">
-        <v>0.3174603174603174</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2056,10 +2056,10 @@
         <v>0.05633100000000001</v>
       </c>
       <c r="D36" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E36" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F36" s="3">
         <v>3</v>
@@ -2068,10 +2068,10 @@
         <v>0.05633100000000001</v>
       </c>
       <c r="H36" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I36" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="J36" s="3">
         <v>43</v>
@@ -2080,10 +2080,10 @@
         <v>0.9412280000000001</v>
       </c>
       <c r="L36" s="3">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M36" s="6">
-        <v>0.3028169014084507</v>
+        <v>0.296551724137931</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I37" s="6">
         <v>0</v>
@@ -2121,10 +2121,10 @@
         <v>0.2258790000000001</v>
       </c>
       <c r="L37" s="3">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M37" s="6">
-        <v>0.04639175257731959</v>
+        <v>0.04615384615384616</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2179,10 +2179,10 @@
         <v>0.038868</v>
       </c>
       <c r="D39" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E39" s="6">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="F39" s="3">
         <v>3</v>
@@ -2191,10 +2191,10 @@
         <v>0.058302</v>
       </c>
       <c r="H39" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I39" s="6">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="J39" s="3">
         <v>35</v>
@@ -2203,10 +2203,10 @@
         <v>0.7615300000000003</v>
       </c>
       <c r="L39" s="3">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M39" s="6">
-        <v>0.1988636363636364</v>
+        <v>0.1977401129943503</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2220,10 +2220,10 @@
         <v>0.048868</v>
       </c>
       <c r="D40" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E40" s="6">
-        <v>0.02564102564102564</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="F40" s="3">
         <v>2</v>
@@ -2232,10 +2232,10 @@
         <v>0.048868</v>
       </c>
       <c r="H40" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I40" s="6">
-        <v>0.02352941176470588</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="J40" s="3">
         <v>39</v>
@@ -2244,10 +2244,10 @@
         <v>1.105139</v>
       </c>
       <c r="L40" s="3">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M40" s="6">
-        <v>0.06854130052724078</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2261,10 +2261,10 @@
         <v>0.048868</v>
       </c>
       <c r="D41" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E41" s="6">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="F41" s="3">
         <v>3</v>
@@ -2273,10 +2273,10 @@
         <v>0.083076</v>
       </c>
       <c r="H41" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I41" s="6">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J41" s="3">
         <v>42</v>
@@ -2285,10 +2285,10 @@
         <v>1.08058</v>
       </c>
       <c r="L41" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M41" s="6">
-        <v>0.4375</v>
+        <v>0.4329896907216495</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2296,40 +2296,40 @@
         <v>42</v>
       </c>
       <c r="B42" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" s="5">
-        <v>0.259006</v>
+        <v>0.26878</v>
       </c>
       <c r="D42" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E42" s="6">
-        <v>0.68</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="F42" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G42" s="5">
-        <v>0.259006</v>
+        <v>0.26878</v>
       </c>
       <c r="H42" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I42" s="6">
-        <v>0.6296296296296297</v>
+        <v>0.6</v>
       </c>
       <c r="J42" s="3">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K42" s="5">
-        <v>2.575376000000003</v>
+        <v>2.585150000000003</v>
       </c>
       <c r="L42" s="3">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M42" s="6">
-        <v>0.5793991416309013</v>
+        <v>0.576271186440678</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2343,10 +2343,10 @@
         <v>0.034208</v>
       </c>
       <c r="D43" s="3">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E43" s="6">
-        <v>0.01265822784810127</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
@@ -2355,10 +2355,10 @@
         <v>0.034208</v>
       </c>
       <c r="H43" s="3">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I43" s="6">
-        <v>0.01162790697674419</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="J43" s="3">
         <v>30</v>
@@ -2367,10 +2367,10 @@
         <v>0.8209860000000001</v>
       </c>
       <c r="L43" s="3">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="M43" s="6">
-        <v>0.04143646408839779</v>
+        <v>0.04092769440654843</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I44" s="6">
         <v>0</v>
@@ -2408,10 +2408,10 @@
         <v>0.119576</v>
       </c>
       <c r="L44" s="3">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M44" s="6">
-        <v>0.02577319587628866</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2425,10 +2425,10 @@
         <v>0.063274</v>
       </c>
       <c r="D45" s="3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E45" s="6">
-        <v>0.0425531914893617</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="F45" s="3">
         <v>3</v>
@@ -2437,10 +2437,10 @@
         <v>0.09234000000000001</v>
       </c>
       <c r="H45" s="3">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I45" s="6">
-        <v>0.05660377358490566</v>
+        <v>0.04918032786885246</v>
       </c>
       <c r="J45" s="3">
         <v>16</v>
@@ -2449,10 +2449,10 @@
         <v>0.429994</v>
       </c>
       <c r="L45" s="3">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M45" s="6">
-        <v>0.0326530612244898</v>
+        <v>0.0321285140562249</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2466,10 +2466,10 @@
         <v>0.143812</v>
       </c>
       <c r="D46" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E46" s="6">
-        <v>0.1521739130434783</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="F46" s="3">
         <v>7</v>
@@ -2478,10 +2478,10 @@
         <v>0.143812</v>
       </c>
       <c r="H46" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I46" s="6">
-        <v>0.1428571428571428</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="J46" s="3">
         <v>118</v>
@@ -2490,10 +2490,10 @@
         <v>2.464124000000001</v>
       </c>
       <c r="L46" s="3">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M46" s="6">
-        <v>0.233201581027668</v>
+        <v>0.2322834645669291</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2507,10 +2507,10 @@
         <v>0.214718</v>
       </c>
       <c r="D47" s="3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E47" s="6">
-        <v>0.1182795698924731</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="F47" s="3">
         <v>13</v>
@@ -2519,10 +2519,10 @@
         <v>0.253586</v>
       </c>
       <c r="H47" s="3">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I47" s="6">
-        <v>0.1326530612244898</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="J47" s="3">
         <v>85</v>
@@ -2531,10 +2531,10 @@
         <v>1.728876000000001</v>
       </c>
       <c r="L47" s="3">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="M47" s="6">
-        <v>0.1528776978417266</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2542,40 +2542,40 @@
         <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C48" s="5">
-        <v>0.370351</v>
+        <v>0.4364270000000001</v>
       </c>
       <c r="D48" s="3">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E48" s="6">
-        <v>0.1855670103092784</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="F48" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G48" s="5">
-        <v>0.370351</v>
+        <v>0.4364270000000001</v>
       </c>
       <c r="H48" s="3">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I48" s="6">
-        <v>0.1682242990654206</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="J48" s="3">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K48" s="5">
-        <v>4.144980999999997</v>
+        <v>4.211056999999997</v>
       </c>
       <c r="L48" s="3">
-        <v>1054</v>
+        <v>1063</v>
       </c>
       <c r="M48" s="6">
-        <v>0.1925996204933586</v>
+        <v>0.19379115710254</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2583,40 +2583,40 @@
         <v>49</v>
       </c>
       <c r="B49" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="5">
-        <v>0.279309</v>
+        <v>0.298743</v>
       </c>
       <c r="D49" s="3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E49" s="6">
-        <v>0.3095238095238095</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="F49" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G49" s="5">
-        <v>0.279309</v>
+        <v>0.298743</v>
       </c>
       <c r="H49" s="3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I49" s="6">
-        <v>0.2765957446808511</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="J49" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K49" s="5">
-        <v>2.576653000000001</v>
+        <v>2.596087000000001</v>
       </c>
       <c r="L49" s="3">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="M49" s="6">
-        <v>0.3880126182965299</v>
+        <v>0.3862928348909657</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2630,10 +2630,10 @@
         <v>0.23454</v>
       </c>
       <c r="D50" s="3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E50" s="6">
-        <v>0.3703703703703703</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="F50" s="3">
         <v>11</v>
@@ -2642,10 +2642,10 @@
         <v>0.251591</v>
       </c>
       <c r="H50" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I50" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="J50" s="3">
         <v>62</v>
@@ -2654,10 +2654,10 @@
         <v>1.44174</v>
       </c>
       <c r="L50" s="3">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M50" s="6">
-        <v>0.2707423580786026</v>
+        <v>0.2660944206008584</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2671,10 +2671,10 @@
         <v>0.101058</v>
       </c>
       <c r="D51" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E51" s="6">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F51" s="3">
         <v>4</v>
@@ -2683,10 +2683,10 @@
         <v>0.101058</v>
       </c>
       <c r="H51" s="3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I51" s="6">
-        <v>0.1142857142857143</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="J51" s="3">
         <v>30</v>
@@ -2695,10 +2695,10 @@
         <v>0.637186</v>
       </c>
       <c r="L51" s="3">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M51" s="6">
-        <v>0.1013513513513514</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2747,40 +2747,40 @@
         <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C53" s="5">
-        <v>0.177429</v>
+        <v>0.268481</v>
       </c>
       <c r="D53" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53" s="6">
-        <v>0.4666666666666667</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="F53" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G53" s="5">
-        <v>0.201863</v>
+        <v>0.292915</v>
       </c>
       <c r="H53" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I53" s="6">
-        <v>0.4444444444444444</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="J53" s="3">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K53" s="5">
-        <v>2.371924000000001</v>
+        <v>2.462976000000001</v>
       </c>
       <c r="L53" s="3">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M53" s="6">
-        <v>0.4691943127962085</v>
+        <v>0.4813084112149533</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2788,40 +2788,40 @@
         <v>54</v>
       </c>
       <c r="B54" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C54" s="5">
-        <v>0.281048</v>
+        <v>0.374332</v>
       </c>
       <c r="D54" s="3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E54" s="6">
-        <v>0.3095238095238095</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="F54" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G54" s="5">
-        <v>0.3354639999999999</v>
+        <v>0.428748</v>
       </c>
       <c r="H54" s="3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I54" s="6">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J54" s="3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K54" s="5">
-        <v>1.967920000000001</v>
+        <v>2.061204000000001</v>
       </c>
       <c r="L54" s="3">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="M54" s="6">
-        <v>0.277602523659306</v>
+        <v>0.2839506172839506</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2829,40 +2829,40 @@
         <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="5">
-        <v>0</v>
+        <v>0.027208</v>
       </c>
       <c r="D55" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E55" s="6">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="F55" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="5">
-        <v>0.019434</v>
+        <v>0.046642</v>
       </c>
       <c r="H55" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I55" s="6">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J55" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K55" s="5">
-        <v>0.412538</v>
+        <v>0.439746</v>
       </c>
       <c r="L55" s="3">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M55" s="6">
-        <v>0.2247191011235955</v>
+        <v>0.2282608695652174</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E56" s="6">
         <v>0</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H56" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I56" s="6">
         <v>0</v>
@@ -2900,10 +2900,10 @@
         <v>0.662313</v>
       </c>
       <c r="L56" s="3">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M56" s="6">
-        <v>0.125</v>
+        <v>0.1238095238095238</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2917,10 +2917,10 @@
         <v>0.212335</v>
       </c>
       <c r="D57" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E57" s="6">
-        <v>0.3846153846153846</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="F57" s="3">
         <v>5</v>
@@ -2929,10 +2929,10 @@
         <v>0.212335</v>
       </c>
       <c r="H57" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" s="6">
-        <v>0.3571428571428572</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J57" s="3">
         <v>58</v>
@@ -2941,10 +2941,10 @@
         <v>1.72029</v>
       </c>
       <c r="L57" s="3">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M57" s="6">
-        <v>0.4873949579831933</v>
+        <v>0.4833333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2952,40 +2952,40 @@
         <v>11</v>
       </c>
       <c r="B58" s="3">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C58" s="5">
-        <v>5.01125</v>
+        <v>5.371614000000001</v>
       </c>
       <c r="D58" s="3">
-        <v>1677</v>
+        <v>1802</v>
       </c>
       <c r="E58" s="6">
-        <v>0.137149672033393</v>
+        <v>0.1370699223085461</v>
       </c>
       <c r="F58" s="3">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="G58" s="5">
-        <v>5.477653000000002</v>
+        <v>5.838017000000001</v>
       </c>
       <c r="H58" s="3">
-        <v>1823</v>
+        <v>1948</v>
       </c>
       <c r="I58" s="6">
-        <v>0.1365880416895228</v>
+        <v>0.1365503080082136</v>
       </c>
       <c r="J58" s="3">
-        <v>2531</v>
+        <v>2548</v>
       </c>
       <c r="K58" s="5">
-        <v>55.92070199999999</v>
+        <v>56.281066</v>
       </c>
       <c r="L58" s="3">
-        <v>14783</v>
+        <v>14906</v>
       </c>
       <c r="M58" s="6">
-        <v>0.1712101738483393</v>
+        <v>0.1709378773648195</v>
       </c>
     </row>
   </sheetData>
@@ -3443,7 +3443,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="5">
-        <v>2.634664</v>
+        <v>2.634664000000001</v>
       </c>
       <c r="D30" s="3">
         <v>604</v>
@@ -3528,7 +3528,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="5">
-        <v>0.4911059999999999</v>
+        <v>0.491106</v>
       </c>
       <c r="D35" s="3">
         <v>60</v>
@@ -4355,7 +4355,7 @@
         <v>19</v>
       </c>
       <c r="C91" s="5">
-        <v>0.5136069999999999</v>
+        <v>0.513607</v>
       </c>
       <c r="D91" s="3">
         <v>194</v>
@@ -4636,7 +4636,7 @@
         <v>261</v>
       </c>
       <c r="C109" s="5">
-        <v>5.823127999999999</v>
+        <v>5.823128</v>
       </c>
       <c r="D109" s="3">
         <v>1950</v>
@@ -4676,16 +4676,16 @@
         <v>3</v>
       </c>
       <c r="B113" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C113" s="5">
-        <v>0.7855640000000002</v>
+        <v>0.8049980000000001</v>
       </c>
       <c r="D113" s="3">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="E113" s="6">
-        <v>0.09271523178807947</v>
+        <v>0.08902691511387163</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4693,16 +4693,16 @@
         <v>4</v>
       </c>
       <c r="B114" s="3">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C114" s="5">
-        <v>1.510077</v>
+        <v>1.544179</v>
       </c>
       <c r="D114" s="3">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="E114" s="6">
-        <v>0.1763085399449036</v>
+        <v>0.1746031746031746</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4710,16 +4710,16 @@
         <v>5</v>
       </c>
       <c r="B115" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C115" s="5">
-        <v>0.4930919999999999</v>
+        <v>0.5028659999999999</v>
       </c>
       <c r="D115" s="3">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="E115" s="6">
-        <v>0.08387096774193549</v>
+        <v>0.08035714285714286</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4727,16 +4727,16 @@
         <v>6</v>
       </c>
       <c r="B116" s="3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C116" s="5">
-        <v>1.13946</v>
+        <v>1.370438</v>
       </c>
       <c r="D116" s="3">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="E116" s="6">
-        <v>0.2824858757062147</v>
+        <v>0.297029702970297</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4750,10 +4750,10 @@
         <v>0.102973</v>
       </c>
       <c r="D117" s="3">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E117" s="6">
-        <v>0.08196721311475409</v>
+        <v>0.07246376811594203</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4761,16 +4761,16 @@
         <v>8</v>
       </c>
       <c r="B118" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C118" s="5">
-        <v>0.7288810000000002</v>
+        <v>0.7949570000000002</v>
       </c>
       <c r="D118" s="3">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="E118" s="6">
-        <v>0.1525423728813559</v>
+        <v>0.1541501976284585</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4784,10 +4784,10 @@
         <v>0.212335</v>
       </c>
       <c r="D119" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E119" s="6">
-        <v>0.1282051282051282</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="D120" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E120" s="6">
         <v>0</v>
@@ -4812,16 +4812,16 @@
         <v>11</v>
       </c>
       <c r="B121" s="3">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C121" s="5">
-        <v>4.972382000000001</v>
+        <v>5.332746000000001</v>
       </c>
       <c r="D121" s="3">
-        <v>1678</v>
+        <v>1803</v>
       </c>
       <c r="E121" s="6">
-        <v>0.1358760429082241</v>
+        <v>0.1358846367165835</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -7403,16 +7403,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5">
-        <v>0.8555270000000003</v>
+        <v>0.8749610000000002</v>
       </c>
       <c r="D29" s="3">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="E29" s="6">
-        <v>0.09221311475409837</v>
+        <v>0.08880308880308881</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7420,16 +7420,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C30" s="5">
-        <v>1.630738</v>
+        <v>1.664839999999999</v>
       </c>
       <c r="D30" s="3">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="E30" s="6">
-        <v>0.1761658031088083</v>
+        <v>0.1745635910224439</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7437,16 +7437,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" s="5">
-        <v>0.5758</v>
+        <v>0.5855739999999999</v>
       </c>
       <c r="D31" s="3">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="E31" s="6">
-        <v>0.08605341246290801</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7454,16 +7454,16 @@
         <v>6</v>
       </c>
       <c r="B32" s="3">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C32" s="5">
-        <v>1.254795</v>
+        <v>1.485773</v>
       </c>
       <c r="D32" s="3">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="E32" s="6">
-        <v>0.2669902912621359</v>
+        <v>0.2813852813852814</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7477,10 +7477,10 @@
         <v>0.122407</v>
       </c>
       <c r="D33" s="3">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E33" s="6">
-        <v>0.08450704225352113</v>
+        <v>0.0759493670886076</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7488,16 +7488,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="3">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C34" s="5">
-        <v>0.7677490000000002</v>
+        <v>0.8338250000000004</v>
       </c>
       <c r="D34" s="3">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="E34" s="6">
-        <v>0.1496062992125984</v>
+        <v>0.1512915129151292</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7511,10 +7511,10 @@
         <v>0.212335</v>
       </c>
       <c r="D35" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E35" s="6">
-        <v>0.119047619047619</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E36" s="6">
         <v>0</v>
@@ -7539,16 +7539,16 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="C37" s="5">
-        <v>5.419351000000002</v>
+        <v>5.779715</v>
       </c>
       <c r="D37" s="3">
-        <v>1824</v>
+        <v>1949</v>
       </c>
       <c r="E37" s="6">
-        <v>0.1348684210526316</v>
+        <v>0.1349409953822473</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8374,7 +8374,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="5">
-        <v>0.3770200000000001</v>
+        <v>0.37702</v>
       </c>
       <c r="D21" s="3">
         <v>41</v>
@@ -14435,10 +14435,10 @@
         <v>0.046642</v>
       </c>
       <c r="D390" s="3">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E390" s="6">
-        <v>0.02702702702702703</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -14452,10 +14452,10 @@
         <v>0.006762000000000001</v>
       </c>
       <c r="D391" s="3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E391" s="6">
-        <v>0.01075268817204301</v>
+        <v>0.01020408163265306</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -14486,10 +14486,10 @@
         <v>0.077736</v>
       </c>
       <c r="D393" s="3">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E393" s="6">
-        <v>0.0975609756097561</v>
+        <v>0.0851063829787234</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -14503,10 +14503,10 @@
         <v>0.068302</v>
       </c>
       <c r="D394" s="3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E394" s="6">
-        <v>0.05660377358490566</v>
+        <v>0.05454545454545454</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -14514,16 +14514,16 @@
         <v>25</v>
       </c>
       <c r="B395" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C395" s="5">
-        <v>0.3773250000000001</v>
+        <v>0.3967590000000001</v>
       </c>
       <c r="D395" s="3">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E395" s="6">
-        <v>0.2</v>
+        <v>0.1976744186046512</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -14537,10 +14537,10 @@
         <v>0.032958</v>
       </c>
       <c r="D396" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E396" s="6">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -14554,10 +14554,10 @@
         <v>0.09327300000000001</v>
       </c>
       <c r="D397" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E397" s="6">
-        <v>0.09090909090909091</v>
+        <v>0.08974358974358974</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -14565,16 +14565,16 @@
         <v>28</v>
       </c>
       <c r="B398" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C398" s="5">
-        <v>0.05147199999999999</v>
+        <v>0.08557399999999998</v>
       </c>
       <c r="D398" s="3">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E398" s="6">
-        <v>0.03896103896103896</v>
+        <v>0.06172839506172839</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -14588,10 +14588,10 @@
         <v>0.120492</v>
       </c>
       <c r="D399" s="3">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E399" s="6">
-        <v>0.08620689655172414</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -14605,10 +14605,10 @@
         <v>0.752343</v>
       </c>
       <c r="D400" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E400" s="6">
-        <v>0.3370786516853932</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -14622,10 +14622,10 @@
         <v>0.310262</v>
       </c>
       <c r="D401" s="3">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E401" s="6">
-        <v>0.26</v>
+        <v>0.2407407407407407</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -14639,10 +14639,10 @@
         <v>0.125792</v>
       </c>
       <c r="D402" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E402" s="6">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -14656,10 +14656,10 @@
         <v>0.09107399999999999</v>
       </c>
       <c r="D403" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E403" s="6">
-        <v>0.08771929824561403</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -14690,7 +14690,7 @@
         <v>0</v>
       </c>
       <c r="D405" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E405" s="6">
         <v>0</v>
@@ -14707,10 +14707,10 @@
         <v>0.046642</v>
       </c>
       <c r="D406" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E406" s="6">
-        <v>0.2222222222222222</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -14724,10 +14724,10 @@
         <v>0.05633100000000001</v>
       </c>
       <c r="D407" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E407" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -14741,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="D408" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E408" s="6">
         <v>0</v>
@@ -14775,10 +14775,10 @@
         <v>0.038868</v>
       </c>
       <c r="D410" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E410" s="6">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -14792,10 +14792,10 @@
         <v>0.048868</v>
       </c>
       <c r="D411" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E411" s="6">
-        <v>0.02564102564102564</v>
+        <v>0.02469135802469136</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -14809,10 +14809,10 @@
         <v>0.048868</v>
       </c>
       <c r="D412" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E412" s="6">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -14820,16 +14820,16 @@
         <v>42</v>
       </c>
       <c r="B413" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C413" s="5">
-        <v>0.259006</v>
+        <v>0.26878</v>
       </c>
       <c r="D413" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E413" s="6">
-        <v>0.68</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -14843,10 +14843,10 @@
         <v>0.034208</v>
       </c>
       <c r="D414" s="3">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E414" s="6">
-        <v>0.01265822784810127</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -14860,7 +14860,7 @@
         <v>0</v>
       </c>
       <c r="D415" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E415" s="6">
         <v>0</v>
@@ -14877,10 +14877,10 @@
         <v>0.063274</v>
       </c>
       <c r="D416" s="3">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E416" s="6">
-        <v>0.0425531914893617</v>
+        <v>0.03636363636363636</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -14894,10 +14894,10 @@
         <v>0.143812</v>
       </c>
       <c r="D417" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E417" s="6">
-        <v>0.1521739130434783</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -14911,10 +14911,10 @@
         <v>0.214718</v>
       </c>
       <c r="D418" s="3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E418" s="6">
-        <v>0.1182795698924731</v>
+        <v>0.1122448979591837</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -14922,16 +14922,16 @@
         <v>48</v>
       </c>
       <c r="B419" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C419" s="5">
-        <v>0.370351</v>
+        <v>0.4364270000000001</v>
       </c>
       <c r="D419" s="3">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E419" s="6">
-        <v>0.1855670103092784</v>
+        <v>0.1962616822429906</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -14939,16 +14939,16 @@
         <v>49</v>
       </c>
       <c r="B420" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C420" s="5">
-        <v>0.279309</v>
+        <v>0.298743</v>
       </c>
       <c r="D420" s="3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E420" s="6">
-        <v>0.3095238095238095</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -14962,10 +14962,10 @@
         <v>0.23454</v>
       </c>
       <c r="D421" s="3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E421" s="6">
-        <v>0.3703703703703703</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -14979,10 +14979,10 @@
         <v>0.101058</v>
       </c>
       <c r="D422" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E422" s="6">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -15007,16 +15007,16 @@
         <v>53</v>
       </c>
       <c r="B424" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C424" s="5">
-        <v>0.177429</v>
+        <v>0.268481</v>
       </c>
       <c r="D424" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E424" s="6">
-        <v>0.4666666666666667</v>
+        <v>0.6111111111111112</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -15024,16 +15024,16 @@
         <v>54</v>
       </c>
       <c r="B425" s="3">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C425" s="5">
-        <v>0.281048</v>
+        <v>0.374332</v>
       </c>
       <c r="D425" s="3">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E425" s="6">
-        <v>0.3095238095238095</v>
+        <v>0.3469387755102041</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -15041,16 +15041,16 @@
         <v>55</v>
       </c>
       <c r="B426" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426" s="5">
-        <v>0</v>
+        <v>0.027208</v>
       </c>
       <c r="D426" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E426" s="6">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
       <c r="D427" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E427" s="6">
         <v>0</v>
@@ -15081,10 +15081,10 @@
         <v>0.212335</v>
       </c>
       <c r="D428" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E428" s="6">
-        <v>0.3846153846153846</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -15092,16 +15092,16 @@
         <v>11</v>
       </c>
       <c r="B429" s="3">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C429" s="5">
-        <v>5.01125</v>
+        <v>5.371614000000001</v>
       </c>
       <c r="D429" s="3">
-        <v>1677</v>
+        <v>1802</v>
       </c>
       <c r="E429" s="6">
-        <v>0.137149672033393</v>
+        <v>0.1370699223085461</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -18898,10 +18898,10 @@
         <v>0.09717100000000001</v>
       </c>
       <c r="D91" s="3">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E91" s="6">
-        <v>0.04597701149425287</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -18915,10 +18915,10 @@
         <v>0.006762000000000001</v>
       </c>
       <c r="D92" s="3">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E92" s="6">
-        <v>0.009900990099009901</v>
+        <v>0.009433962264150943</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -18949,10 +18949,10 @@
         <v>0.077736</v>
       </c>
       <c r="D94" s="3">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E94" s="6">
-        <v>0.09302325581395349</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -18966,10 +18966,10 @@
         <v>0.068302</v>
       </c>
       <c r="D95" s="3">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E95" s="6">
-        <v>0.05263157894736842</v>
+        <v>0.05084745762711865</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -18977,16 +18977,16 @@
         <v>25</v>
       </c>
       <c r="B96" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C96" s="5">
-        <v>0.3967590000000001</v>
+        <v>0.4161930000000001</v>
       </c>
       <c r="D96" s="3">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E96" s="6">
-        <v>0.1954022988505747</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -19000,10 +19000,10 @@
         <v>0.032958</v>
       </c>
       <c r="D97" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E97" s="6">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -19017,10 +19017,10 @@
         <v>0.09327300000000001</v>
       </c>
       <c r="D98" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E98" s="6">
-        <v>0.08974358974358974</v>
+        <v>0.08860759493670886</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -19028,16 +19028,16 @@
         <v>28</v>
       </c>
       <c r="B99" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C99" s="5">
-        <v>0.05147199999999999</v>
+        <v>0.08557399999999998</v>
       </c>
       <c r="D99" s="3">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E99" s="6">
-        <v>0.03703703703703703</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -19051,10 +19051,10 @@
         <v>0.120492</v>
       </c>
       <c r="D100" s="3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E100" s="6">
-        <v>0.07936507936507936</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -19068,10 +19068,10 @@
         <v>0.7795509999999999</v>
       </c>
       <c r="D101" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E101" s="6">
-        <v>0.3406593406593407</v>
+        <v>0.3369565217391304</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -19085,10 +19085,10 @@
         <v>0.329696</v>
       </c>
       <c r="D102" s="3">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E102" s="6">
-        <v>0.25</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -19102,10 +19102,10 @@
         <v>0.125792</v>
       </c>
       <c r="D103" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E103" s="6">
-        <v>0.3529411764705883</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -19119,10 +19119,10 @@
         <v>0.11665</v>
       </c>
       <c r="D104" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E104" s="6">
-        <v>0.1016949152542373</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -19153,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="D106" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E106" s="6">
         <v>0</v>
@@ -19170,10 +19170,10 @@
         <v>0.066076</v>
       </c>
       <c r="D107" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E107" s="6">
-        <v>0.2727272727272727</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -19187,10 +19187,10 @@
         <v>0.05633100000000001</v>
       </c>
       <c r="D108" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E108" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -19204,7 +19204,7 @@
         <v>0</v>
       </c>
       <c r="D109" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E109" s="6">
         <v>0</v>
@@ -19238,10 +19238,10 @@
         <v>0.058302</v>
       </c>
       <c r="D111" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E111" s="6">
-        <v>0.075</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -19255,10 +19255,10 @@
         <v>0.048868</v>
       </c>
       <c r="D112" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E112" s="6">
-        <v>0.02352941176470588</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -19272,10 +19272,10 @@
         <v>0.083076</v>
       </c>
       <c r="D113" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E113" s="6">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -19283,16 +19283,16 @@
         <v>42</v>
       </c>
       <c r="B114" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C114" s="5">
-        <v>0.259006</v>
+        <v>0.26878</v>
       </c>
       <c r="D114" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E114" s="6">
-        <v>0.6296296296296297</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -19306,10 +19306,10 @@
         <v>0.034208</v>
       </c>
       <c r="D115" s="3">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E115" s="6">
-        <v>0.01162790697674419</v>
+        <v>0.01052631578947368</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -19323,7 +19323,7 @@
         <v>0</v>
       </c>
       <c r="D116" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E116" s="6">
         <v>0</v>
@@ -19340,10 +19340,10 @@
         <v>0.09234000000000001</v>
       </c>
       <c r="D117" s="3">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E117" s="6">
-        <v>0.05660377358490566</v>
+        <v>0.04918032786885246</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -19357,10 +19357,10 @@
         <v>0.143812</v>
       </c>
       <c r="D118" s="3">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E118" s="6">
-        <v>0.1428571428571428</v>
+        <v>0.1372549019607843</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -19374,10 +19374,10 @@
         <v>0.253586</v>
       </c>
       <c r="D119" s="3">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E119" s="6">
-        <v>0.1326530612244898</v>
+        <v>0.1262135922330097</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -19385,16 +19385,16 @@
         <v>48</v>
       </c>
       <c r="B120" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C120" s="5">
-        <v>0.370351</v>
+        <v>0.4364270000000001</v>
       </c>
       <c r="D120" s="3">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E120" s="6">
-        <v>0.1682242990654206</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -19402,16 +19402,16 @@
         <v>49</v>
       </c>
       <c r="B121" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C121" s="5">
-        <v>0.279309</v>
+        <v>0.298743</v>
       </c>
       <c r="D121" s="3">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E121" s="6">
-        <v>0.2765957446808511</v>
+        <v>0.2745098039215687</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -19425,10 +19425,10 @@
         <v>0.251591</v>
       </c>
       <c r="D122" s="3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E122" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -19442,10 +19442,10 @@
         <v>0.101058</v>
       </c>
       <c r="D123" s="3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E123" s="6">
-        <v>0.1142857142857143</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -19470,16 +19470,16 @@
         <v>53</v>
       </c>
       <c r="B125" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C125" s="5">
-        <v>0.201863</v>
+        <v>0.292915</v>
       </c>
       <c r="D125" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E125" s="6">
-        <v>0.4444444444444444</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -19487,16 +19487,16 @@
         <v>54</v>
       </c>
       <c r="B126" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C126" s="5">
-        <v>0.3354639999999999</v>
+        <v>0.428748</v>
       </c>
       <c r="D126" s="3">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E126" s="6">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -19504,16 +19504,16 @@
         <v>55</v>
       </c>
       <c r="B127" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127" s="5">
-        <v>0.019434</v>
+        <v>0.046642</v>
       </c>
       <c r="D127" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E127" s="6">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -19527,7 +19527,7 @@
         <v>0</v>
       </c>
       <c r="D128" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E128" s="6">
         <v>0</v>
@@ -19544,10 +19544,10 @@
         <v>0.212335</v>
       </c>
       <c r="D129" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E129" s="6">
-        <v>0.3571428571428572</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -19555,16 +19555,16 @@
         <v>11</v>
       </c>
       <c r="B130" s="3">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C130" s="5">
-        <v>5.477653000000002</v>
+        <v>5.838017000000001</v>
       </c>
       <c r="D130" s="3">
-        <v>1823</v>
+        <v>1948</v>
       </c>
       <c r="E130" s="6">
-        <v>0.1365880416895228</v>
+        <v>0.1365503080082136</v>
       </c>
     </row>
     <row r="132" spans="1:5">

--- a/驾意险业务统计表.xlsx
+++ b/驾意险业务统计表.xlsx
@@ -23,7 +23,7 @@
     <t>驾意险业务统计表</t>
   </si>
   <si>
-    <t>数据统计范围：2020-1-1 至 03-08</t>
+    <t>数据统计范围：2020-1-1 至 03-15</t>
   </si>
   <si>
     <t>中心支公司</t>
@@ -56,7 +56,7 @@
     <t>合计</t>
   </si>
   <si>
-    <t>第10周统计数据</t>
+    <t>第11周统计数据</t>
   </si>
   <si>
     <t>驾意险件数</t>
@@ -221,7 +221,7 @@
     <t>第9周统计数据</t>
   </si>
   <si>
-    <t>第11周统计数据</t>
+    <t>第10周统计数据</t>
   </si>
   <si>
     <t>第12周统计数据</t>
@@ -888,40 +888,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5">
-        <v>0.8049980000000001</v>
+        <v>0.7412270000000002</v>
       </c>
       <c r="D5" s="3">
-        <v>483</v>
+        <v>382</v>
       </c>
       <c r="E5" s="6">
-        <v>0.08902691511387163</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="F5" s="3">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G5" s="5">
-        <v>0.8749610000000002</v>
+        <v>1.616188</v>
       </c>
       <c r="H5" s="3">
-        <v>518</v>
+        <v>897</v>
       </c>
       <c r="I5" s="6">
-        <v>0.08880308880308881</v>
+        <v>0.09364548494983277</v>
       </c>
       <c r="J5" s="3">
-        <v>380</v>
+        <v>418</v>
       </c>
       <c r="K5" s="5">
-        <v>7.464901999999976</v>
+        <v>8.206128999999972</v>
       </c>
       <c r="L5" s="3">
-        <v>3575</v>
+        <v>3949</v>
       </c>
       <c r="M5" s="6">
-        <v>0.1062937062937063</v>
+        <v>0.1058495821727019</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -929,40 +929,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5">
-        <v>1.544179</v>
+        <v>2.268728</v>
       </c>
       <c r="D6" s="3">
-        <v>378</v>
+        <v>581</v>
       </c>
       <c r="E6" s="6">
-        <v>0.1746031746031746</v>
+        <v>0.1669535283993115</v>
       </c>
       <c r="F6" s="3">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="G6" s="5">
-        <v>1.664839999999999</v>
+        <v>3.933567999999996</v>
       </c>
       <c r="H6" s="3">
-        <v>401</v>
+        <v>976</v>
       </c>
       <c r="I6" s="6">
-        <v>0.1745635910224439</v>
+        <v>0.1711065573770492</v>
       </c>
       <c r="J6" s="3">
-        <v>759</v>
+        <v>856</v>
       </c>
       <c r="K6" s="5">
-        <v>17.50451099999995</v>
+        <v>19.77323899999994</v>
       </c>
       <c r="L6" s="3">
-        <v>3839</v>
+        <v>4401</v>
       </c>
       <c r="M6" s="6">
-        <v>0.1977077363896848</v>
+        <v>0.1945012497159736</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -970,40 +970,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5">
-        <v>0.5028659999999999</v>
+        <v>0.675235</v>
       </c>
       <c r="D7" s="3">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="E7" s="6">
-        <v>0.08035714285714286</v>
+        <v>0.08746355685131195</v>
       </c>
       <c r="F7" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G7" s="5">
-        <v>0.5855739999999999</v>
+        <v>1.260809</v>
       </c>
       <c r="H7" s="3">
-        <v>363</v>
+        <v>701</v>
       </c>
       <c r="I7" s="6">
-        <v>0.08264462809917356</v>
+        <v>0.08559201141226819</v>
       </c>
       <c r="J7" s="3">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="K7" s="5">
-        <v>6.902954999999985</v>
+        <v>7.578189999999985</v>
       </c>
       <c r="L7" s="3">
-        <v>2711</v>
+        <v>3044</v>
       </c>
       <c r="M7" s="6">
-        <v>0.1117668756916267</v>
+        <v>0.1093955321944809</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1011,40 +1011,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5">
-        <v>1.370438</v>
+        <v>1.1103</v>
       </c>
       <c r="D8" s="3">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E8" s="6">
-        <v>0.297029702970297</v>
+        <v>0.2303921568627451</v>
       </c>
       <c r="F8" s="3">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="G8" s="5">
-        <v>1.485773</v>
+        <v>2.596073000000001</v>
       </c>
       <c r="H8" s="3">
-        <v>231</v>
+        <v>433</v>
       </c>
       <c r="I8" s="6">
-        <v>0.2813852813852814</v>
+        <v>0.2586605080831409</v>
       </c>
       <c r="J8" s="3">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="K8" s="5">
-        <v>10.46405499999996</v>
+        <v>11.57435499999996</v>
       </c>
       <c r="L8" s="3">
-        <v>1612</v>
+        <v>1810</v>
       </c>
       <c r="M8" s="6">
-        <v>0.2897022332506203</v>
+        <v>0.2839779005524862</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1052,40 +1052,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
-        <v>0.102973</v>
+        <v>0.124378</v>
       </c>
       <c r="D9" s="3">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6">
-        <v>0.07246376811594203</v>
+        <v>0.1</v>
       </c>
       <c r="F9" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5">
-        <v>0.122407</v>
+        <v>0.246785</v>
       </c>
       <c r="H9" s="3">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="I9" s="6">
-        <v>0.0759493670886076</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="J9" s="3">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K9" s="5">
-        <v>2.170574000000001</v>
+        <v>2.294952000000001</v>
       </c>
       <c r="L9" s="3">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="M9" s="6">
-        <v>0.1988304093567251</v>
+        <v>0.1901408450704225</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1093,40 +1093,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="5">
-        <v>0.7949570000000002</v>
+        <v>0.6962770000000001</v>
       </c>
       <c r="D10" s="3">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="E10" s="6">
-        <v>0.1541501976284585</v>
+        <v>0.1268656716417911</v>
       </c>
       <c r="F10" s="3">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G10" s="5">
-        <v>0.8338250000000004</v>
+        <v>1.530102000000001</v>
       </c>
       <c r="H10" s="3">
-        <v>271</v>
+        <v>534</v>
       </c>
       <c r="I10" s="6">
-        <v>0.1512915129151292</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="J10" s="3">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="K10" s="5">
-        <v>8.404056999999954</v>
+        <v>9.100333999999945</v>
       </c>
       <c r="L10" s="3">
-        <v>2135</v>
+        <v>2376</v>
       </c>
       <c r="M10" s="6">
-        <v>0.1915690866510539</v>
+        <v>0.1864478114478114</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1134,40 +1134,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5">
-        <v>0.212335</v>
+        <v>0.311348</v>
       </c>
       <c r="D11" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6">
-        <v>0.119047619047619</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G11" s="5">
-        <v>0.212335</v>
+        <v>0.5236830000000001</v>
       </c>
       <c r="H11" s="3">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="I11" s="6">
-        <v>0.1111111111111111</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="J11" s="3">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K11" s="5">
-        <v>2.382603000000001</v>
+        <v>2.693951000000001</v>
       </c>
       <c r="L11" s="3">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="M11" s="6">
-        <v>0.2545454545454545</v>
+        <v>0.2513513513513513</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1175,40 +1175,40 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>0.019434</v>
       </c>
       <c r="D12" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="6">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>0.019434</v>
       </c>
       <c r="H12" s="3">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="I12" s="6">
-        <v>0</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="J12" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K12" s="5">
-        <v>0.2258790000000001</v>
+        <v>0.2453130000000001</v>
       </c>
       <c r="L12" s="3">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="M12" s="6">
-        <v>0.04615384615384616</v>
+        <v>0.04329004329004329</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1216,40 +1216,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C13" s="5">
-        <v>5.332746000000001</v>
+        <v>5.946927000000001</v>
       </c>
       <c r="D13" s="3">
-        <v>1803</v>
+        <v>1917</v>
       </c>
       <c r="E13" s="6">
-        <v>0.1358846367165835</v>
+        <v>0.1366718831507564</v>
       </c>
       <c r="F13" s="3">
-        <v>263</v>
+        <v>525</v>
       </c>
       <c r="G13" s="5">
-        <v>5.779715</v>
+        <v>11.726642</v>
       </c>
       <c r="H13" s="3">
-        <v>1949</v>
+        <v>3842</v>
       </c>
       <c r="I13" s="6">
-        <v>0.1349409953822473</v>
+        <v>0.1366475793857366</v>
       </c>
       <c r="J13" s="3">
-        <v>2513</v>
+        <v>2775</v>
       </c>
       <c r="K13" s="5">
-        <v>55.51953599999983</v>
+        <v>61.46646299999981</v>
       </c>
       <c r="L13" s="3">
-        <v>14910</v>
+        <v>16749</v>
       </c>
       <c r="M13" s="6">
-        <v>0.1685446009389671</v>
+        <v>0.1656815332258642</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1359,34 +1359,34 @@
         <v>0.046642</v>
       </c>
       <c r="D19" s="3">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E19" s="6">
-        <v>0.02409638554216868</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="F19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5">
-        <v>0.09717100000000001</v>
+        <v>0.143813</v>
       </c>
       <c r="H19" s="3">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="I19" s="6">
-        <v>0.04166666666666666</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="J19" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K19" s="5">
-        <v>0.587931</v>
+        <v>0.6345729999999999</v>
       </c>
       <c r="L19" s="3">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="M19" s="6">
-        <v>0.0352760736196319</v>
+        <v>0.0343878954607978</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1394,40 +1394,40 @@
         <v>21</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="5">
-        <v>0.006762000000000001</v>
+        <v>0.038868</v>
       </c>
       <c r="D20" s="3">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E20" s="6">
-        <v>0.01020408163265306</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5">
-        <v>0.006762000000000001</v>
+        <v>0.04563</v>
       </c>
       <c r="H20" s="3">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="I20" s="6">
-        <v>0.009433962264150943</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="J20" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K20" s="5">
-        <v>0.3082150000000001</v>
+        <v>0.3470830000000001</v>
       </c>
       <c r="L20" s="3">
-        <v>759</v>
+        <v>837</v>
       </c>
       <c r="M20" s="6">
-        <v>0.0158102766798419</v>
+        <v>0.01672640382317802</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1435,40 +1435,40 @@
         <v>22</v>
       </c>
       <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.019434</v>
+      </c>
+      <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="C21" s="5">
-        <v>0.082566</v>
-      </c>
-      <c r="D21" s="3">
-        <v>12</v>
-      </c>
       <c r="E21" s="6">
-        <v>0.4166666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="F21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G21" s="5">
-        <v>0.082566</v>
+        <v>0.102</v>
       </c>
       <c r="H21" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I21" s="6">
-        <v>0.4166666666666667</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="J21" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K21" s="5">
-        <v>0.29634</v>
+        <v>0.315774</v>
       </c>
       <c r="L21" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M21" s="6">
-        <v>0.4571428571428571</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1476,40 +1476,40 @@
         <v>23</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5">
-        <v>0.077736</v>
+        <v>0.019434</v>
       </c>
       <c r="D22" s="3">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E22" s="6">
-        <v>0.0851063829787234</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="F22" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G22" s="5">
-        <v>0.077736</v>
+        <v>0.09717000000000001</v>
       </c>
       <c r="H22" s="3">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="I22" s="6">
-        <v>0.08163265306122448</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="J22" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K22" s="5">
-        <v>0.4986240000000002</v>
+        <v>0.5180580000000001</v>
       </c>
       <c r="L22" s="3">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="M22" s="6">
-        <v>0.09541984732824428</v>
+        <v>0.08695652173913043</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1517,40 +1517,40 @@
         <v>24</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" s="5">
-        <v>0.068302</v>
+        <v>0.147453</v>
       </c>
       <c r="D23" s="3">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E23" s="6">
-        <v>0.05454545454545454</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="F23" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G23" s="5">
-        <v>0.068302</v>
+        <v>0.215755</v>
       </c>
       <c r="H23" s="3">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="I23" s="6">
-        <v>0.05084745762711865</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="J23" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K23" s="5">
-        <v>0.4903780000000001</v>
+        <v>0.6378310000000001</v>
       </c>
       <c r="L23" s="3">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="M23" s="6">
-        <v>0.04615384615384616</v>
+        <v>0.05361305361305362</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1561,37 +1561,37 @@
         <v>17</v>
       </c>
       <c r="C24" s="5">
-        <v>0.3967590000000001</v>
+        <v>0.358691</v>
       </c>
       <c r="D24" s="3">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E24" s="6">
-        <v>0.1976744186046512</v>
+        <v>0.2</v>
       </c>
       <c r="F24" s="3">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G24" s="5">
-        <v>0.4161930000000001</v>
+        <v>0.7748840000000002</v>
       </c>
       <c r="H24" s="3">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="I24" s="6">
-        <v>0.1935483870967742</v>
+        <v>0.1966292134831461</v>
       </c>
       <c r="J24" s="3">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K24" s="5">
-        <v>3.469949999999999</v>
+        <v>3.828640999999998</v>
       </c>
       <c r="L24" s="3">
-        <v>765</v>
+        <v>847</v>
       </c>
       <c r="M24" s="6">
-        <v>0.2156862745098039</v>
+        <v>0.2148760330578512</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1602,37 +1602,37 @@
         <v>4</v>
       </c>
       <c r="C25" s="5">
-        <v>0.032958</v>
+        <v>0.033924</v>
       </c>
       <c r="D25" s="3">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E25" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F25" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G25" s="5">
-        <v>0.032958</v>
+        <v>0.066882</v>
       </c>
       <c r="H25" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I25" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J25" s="3">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K25" s="5">
-        <v>0.862081</v>
+        <v>0.8960049999999997</v>
       </c>
       <c r="L25" s="3">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="M25" s="6">
-        <v>0.31</v>
+        <v>0.3113207547169811</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1640,40 +1640,40 @@
         <v>27</v>
       </c>
       <c r="B26" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="5">
-        <v>0.09327300000000001</v>
+        <v>0.07678099999999999</v>
       </c>
       <c r="D26" s="3">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="E26" s="6">
-        <v>0.08974358974358974</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="F26" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G26" s="5">
-        <v>0.09327300000000001</v>
+        <v>0.170054</v>
       </c>
       <c r="H26" s="3">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="I26" s="6">
-        <v>0.08860759493670886</v>
+        <v>0.104</v>
       </c>
       <c r="J26" s="3">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K26" s="5">
-        <v>0.9513830000000002</v>
+        <v>1.028164</v>
       </c>
       <c r="L26" s="3">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="M26" s="6">
-        <v>0.115009746588694</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1681,40 +1681,40 @@
         <v>28</v>
       </c>
       <c r="B27" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" s="5">
-        <v>0.08557399999999998</v>
+        <v>0.161275</v>
       </c>
       <c r="D27" s="3">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="E27" s="6">
-        <v>0.06172839506172839</v>
+        <v>0.064</v>
       </c>
       <c r="F27" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G27" s="5">
-        <v>0.08557399999999998</v>
+        <v>0.246849</v>
       </c>
       <c r="H27" s="3">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="I27" s="6">
-        <v>0.05882352941176471</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="J27" s="3">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K27" s="5">
-        <v>1.945697</v>
+        <v>2.106972</v>
       </c>
       <c r="L27" s="3">
-        <v>889</v>
+        <v>1004</v>
       </c>
       <c r="M27" s="6">
-        <v>0.09898762654668167</v>
+        <v>0.09561752988047809</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1722,40 +1722,40 @@
         <v>29</v>
       </c>
       <c r="B28" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C28" s="5">
-        <v>0.120492</v>
+        <v>0.244285</v>
       </c>
       <c r="D28" s="3">
+        <v>112</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.08035714285714286</v>
+      </c>
+      <c r="F28" s="3">
+        <v>14</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.364777</v>
+      </c>
+      <c r="H28" s="3">
+        <v>177</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0.07909604519774012</v>
+      </c>
+      <c r="J28" s="3">
         <v>60</v>
       </c>
-      <c r="E28" s="6">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.120492</v>
-      </c>
-      <c r="H28" s="3">
-        <v>65</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0.07692307692307693</v>
-      </c>
-      <c r="J28" s="3">
-        <v>51</v>
-      </c>
       <c r="K28" s="5">
-        <v>1.175327</v>
+        <v>1.419612</v>
       </c>
       <c r="L28" s="3">
-        <v>679</v>
+        <v>789</v>
       </c>
       <c r="M28" s="6">
-        <v>0.07511045655375552</v>
+        <v>0.07604562737642585</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1763,40 +1763,40 @@
         <v>30</v>
       </c>
       <c r="B29" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="5">
-        <v>0.752343</v>
+        <v>0.681274</v>
       </c>
       <c r="D29" s="3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E29" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="F29" s="3">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G29" s="5">
-        <v>0.7795509999999999</v>
+        <v>1.460825</v>
       </c>
       <c r="H29" s="3">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="I29" s="6">
-        <v>0.3369565217391304</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="J29" s="3">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="K29" s="5">
-        <v>6.365157000000001</v>
+        <v>7.046431</v>
       </c>
       <c r="L29" s="3">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="M29" s="6">
-        <v>0.3659180977542932</v>
+        <v>0.3604240282685512</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1804,40 +1804,40 @@
         <v>31</v>
       </c>
       <c r="B30" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C30" s="5">
-        <v>0.310262</v>
+        <v>0.588821</v>
       </c>
       <c r="D30" s="3">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="E30" s="6">
-        <v>0.2407407407407407</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="F30" s="3">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G30" s="5">
-        <v>0.329696</v>
+        <v>0.9185170000000001</v>
       </c>
       <c r="H30" s="3">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="I30" s="6">
-        <v>0.2333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="J30" s="3">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K30" s="5">
-        <v>3.240413</v>
+        <v>3.829233999999998</v>
       </c>
       <c r="L30" s="3">
-        <v>496</v>
+        <v>578</v>
       </c>
       <c r="M30" s="6">
-        <v>0.2701612903225806</v>
+        <v>0.2698961937716263</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1845,40 +1845,40 @@
         <v>32</v>
       </c>
       <c r="B31" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31" s="5">
-        <v>0.125792</v>
+        <v>0.07330199999999999</v>
       </c>
       <c r="D31" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E31" s="6">
-        <v>0.375</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="F31" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G31" s="5">
-        <v>0.125792</v>
+        <v>0.199094</v>
       </c>
       <c r="H31" s="3">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I31" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="J31" s="3">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K31" s="5">
-        <v>1.37756</v>
+        <v>1.450862</v>
       </c>
       <c r="L31" s="3">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M31" s="6">
-        <v>0.3202247191011236</v>
+        <v>0.3092783505154639</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1886,40 +1886,40 @@
         <v>33</v>
       </c>
       <c r="B32" s="3">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C32" s="5">
-        <v>0.09107399999999999</v>
+        <v>0.209025</v>
       </c>
       <c r="D32" s="3">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E32" s="6">
-        <v>0.08333333333333333</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="F32" s="3">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G32" s="5">
-        <v>0.11665</v>
+        <v>0.3256749999999999</v>
       </c>
       <c r="H32" s="3">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="I32" s="6">
-        <v>0.09677419354838709</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="J32" s="3">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="K32" s="5">
-        <v>1.150568</v>
+        <v>1.359593</v>
       </c>
       <c r="L32" s="3">
-        <v>557</v>
+        <v>661</v>
       </c>
       <c r="M32" s="6">
-        <v>0.1328545780969479</v>
+        <v>0.1361573373676248</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1927,40 +1927,40 @@
         <v>34</v>
       </c>
       <c r="B33" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C33" s="5">
-        <v>0.05864199999999999</v>
+        <v>0.310746</v>
       </c>
       <c r="D33" s="3">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E33" s="6">
-        <v>0.125</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="F33" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G33" s="5">
-        <v>0.107085</v>
+        <v>0.4178310000000001</v>
       </c>
       <c r="H33" s="3">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="I33" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="J33" s="3">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K33" s="5">
-        <v>2.249789000000001</v>
+        <v>2.560535000000001</v>
       </c>
       <c r="L33" s="3">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="M33" s="6">
-        <v>0.2775800711743772</v>
+        <v>0.2716049382716049</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I34" s="6">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>0.389794</v>
       </c>
       <c r="L34" s="3">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="M34" s="6">
-        <v>0.07983193277310924</v>
+        <v>0.07569721115537849</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2009,40 +2009,40 @@
         <v>36</v>
       </c>
       <c r="B35" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C35" s="5">
-        <v>0.046642</v>
+        <v>0.104944</v>
       </c>
       <c r="D35" s="3">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E35" s="6">
-        <v>0.1538461538461539</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="F35" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G35" s="5">
-        <v>0.066076</v>
+        <v>0.17102</v>
       </c>
       <c r="H35" s="3">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="I35" s="6">
-        <v>0.2</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="J35" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K35" s="5">
-        <v>0.8395520000000002</v>
+        <v>0.9444960000000002</v>
       </c>
       <c r="L35" s="3">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="M35" s="6">
-        <v>0.3076923076923077</v>
+        <v>0.2980132450331126</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2050,40 +2050,40 @@
         <v>37</v>
       </c>
       <c r="B36" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" s="5">
-        <v>0.05633100000000001</v>
+        <v>0.019434</v>
       </c>
       <c r="D36" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" s="6">
-        <v>0.1428571428571428</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="F36" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" s="5">
-        <v>0.05633100000000001</v>
+        <v>0.07576500000000001</v>
       </c>
       <c r="H36" s="3">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I36" s="6">
-        <v>0.1428571428571428</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="J36" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36" s="5">
-        <v>0.9412280000000001</v>
+        <v>0.9606620000000001</v>
       </c>
       <c r="L36" s="3">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="M36" s="6">
-        <v>0.296551724137931</v>
+        <v>0.2650602409638554</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2091,40 +2091,40 @@
         <v>10</v>
       </c>
       <c r="B37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="5">
-        <v>0</v>
+        <v>0.019434</v>
       </c>
       <c r="D37" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E37" s="6">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="F37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="5">
-        <v>0</v>
+        <v>0.019434</v>
       </c>
       <c r="H37" s="3">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="I37" s="6">
-        <v>0</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="J37" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K37" s="5">
-        <v>0.2258790000000001</v>
+        <v>0.2453130000000001</v>
       </c>
       <c r="L37" s="3">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="M37" s="6">
-        <v>0.04615384615384616</v>
+        <v>0.04329004329004329</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2138,34 +2138,34 @@
         <v>0.038868</v>
       </c>
       <c r="D38" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E38" s="6">
-        <v>0.08</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="F38" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G38" s="5">
-        <v>0.058302</v>
+        <v>0.09717000000000001</v>
       </c>
       <c r="H38" s="3">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I38" s="6">
-        <v>0.12</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="J38" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K38" s="5">
-        <v>0.7615300000000003</v>
+        <v>0.8003980000000003</v>
       </c>
       <c r="L38" s="3">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="M38" s="6">
-        <v>0.1724137931034483</v>
+        <v>0.1561181434599156</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2179,34 +2179,34 @@
         <v>0.038868</v>
       </c>
       <c r="D39" s="3">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E39" s="6">
-        <v>0.05</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="F39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G39" s="5">
-        <v>0.058302</v>
+        <v>0.09717000000000001</v>
       </c>
       <c r="H39" s="3">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="I39" s="6">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J39" s="3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K39" s="5">
-        <v>0.7615300000000003</v>
+        <v>0.8003980000000003</v>
       </c>
       <c r="L39" s="3">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="M39" s="6">
-        <v>0.1977401129943503</v>
+        <v>0.1796116504854369</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2217,37 +2217,37 @@
         <v>2</v>
       </c>
       <c r="C40" s="5">
-        <v>0.048868</v>
+        <v>0.06841599999999999</v>
       </c>
       <c r="D40" s="3">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E40" s="6">
-        <v>0.02469135802469136</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="F40" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40" s="5">
-        <v>0.048868</v>
+        <v>0.117284</v>
       </c>
       <c r="H40" s="3">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="I40" s="6">
-        <v>0.02272727272727273</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="J40" s="3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K40" s="5">
-        <v>1.105139</v>
+        <v>1.173555</v>
       </c>
       <c r="L40" s="3">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="M40" s="6">
-        <v>0.06818181818181818</v>
+        <v>0.06396255850234009</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2255,40 +2255,40 @@
         <v>41</v>
       </c>
       <c r="B41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" s="5">
-        <v>0.048868</v>
+        <v>0.07330199999999999</v>
       </c>
       <c r="D41" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E41" s="6">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="F41" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G41" s="5">
-        <v>0.083076</v>
+        <v>0.156378</v>
       </c>
       <c r="H41" s="3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I41" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J41" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K41" s="5">
-        <v>1.08058</v>
+        <v>1.153882</v>
       </c>
       <c r="L41" s="3">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M41" s="6">
-        <v>0.4329896907216495</v>
+        <v>0.4128440366972477</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2296,40 +2296,40 @@
         <v>42</v>
       </c>
       <c r="B42" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="5">
-        <v>0.26878</v>
+        <v>0.3029879999999999</v>
       </c>
       <c r="D42" s="3">
         <v>28</v>
       </c>
       <c r="E42" s="6">
-        <v>0.6428571428571429</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="F42" s="3">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="G42" s="5">
-        <v>0.26878</v>
+        <v>0.5717679999999998</v>
       </c>
       <c r="H42" s="3">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I42" s="6">
-        <v>0.6</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="J42" s="3">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="K42" s="5">
-        <v>2.585150000000003</v>
+        <v>2.888138000000003</v>
       </c>
       <c r="L42" s="3">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M42" s="6">
-        <v>0.576271186440678</v>
+        <v>0.5817490494296578</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2337,40 +2337,40 @@
         <v>43</v>
       </c>
       <c r="B43" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" s="5">
-        <v>0.034208</v>
+        <v>0.07330199999999999</v>
       </c>
       <c r="D43" s="3">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E43" s="6">
-        <v>0.01136363636363636</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="F43" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G43" s="5">
-        <v>0.034208</v>
+        <v>0.10751</v>
       </c>
       <c r="H43" s="3">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="I43" s="6">
-        <v>0.01052631578947368</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="J43" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K43" s="5">
-        <v>0.8209860000000001</v>
+        <v>0.8942880000000001</v>
       </c>
       <c r="L43" s="3">
-        <v>733</v>
+        <v>839</v>
       </c>
       <c r="M43" s="6">
-        <v>0.04092769440654843</v>
+        <v>0.03933253873659118</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2378,40 +2378,40 @@
         <v>44</v>
       </c>
       <c r="B44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" s="5">
-        <v>0</v>
+        <v>0.049943</v>
       </c>
       <c r="D44" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E44" s="6">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="5">
-        <v>0</v>
+        <v>0.049943</v>
       </c>
       <c r="H44" s="3">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I44" s="6">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J44" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K44" s="5">
-        <v>0.119576</v>
+        <v>0.169519</v>
       </c>
       <c r="L44" s="3">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M44" s="6">
-        <v>0.02564102564102564</v>
+        <v>0.02816901408450704</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2422,37 +2422,37 @@
         <v>2</v>
       </c>
       <c r="C45" s="5">
-        <v>0.063274</v>
+        <v>0.06841599999999999</v>
       </c>
       <c r="D45" s="3">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E45" s="6">
-        <v>0.03636363636363636</v>
+        <v>0.05</v>
       </c>
       <c r="F45" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G45" s="5">
-        <v>0.09234000000000001</v>
+        <v>0.160756</v>
       </c>
       <c r="H45" s="3">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="I45" s="6">
-        <v>0.04918032786885246</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="J45" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K45" s="5">
-        <v>0.429994</v>
+        <v>0.49841</v>
       </c>
       <c r="L45" s="3">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="M45" s="6">
-        <v>0.0321285140562249</v>
+        <v>0.03358208955223881</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2460,40 +2460,40 @@
         <v>46</v>
       </c>
       <c r="B46" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" s="5">
-        <v>0.143812</v>
+        <v>0.171557</v>
       </c>
       <c r="D46" s="3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E46" s="6">
-        <v>0.1458333333333333</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="F46" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G46" s="5">
-        <v>0.143812</v>
+        <v>0.3153690000000001</v>
       </c>
       <c r="H46" s="3">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="I46" s="6">
-        <v>0.1372549019607843</v>
+        <v>0.1553398058252427</v>
       </c>
       <c r="J46" s="3">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K46" s="5">
-        <v>2.464124000000001</v>
+        <v>2.635681000000001</v>
       </c>
       <c r="L46" s="3">
-        <v>508</v>
+        <v>559</v>
       </c>
       <c r="M46" s="6">
-        <v>0.2322834645669291</v>
+        <v>0.2271914132379249</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2501,40 +2501,40 @@
         <v>47</v>
       </c>
       <c r="B47" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" s="5">
-        <v>0.214718</v>
+        <v>0.198228</v>
       </c>
       <c r="D47" s="3">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E47" s="6">
-        <v>0.1122448979591837</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="F47" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G47" s="5">
-        <v>0.253586</v>
+        <v>0.4518140000000001</v>
       </c>
       <c r="H47" s="3">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="I47" s="6">
-        <v>0.1262135922330097</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="J47" s="3">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K47" s="5">
-        <v>1.728876000000001</v>
+        <v>1.927104</v>
       </c>
       <c r="L47" s="3">
-        <v>561</v>
+        <v>644</v>
       </c>
       <c r="M47" s="6">
-        <v>0.1515151515151515</v>
+        <v>0.1459627329192547</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2542,40 +2542,40 @@
         <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C48" s="5">
-        <v>0.4364270000000001</v>
+        <v>0.326492</v>
       </c>
       <c r="D48" s="3">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E48" s="6">
-        <v>0.1962616822429906</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="F48" s="3">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G48" s="5">
-        <v>0.4364270000000001</v>
+        <v>0.7629190000000002</v>
       </c>
       <c r="H48" s="3">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="I48" s="6">
-        <v>0.1794871794871795</v>
+        <v>0.1510204081632653</v>
       </c>
       <c r="J48" s="3">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K48" s="5">
-        <v>4.211056999999997</v>
+        <v>4.537548999999996</v>
       </c>
       <c r="L48" s="3">
-        <v>1063</v>
+        <v>1170</v>
       </c>
       <c r="M48" s="6">
-        <v>0.19379115710254</v>
+        <v>0.1897435897435897</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2583,40 +2583,40 @@
         <v>49</v>
       </c>
       <c r="B49" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" s="5">
-        <v>0.298743</v>
+        <v>0.319799</v>
       </c>
       <c r="D49" s="3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E49" s="6">
-        <v>0.3043478260869565</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="F49" s="3">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G49" s="5">
-        <v>0.298743</v>
+        <v>0.6185420000000001</v>
       </c>
       <c r="H49" s="3">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I49" s="6">
-        <v>0.2745098039215687</v>
+        <v>0.29</v>
       </c>
       <c r="J49" s="3">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="K49" s="5">
-        <v>2.596087000000001</v>
+        <v>2.915886000000002</v>
       </c>
       <c r="L49" s="3">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="M49" s="6">
-        <v>0.3862928348909657</v>
+        <v>0.3766937669376694</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2624,40 +2624,40 @@
         <v>50</v>
       </c>
       <c r="B50" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C50" s="5">
-        <v>0.23454</v>
+        <v>0.177735</v>
       </c>
       <c r="D50" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E50" s="6">
-        <v>0.3225806451612903</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="F50" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G50" s="5">
-        <v>0.251591</v>
+        <v>0.4293259999999999</v>
       </c>
       <c r="H50" s="3">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="I50" s="6">
-        <v>0.2972972972972973</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J50" s="3">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K50" s="5">
-        <v>1.44174</v>
+        <v>1.619475</v>
       </c>
       <c r="L50" s="3">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="M50" s="6">
-        <v>0.2660944206008584</v>
+        <v>0.2633587786259542</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2665,40 +2665,40 @@
         <v>51</v>
       </c>
       <c r="B51" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C51" s="5">
-        <v>0.101058</v>
+        <v>0.046642</v>
       </c>
       <c r="D51" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E51" s="6">
-        <v>0.1111111111111111</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F51" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G51" s="5">
-        <v>0.101058</v>
+        <v>0.1477</v>
       </c>
       <c r="H51" s="3">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I51" s="6">
-        <v>0.1025641025641026</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J51" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K51" s="5">
-        <v>0.637186</v>
+        <v>0.6838280000000001</v>
       </c>
       <c r="L51" s="3">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="M51" s="6">
-        <v>0.1</v>
+        <v>0.0960960960960961</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2709,37 +2709,37 @@
         <v>3</v>
       </c>
       <c r="C52" s="5">
-        <v>0.066076</v>
+        <v>0.07492799999999999</v>
       </c>
       <c r="D52" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E52" s="6">
-        <v>0.2727272727272727</v>
+        <v>0.1875</v>
       </c>
       <c r="F52" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G52" s="5">
-        <v>0.066076</v>
+        <v>0.141004</v>
       </c>
       <c r="H52" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I52" s="6">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="J52" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K52" s="5">
-        <v>0.8251160000000002</v>
+        <v>0.9000440000000003</v>
       </c>
       <c r="L52" s="3">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="M52" s="6">
-        <v>0.2734375</v>
+        <v>0.2657342657342657</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2747,40 +2747,40 @@
         <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53" s="5">
-        <v>0.268481</v>
+        <v>0.225787</v>
       </c>
       <c r="D53" s="3">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E53" s="6">
-        <v>0.6111111111111112</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="F53" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G53" s="5">
-        <v>0.292915</v>
+        <v>0.518702</v>
       </c>
       <c r="H53" s="3">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I53" s="6">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="J53" s="3">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K53" s="5">
-        <v>2.462976000000001</v>
+        <v>2.688763</v>
       </c>
       <c r="L53" s="3">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="M53" s="6">
-        <v>0.4813084112149533</v>
+        <v>0.4647302904564315</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2788,40 +2788,40 @@
         <v>54</v>
       </c>
       <c r="B54" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C54" s="5">
-        <v>0.374332</v>
+        <v>0.207107</v>
       </c>
       <c r="D54" s="3">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E54" s="6">
-        <v>0.3469387755102041</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="F54" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G54" s="5">
-        <v>0.428748</v>
+        <v>0.6358549999999999</v>
       </c>
       <c r="H54" s="3">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="I54" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="J54" s="3">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K54" s="5">
-        <v>2.061204000000001</v>
+        <v>2.268311000000002</v>
       </c>
       <c r="L54" s="3">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="M54" s="6">
-        <v>0.2839506172839506</v>
+        <v>0.2824858757062147</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2829,40 +2829,40 @@
         <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" s="5">
-        <v>0.027208</v>
+        <v>0.058302</v>
       </c>
       <c r="D55" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E55" s="6">
-        <v>0.09090909090909091</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="F55" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G55" s="5">
-        <v>0.046642</v>
+        <v>0.104944</v>
       </c>
       <c r="H55" s="3">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I55" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="J55" s="3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K55" s="5">
-        <v>0.439746</v>
+        <v>0.498048</v>
       </c>
       <c r="L55" s="3">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="M55" s="6">
-        <v>0.2282608695652174</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2870,40 +2870,40 @@
         <v>56</v>
       </c>
       <c r="B56" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C56" s="5">
-        <v>0</v>
+        <v>0.05864199999999999</v>
       </c>
       <c r="D56" s="3">
+        <v>26</v>
+      </c>
+      <c r="E56" s="6">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.05864199999999999</v>
+      </c>
+      <c r="H56" s="3">
+        <v>55</v>
+      </c>
+      <c r="I56" s="6">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="J56" s="3">
         <v>28</v>
       </c>
-      <c r="E56" s="6">
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
-        <v>30</v>
-      </c>
-      <c r="I56" s="6">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3">
-        <v>26</v>
-      </c>
       <c r="K56" s="5">
-        <v>0.662313</v>
+        <v>0.720955</v>
       </c>
       <c r="L56" s="3">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="M56" s="6">
-        <v>0.1238095238095238</v>
+        <v>0.1191489361702128</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2911,40 +2911,40 @@
         <v>57</v>
       </c>
       <c r="B57" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" s="5">
-        <v>0.212335</v>
+        <v>0.252706</v>
       </c>
       <c r="D57" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E57" s="6">
-        <v>0.3571428571428572</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="F57" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G57" s="5">
-        <v>0.212335</v>
+        <v>0.465041</v>
       </c>
       <c r="H57" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I57" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="J57" s="3">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K57" s="5">
-        <v>1.72029</v>
+        <v>1.972996</v>
       </c>
       <c r="L57" s="3">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="M57" s="6">
-        <v>0.4833333333333333</v>
+        <v>0.4814814814814815</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2952,40 +2952,40 @@
         <v>11</v>
       </c>
       <c r="B58" s="3">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C58" s="5">
-        <v>5.371614000000001</v>
+        <v>5.985795</v>
       </c>
       <c r="D58" s="3">
-        <v>1802</v>
+        <v>1917</v>
       </c>
       <c r="E58" s="6">
-        <v>0.1370699223085461</v>
+        <v>0.1377151799687011</v>
       </c>
       <c r="F58" s="3">
-        <v>266</v>
+        <v>530</v>
       </c>
       <c r="G58" s="5">
-        <v>5.838017000000001</v>
+        <v>11.823812</v>
       </c>
       <c r="H58" s="3">
-        <v>1948</v>
+        <v>3841</v>
       </c>
       <c r="I58" s="6">
-        <v>0.1365503080082136</v>
+        <v>0.137984899765686</v>
       </c>
       <c r="J58" s="3">
-        <v>2548</v>
+        <v>2812</v>
       </c>
       <c r="K58" s="5">
-        <v>56.281066</v>
+        <v>62.26686100000001</v>
       </c>
       <c r="L58" s="3">
-        <v>14906</v>
+        <v>16745</v>
       </c>
       <c r="M58" s="6">
-        <v>0.1709378773648195</v>
+        <v>0.1679307255897283</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E309"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3443,7 +3443,7 @@
         <v>116</v>
       </c>
       <c r="C30" s="5">
-        <v>2.634664000000001</v>
+        <v>2.634664</v>
       </c>
       <c r="D30" s="3">
         <v>604</v>
@@ -3528,7 +3528,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="5">
-        <v>0.491106</v>
+        <v>0.4911059999999999</v>
       </c>
       <c r="D35" s="3">
         <v>60</v>
@@ -4355,7 +4355,7 @@
         <v>19</v>
       </c>
       <c r="C91" s="5">
-        <v>0.513607</v>
+        <v>0.5136069999999999</v>
       </c>
       <c r="D91" s="3">
         <v>194</v>
@@ -4636,7 +4636,7 @@
         <v>261</v>
       </c>
       <c r="C109" s="5">
-        <v>5.823128</v>
+        <v>5.823127999999999</v>
       </c>
       <c r="D109" s="3">
         <v>1950</v>
@@ -4648,7 +4648,7 @@
     <row r="111" spans="1:5">
       <c r="A111" s="3"/>
       <c r="B111" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -4827,7 +4827,7 @@
     <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="4" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -4855,123 +4855,158 @@
         <v>3</v>
       </c>
       <c r="B125" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C125" s="5">
-        <v>0</v>
+        <v>0.7412270000000002</v>
       </c>
       <c r="D125" s="3">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="E125" s="6">
-        <v>0</v>
+        <v>0.09947643979057591</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B126" s="3">
+        <v>97</v>
+      </c>
+      <c r="C126" s="5">
+        <v>2.268728</v>
+      </c>
+      <c r="D126" s="3">
+        <v>581</v>
+      </c>
+      <c r="E126" s="6">
+        <v>0.1669535283993115</v>
+      </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="3"/>
-      <c r="B127" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
+      <c r="A127" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="3">
+        <v>30</v>
+      </c>
+      <c r="C127" s="5">
+        <v>0.675235</v>
+      </c>
+      <c r="D127" s="3">
+        <v>343</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0.08746355685131195</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="B128" s="3">
+        <v>47</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1.1103</v>
+      </c>
+      <c r="D128" s="3">
+        <v>204</v>
+      </c>
+      <c r="E128" s="6">
+        <v>0.2303921568627451</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B129" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C129" s="5">
-        <v>0</v>
+        <v>0.124378</v>
       </c>
       <c r="D129" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E129" s="6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B130" s="3">
+        <v>34</v>
+      </c>
+      <c r="C130" s="5">
+        <v>0.6962770000000001</v>
+      </c>
+      <c r="D130" s="3">
+        <v>268</v>
+      </c>
+      <c r="E130" s="6">
+        <v>0.1268656716417911</v>
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="3"/>
-      <c r="B131" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
+      <c r="A131" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="3">
+        <v>9</v>
+      </c>
+      <c r="C131" s="5">
+        <v>0.311348</v>
+      </c>
+      <c r="D131" s="3">
+        <v>41</v>
+      </c>
+      <c r="E131" s="6">
+        <v>0.2195121951219512</v>
+      </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B132" s="3">
+        <v>1</v>
+      </c>
+      <c r="C132" s="5">
+        <v>0.019434</v>
+      </c>
+      <c r="D132" s="3">
+        <v>38</v>
+      </c>
+      <c r="E132" s="6">
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B133" s="3">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="C133" s="5">
-        <v>0</v>
+        <v>5.946927000000001</v>
       </c>
       <c r="D133" s="3">
-        <v>0</v>
+        <v>1917</v>
       </c>
       <c r="E133" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="4" t="s">
-        <v>4</v>
+        <v>0.1366718831507564</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -5019,7 +5054,7 @@
     <row r="139" spans="1:5">
       <c r="A139" s="3"/>
       <c r="B139" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -5067,7 +5102,7 @@
     <row r="143" spans="1:5">
       <c r="A143" s="3"/>
       <c r="B143" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -5115,7 +5150,7 @@
     <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -5163,7 +5198,7 @@
     <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -5211,7 +5246,7 @@
     <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -5259,7 +5294,7 @@
     <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -5307,7 +5342,7 @@
     <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -5355,7 +5390,7 @@
     <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -5403,7 +5438,7 @@
     <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -5451,7 +5486,7 @@
     <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -5499,7 +5534,7 @@
     <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -5547,7 +5582,7 @@
     <row r="183" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -5595,7 +5630,7 @@
     <row r="187" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -5643,7 +5678,7 @@
     <row r="191" spans="1:5">
       <c r="A191" s="3"/>
       <c r="B191" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -5691,7 +5726,7 @@
     <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -5739,7 +5774,7 @@
     <row r="199" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -5787,7 +5822,7 @@
     <row r="203" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -5835,7 +5870,7 @@
     <row r="207" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -5883,7 +5918,7 @@
     <row r="211" spans="1:5">
       <c r="A211" s="3"/>
       <c r="B211" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -5931,7 +5966,7 @@
     <row r="215" spans="1:5">
       <c r="A215" s="3"/>
       <c r="B215" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -5979,7 +6014,7 @@
     <row r="219" spans="1:5">
       <c r="A219" s="3"/>
       <c r="B219" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -6027,7 +6062,7 @@
     <row r="223" spans="1:5">
       <c r="A223" s="3"/>
       <c r="B223" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -6075,7 +6110,7 @@
     <row r="227" spans="1:5">
       <c r="A227" s="3"/>
       <c r="B227" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -6123,7 +6158,7 @@
     <row r="231" spans="1:5">
       <c r="A231" s="3"/>
       <c r="B231" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -6171,7 +6206,7 @@
     <row r="235" spans="1:5">
       <c r="A235" s="3"/>
       <c r="B235" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -6219,7 +6254,7 @@
     <row r="239" spans="1:5">
       <c r="A239" s="3"/>
       <c r="B239" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -6267,7 +6302,7 @@
     <row r="243" spans="1:5">
       <c r="A243" s="3"/>
       <c r="B243" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -6315,7 +6350,7 @@
     <row r="247" spans="1:5">
       <c r="A247" s="3"/>
       <c r="B247" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -6363,7 +6398,7 @@
     <row r="251" spans="1:5">
       <c r="A251" s="3"/>
       <c r="B251" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -6411,7 +6446,7 @@
     <row r="255" spans="1:5">
       <c r="A255" s="3"/>
       <c r="B255" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -6459,7 +6494,7 @@
     <row r="259" spans="1:5">
       <c r="A259" s="3"/>
       <c r="B259" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -6507,7 +6542,7 @@
     <row r="263" spans="1:5">
       <c r="A263" s="3"/>
       <c r="B263" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -6555,7 +6590,7 @@
     <row r="267" spans="1:5">
       <c r="A267" s="3"/>
       <c r="B267" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -6603,7 +6638,7 @@
     <row r="271" spans="1:5">
       <c r="A271" s="3"/>
       <c r="B271" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -6651,7 +6686,7 @@
     <row r="275" spans="1:5">
       <c r="A275" s="3"/>
       <c r="B275" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -6699,7 +6734,7 @@
     <row r="279" spans="1:5">
       <c r="A279" s="3"/>
       <c r="B279" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -6747,7 +6782,7 @@
     <row r="283" spans="1:5">
       <c r="A283" s="3"/>
       <c r="B283" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -6795,7 +6830,7 @@
     <row r="287" spans="1:5">
       <c r="A287" s="3"/>
       <c r="B287" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -6843,7 +6878,7 @@
     <row r="291" spans="1:5">
       <c r="A291" s="3"/>
       <c r="B291" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -6889,37 +6924,133 @@
       </c>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A295" s="3"/>
+      <c r="B295" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+      <c r="E295" s="4"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B297" s="3">
+        <v>0</v>
+      </c>
+      <c r="C297" s="5">
+        <v>0</v>
+      </c>
+      <c r="D297" s="3">
+        <v>0</v>
+      </c>
+      <c r="E297" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:5">
-      <c r="A299" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A299" s="3"/>
+      <c r="B299" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B301" s="3">
+        <v>0</v>
+      </c>
+      <c r="C301" s="5">
+        <v>0</v>
+      </c>
+      <c r="D301" s="3">
+        <v>0</v>
+      </c>
+      <c r="E301" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6938,8 +7069,6 @@
     <mergeCell ref="B99:E99"/>
     <mergeCell ref="B111:E111"/>
     <mergeCell ref="B123:E123"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B131:E131"/>
     <mergeCell ref="B135:E135"/>
     <mergeCell ref="B139:E139"/>
     <mergeCell ref="B143:E143"/>
@@ -6980,6 +7109,8 @@
     <mergeCell ref="B283:E283"/>
     <mergeCell ref="B287:E287"/>
     <mergeCell ref="B291:E291"/>
+    <mergeCell ref="B295:E295"/>
+    <mergeCell ref="B299:E299"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7065,7 +7196,7 @@
         <v>433</v>
       </c>
       <c r="C6" s="5">
-        <v>9.938784999999976</v>
+        <v>9.938784999999974</v>
       </c>
       <c r="D6" s="3">
         <v>2108</v>
@@ -7082,7 +7213,7 @@
         <v>205</v>
       </c>
       <c r="C7" s="5">
-        <v>4.648585999999994</v>
+        <v>4.648585999999993</v>
       </c>
       <c r="D7" s="3">
         <v>1585</v>
@@ -7184,7 +7315,7 @@
         <v>1537</v>
       </c>
       <c r="C13" s="5">
-        <v>33.94403699999995</v>
+        <v>33.94403699999994</v>
       </c>
       <c r="D13" s="3">
         <v>8545</v>
@@ -7244,7 +7375,7 @@
         <v>256</v>
       </c>
       <c r="C18" s="5">
-        <v>5.900885999999999</v>
+        <v>5.900885999999998</v>
       </c>
       <c r="D18" s="3">
         <v>1347</v>
@@ -7403,16 +7534,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="3">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="C29" s="5">
-        <v>0.8749610000000002</v>
+        <v>1.616188</v>
       </c>
       <c r="D29" s="3">
-        <v>518</v>
+        <v>897</v>
       </c>
       <c r="E29" s="6">
-        <v>0.08880308880308881</v>
+        <v>0.09364548494983277</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7420,16 +7551,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="3">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="C30" s="5">
-        <v>1.664839999999999</v>
+        <v>3.933567999999996</v>
       </c>
       <c r="D30" s="3">
-        <v>401</v>
+        <v>976</v>
       </c>
       <c r="E30" s="6">
-        <v>0.1745635910224439</v>
+        <v>0.1711065573770492</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7437,16 +7568,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C31" s="5">
-        <v>0.5855739999999999</v>
+        <v>1.260809</v>
       </c>
       <c r="D31" s="3">
-        <v>363</v>
+        <v>701</v>
       </c>
       <c r="E31" s="6">
-        <v>0.08264462809917356</v>
+        <v>0.08559201141226819</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7454,16 +7585,16 @@
         <v>6</v>
       </c>
       <c r="B32" s="3">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C32" s="5">
-        <v>1.485773</v>
+        <v>2.596073000000001</v>
       </c>
       <c r="D32" s="3">
-        <v>231</v>
+        <v>433</v>
       </c>
       <c r="E32" s="6">
-        <v>0.2813852813852814</v>
+        <v>0.2586605080831409</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7471,16 +7602,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C33" s="5">
-        <v>0.122407</v>
+        <v>0.246785</v>
       </c>
       <c r="D33" s="3">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="E33" s="6">
-        <v>0.0759493670886076</v>
+        <v>0.08759124087591241</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7488,16 +7619,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="3">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="C34" s="5">
-        <v>0.8338250000000004</v>
+        <v>1.530102000000001</v>
       </c>
       <c r="D34" s="3">
-        <v>271</v>
+        <v>534</v>
       </c>
       <c r="E34" s="6">
-        <v>0.1512915129151292</v>
+        <v>0.1404494382022472</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7505,16 +7636,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C35" s="5">
-        <v>0.212335</v>
+        <v>0.5236830000000001</v>
       </c>
       <c r="D35" s="3">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E35" s="6">
-        <v>0.1111111111111111</v>
+        <v>0.1647058823529412</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7522,16 +7653,16 @@
         <v>10</v>
       </c>
       <c r="B36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="5">
-        <v>0</v>
+        <v>0.019434</v>
       </c>
       <c r="D36" s="3">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E36" s="6">
-        <v>0</v>
+        <v>0.01265822784810127</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7539,16 +7670,16 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>263</v>
+        <v>525</v>
       </c>
       <c r="C37" s="5">
-        <v>5.779715</v>
+        <v>11.726642</v>
       </c>
       <c r="D37" s="3">
-        <v>1949</v>
+        <v>3842</v>
       </c>
       <c r="E37" s="6">
-        <v>0.1349409953822473</v>
+        <v>0.1366475793857366</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8041,7 +8172,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E640"/>
+  <dimension ref="A1:E679"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12433,7 +12564,7 @@
         <v>4</v>
       </c>
       <c r="C268" s="5">
-        <v>0.043642</v>
+        <v>0.04364199999999999</v>
       </c>
       <c r="D268" s="3">
         <v>39</v>
@@ -14401,7 +14532,7 @@
     <row r="388" spans="1:5">
       <c r="A388" s="3"/>
       <c r="B388" s="4" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
@@ -15107,7 +15238,7 @@
     <row r="431" spans="1:5">
       <c r="A431" s="3"/>
       <c r="B431" s="4" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
@@ -15135,2226 +15266,2884 @@
         <v>20</v>
       </c>
       <c r="B433" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C433" s="5">
-        <v>0</v>
+        <v>0.046642</v>
       </c>
       <c r="D433" s="3">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E433" s="6">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B434" s="3">
+        <v>2</v>
+      </c>
+      <c r="C434" s="5">
+        <v>0.038868</v>
+      </c>
+      <c r="D434" s="3">
+        <v>79</v>
+      </c>
+      <c r="E434" s="6">
+        <v>0.02531645569620253</v>
+      </c>
     </row>
     <row r="435" spans="1:5">
-      <c r="A435" s="3"/>
-      <c r="B435" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C435" s="4"/>
-      <c r="D435" s="4"/>
-      <c r="E435" s="4"/>
+      <c r="A435" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B435" s="3">
+        <v>1</v>
+      </c>
+      <c r="C435" s="5">
+        <v>0.019434</v>
+      </c>
+      <c r="D435" s="3">
+        <v>5</v>
+      </c>
+      <c r="E435" s="6">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B436" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C436" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D436" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E436" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="B436" s="3">
+        <v>1</v>
+      </c>
+      <c r="C436" s="5">
+        <v>0.019434</v>
+      </c>
+      <c r="D436" s="3">
+        <v>38</v>
+      </c>
+      <c r="E436" s="6">
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B437" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C437" s="5">
-        <v>0</v>
+        <v>0.147453</v>
       </c>
       <c r="D437" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E437" s="6">
-        <v>0</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B438" s="3">
+        <v>17</v>
+      </c>
+      <c r="C438" s="5">
+        <v>0.358691</v>
+      </c>
+      <c r="D438" s="3">
+        <v>85</v>
+      </c>
+      <c r="E438" s="6">
+        <v>0.2</v>
       </c>
     </row>
     <row r="439" spans="1:5">
-      <c r="A439" s="3"/>
-      <c r="B439" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C439" s="4"/>
-      <c r="D439" s="4"/>
-      <c r="E439" s="4"/>
+      <c r="A439" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B439" s="3">
+        <v>4</v>
+      </c>
+      <c r="C439" s="5">
+        <v>0.033924</v>
+      </c>
+      <c r="D439" s="3">
+        <v>14</v>
+      </c>
+      <c r="E439" s="6">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B440" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C440" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D440" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E440" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B440" s="3">
+        <v>6</v>
+      </c>
+      <c r="C440" s="5">
+        <v>0.07678099999999999</v>
+      </c>
+      <c r="D440" s="3">
+        <v>46</v>
+      </c>
+      <c r="E440" s="6">
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B441" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C441" s="5">
-        <v>0</v>
+        <v>0.161275</v>
       </c>
       <c r="D441" s="3">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="E441" s="6">
-        <v>0</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B442" s="3">
+        <v>9</v>
+      </c>
+      <c r="C442" s="5">
+        <v>0.244285</v>
+      </c>
+      <c r="D442" s="3">
+        <v>112</v>
+      </c>
+      <c r="E442" s="6">
+        <v>0.08035714285714286</v>
       </c>
     </row>
     <row r="443" spans="1:5">
-      <c r="A443" s="3"/>
-      <c r="B443" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
-      <c r="E443" s="4"/>
+      <c r="A443" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B443" s="3">
+        <v>29</v>
+      </c>
+      <c r="C443" s="5">
+        <v>0.681274</v>
+      </c>
+      <c r="D443" s="3">
+        <v>93</v>
+      </c>
+      <c r="E443" s="6">
+        <v>0.3118279569892473</v>
+      </c>
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B444" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C444" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D444" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E444" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="B444" s="3">
+        <v>22</v>
+      </c>
+      <c r="C444" s="5">
+        <v>0.588821</v>
+      </c>
+      <c r="D444" s="3">
+        <v>84</v>
+      </c>
+      <c r="E444" s="6">
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="445" spans="1:5">
       <c r="A445" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B445" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C445" s="5">
-        <v>0</v>
+        <v>0.07330199999999999</v>
       </c>
       <c r="D445" s="3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E445" s="6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="B446" s="3">
+        <v>16</v>
+      </c>
+      <c r="C446" s="5">
+        <v>0.209025</v>
+      </c>
+      <c r="D446" s="3">
+        <v>106</v>
+      </c>
+      <c r="E446" s="6">
+        <v>0.1509433962264151</v>
       </c>
     </row>
     <row r="447" spans="1:5">
-      <c r="A447" s="3"/>
-      <c r="B447" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
-      <c r="E447" s="4"/>
+      <c r="A447" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B447" s="3">
+        <v>10</v>
+      </c>
+      <c r="C447" s="5">
+        <v>0.310746</v>
+      </c>
+      <c r="D447" s="3">
+        <v>43</v>
+      </c>
+      <c r="E447" s="6">
+        <v>0.2325581395348837</v>
+      </c>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B448" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C448" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D448" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B448" s="3">
+        <v>0</v>
+      </c>
+      <c r="C448" s="5">
+        <v>0</v>
+      </c>
+      <c r="D448" s="3">
         <v>15</v>
       </c>
-      <c r="E448" s="4" t="s">
-        <v>16</v>
+      <c r="E448" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B449" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C449" s="5">
-        <v>0</v>
+        <v>0.104944</v>
       </c>
       <c r="D449" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E449" s="6">
-        <v>0</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="B450" s="3">
+        <v>1</v>
+      </c>
+      <c r="C450" s="5">
+        <v>0.019434</v>
+      </c>
+      <c r="D450" s="3">
+        <v>22</v>
+      </c>
+      <c r="E450" s="6">
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="451" spans="1:5">
-      <c r="A451" s="3"/>
-      <c r="B451" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C451" s="4"/>
-      <c r="D451" s="4"/>
-      <c r="E451" s="4"/>
+      <c r="A451" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B451" s="3">
+        <v>1</v>
+      </c>
+      <c r="C451" s="5">
+        <v>0.019434</v>
+      </c>
+      <c r="D451" s="3">
+        <v>38</v>
+      </c>
+      <c r="E451" s="6">
+        <v>0.02631578947368421</v>
+      </c>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B452" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C452" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D452" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E452" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="B452" s="3">
+        <v>2</v>
+      </c>
+      <c r="C452" s="5">
+        <v>0.038868</v>
+      </c>
+      <c r="D452" s="3">
+        <v>35</v>
+      </c>
+      <c r="E452" s="6">
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B453" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C453" s="5">
-        <v>0</v>
+        <v>0.038868</v>
       </c>
       <c r="D453" s="3">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E453" s="6">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="B454" s="3">
+        <v>2</v>
+      </c>
+      <c r="C454" s="5">
+        <v>0.06841599999999999</v>
+      </c>
+      <c r="D454" s="3">
+        <v>71</v>
+      </c>
+      <c r="E454" s="6">
+        <v>0.02816901408450704</v>
       </c>
     </row>
     <row r="455" spans="1:5">
-      <c r="A455" s="3"/>
-      <c r="B455" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
-      <c r="E455" s="4"/>
+      <c r="A455" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B455" s="3">
+        <v>3</v>
+      </c>
+      <c r="C455" s="5">
+        <v>0.07330199999999999</v>
+      </c>
+      <c r="D455" s="3">
+        <v>13</v>
+      </c>
+      <c r="E455" s="6">
+        <v>0.2307692307692308</v>
+      </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B456" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C456" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D456" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E456" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="B456" s="3">
+        <v>17</v>
+      </c>
+      <c r="C456" s="5">
+        <v>0.3029879999999999</v>
+      </c>
+      <c r="D456" s="3">
+        <v>28</v>
+      </c>
+      <c r="E456" s="6">
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B457" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C457" s="5">
-        <v>0</v>
+        <v>0.07330199999999999</v>
       </c>
       <c r="D457" s="3">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="E457" s="6">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="B458" s="3">
+        <v>1</v>
+      </c>
+      <c r="C458" s="5">
+        <v>0.049943</v>
+      </c>
+      <c r="D458" s="3">
+        <v>19</v>
+      </c>
+      <c r="E458" s="6">
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="459" spans="1:5">
-      <c r="A459" s="3"/>
-      <c r="B459" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
-      <c r="E459" s="4"/>
+      <c r="A459" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B459" s="3">
+        <v>2</v>
+      </c>
+      <c r="C459" s="5">
+        <v>0.06841599999999999</v>
+      </c>
+      <c r="D459" s="3">
+        <v>40</v>
+      </c>
+      <c r="E459" s="6">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B460" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C460" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D460" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E460" s="4" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="B460" s="3">
+        <v>9</v>
+      </c>
+      <c r="C460" s="5">
+        <v>0.171557</v>
+      </c>
+      <c r="D460" s="3">
+        <v>52</v>
+      </c>
+      <c r="E460" s="6">
+        <v>0.1730769230769231</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B461" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C461" s="5">
-        <v>0</v>
+        <v>0.198228</v>
       </c>
       <c r="D461" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E461" s="6">
-        <v>0</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="B462" s="3">
+        <v>16</v>
+      </c>
+      <c r="C462" s="5">
+        <v>0.326492</v>
+      </c>
+      <c r="D462" s="3">
+        <v>132</v>
+      </c>
+      <c r="E462" s="6">
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="463" spans="1:5">
-      <c r="A463" s="3"/>
-      <c r="B463" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
-      <c r="E463" s="4"/>
+      <c r="A463" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B463" s="3">
+        <v>15</v>
+      </c>
+      <c r="C463" s="5">
+        <v>0.319799</v>
+      </c>
+      <c r="D463" s="3">
+        <v>49</v>
+      </c>
+      <c r="E463" s="6">
+        <v>0.3061224489795918</v>
+      </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B464" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C464" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D464" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E464" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="B464" s="3">
+        <v>7</v>
+      </c>
+      <c r="C464" s="5">
+        <v>0.177735</v>
+      </c>
+      <c r="D464" s="3">
+        <v>29</v>
+      </c>
+      <c r="E464" s="6">
+        <v>0.2413793103448276</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B465" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C465" s="5">
-        <v>0</v>
+        <v>0.046642</v>
       </c>
       <c r="D465" s="3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E465" s="6">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="4" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="B466" s="3">
+        <v>3</v>
+      </c>
+      <c r="C466" s="5">
+        <v>0.07492799999999999</v>
+      </c>
+      <c r="D466" s="3">
+        <v>16</v>
+      </c>
+      <c r="E466" s="6">
+        <v>0.1875</v>
       </c>
     </row>
     <row r="467" spans="1:5">
-      <c r="A467" s="3"/>
-      <c r="B467" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C467" s="4"/>
-      <c r="D467" s="4"/>
-      <c r="E467" s="4"/>
+      <c r="A467" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B467" s="3">
+        <v>9</v>
+      </c>
+      <c r="C467" s="5">
+        <v>0.225787</v>
+      </c>
+      <c r="D467" s="3">
+        <v>28</v>
+      </c>
+      <c r="E467" s="6">
+        <v>0.3214285714285715</v>
+      </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B468" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C468" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D468" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E468" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="B468" s="3">
+        <v>8</v>
+      </c>
+      <c r="C468" s="5">
+        <v>0.207107</v>
+      </c>
+      <c r="D468" s="3">
+        <v>31</v>
+      </c>
+      <c r="E468" s="6">
+        <v>0.2580645161290323</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B469" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C469" s="5">
-        <v>0</v>
+        <v>0.058302</v>
       </c>
       <c r="D469" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E469" s="6">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="B470" s="3">
+        <v>2</v>
+      </c>
+      <c r="C470" s="5">
+        <v>0.05864199999999999</v>
+      </c>
+      <c r="D470" s="3">
+        <v>26</v>
+      </c>
+      <c r="E470" s="6">
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="471" spans="1:5">
-      <c r="A471" s="3"/>
-      <c r="B471" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C471" s="4"/>
-      <c r="D471" s="4"/>
-      <c r="E471" s="4"/>
+      <c r="A471" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B471" s="3">
+        <v>7</v>
+      </c>
+      <c r="C471" s="5">
+        <v>0.252706</v>
+      </c>
+      <c r="D471" s="3">
+        <v>15</v>
+      </c>
+      <c r="E471" s="6">
+        <v>0.4666666666666667</v>
+      </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B472" s="3">
+        <v>264</v>
+      </c>
+      <c r="C472" s="5">
+        <v>5.985795</v>
+      </c>
+      <c r="D472" s="3">
+        <v>1917</v>
+      </c>
+      <c r="E472" s="6">
+        <v>0.1377151799687011</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="3"/>
+      <c r="B474" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C474" s="4"/>
+      <c r="D474" s="4"/>
+      <c r="E474" s="4"/>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B472" s="4" t="s">
+      <c r="B475" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C472" s="4" t="s">
+      <c r="C475" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D472" s="4" t="s">
+      <c r="D475" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E472" s="4" t="s">
+      <c r="E475" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="473" spans="1:5">
-      <c r="A473" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B473" s="3">
-        <v>0</v>
-      </c>
-      <c r="C473" s="5">
-        <v>0</v>
-      </c>
-      <c r="D473" s="3">
-        <v>0</v>
-      </c>
-      <c r="E473" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
-      <c r="A474" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
-      <c r="A475" s="3"/>
-      <c r="B475" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C475" s="4"/>
-      <c r="D475" s="4"/>
-      <c r="E475" s="4"/>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B476" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D476" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E476" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B476" s="3">
+        <v>0</v>
+      </c>
+      <c r="C476" s="5">
+        <v>0</v>
+      </c>
+      <c r="D476" s="3">
+        <v>0</v>
+      </c>
+      <c r="E476" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B477" s="3">
-        <v>0</v>
-      </c>
-      <c r="C477" s="5">
-        <v>0</v>
-      </c>
-      <c r="D477" s="3">
-        <v>0</v>
-      </c>
-      <c r="E477" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="478" spans="1:5">
-      <c r="A478" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A478" s="3"/>
+      <c r="B478" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C478" s="4"/>
+      <c r="D478" s="4"/>
+      <c r="E478" s="4"/>
     </row>
     <row r="479" spans="1:5">
-      <c r="A479" s="3"/>
+      <c r="A479" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B479" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C479" s="4"/>
-      <c r="D479" s="4"/>
-      <c r="E479" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C479" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D479" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E479" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B480" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C480" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D480" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E480" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B480" s="3">
+        <v>0</v>
+      </c>
+      <c r="C480" s="5">
+        <v>0</v>
+      </c>
+      <c r="D480" s="3">
+        <v>0</v>
+      </c>
+      <c r="E480" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B481" s="3">
-        <v>0</v>
-      </c>
-      <c r="C481" s="5">
-        <v>0</v>
-      </c>
-      <c r="D481" s="3">
-        <v>0</v>
-      </c>
-      <c r="E481" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="482" spans="1:5">
-      <c r="A482" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A482" s="3"/>
+      <c r="B482" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C482" s="4"/>
+      <c r="D482" s="4"/>
+      <c r="E482" s="4"/>
     </row>
     <row r="483" spans="1:5">
-      <c r="A483" s="3"/>
+      <c r="A483" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B483" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C483" s="4"/>
-      <c r="D483" s="4"/>
-      <c r="E483" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C483" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D483" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E483" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B484" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C484" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D484" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E484" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B484" s="3">
+        <v>0</v>
+      </c>
+      <c r="C484" s="5">
+        <v>0</v>
+      </c>
+      <c r="D484" s="3">
+        <v>0</v>
+      </c>
+      <c r="E484" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B485" s="3">
-        <v>0</v>
-      </c>
-      <c r="C485" s="5">
-        <v>0</v>
-      </c>
-      <c r="D485" s="3">
-        <v>0</v>
-      </c>
-      <c r="E485" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="486" spans="1:5">
-      <c r="A486" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A486" s="3"/>
+      <c r="B486" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C486" s="4"/>
+      <c r="D486" s="4"/>
+      <c r="E486" s="4"/>
     </row>
     <row r="487" spans="1:5">
-      <c r="A487" s="3"/>
+      <c r="A487" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B487" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C487" s="4"/>
-      <c r="D487" s="4"/>
-      <c r="E487" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C487" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D487" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E487" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B488" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C488" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D488" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E488" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B488" s="3">
+        <v>0</v>
+      </c>
+      <c r="C488" s="5">
+        <v>0</v>
+      </c>
+      <c r="D488" s="3">
+        <v>0</v>
+      </c>
+      <c r="E488" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B489" s="3">
-        <v>0</v>
-      </c>
-      <c r="C489" s="5">
-        <v>0</v>
-      </c>
-      <c r="D489" s="3">
-        <v>0</v>
-      </c>
-      <c r="E489" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="490" spans="1:5">
-      <c r="A490" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A490" s="3"/>
+      <c r="B490" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C490" s="4"/>
+      <c r="D490" s="4"/>
+      <c r="E490" s="4"/>
     </row>
     <row r="491" spans="1:5">
-      <c r="A491" s="3"/>
+      <c r="A491" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B491" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C491" s="4"/>
-      <c r="D491" s="4"/>
-      <c r="E491" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D491" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E491" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B492" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D492" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E492" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B492" s="3">
+        <v>0</v>
+      </c>
+      <c r="C492" s="5">
+        <v>0</v>
+      </c>
+      <c r="D492" s="3">
+        <v>0</v>
+      </c>
+      <c r="E492" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B493" s="3">
-        <v>0</v>
-      </c>
-      <c r="C493" s="5">
-        <v>0</v>
-      </c>
-      <c r="D493" s="3">
-        <v>0</v>
-      </c>
-      <c r="E493" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="494" spans="1:5">
-      <c r="A494" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A494" s="3"/>
+      <c r="B494" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C494" s="4"/>
+      <c r="D494" s="4"/>
+      <c r="E494" s="4"/>
     </row>
     <row r="495" spans="1:5">
-      <c r="A495" s="3"/>
+      <c r="A495" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B495" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C495" s="4"/>
-      <c r="D495" s="4"/>
-      <c r="E495" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D495" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E495" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B496" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C496" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D496" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E496" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B496" s="3">
+        <v>0</v>
+      </c>
+      <c r="C496" s="5">
+        <v>0</v>
+      </c>
+      <c r="D496" s="3">
+        <v>0</v>
+      </c>
+      <c r="E496" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B497" s="3">
-        <v>0</v>
-      </c>
-      <c r="C497" s="5">
-        <v>0</v>
-      </c>
-      <c r="D497" s="3">
-        <v>0</v>
-      </c>
-      <c r="E497" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A498" s="3"/>
+      <c r="B498" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C498" s="4"/>
+      <c r="D498" s="4"/>
+      <c r="E498" s="4"/>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="3"/>
+      <c r="A499" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B499" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C499" s="4"/>
-      <c r="D499" s="4"/>
-      <c r="E499" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D499" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E499" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B500" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C500" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D500" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E500" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B500" s="3">
+        <v>0</v>
+      </c>
+      <c r="C500" s="5">
+        <v>0</v>
+      </c>
+      <c r="D500" s="3">
+        <v>0</v>
+      </c>
+      <c r="E500" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B501" s="3">
-        <v>0</v>
-      </c>
-      <c r="C501" s="5">
-        <v>0</v>
-      </c>
-      <c r="D501" s="3">
-        <v>0</v>
-      </c>
-      <c r="E501" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="502" spans="1:5">
-      <c r="A502" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A502" s="3"/>
+      <c r="B502" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C502" s="4"/>
+      <c r="D502" s="4"/>
+      <c r="E502" s="4"/>
     </row>
     <row r="503" spans="1:5">
-      <c r="A503" s="3"/>
+      <c r="A503" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B503" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C503" s="4"/>
-      <c r="D503" s="4"/>
-      <c r="E503" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D503" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E503" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B504" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C504" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D504" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E504" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B504" s="3">
+        <v>0</v>
+      </c>
+      <c r="C504" s="5">
+        <v>0</v>
+      </c>
+      <c r="D504" s="3">
+        <v>0</v>
+      </c>
+      <c r="E504" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B505" s="3">
-        <v>0</v>
-      </c>
-      <c r="C505" s="5">
-        <v>0</v>
-      </c>
-      <c r="D505" s="3">
-        <v>0</v>
-      </c>
-      <c r="E505" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="506" spans="1:5">
-      <c r="A506" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A506" s="3"/>
+      <c r="B506" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C506" s="4"/>
+      <c r="D506" s="4"/>
+      <c r="E506" s="4"/>
     </row>
     <row r="507" spans="1:5">
-      <c r="A507" s="3"/>
+      <c r="A507" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B507" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C507" s="4"/>
-      <c r="D507" s="4"/>
-      <c r="E507" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D507" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E507" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B508" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C508" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D508" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E508" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B508" s="3">
+        <v>0</v>
+      </c>
+      <c r="C508" s="5">
+        <v>0</v>
+      </c>
+      <c r="D508" s="3">
+        <v>0</v>
+      </c>
+      <c r="E508" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:5">
       <c r="A509" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B509" s="3">
-        <v>0</v>
-      </c>
-      <c r="C509" s="5">
-        <v>0</v>
-      </c>
-      <c r="D509" s="3">
-        <v>0</v>
-      </c>
-      <c r="E509" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="510" spans="1:5">
-      <c r="A510" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A510" s="3"/>
+      <c r="B510" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C510" s="4"/>
+      <c r="D510" s="4"/>
+      <c r="E510" s="4"/>
     </row>
     <row r="511" spans="1:5">
-      <c r="A511" s="3"/>
+      <c r="A511" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B511" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C511" s="4"/>
-      <c r="D511" s="4"/>
-      <c r="E511" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D511" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E511" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B512" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C512" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D512" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E512" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B512" s="3">
+        <v>0</v>
+      </c>
+      <c r="C512" s="5">
+        <v>0</v>
+      </c>
+      <c r="D512" s="3">
+        <v>0</v>
+      </c>
+      <c r="E512" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B513" s="3">
-        <v>0</v>
-      </c>
-      <c r="C513" s="5">
-        <v>0</v>
-      </c>
-      <c r="D513" s="3">
-        <v>0</v>
-      </c>
-      <c r="E513" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="514" spans="1:5">
-      <c r="A514" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A514" s="3"/>
+      <c r="B514" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C514" s="4"/>
+      <c r="D514" s="4"/>
+      <c r="E514" s="4"/>
     </row>
     <row r="515" spans="1:5">
-      <c r="A515" s="3"/>
+      <c r="A515" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B515" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C515" s="4"/>
-      <c r="D515" s="4"/>
-      <c r="E515" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D515" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E515" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="516" spans="1:5">
       <c r="A516" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B516" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C516" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D516" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E516" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B516" s="3">
+        <v>0</v>
+      </c>
+      <c r="C516" s="5">
+        <v>0</v>
+      </c>
+      <c r="D516" s="3">
+        <v>0</v>
+      </c>
+      <c r="E516" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B517" s="3">
-        <v>0</v>
-      </c>
-      <c r="C517" s="5">
-        <v>0</v>
-      </c>
-      <c r="D517" s="3">
-        <v>0</v>
-      </c>
-      <c r="E517" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="518" spans="1:5">
-      <c r="A518" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A518" s="3"/>
+      <c r="B518" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C518" s="4"/>
+      <c r="D518" s="4"/>
+      <c r="E518" s="4"/>
     </row>
     <row r="519" spans="1:5">
-      <c r="A519" s="3"/>
+      <c r="A519" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B519" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C519" s="4"/>
-      <c r="D519" s="4"/>
-      <c r="E519" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C519" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D519" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E519" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B520" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C520" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D520" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E520" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B520" s="3">
+        <v>0</v>
+      </c>
+      <c r="C520" s="5">
+        <v>0</v>
+      </c>
+      <c r="D520" s="3">
+        <v>0</v>
+      </c>
+      <c r="E520" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B521" s="3">
-        <v>0</v>
-      </c>
-      <c r="C521" s="5">
-        <v>0</v>
-      </c>
-      <c r="D521" s="3">
-        <v>0</v>
-      </c>
-      <c r="E521" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="522" spans="1:5">
-      <c r="A522" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A522" s="3"/>
+      <c r="B522" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C522" s="4"/>
+      <c r="D522" s="4"/>
+      <c r="E522" s="4"/>
     </row>
     <row r="523" spans="1:5">
-      <c r="A523" s="3"/>
+      <c r="A523" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B523" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C523" s="4"/>
-      <c r="D523" s="4"/>
-      <c r="E523" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C523" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D523" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E523" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B524" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C524" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D524" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E524" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B524" s="3">
+        <v>0</v>
+      </c>
+      <c r="C524" s="5">
+        <v>0</v>
+      </c>
+      <c r="D524" s="3">
+        <v>0</v>
+      </c>
+      <c r="E524" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B525" s="3">
-        <v>0</v>
-      </c>
-      <c r="C525" s="5">
-        <v>0</v>
-      </c>
-      <c r="D525" s="3">
-        <v>0</v>
-      </c>
-      <c r="E525" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="526" spans="1:5">
-      <c r="A526" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A526" s="3"/>
+      <c r="B526" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C526" s="4"/>
+      <c r="D526" s="4"/>
+      <c r="E526" s="4"/>
     </row>
     <row r="527" spans="1:5">
-      <c r="A527" s="3"/>
+      <c r="A527" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B527" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C527" s="4"/>
-      <c r="D527" s="4"/>
-      <c r="E527" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C527" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D527" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E527" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B528" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C528" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D528" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E528" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B528" s="3">
+        <v>0</v>
+      </c>
+      <c r="C528" s="5">
+        <v>0</v>
+      </c>
+      <c r="D528" s="3">
+        <v>0</v>
+      </c>
+      <c r="E528" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B529" s="3">
-        <v>0</v>
-      </c>
-      <c r="C529" s="5">
-        <v>0</v>
-      </c>
-      <c r="D529" s="3">
-        <v>0</v>
-      </c>
-      <c r="E529" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="530" spans="1:5">
-      <c r="A530" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A530" s="3"/>
+      <c r="B530" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C530" s="4"/>
+      <c r="D530" s="4"/>
+      <c r="E530" s="4"/>
     </row>
     <row r="531" spans="1:5">
-      <c r="A531" s="3"/>
+      <c r="A531" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B531" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C531" s="4"/>
-      <c r="D531" s="4"/>
-      <c r="E531" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C531" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D531" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E531" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B532" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C532" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D532" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E532" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B532" s="3">
+        <v>0</v>
+      </c>
+      <c r="C532" s="5">
+        <v>0</v>
+      </c>
+      <c r="D532" s="3">
+        <v>0</v>
+      </c>
+      <c r="E532" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:5">
       <c r="A533" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B533" s="3">
-        <v>0</v>
-      </c>
-      <c r="C533" s="5">
-        <v>0</v>
-      </c>
-      <c r="D533" s="3">
-        <v>0</v>
-      </c>
-      <c r="E533" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="534" spans="1:5">
-      <c r="A534" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A534" s="3"/>
+      <c r="B534" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C534" s="4"/>
+      <c r="D534" s="4"/>
+      <c r="E534" s="4"/>
     </row>
     <row r="535" spans="1:5">
-      <c r="A535" s="3"/>
+      <c r="A535" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B535" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C535" s="4"/>
-      <c r="D535" s="4"/>
-      <c r="E535" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D535" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E535" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B536" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C536" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D536" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E536" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B536" s="3">
+        <v>0</v>
+      </c>
+      <c r="C536" s="5">
+        <v>0</v>
+      </c>
+      <c r="D536" s="3">
+        <v>0</v>
+      </c>
+      <c r="E536" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:5">
       <c r="A537" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B537" s="3">
-        <v>0</v>
-      </c>
-      <c r="C537" s="5">
-        <v>0</v>
-      </c>
-      <c r="D537" s="3">
-        <v>0</v>
-      </c>
-      <c r="E537" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="538" spans="1:5">
-      <c r="A538" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A538" s="3"/>
+      <c r="B538" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C538" s="4"/>
+      <c r="D538" s="4"/>
+      <c r="E538" s="4"/>
     </row>
     <row r="539" spans="1:5">
-      <c r="A539" s="3"/>
+      <c r="A539" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B539" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C539" s="4"/>
-      <c r="D539" s="4"/>
-      <c r="E539" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C539" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D539" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E539" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B540" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C540" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D540" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E540" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B540" s="3">
+        <v>0</v>
+      </c>
+      <c r="C540" s="5">
+        <v>0</v>
+      </c>
+      <c r="D540" s="3">
+        <v>0</v>
+      </c>
+      <c r="E540" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:5">
       <c r="A541" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B541" s="3">
-        <v>0</v>
-      </c>
-      <c r="C541" s="5">
-        <v>0</v>
-      </c>
-      <c r="D541" s="3">
-        <v>0</v>
-      </c>
-      <c r="E541" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="542" spans="1:5">
-      <c r="A542" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A542" s="3"/>
+      <c r="B542" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C542" s="4"/>
+      <c r="D542" s="4"/>
+      <c r="E542" s="4"/>
     </row>
     <row r="543" spans="1:5">
-      <c r="A543" s="3"/>
+      <c r="A543" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B543" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C543" s="4"/>
-      <c r="D543" s="4"/>
-      <c r="E543" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D543" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E543" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B544" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C544" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D544" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E544" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B544" s="3">
+        <v>0</v>
+      </c>
+      <c r="C544" s="5">
+        <v>0</v>
+      </c>
+      <c r="D544" s="3">
+        <v>0</v>
+      </c>
+      <c r="E544" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:5">
       <c r="A545" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B545" s="3">
-        <v>0</v>
-      </c>
-      <c r="C545" s="5">
-        <v>0</v>
-      </c>
-      <c r="D545" s="3">
-        <v>0</v>
-      </c>
-      <c r="E545" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="546" spans="1:5">
-      <c r="A546" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A546" s="3"/>
+      <c r="B546" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C546" s="4"/>
+      <c r="D546" s="4"/>
+      <c r="E546" s="4"/>
     </row>
     <row r="547" spans="1:5">
-      <c r="A547" s="3"/>
+      <c r="A547" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B547" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C547" s="4"/>
-      <c r="D547" s="4"/>
-      <c r="E547" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C547" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D547" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E547" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="548" spans="1:5">
       <c r="A548" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B548" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C548" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D548" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E548" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B548" s="3">
+        <v>0</v>
+      </c>
+      <c r="C548" s="5">
+        <v>0</v>
+      </c>
+      <c r="D548" s="3">
+        <v>0</v>
+      </c>
+      <c r="E548" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:5">
       <c r="A549" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B549" s="3">
-        <v>0</v>
-      </c>
-      <c r="C549" s="5">
-        <v>0</v>
-      </c>
-      <c r="D549" s="3">
-        <v>0</v>
-      </c>
-      <c r="E549" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="550" spans="1:5">
-      <c r="A550" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A550" s="3"/>
+      <c r="B550" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C550" s="4"/>
+      <c r="D550" s="4"/>
+      <c r="E550" s="4"/>
     </row>
     <row r="551" spans="1:5">
-      <c r="A551" s="3"/>
+      <c r="A551" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B551" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C551" s="4"/>
-      <c r="D551" s="4"/>
-      <c r="E551" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C551" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D551" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E551" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B552" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C552" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D552" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E552" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B552" s="3">
+        <v>0</v>
+      </c>
+      <c r="C552" s="5">
+        <v>0</v>
+      </c>
+      <c r="D552" s="3">
+        <v>0</v>
+      </c>
+      <c r="E552" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:5">
       <c r="A553" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B553" s="3">
-        <v>0</v>
-      </c>
-      <c r="C553" s="5">
-        <v>0</v>
-      </c>
-      <c r="D553" s="3">
-        <v>0</v>
-      </c>
-      <c r="E553" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="554" spans="1:5">
-      <c r="A554" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A554" s="3"/>
+      <c r="B554" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C554" s="4"/>
+      <c r="D554" s="4"/>
+      <c r="E554" s="4"/>
     </row>
     <row r="555" spans="1:5">
-      <c r="A555" s="3"/>
+      <c r="A555" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B555" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C555" s="4"/>
-      <c r="D555" s="4"/>
-      <c r="E555" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C555" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D555" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E555" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B556" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C556" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D556" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E556" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B556" s="3">
+        <v>0</v>
+      </c>
+      <c r="C556" s="5">
+        <v>0</v>
+      </c>
+      <c r="D556" s="3">
+        <v>0</v>
+      </c>
+      <c r="E556" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:5">
       <c r="A557" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B557" s="3">
-        <v>0</v>
-      </c>
-      <c r="C557" s="5">
-        <v>0</v>
-      </c>
-      <c r="D557" s="3">
-        <v>0</v>
-      </c>
-      <c r="E557" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="558" spans="1:5">
-      <c r="A558" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A558" s="3"/>
+      <c r="B558" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C558" s="4"/>
+      <c r="D558" s="4"/>
+      <c r="E558" s="4"/>
     </row>
     <row r="559" spans="1:5">
-      <c r="A559" s="3"/>
+      <c r="A559" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B559" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C559" s="4"/>
-      <c r="D559" s="4"/>
-      <c r="E559" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C559" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D559" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E559" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="560" spans="1:5">
       <c r="A560" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B560" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C560" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D560" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E560" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B560" s="3">
+        <v>0</v>
+      </c>
+      <c r="C560" s="5">
+        <v>0</v>
+      </c>
+      <c r="D560" s="3">
+        <v>0</v>
+      </c>
+      <c r="E560" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:5">
       <c r="A561" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B561" s="3">
-        <v>0</v>
-      </c>
-      <c r="C561" s="5">
-        <v>0</v>
-      </c>
-      <c r="D561" s="3">
-        <v>0</v>
-      </c>
-      <c r="E561" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="562" spans="1:5">
-      <c r="A562" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A562" s="3"/>
+      <c r="B562" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C562" s="4"/>
+      <c r="D562" s="4"/>
+      <c r="E562" s="4"/>
     </row>
     <row r="563" spans="1:5">
-      <c r="A563" s="3"/>
+      <c r="A563" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B563" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C563" s="4"/>
-      <c r="D563" s="4"/>
-      <c r="E563" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C563" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D563" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E563" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="564" spans="1:5">
       <c r="A564" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B564" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C564" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D564" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E564" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B564" s="3">
+        <v>0</v>
+      </c>
+      <c r="C564" s="5">
+        <v>0</v>
+      </c>
+      <c r="D564" s="3">
+        <v>0</v>
+      </c>
+      <c r="E564" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:5">
       <c r="A565" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B565" s="3">
-        <v>0</v>
-      </c>
-      <c r="C565" s="5">
-        <v>0</v>
-      </c>
-      <c r="D565" s="3">
-        <v>0</v>
-      </c>
-      <c r="E565" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="566" spans="1:5">
-      <c r="A566" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A566" s="3"/>
+      <c r="B566" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C566" s="4"/>
+      <c r="D566" s="4"/>
+      <c r="E566" s="4"/>
     </row>
     <row r="567" spans="1:5">
-      <c r="A567" s="3"/>
+      <c r="A567" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B567" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C567" s="4"/>
-      <c r="D567" s="4"/>
-      <c r="E567" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C567" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D567" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E567" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B568" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C568" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D568" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E568" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B568" s="3">
+        <v>0</v>
+      </c>
+      <c r="C568" s="5">
+        <v>0</v>
+      </c>
+      <c r="D568" s="3">
+        <v>0</v>
+      </c>
+      <c r="E568" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:5">
       <c r="A569" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B569" s="3">
-        <v>0</v>
-      </c>
-      <c r="C569" s="5">
-        <v>0</v>
-      </c>
-      <c r="D569" s="3">
-        <v>0</v>
-      </c>
-      <c r="E569" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="570" spans="1:5">
-      <c r="A570" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A570" s="3"/>
+      <c r="B570" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C570" s="4"/>
+      <c r="D570" s="4"/>
+      <c r="E570" s="4"/>
     </row>
     <row r="571" spans="1:5">
-      <c r="A571" s="3"/>
+      <c r="A571" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B571" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C571" s="4"/>
-      <c r="D571" s="4"/>
-      <c r="E571" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C571" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D571" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E571" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B572" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C572" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D572" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E572" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B572" s="3">
+        <v>0</v>
+      </c>
+      <c r="C572" s="5">
+        <v>0</v>
+      </c>
+      <c r="D572" s="3">
+        <v>0</v>
+      </c>
+      <c r="E572" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:5">
       <c r="A573" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B573" s="3">
-        <v>0</v>
-      </c>
-      <c r="C573" s="5">
-        <v>0</v>
-      </c>
-      <c r="D573" s="3">
-        <v>0</v>
-      </c>
-      <c r="E573" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="574" spans="1:5">
-      <c r="A574" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A574" s="3"/>
+      <c r="B574" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C574" s="4"/>
+      <c r="D574" s="4"/>
+      <c r="E574" s="4"/>
     </row>
     <row r="575" spans="1:5">
-      <c r="A575" s="3"/>
+      <c r="A575" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B575" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C575" s="4"/>
-      <c r="D575" s="4"/>
-      <c r="E575" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C575" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D575" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E575" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="576" spans="1:5">
       <c r="A576" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B576" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C576" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D576" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E576" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B576" s="3">
+        <v>0</v>
+      </c>
+      <c r="C576" s="5">
+        <v>0</v>
+      </c>
+      <c r="D576" s="3">
+        <v>0</v>
+      </c>
+      <c r="E576" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:5">
       <c r="A577" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B577" s="3">
-        <v>0</v>
-      </c>
-      <c r="C577" s="5">
-        <v>0</v>
-      </c>
-      <c r="D577" s="3">
-        <v>0</v>
-      </c>
-      <c r="E577" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="578" spans="1:5">
-      <c r="A578" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A578" s="3"/>
+      <c r="B578" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C578" s="4"/>
+      <c r="D578" s="4"/>
+      <c r="E578" s="4"/>
     </row>
     <row r="579" spans="1:5">
-      <c r="A579" s="3"/>
+      <c r="A579" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B579" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C579" s="4"/>
-      <c r="D579" s="4"/>
-      <c r="E579" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C579" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D579" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E579" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B580" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C580" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D580" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E580" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B580" s="3">
+        <v>0</v>
+      </c>
+      <c r="C580" s="5">
+        <v>0</v>
+      </c>
+      <c r="D580" s="3">
+        <v>0</v>
+      </c>
+      <c r="E580" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:5">
       <c r="A581" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B581" s="3">
-        <v>0</v>
-      </c>
-      <c r="C581" s="5">
-        <v>0</v>
-      </c>
-      <c r="D581" s="3">
-        <v>0</v>
-      </c>
-      <c r="E581" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="582" spans="1:5">
-      <c r="A582" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A582" s="3"/>
+      <c r="B582" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C582" s="4"/>
+      <c r="D582" s="4"/>
+      <c r="E582" s="4"/>
     </row>
     <row r="583" spans="1:5">
-      <c r="A583" s="3"/>
+      <c r="A583" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B583" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C583" s="4"/>
-      <c r="D583" s="4"/>
-      <c r="E583" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C583" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D583" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E583" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B584" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C584" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D584" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E584" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B584" s="3">
+        <v>0</v>
+      </c>
+      <c r="C584" s="5">
+        <v>0</v>
+      </c>
+      <c r="D584" s="3">
+        <v>0</v>
+      </c>
+      <c r="E584" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:5">
       <c r="A585" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B585" s="3">
-        <v>0</v>
-      </c>
-      <c r="C585" s="5">
-        <v>0</v>
-      </c>
-      <c r="D585" s="3">
-        <v>0</v>
-      </c>
-      <c r="E585" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="586" spans="1:5">
-      <c r="A586" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A586" s="3"/>
+      <c r="B586" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C586" s="4"/>
+      <c r="D586" s="4"/>
+      <c r="E586" s="4"/>
     </row>
     <row r="587" spans="1:5">
-      <c r="A587" s="3"/>
+      <c r="A587" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B587" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C587" s="4"/>
-      <c r="D587" s="4"/>
-      <c r="E587" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C587" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D587" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E587" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="588" spans="1:5">
       <c r="A588" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B588" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C588" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D588" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E588" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B588" s="3">
+        <v>0</v>
+      </c>
+      <c r="C588" s="5">
+        <v>0</v>
+      </c>
+      <c r="D588" s="3">
+        <v>0</v>
+      </c>
+      <c r="E588" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:5">
       <c r="A589" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B589" s="3">
-        <v>0</v>
-      </c>
-      <c r="C589" s="5">
-        <v>0</v>
-      </c>
-      <c r="D589" s="3">
-        <v>0</v>
-      </c>
-      <c r="E589" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A590" s="3"/>
+      <c r="B590" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C590" s="4"/>
+      <c r="D590" s="4"/>
+      <c r="E590" s="4"/>
     </row>
     <row r="591" spans="1:5">
-      <c r="A591" s="3"/>
+      <c r="A591" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B591" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C591" s="4"/>
-      <c r="D591" s="4"/>
-      <c r="E591" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C591" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D591" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E591" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="592" spans="1:5">
       <c r="A592" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B592" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C592" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D592" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E592" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B592" s="3">
+        <v>0</v>
+      </c>
+      <c r="C592" s="5">
+        <v>0</v>
+      </c>
+      <c r="D592" s="3">
+        <v>0</v>
+      </c>
+      <c r="E592" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:5">
       <c r="A593" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B593" s="3">
-        <v>0</v>
-      </c>
-      <c r="C593" s="5">
-        <v>0</v>
-      </c>
-      <c r="D593" s="3">
-        <v>0</v>
-      </c>
-      <c r="E593" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="594" spans="1:5">
-      <c r="A594" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A594" s="3"/>
+      <c r="B594" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C594" s="4"/>
+      <c r="D594" s="4"/>
+      <c r="E594" s="4"/>
     </row>
     <row r="595" spans="1:5">
-      <c r="A595" s="3"/>
+      <c r="A595" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B595" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C595" s="4"/>
-      <c r="D595" s="4"/>
-      <c r="E595" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C595" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D595" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E595" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="596" spans="1:5">
       <c r="A596" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B596" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C596" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D596" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E596" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B596" s="3">
+        <v>0</v>
+      </c>
+      <c r="C596" s="5">
+        <v>0</v>
+      </c>
+      <c r="D596" s="3">
+        <v>0</v>
+      </c>
+      <c r="E596" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:5">
       <c r="A597" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B597" s="3">
-        <v>0</v>
-      </c>
-      <c r="C597" s="5">
-        <v>0</v>
-      </c>
-      <c r="D597" s="3">
-        <v>0</v>
-      </c>
-      <c r="E597" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="598" spans="1:5">
-      <c r="A598" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A598" s="3"/>
+      <c r="B598" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C598" s="4"/>
+      <c r="D598" s="4"/>
+      <c r="E598" s="4"/>
     </row>
     <row r="599" spans="1:5">
-      <c r="A599" s="3"/>
+      <c r="A599" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B599" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C599" s="4"/>
-      <c r="D599" s="4"/>
-      <c r="E599" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C599" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D599" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E599" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="600" spans="1:5">
       <c r="A600" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B600" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C600" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D600" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E600" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B600" s="3">
+        <v>0</v>
+      </c>
+      <c r="C600" s="5">
+        <v>0</v>
+      </c>
+      <c r="D600" s="3">
+        <v>0</v>
+      </c>
+      <c r="E600" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:5">
       <c r="A601" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B601" s="3">
-        <v>0</v>
-      </c>
-      <c r="C601" s="5">
-        <v>0</v>
-      </c>
-      <c r="D601" s="3">
-        <v>0</v>
-      </c>
-      <c r="E601" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="602" spans="1:5">
-      <c r="A602" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A602" s="3"/>
+      <c r="B602" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C602" s="4"/>
+      <c r="D602" s="4"/>
+      <c r="E602" s="4"/>
     </row>
     <row r="603" spans="1:5">
       <c r="A603" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C603" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D603" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E603" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B604" s="3">
+        <v>0</v>
+      </c>
+      <c r="C604" s="5">
+        <v>0</v>
+      </c>
+      <c r="D604" s="3">
+        <v>0</v>
+      </c>
+      <c r="E604" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:5">
       <c r="A605" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="606" spans="1:5">
-      <c r="A606" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A606" s="3"/>
+      <c r="B606" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C606" s="4"/>
+      <c r="D606" s="4"/>
+      <c r="E606" s="4"/>
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="B607" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C607" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D607" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E607" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B608" s="3">
+        <v>0</v>
+      </c>
+      <c r="C608" s="5">
+        <v>0</v>
+      </c>
+      <c r="D608" s="3">
+        <v>0</v>
+      </c>
+      <c r="E608" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" s="3"/>
+      <c r="B610" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C610" s="4"/>
+      <c r="D610" s="4"/>
+      <c r="E610" s="4"/>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C611" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D611" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E611" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B612" s="3">
+        <v>0</v>
+      </c>
+      <c r="C612" s="5">
+        <v>0</v>
+      </c>
+      <c r="D612" s="3">
+        <v>0</v>
+      </c>
+      <c r="E612" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5">
+      <c r="A614" s="3"/>
+      <c r="B614" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C614" s="4"/>
+      <c r="D614" s="4"/>
+      <c r="E614" s="4"/>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C615" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D615" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E615" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B616" s="3">
+        <v>0</v>
+      </c>
+      <c r="C616" s="5">
+        <v>0</v>
+      </c>
+      <c r="D616" s="3">
+        <v>0</v>
+      </c>
+      <c r="E616" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" s="3"/>
+      <c r="B618" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C618" s="4"/>
+      <c r="D618" s="4"/>
+      <c r="E618" s="4"/>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C619" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D619" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E619" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B620" s="3">
+        <v>0</v>
+      </c>
+      <c r="C620" s="5">
+        <v>0</v>
+      </c>
+      <c r="D620" s="3">
+        <v>0</v>
+      </c>
+      <c r="E620" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" s="3"/>
+      <c r="B622" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C622" s="4"/>
+      <c r="D622" s="4"/>
+      <c r="E622" s="4"/>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C623" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D623" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E623" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B624" s="3">
+        <v>0</v>
+      </c>
+      <c r="C624" s="5">
+        <v>0</v>
+      </c>
+      <c r="D624" s="3">
+        <v>0</v>
+      </c>
+      <c r="E624" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" s="3"/>
+      <c r="B626" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C626" s="4"/>
+      <c r="D626" s="4"/>
+      <c r="E626" s="4"/>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B627" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C627" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D627" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E627" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B628" s="3">
+        <v>0</v>
+      </c>
+      <c r="C628" s="5">
+        <v>0</v>
+      </c>
+      <c r="D628" s="3">
+        <v>0</v>
+      </c>
+      <c r="E628" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" s="3"/>
+      <c r="B630" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C630" s="4"/>
+      <c r="D630" s="4"/>
+      <c r="E630" s="4"/>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C631" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D631" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E631" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B632" s="3">
+        <v>0</v>
+      </c>
+      <c r="C632" s="5">
+        <v>0</v>
+      </c>
+      <c r="D632" s="3">
+        <v>0</v>
+      </c>
+      <c r="E632" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" s="3"/>
+      <c r="B634" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C634" s="4"/>
+      <c r="D634" s="4"/>
+      <c r="E634" s="4"/>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C635" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D635" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E635" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B636" s="3">
+        <v>0</v>
+      </c>
+      <c r="C636" s="5">
+        <v>0</v>
+      </c>
+      <c r="D636" s="3">
+        <v>0</v>
+      </c>
+      <c r="E636" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" s="3"/>
+      <c r="B638" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C638" s="4"/>
+      <c r="D638" s="4"/>
+      <c r="E638" s="4"/>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C639" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D639" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E639" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B640" s="3">
+        <v>0</v>
+      </c>
+      <c r="C640" s="5">
+        <v>0</v>
+      </c>
+      <c r="D640" s="3">
+        <v>0</v>
+      </c>
+      <c r="E640" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="609" spans="1:1">
-      <c r="A609" s="4" t="s">
+    <row r="648" spans="1:1">
+      <c r="A648" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="610" spans="1:1">
-      <c r="A610" s="4" t="s">
+    <row r="649" spans="1:1">
+      <c r="A649" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="611" spans="1:1">
-      <c r="A611" s="4" t="s">
+    <row r="650" spans="1:1">
+      <c r="A650" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="612" spans="1:1">
-      <c r="A612" s="4" t="s">
+    <row r="651" spans="1:1">
+      <c r="A651" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="613" spans="1:1">
-      <c r="A613" s="4" t="s">
+    <row r="652" spans="1:1">
+      <c r="A652" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="614" spans="1:1">
-      <c r="A614" s="4" t="s">
+    <row r="653" spans="1:1">
+      <c r="A653" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="615" spans="1:1">
-      <c r="A615" s="4" t="s">
+    <row r="654" spans="1:1">
+      <c r="A654" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="616" spans="1:1">
-      <c r="A616" s="4" t="s">
+    <row r="655" spans="1:1">
+      <c r="A655" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="617" spans="1:1">
-      <c r="A617" s="4" t="s">
+    <row r="656" spans="1:1">
+      <c r="A656" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="618" spans="1:1">
-      <c r="A618" s="4" t="s">
+    <row r="657" spans="1:1">
+      <c r="A657" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="619" spans="1:1">
-      <c r="A619" s="4" t="s">
+    <row r="658" spans="1:1">
+      <c r="A658" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="620" spans="1:1">
-      <c r="A620" s="4" t="s">
+    <row r="659" spans="1:1">
+      <c r="A659" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="621" spans="1:1">
-      <c r="A621" s="4" t="s">
+    <row r="660" spans="1:1">
+      <c r="A660" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="622" spans="1:1">
-      <c r="A622" s="4" t="s">
+    <row r="661" spans="1:1">
+      <c r="A661" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="623" spans="1:1">
-      <c r="A623" s="4" t="s">
+    <row r="662" spans="1:1">
+      <c r="A662" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="624" spans="1:1">
-      <c r="A624" s="4" t="s">
+    <row r="663" spans="1:1">
+      <c r="A663" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="625" spans="1:1">
-      <c r="A625" s="4" t="s">
+    <row r="664" spans="1:1">
+      <c r="A664" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="626" spans="1:1">
-      <c r="A626" s="4" t="s">
+    <row r="665" spans="1:1">
+      <c r="A665" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="627" spans="1:1">
-      <c r="A627" s="4" t="s">
+    <row r="666" spans="1:1">
+      <c r="A666" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="628" spans="1:1">
-      <c r="A628" s="4" t="s">
+    <row r="667" spans="1:1">
+      <c r="A667" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="629" spans="1:1">
-      <c r="A629" s="4" t="s">
+    <row r="668" spans="1:1">
+      <c r="A668" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="630" spans="1:1">
-      <c r="A630" s="4" t="s">
+    <row r="669" spans="1:1">
+      <c r="A669" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="631" spans="1:1">
-      <c r="A631" s="4" t="s">
+    <row r="670" spans="1:1">
+      <c r="A670" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="632" spans="1:1">
-      <c r="A632" s="4" t="s">
+    <row r="671" spans="1:1">
+      <c r="A671" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="633" spans="1:1">
-      <c r="A633" s="4" t="s">
+    <row r="672" spans="1:1">
+      <c r="A672" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="634" spans="1:1">
-      <c r="A634" s="4" t="s">
+    <row r="673" spans="1:1">
+      <c r="A673" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="635" spans="1:1">
-      <c r="A635" s="4" t="s">
+    <row r="674" spans="1:1">
+      <c r="A674" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="636" spans="1:1">
-      <c r="A636" s="4" t="s">
+    <row r="675" spans="1:1">
+      <c r="A675" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="637" spans="1:1">
-      <c r="A637" s="4" t="s">
+    <row r="676" spans="1:1">
+      <c r="A676" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="638" spans="1:1">
-      <c r="A638" s="4" t="s">
+    <row r="677" spans="1:1">
+      <c r="A677" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="639" spans="1:1">
-      <c r="A639" s="4" t="s">
+    <row r="678" spans="1:1">
+      <c r="A678" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="640" spans="1:1">
-      <c r="A640" s="4" t="s">
+    <row r="679" spans="1:1">
+      <c r="A679" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -17373,48 +18162,48 @@
     <mergeCell ref="B345:E345"/>
     <mergeCell ref="B388:E388"/>
     <mergeCell ref="B431:E431"/>
-    <mergeCell ref="B435:E435"/>
-    <mergeCell ref="B439:E439"/>
-    <mergeCell ref="B443:E443"/>
-    <mergeCell ref="B447:E447"/>
-    <mergeCell ref="B451:E451"/>
-    <mergeCell ref="B455:E455"/>
-    <mergeCell ref="B459:E459"/>
-    <mergeCell ref="B463:E463"/>
-    <mergeCell ref="B467:E467"/>
-    <mergeCell ref="B471:E471"/>
-    <mergeCell ref="B475:E475"/>
-    <mergeCell ref="B479:E479"/>
-    <mergeCell ref="B483:E483"/>
-    <mergeCell ref="B487:E487"/>
-    <mergeCell ref="B491:E491"/>
-    <mergeCell ref="B495:E495"/>
-    <mergeCell ref="B499:E499"/>
-    <mergeCell ref="B503:E503"/>
-    <mergeCell ref="B507:E507"/>
-    <mergeCell ref="B511:E511"/>
-    <mergeCell ref="B515:E515"/>
-    <mergeCell ref="B519:E519"/>
-    <mergeCell ref="B523:E523"/>
-    <mergeCell ref="B527:E527"/>
-    <mergeCell ref="B531:E531"/>
-    <mergeCell ref="B535:E535"/>
-    <mergeCell ref="B539:E539"/>
-    <mergeCell ref="B543:E543"/>
-    <mergeCell ref="B547:E547"/>
-    <mergeCell ref="B551:E551"/>
-    <mergeCell ref="B555:E555"/>
-    <mergeCell ref="B559:E559"/>
-    <mergeCell ref="B563:E563"/>
-    <mergeCell ref="B567:E567"/>
-    <mergeCell ref="B571:E571"/>
-    <mergeCell ref="B575:E575"/>
-    <mergeCell ref="B579:E579"/>
-    <mergeCell ref="B583:E583"/>
-    <mergeCell ref="B587:E587"/>
-    <mergeCell ref="B591:E591"/>
-    <mergeCell ref="B595:E595"/>
-    <mergeCell ref="B599:E599"/>
+    <mergeCell ref="B474:E474"/>
+    <mergeCell ref="B478:E478"/>
+    <mergeCell ref="B482:E482"/>
+    <mergeCell ref="B486:E486"/>
+    <mergeCell ref="B490:E490"/>
+    <mergeCell ref="B494:E494"/>
+    <mergeCell ref="B498:E498"/>
+    <mergeCell ref="B502:E502"/>
+    <mergeCell ref="B506:E506"/>
+    <mergeCell ref="B510:E510"/>
+    <mergeCell ref="B514:E514"/>
+    <mergeCell ref="B518:E518"/>
+    <mergeCell ref="B522:E522"/>
+    <mergeCell ref="B526:E526"/>
+    <mergeCell ref="B530:E530"/>
+    <mergeCell ref="B534:E534"/>
+    <mergeCell ref="B538:E538"/>
+    <mergeCell ref="B542:E542"/>
+    <mergeCell ref="B546:E546"/>
+    <mergeCell ref="B550:E550"/>
+    <mergeCell ref="B554:E554"/>
+    <mergeCell ref="B558:E558"/>
+    <mergeCell ref="B562:E562"/>
+    <mergeCell ref="B566:E566"/>
+    <mergeCell ref="B570:E570"/>
+    <mergeCell ref="B574:E574"/>
+    <mergeCell ref="B578:E578"/>
+    <mergeCell ref="B582:E582"/>
+    <mergeCell ref="B586:E586"/>
+    <mergeCell ref="B590:E590"/>
+    <mergeCell ref="B594:E594"/>
+    <mergeCell ref="B598:E598"/>
+    <mergeCell ref="B602:E602"/>
+    <mergeCell ref="B606:E606"/>
+    <mergeCell ref="B610:E610"/>
+    <mergeCell ref="B614:E614"/>
+    <mergeCell ref="B618:E618"/>
+    <mergeCell ref="B622:E622"/>
+    <mergeCell ref="B626:E626"/>
+    <mergeCell ref="B630:E630"/>
+    <mergeCell ref="B634:E634"/>
+    <mergeCell ref="B638:E638"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18461,7 +19250,7 @@
         <v>12</v>
       </c>
       <c r="C64" s="5">
-        <v>0.248756</v>
+        <v>0.2487559999999999</v>
       </c>
       <c r="D64" s="3">
         <v>46</v>
@@ -18892,16 +19681,16 @@
         <v>20</v>
       </c>
       <c r="B91" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C91" s="5">
-        <v>0.09717100000000001</v>
+        <v>0.143813</v>
       </c>
       <c r="D91" s="3">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="E91" s="6">
-        <v>0.04166666666666666</v>
+        <v>0.03488372093023256</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -18909,16 +19698,16 @@
         <v>21</v>
       </c>
       <c r="B92" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" s="5">
-        <v>0.006762000000000001</v>
+        <v>0.04563</v>
       </c>
       <c r="D92" s="3">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="E92" s="6">
-        <v>0.009433962264150943</v>
+        <v>0.01630434782608696</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -18926,16 +19715,16 @@
         <v>22</v>
       </c>
       <c r="B93" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93" s="5">
-        <v>0.082566</v>
+        <v>0.102</v>
       </c>
       <c r="D93" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E93" s="6">
-        <v>0.4166666666666667</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -18943,16 +19732,16 @@
         <v>23</v>
       </c>
       <c r="B94" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94" s="5">
-        <v>0.077736</v>
+        <v>0.09717000000000001</v>
       </c>
       <c r="D94" s="3">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E94" s="6">
-        <v>0.08163265306122448</v>
+        <v>0.05747126436781609</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -18960,16 +19749,16 @@
         <v>24</v>
       </c>
       <c r="B95" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C95" s="5">
-        <v>0.068302</v>
+        <v>0.215755</v>
       </c>
       <c r="D95" s="3">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E95" s="6">
-        <v>0.05084745762711865</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -18977,16 +19766,16 @@
         <v>25</v>
       </c>
       <c r="B96" s="3">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C96" s="5">
-        <v>0.4161930000000001</v>
+        <v>0.7748840000000002</v>
       </c>
       <c r="D96" s="3">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="E96" s="6">
-        <v>0.1935483870967742</v>
+        <v>0.1966292134831461</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -18994,16 +19783,16 @@
         <v>26</v>
       </c>
       <c r="B97" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C97" s="5">
-        <v>0.032958</v>
+        <v>0.066882</v>
       </c>
       <c r="D97" s="3">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E97" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -19011,16 +19800,16 @@
         <v>27</v>
       </c>
       <c r="B98" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C98" s="5">
-        <v>0.09327300000000001</v>
+        <v>0.170054</v>
       </c>
       <c r="D98" s="3">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="E98" s="6">
-        <v>0.08860759493670886</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -19028,16 +19817,16 @@
         <v>28</v>
       </c>
       <c r="B99" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C99" s="5">
-        <v>0.08557399999999998</v>
+        <v>0.246849</v>
       </c>
       <c r="D99" s="3">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="E99" s="6">
-        <v>0.05882352941176471</v>
+        <v>0.06341463414634146</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -19045,16 +19834,16 @@
         <v>29</v>
       </c>
       <c r="B100" s="3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C100" s="5">
-        <v>0.120492</v>
+        <v>0.364777</v>
       </c>
       <c r="D100" s="3">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="E100" s="6">
-        <v>0.07692307692307693</v>
+        <v>0.07909604519774012</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -19062,16 +19851,16 @@
         <v>30</v>
       </c>
       <c r="B101" s="3">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C101" s="5">
-        <v>0.7795509999999999</v>
+        <v>1.460825</v>
       </c>
       <c r="D101" s="3">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="E101" s="6">
-        <v>0.3369565217391304</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -19079,16 +19868,16 @@
         <v>31</v>
       </c>
       <c r="B102" s="3">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C102" s="5">
-        <v>0.329696</v>
+        <v>0.9185170000000001</v>
       </c>
       <c r="D102" s="3">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="E102" s="6">
-        <v>0.2333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -19096,16 +19885,16 @@
         <v>32</v>
       </c>
       <c r="B103" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C103" s="5">
-        <v>0.125792</v>
+        <v>0.199094</v>
       </c>
       <c r="D103" s="3">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E103" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -19113,16 +19902,16 @@
         <v>33</v>
       </c>
       <c r="B104" s="3">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C104" s="5">
-        <v>0.11665</v>
+        <v>0.3256749999999999</v>
       </c>
       <c r="D104" s="3">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="E104" s="6">
-        <v>0.09677419354838709</v>
+        <v>0.130952380952381</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -19130,16 +19919,16 @@
         <v>34</v>
       </c>
       <c r="B105" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C105" s="5">
-        <v>0.107085</v>
+        <v>0.4178310000000001</v>
       </c>
       <c r="D105" s="3">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="E105" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.2131147540983606</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -19153,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="D106" s="3">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E106" s="6">
         <v>0</v>
@@ -19164,16 +19953,16 @@
         <v>36</v>
       </c>
       <c r="B107" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C107" s="5">
-        <v>0.066076</v>
+        <v>0.17102</v>
       </c>
       <c r="D107" s="3">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E107" s="6">
-        <v>0.2</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -19181,16 +19970,16 @@
         <v>37</v>
       </c>
       <c r="B108" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C108" s="5">
-        <v>0.05633100000000001</v>
+        <v>0.07576500000000001</v>
       </c>
       <c r="D108" s="3">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E108" s="6">
-        <v>0.1428571428571428</v>
+        <v>0.09302325581395349</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -19198,16 +19987,16 @@
         <v>10</v>
       </c>
       <c r="B109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" s="5">
-        <v>0</v>
+        <v>0.019434</v>
       </c>
       <c r="D109" s="3">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E109" s="6">
-        <v>0</v>
+        <v>0.01265822784810127</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -19215,16 +20004,16 @@
         <v>38</v>
       </c>
       <c r="B110" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C110" s="5">
-        <v>0.058302</v>
+        <v>0.09717000000000001</v>
       </c>
       <c r="D110" s="3">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E110" s="6">
-        <v>0.12</v>
+        <v>0.0847457627118644</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -19232,16 +20021,16 @@
         <v>39</v>
       </c>
       <c r="B111" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C111" s="5">
-        <v>0.058302</v>
+        <v>0.09717000000000001</v>
       </c>
       <c r="D111" s="3">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="E111" s="6">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -19249,16 +20038,16 @@
         <v>40</v>
       </c>
       <c r="B112" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C112" s="5">
-        <v>0.048868</v>
+        <v>0.117284</v>
       </c>
       <c r="D112" s="3">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="E112" s="6">
-        <v>0.02272727272727273</v>
+        <v>0.02531645569620253</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -19266,16 +20055,16 @@
         <v>41</v>
       </c>
       <c r="B113" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C113" s="5">
-        <v>0.083076</v>
+        <v>0.156378</v>
       </c>
       <c r="D113" s="3">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E113" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -19283,16 +20072,16 @@
         <v>42</v>
       </c>
       <c r="B114" s="3">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C114" s="5">
-        <v>0.26878</v>
+        <v>0.5717679999999998</v>
       </c>
       <c r="D114" s="3">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E114" s="6">
-        <v>0.6</v>
+        <v>0.603448275862069</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -19300,16 +20089,16 @@
         <v>43</v>
       </c>
       <c r="B115" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C115" s="5">
-        <v>0.034208</v>
+        <v>0.10751</v>
       </c>
       <c r="D115" s="3">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="E115" s="6">
-        <v>0.01052631578947368</v>
+        <v>0.0198019801980198</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -19317,16 +20106,16 @@
         <v>44</v>
       </c>
       <c r="B116" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" s="5">
-        <v>0</v>
+        <v>0.049943</v>
       </c>
       <c r="D116" s="3">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E116" s="6">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -19334,16 +20123,16 @@
         <v>45</v>
       </c>
       <c r="B117" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C117" s="5">
-        <v>0.09234000000000001</v>
+        <v>0.160756</v>
       </c>
       <c r="D117" s="3">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="E117" s="6">
-        <v>0.04918032786885246</v>
+        <v>0.0505050505050505</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -19351,16 +20140,16 @@
         <v>46</v>
       </c>
       <c r="B118" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C118" s="5">
-        <v>0.143812</v>
+        <v>0.3153690000000001</v>
       </c>
       <c r="D118" s="3">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="E118" s="6">
-        <v>0.1372549019607843</v>
+        <v>0.1553398058252427</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -19368,16 +20157,16 @@
         <v>47</v>
       </c>
       <c r="B119" s="3">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C119" s="5">
-        <v>0.253586</v>
+        <v>0.4518140000000001</v>
       </c>
       <c r="D119" s="3">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="E119" s="6">
-        <v>0.1262135922330097</v>
+        <v>0.1182795698924731</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -19385,16 +20174,16 @@
         <v>48</v>
       </c>
       <c r="B120" s="3">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C120" s="5">
-        <v>0.4364270000000001</v>
+        <v>0.7629190000000002</v>
       </c>
       <c r="D120" s="3">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="E120" s="6">
-        <v>0.1794871794871795</v>
+        <v>0.1510204081632653</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -19402,16 +20191,16 @@
         <v>49</v>
       </c>
       <c r="B121" s="3">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C121" s="5">
-        <v>0.298743</v>
+        <v>0.6185420000000001</v>
       </c>
       <c r="D121" s="3">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="E121" s="6">
-        <v>0.2745098039215687</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -19419,16 +20208,16 @@
         <v>50</v>
       </c>
       <c r="B122" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C122" s="5">
-        <v>0.251591</v>
+        <v>0.4293259999999999</v>
       </c>
       <c r="D122" s="3">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E122" s="6">
-        <v>0.2972972972972973</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -19436,16 +20225,16 @@
         <v>51</v>
       </c>
       <c r="B123" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C123" s="5">
-        <v>0.101058</v>
+        <v>0.1477</v>
       </c>
       <c r="D123" s="3">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E123" s="6">
-        <v>0.1025641025641026</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -19453,16 +20242,16 @@
         <v>52</v>
       </c>
       <c r="B124" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C124" s="5">
-        <v>0.066076</v>
+        <v>0.141004</v>
       </c>
       <c r="D124" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E124" s="6">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -19470,16 +20259,16 @@
         <v>53</v>
       </c>
       <c r="B125" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C125" s="5">
-        <v>0.292915</v>
+        <v>0.518702</v>
       </c>
       <c r="D125" s="3">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E125" s="6">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -19487,16 +20276,16 @@
         <v>54</v>
       </c>
       <c r="B126" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C126" s="5">
-        <v>0.428748</v>
+        <v>0.6358549999999999</v>
       </c>
       <c r="D126" s="3">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="E126" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -19504,16 +20293,16 @@
         <v>55</v>
       </c>
       <c r="B127" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C127" s="5">
-        <v>0.046642</v>
+        <v>0.104944</v>
       </c>
       <c r="D127" s="3">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E127" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.1724137931034483</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -19521,16 +20310,16 @@
         <v>56</v>
       </c>
       <c r="B128" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C128" s="5">
-        <v>0</v>
+        <v>0.05864199999999999</v>
       </c>
       <c r="D128" s="3">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E128" s="6">
-        <v>0</v>
+        <v>0.03636363636363636</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -19538,16 +20327,16 @@
         <v>57</v>
       </c>
       <c r="B129" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C129" s="5">
-        <v>0.212335</v>
+        <v>0.465041</v>
       </c>
       <c r="D129" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E129" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -19555,16 +20344,16 @@
         <v>11</v>
       </c>
       <c r="B130" s="3">
-        <v>266</v>
+        <v>530</v>
       </c>
       <c r="C130" s="5">
-        <v>5.838017000000001</v>
+        <v>11.823812</v>
       </c>
       <c r="D130" s="3">
-        <v>1948</v>
+        <v>3841</v>
       </c>
       <c r="E130" s="6">
-        <v>0.1365503080082136</v>
+        <v>0.137984899765686</v>
       </c>
     </row>
     <row r="132" spans="1:5">

--- a/驾意险业务统计表.xlsx
+++ b/驾意险业务统计表.xlsx
@@ -23,7 +23,7 @@
     <t>驾意险业务统计表</t>
   </si>
   <si>
-    <t>数据统计范围：2020-1-1 至 03-15</t>
+    <t>数据统计范围：2020-1-1 至 03-19</t>
   </si>
   <si>
     <t>中心支公司</t>
@@ -56,7 +56,7 @@
     <t>合计</t>
   </si>
   <si>
-    <t>第11周统计数据</t>
+    <t>第12周统计数据</t>
   </si>
   <si>
     <t>驾意险件数</t>
@@ -224,7 +224,7 @@
     <t>第10周统计数据</t>
   </si>
   <si>
-    <t>第12周统计数据</t>
+    <t>第11周统计数据</t>
   </si>
   <si>
     <t>第13周统计数据</t>
@@ -888,40 +888,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C5" s="5">
-        <v>0.7412270000000002</v>
+        <v>0.792284</v>
       </c>
       <c r="D5" s="3">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="E5" s="6">
-        <v>0.09947643979057591</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="F5" s="3">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="G5" s="5">
-        <v>1.616188</v>
+        <v>2.408472000000001</v>
       </c>
       <c r="H5" s="3">
-        <v>897</v>
+        <v>1241</v>
       </c>
       <c r="I5" s="6">
-        <v>0.09364548494983277</v>
+        <v>0.1015310233682514</v>
       </c>
       <c r="J5" s="3">
-        <v>418</v>
+        <v>460</v>
       </c>
       <c r="K5" s="5">
-        <v>8.206128999999972</v>
+        <v>8.998412999999969</v>
       </c>
       <c r="L5" s="3">
-        <v>3949</v>
+        <v>4289</v>
       </c>
       <c r="M5" s="6">
-        <v>0.1058495821727019</v>
+        <v>0.1072511074842621</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -929,40 +929,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5">
-        <v>2.268728</v>
+        <v>0.7366200000000002</v>
       </c>
       <c r="D6" s="3">
-        <v>581</v>
+        <v>187</v>
       </c>
       <c r="E6" s="6">
-        <v>0.1669535283993115</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="F6" s="3">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="G6" s="5">
-        <v>3.933567999999996</v>
+        <v>4.670187999999995</v>
       </c>
       <c r="H6" s="3">
-        <v>976</v>
+        <v>1159</v>
       </c>
       <c r="I6" s="6">
-        <v>0.1711065573770492</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="J6" s="3">
-        <v>856</v>
+        <v>889</v>
       </c>
       <c r="K6" s="5">
-        <v>19.77323899999994</v>
+        <v>20.50985899999995</v>
       </c>
       <c r="L6" s="3">
-        <v>4401</v>
+        <v>4583</v>
       </c>
       <c r="M6" s="6">
-        <v>0.1945012497159736</v>
+        <v>0.1939777438359153</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -970,40 +970,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="5">
-        <v>0.675235</v>
+        <v>0.5616370000000001</v>
       </c>
       <c r="D7" s="3">
-        <v>343</v>
+        <v>180</v>
       </c>
       <c r="E7" s="6">
-        <v>0.08746355685131195</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="F7" s="3">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="G7" s="5">
-        <v>1.260809</v>
+        <v>1.822446</v>
       </c>
       <c r="H7" s="3">
-        <v>701</v>
+        <v>875</v>
       </c>
       <c r="I7" s="6">
-        <v>0.08559201141226819</v>
+        <v>0.09828571428571428</v>
       </c>
       <c r="J7" s="3">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="K7" s="5">
-        <v>7.578189999999985</v>
+        <v>8.139826999999981</v>
       </c>
       <c r="L7" s="3">
-        <v>3044</v>
+        <v>3215</v>
       </c>
       <c r="M7" s="6">
-        <v>0.1093955321944809</v>
+        <v>0.1116640746500778</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1011,40 +1011,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5">
-        <v>1.1103</v>
+        <v>0.6760440000000001</v>
       </c>
       <c r="D8" s="3">
-        <v>204</v>
+        <v>123</v>
       </c>
       <c r="E8" s="6">
-        <v>0.2303921568627451</v>
+        <v>0.2520325203252032</v>
       </c>
       <c r="F8" s="3">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="G8" s="5">
-        <v>2.596073000000001</v>
+        <v>3.272117000000001</v>
       </c>
       <c r="H8" s="3">
-        <v>433</v>
+        <v>552</v>
       </c>
       <c r="I8" s="6">
-        <v>0.2586605080831409</v>
+        <v>0.2590579710144927</v>
       </c>
       <c r="J8" s="3">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="K8" s="5">
-        <v>11.57435499999996</v>
+        <v>12.25039899999995</v>
       </c>
       <c r="L8" s="3">
-        <v>1810</v>
+        <v>1926</v>
       </c>
       <c r="M8" s="6">
-        <v>0.2839779005524862</v>
+        <v>0.2829698857736241</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1052,40 +1052,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5">
-        <v>0.124378</v>
+        <v>0.038868</v>
       </c>
       <c r="D9" s="3">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6">
-        <v>0.1</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="F9" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="5">
-        <v>0.246785</v>
+        <v>0.285653</v>
       </c>
       <c r="H9" s="3">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="I9" s="6">
-        <v>0.08759124087591241</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="J9" s="3">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K9" s="5">
-        <v>2.294952000000001</v>
+        <v>2.333820000000001</v>
       </c>
       <c r="L9" s="3">
-        <v>568</v>
+        <v>615</v>
       </c>
       <c r="M9" s="6">
-        <v>0.1901408450704225</v>
+        <v>0.1788617886178862</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1093,40 +1093,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5">
-        <v>0.6962770000000001</v>
+        <v>0.4347460000000001</v>
       </c>
       <c r="D10" s="3">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="E10" s="6">
-        <v>0.1268656716417911</v>
+        <v>0.168</v>
       </c>
       <c r="F10" s="3">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="G10" s="5">
-        <v>1.530102000000001</v>
+        <v>1.964848000000001</v>
       </c>
       <c r="H10" s="3">
-        <v>534</v>
+        <v>654</v>
       </c>
       <c r="I10" s="6">
-        <v>0.1404494382022472</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="J10" s="3">
-        <v>443</v>
+        <v>464</v>
       </c>
       <c r="K10" s="5">
-        <v>9.100333999999945</v>
+        <v>9.535079999999944</v>
       </c>
       <c r="L10" s="3">
-        <v>2376</v>
+        <v>2486</v>
       </c>
       <c r="M10" s="6">
-        <v>0.1864478114478114</v>
+        <v>0.1866452131938858</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1134,40 +1134,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5">
-        <v>0.311348</v>
+        <v>0.126944</v>
       </c>
       <c r="D11" s="3">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E11" s="6">
-        <v>0.2195121951219512</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="F11" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G11" s="5">
-        <v>0.5236830000000001</v>
+        <v>0.6506270000000002</v>
       </c>
       <c r="H11" s="3">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="I11" s="6">
-        <v>0.1647058823529412</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="J11" s="3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K11" s="5">
-        <v>2.693951000000001</v>
+        <v>2.820895000000001</v>
       </c>
       <c r="L11" s="3">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="M11" s="6">
-        <v>0.2513513513513513</v>
+        <v>0.2443890274314214</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1175,16 +1175,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="5">
-        <v>0.019434</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E12" s="6">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1193,10 +1193,10 @@
         <v>0.019434</v>
       </c>
       <c r="H12" s="3">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I12" s="6">
-        <v>0.01265822784810127</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="J12" s="3">
         <v>10</v>
@@ -1205,10 +1205,10 @@
         <v>0.2453130000000001</v>
       </c>
       <c r="L12" s="3">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="M12" s="6">
-        <v>0.04329004329004329</v>
+        <v>0.03861003861003861</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1216,40 +1216,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>262</v>
+        <v>160</v>
       </c>
       <c r="C13" s="5">
-        <v>5.946927000000001</v>
+        <v>3.367143</v>
       </c>
       <c r="D13" s="3">
-        <v>1917</v>
+        <v>1071</v>
       </c>
       <c r="E13" s="6">
-        <v>0.1366718831507564</v>
+        <v>0.1493930905695612</v>
       </c>
       <c r="F13" s="3">
-        <v>525</v>
+        <v>685</v>
       </c>
       <c r="G13" s="5">
-        <v>11.726642</v>
+        <v>15.093785</v>
       </c>
       <c r="H13" s="3">
-        <v>3842</v>
+        <v>4889</v>
       </c>
       <c r="I13" s="6">
-        <v>0.1366475793857366</v>
+        <v>0.140110452035181</v>
       </c>
       <c r="J13" s="3">
-        <v>2775</v>
+        <v>2935</v>
       </c>
       <c r="K13" s="5">
-        <v>61.46646299999981</v>
+        <v>64.83360599999979</v>
       </c>
       <c r="L13" s="3">
-        <v>16749</v>
+        <v>17774</v>
       </c>
       <c r="M13" s="6">
-        <v>0.1656815332258642</v>
+        <v>0.1651288398784742</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1353,40 +1353,40 @@
         <v>20</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5">
-        <v>0.046642</v>
+        <v>0.027208</v>
       </c>
       <c r="D19" s="3">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="E19" s="6">
-        <v>0.02631578947368421</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F19" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G19" s="5">
-        <v>0.143813</v>
+        <v>0.171021</v>
       </c>
       <c r="H19" s="3">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="I19" s="6">
-        <v>0.03488372093023256</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="J19" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K19" s="5">
-        <v>0.6345729999999999</v>
+        <v>0.661781</v>
       </c>
       <c r="L19" s="3">
-        <v>727</v>
+        <v>760</v>
       </c>
       <c r="M19" s="6">
-        <v>0.0343878954607978</v>
+        <v>0.03421052631578948</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1394,40 +1394,40 @@
         <v>21</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5">
-        <v>0.038868</v>
+        <v>0.024434</v>
       </c>
       <c r="D20" s="3">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E20" s="6">
-        <v>0.02531645569620253</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G20" s="5">
-        <v>0.04563</v>
+        <v>0.07006400000000002</v>
       </c>
       <c r="H20" s="3">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="I20" s="6">
-        <v>0.01630434782608696</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="J20" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K20" s="5">
-        <v>0.3470830000000001</v>
+        <v>0.3715170000000001</v>
       </c>
       <c r="L20" s="3">
-        <v>837</v>
+        <v>900</v>
       </c>
       <c r="M20" s="6">
-        <v>0.01672640382317802</v>
+        <v>0.01666666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1435,40 +1435,40 @@
         <v>22</v>
       </c>
       <c r="B21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5">
-        <v>0.019434</v>
+        <v>0.066076</v>
       </c>
       <c r="D21" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="6">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G21" s="5">
-        <v>0.102</v>
+        <v>0.168076</v>
       </c>
       <c r="H21" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I21" s="6">
-        <v>0.3529411764705883</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="J21" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K21" s="5">
-        <v>0.315774</v>
+        <v>0.38185</v>
       </c>
       <c r="L21" s="3">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="M21" s="6">
-        <v>0.425</v>
+        <v>0.4347826086956522</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1476,40 +1476,40 @@
         <v>23</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="5">
-        <v>0.019434</v>
+        <v>0.09717000000000001</v>
       </c>
       <c r="D22" s="3">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E22" s="6">
-        <v>0.02631578947368421</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F22" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G22" s="5">
-        <v>0.09717000000000001</v>
+        <v>0.19434</v>
       </c>
       <c r="H22" s="3">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="I22" s="6">
-        <v>0.05747126436781609</v>
+        <v>0.08264462809917356</v>
       </c>
       <c r="J22" s="3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K22" s="5">
-        <v>0.5180580000000001</v>
+        <v>0.6152280000000002</v>
       </c>
       <c r="L22" s="3">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="M22" s="6">
-        <v>0.08695652173913043</v>
+        <v>0.09337349397590361</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1517,40 +1517,40 @@
         <v>24</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="5">
-        <v>0.147453</v>
+        <v>0.131604</v>
       </c>
       <c r="D23" s="3">
         <v>39</v>
       </c>
       <c r="E23" s="6">
-        <v>0.1282051282051282</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="F23" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G23" s="5">
-        <v>0.215755</v>
+        <v>0.347359</v>
       </c>
       <c r="H23" s="3">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="I23" s="6">
-        <v>0.08163265306122448</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="J23" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K23" s="5">
-        <v>0.6378310000000001</v>
+        <v>0.7694350000000001</v>
       </c>
       <c r="L23" s="3">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="M23" s="6">
-        <v>0.05361305361305362</v>
+        <v>0.05781584582441113</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1558,40 +1558,40 @@
         <v>25</v>
       </c>
       <c r="B24" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5">
-        <v>0.358691</v>
+        <v>0.2926150000000001</v>
       </c>
       <c r="D24" s="3">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E24" s="6">
-        <v>0.2</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="F24" s="3">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G24" s="5">
-        <v>0.7748840000000002</v>
+        <v>1.067499</v>
       </c>
       <c r="H24" s="3">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="I24" s="6">
-        <v>0.1966292134831461</v>
+        <v>0.19140625</v>
       </c>
       <c r="J24" s="3">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="K24" s="5">
-        <v>3.828640999999998</v>
+        <v>4.121255999999997</v>
       </c>
       <c r="L24" s="3">
-        <v>847</v>
+        <v>925</v>
       </c>
       <c r="M24" s="6">
-        <v>0.2148760330578512</v>
+        <v>0.2118918918918919</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1599,40 +1599,40 @@
         <v>26</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5">
-        <v>0.033924</v>
+        <v>0.077554</v>
       </c>
       <c r="D25" s="3">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E25" s="6">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F25" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G25" s="5">
-        <v>0.066882</v>
+        <v>0.144436</v>
       </c>
       <c r="H25" s="3">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="I25" s="6">
-        <v>0.2222222222222222</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="J25" s="3">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K25" s="5">
-        <v>0.8960049999999997</v>
+        <v>0.9735589999999996</v>
       </c>
       <c r="L25" s="3">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="M25" s="6">
-        <v>0.3113207547169811</v>
+        <v>0.3135593220338983</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1643,37 +1643,37 @@
         <v>6</v>
       </c>
       <c r="C26" s="5">
-        <v>0.07678099999999999</v>
+        <v>0.075623</v>
       </c>
       <c r="D26" s="3">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E26" s="6">
-        <v>0.1304347826086956</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="F26" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G26" s="5">
-        <v>0.170054</v>
+        <v>0.245677</v>
       </c>
       <c r="H26" s="3">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="I26" s="6">
-        <v>0.104</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="J26" s="3">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K26" s="5">
-        <v>1.028164</v>
+        <v>1.103787</v>
       </c>
       <c r="L26" s="3">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="M26" s="6">
-        <v>0.1162790697674419</v>
+        <v>0.1137820512820513</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1681,40 +1681,40 @@
         <v>28</v>
       </c>
       <c r="B27" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="5">
-        <v>0.161275</v>
+        <v>0.176201</v>
       </c>
       <c r="D27" s="3">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E27" s="6">
-        <v>0.064</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="F27" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G27" s="5">
-        <v>0.246849</v>
+        <v>0.4230500000000001</v>
       </c>
       <c r="H27" s="3">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="I27" s="6">
-        <v>0.06341463414634146</v>
+        <v>0.07874015748031496</v>
       </c>
       <c r="J27" s="3">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K27" s="5">
-        <v>2.106972</v>
+        <v>2.283173</v>
       </c>
       <c r="L27" s="3">
-        <v>1004</v>
+        <v>1052</v>
       </c>
       <c r="M27" s="6">
-        <v>0.09561752988047809</v>
+        <v>0.09790874524714829</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1722,40 +1722,40 @@
         <v>29</v>
       </c>
       <c r="B28" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5">
-        <v>0.244285</v>
+        <v>0.027208</v>
       </c>
       <c r="D28" s="3">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="E28" s="6">
-        <v>0.08035714285714286</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="F28" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" s="5">
-        <v>0.364777</v>
+        <v>0.391985</v>
       </c>
       <c r="H28" s="3">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="I28" s="6">
-        <v>0.07909604519774012</v>
+        <v>0.07109004739336493</v>
       </c>
       <c r="J28" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K28" s="5">
-        <v>1.419612</v>
+        <v>1.44682</v>
       </c>
       <c r="L28" s="3">
-        <v>789</v>
+        <v>823</v>
       </c>
       <c r="M28" s="6">
-        <v>0.07604562737642585</v>
+        <v>0.07411907654921021</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1763,40 +1763,40 @@
         <v>30</v>
       </c>
       <c r="B29" s="3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C29" s="5">
-        <v>0.681274</v>
+        <v>0.296023</v>
       </c>
       <c r="D29" s="3">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="E29" s="6">
-        <v>0.3118279569892473</v>
+        <v>0.4</v>
       </c>
       <c r="F29" s="3">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G29" s="5">
-        <v>1.460825</v>
+        <v>1.756848</v>
       </c>
       <c r="H29" s="3">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="I29" s="6">
-        <v>0.3243243243243243</v>
+        <v>0.3348837209302326</v>
       </c>
       <c r="J29" s="3">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="K29" s="5">
-        <v>7.046431</v>
+        <v>7.342453999999999</v>
       </c>
       <c r="L29" s="3">
-        <v>849</v>
+        <v>879</v>
       </c>
       <c r="M29" s="6">
-        <v>0.3604240282685512</v>
+        <v>0.3617747440273038</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1804,40 +1804,40 @@
         <v>31</v>
       </c>
       <c r="B30" s="3">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C30" s="5">
-        <v>0.588821</v>
+        <v>0.12825</v>
       </c>
       <c r="D30" s="3">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E30" s="6">
-        <v>0.2619047619047619</v>
+        <v>0.24</v>
       </c>
       <c r="F30" s="3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G30" s="5">
-        <v>0.9185170000000001</v>
+        <v>1.046767</v>
       </c>
       <c r="H30" s="3">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="I30" s="6">
         <v>0.25</v>
       </c>
       <c r="J30" s="3">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K30" s="5">
-        <v>3.829233999999998</v>
+        <v>3.957483999999998</v>
       </c>
       <c r="L30" s="3">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="M30" s="6">
-        <v>0.2698961937716263</v>
+        <v>0.2691029900332226</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1845,40 +1845,40 @@
         <v>32</v>
       </c>
       <c r="B31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="5">
-        <v>0.07330199999999999</v>
+        <v>0.037998</v>
       </c>
       <c r="D31" s="3">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E31" s="6">
-        <v>0.1666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="F31" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G31" s="5">
-        <v>0.199094</v>
+        <v>0.237092</v>
       </c>
       <c r="H31" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I31" s="6">
-        <v>0.2571428571428571</v>
+        <v>0.275</v>
       </c>
       <c r="J31" s="3">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K31" s="5">
-        <v>1.450862</v>
+        <v>1.48886</v>
       </c>
       <c r="L31" s="3">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M31" s="6">
-        <v>0.3092783505154639</v>
+        <v>0.3115577889447236</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1886,40 +1886,40 @@
         <v>33</v>
       </c>
       <c r="B32" s="3">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C32" s="5">
-        <v>0.209025</v>
+        <v>0.04650599999999999</v>
       </c>
       <c r="D32" s="3">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="E32" s="6">
-        <v>0.1509433962264151</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="F32" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G32" s="5">
-        <v>0.3256749999999999</v>
+        <v>0.3721809999999999</v>
       </c>
       <c r="H32" s="3">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="I32" s="6">
-        <v>0.130952380952381</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="J32" s="3">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K32" s="5">
-        <v>1.359593</v>
+        <v>1.406098999999999</v>
       </c>
       <c r="L32" s="3">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="M32" s="6">
-        <v>0.1361573373676248</v>
+        <v>0.1368267831149927</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1927,40 +1927,40 @@
         <v>34</v>
       </c>
       <c r="B33" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C33" s="5">
-        <v>0.310746</v>
+        <v>0.024434</v>
       </c>
       <c r="D33" s="3">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E33" s="6">
-        <v>0.2325581395348837</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="F33" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G33" s="5">
-        <v>0.4178310000000001</v>
+        <v>0.4422650000000001</v>
       </c>
       <c r="H33" s="3">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="I33" s="6">
-        <v>0.2131147540983606</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="J33" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" s="5">
-        <v>2.560535000000001</v>
+        <v>2.584969000000001</v>
       </c>
       <c r="L33" s="3">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="M33" s="6">
-        <v>0.2716049382716049</v>
+        <v>0.2625368731563422</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1974,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E34" s="6">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="I34" s="6">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>0.389794</v>
       </c>
       <c r="L34" s="3">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M34" s="6">
-        <v>0.07569721115537849</v>
+        <v>0.07335907335907337</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2009,40 +2009,40 @@
         <v>36</v>
       </c>
       <c r="B35" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C35" s="5">
-        <v>0.104944</v>
+        <v>0.038868</v>
       </c>
       <c r="D35" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E35" s="6">
-        <v>0.2173913043478261</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="F35" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35" s="5">
-        <v>0.17102</v>
+        <v>0.209888</v>
       </c>
       <c r="H35" s="3">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="I35" s="6">
-        <v>0.2162162162162162</v>
+        <v>0.15625</v>
       </c>
       <c r="J35" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K35" s="5">
-        <v>0.9444960000000002</v>
+        <v>0.9833640000000003</v>
       </c>
       <c r="L35" s="3">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="M35" s="6">
-        <v>0.2980132450331126</v>
+        <v>0.2640449438202247</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2050,16 +2050,16 @@
         <v>37</v>
       </c>
       <c r="B36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="5">
-        <v>0.019434</v>
+        <v>0</v>
       </c>
       <c r="D36" s="3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E36" s="6">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="F36" s="3">
         <v>4</v>
@@ -2068,10 +2068,10 @@
         <v>0.07576500000000001</v>
       </c>
       <c r="H36" s="3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="I36" s="6">
-        <v>0.09302325581395349</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="J36" s="3">
         <v>44</v>
@@ -2080,10 +2080,10 @@
         <v>0.9606620000000001</v>
       </c>
       <c r="L36" s="3">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="M36" s="6">
-        <v>0.2650602409638554</v>
+        <v>0.247191011235955</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2091,16 +2091,16 @@
         <v>10</v>
       </c>
       <c r="B37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="5">
-        <v>0.019434</v>
+        <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E37" s="6">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -2109,10 +2109,10 @@
         <v>0.019434</v>
       </c>
       <c r="H37" s="3">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="I37" s="6">
-        <v>0.01265822784810127</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="J37" s="3">
         <v>10</v>
@@ -2121,10 +2121,10 @@
         <v>0.2453130000000001</v>
       </c>
       <c r="L37" s="3">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="M37" s="6">
-        <v>0.04329004329004329</v>
+        <v>0.03861003861003861</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2132,40 +2132,40 @@
         <v>38</v>
       </c>
       <c r="B38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C38" s="5">
-        <v>0.038868</v>
+        <v>0.063302</v>
       </c>
       <c r="D38" s="3">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E38" s="6">
-        <v>0.05714285714285714</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="F38" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G38" s="5">
-        <v>0.09717000000000001</v>
+        <v>0.160472</v>
       </c>
       <c r="H38" s="3">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="I38" s="6">
-        <v>0.0847457627118644</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="J38" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K38" s="5">
-        <v>0.8003980000000003</v>
+        <v>0.8637000000000004</v>
       </c>
       <c r="L38" s="3">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="M38" s="6">
-        <v>0.1561181434599156</v>
+        <v>0.1593625498007968</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2173,40 +2173,40 @@
         <v>39</v>
       </c>
       <c r="B39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="5">
-        <v>0.038868</v>
+        <v>0.063302</v>
       </c>
       <c r="D39" s="3">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E39" s="6">
-        <v>0.06896551724137931</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F39" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G39" s="5">
-        <v>0.09717000000000001</v>
+        <v>0.160472</v>
       </c>
       <c r="H39" s="3">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="I39" s="6">
-        <v>0.07142857142857142</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="J39" s="3">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K39" s="5">
-        <v>0.8003980000000003</v>
+        <v>0.8637000000000004</v>
       </c>
       <c r="L39" s="3">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="M39" s="6">
-        <v>0.1796116504854369</v>
+        <v>0.1762114537444934</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2217,37 +2217,37 @@
         <v>2</v>
       </c>
       <c r="C40" s="5">
-        <v>0.06841599999999999</v>
+        <v>0.048868</v>
       </c>
       <c r="D40" s="3">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E40" s="6">
-        <v>0.02816901408450704</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="F40" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G40" s="5">
-        <v>0.117284</v>
+        <v>0.166152</v>
       </c>
       <c r="H40" s="3">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="I40" s="6">
-        <v>0.02531645569620253</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="J40" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K40" s="5">
-        <v>1.173555</v>
+        <v>1.222423</v>
       </c>
       <c r="L40" s="3">
-        <v>641</v>
+        <v>671</v>
       </c>
       <c r="M40" s="6">
-        <v>0.06396255850234009</v>
+        <v>0.06408345752608048</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2255,40 +2255,40 @@
         <v>41</v>
       </c>
       <c r="B41" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C41" s="5">
-        <v>0.07330199999999999</v>
+        <v>0.099727</v>
       </c>
       <c r="D41" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E41" s="6">
-        <v>0.2307692307692308</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F41" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G41" s="5">
-        <v>0.156378</v>
+        <v>0.256105</v>
       </c>
       <c r="H41" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I41" s="6">
-        <v>0.2727272727272727</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="J41" s="3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K41" s="5">
-        <v>1.153882</v>
+        <v>1.253609</v>
       </c>
       <c r="L41" s="3">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M41" s="6">
-        <v>0.4128440366972477</v>
+        <v>0.4152542372881356</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2296,40 +2296,40 @@
         <v>42</v>
       </c>
       <c r="B42" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C42" s="5">
-        <v>0.3029879999999999</v>
+        <v>0.190588</v>
       </c>
       <c r="D42" s="3">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E42" s="6">
-        <v>0.6071428571428571</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="F42" s="3">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G42" s="5">
-        <v>0.5717679999999998</v>
+        <v>0.7623559999999998</v>
       </c>
       <c r="H42" s="3">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I42" s="6">
-        <v>0.603448275862069</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="J42" s="3">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K42" s="5">
-        <v>2.888138000000003</v>
+        <v>3.078726000000003</v>
       </c>
       <c r="L42" s="3">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="M42" s="6">
-        <v>0.5817490494296578</v>
+        <v>0.5795053003533569</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2340,37 +2340,37 @@
         <v>3</v>
       </c>
       <c r="C43" s="5">
-        <v>0.07330199999999999</v>
+        <v>0.083076</v>
       </c>
       <c r="D43" s="3">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="E43" s="6">
-        <v>0.02777777777777778</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="F43" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G43" s="5">
-        <v>0.10751</v>
+        <v>0.190586</v>
       </c>
       <c r="H43" s="3">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="I43" s="6">
-        <v>0.0198019801980198</v>
+        <v>0.02892561983471074</v>
       </c>
       <c r="J43" s="3">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K43" s="5">
-        <v>0.8942880000000001</v>
+        <v>0.9773640000000001</v>
       </c>
       <c r="L43" s="3">
-        <v>839</v>
+        <v>879</v>
       </c>
       <c r="M43" s="6">
-        <v>0.03933253873659118</v>
+        <v>0.0409556313993174</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2378,16 +2378,16 @@
         <v>44</v>
       </c>
       <c r="B44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="5">
-        <v>0.049943</v>
+        <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E44" s="6">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
@@ -2396,10 +2396,10 @@
         <v>0.049943</v>
       </c>
       <c r="H44" s="3">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I44" s="6">
-        <v>0.0303030303030303</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="J44" s="3">
         <v>6</v>
@@ -2408,10 +2408,10 @@
         <v>0.169519</v>
       </c>
       <c r="L44" s="3">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="M44" s="6">
-        <v>0.02816901408450704</v>
+        <v>0.02714932126696833</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2419,40 +2419,40 @@
         <v>45</v>
       </c>
       <c r="B45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C45" s="5">
-        <v>0.06841599999999999</v>
+        <v>0.076076</v>
       </c>
       <c r="D45" s="3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E45" s="6">
-        <v>0.05</v>
+        <v>0.09375</v>
       </c>
       <c r="F45" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G45" s="5">
-        <v>0.160756</v>
+        <v>0.236832</v>
       </c>
       <c r="H45" s="3">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="I45" s="6">
-        <v>0.0505050505050505</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="J45" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K45" s="5">
-        <v>0.49841</v>
+        <v>0.5744859999999999</v>
       </c>
       <c r="L45" s="3">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="M45" s="6">
-        <v>0.03358208955223881</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2460,40 +2460,40 @@
         <v>46</v>
       </c>
       <c r="B46" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C46" s="5">
-        <v>0.171557</v>
+        <v>0.038868</v>
       </c>
       <c r="D46" s="3">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E46" s="6">
-        <v>0.1730769230769231</v>
+        <v>0.1</v>
       </c>
       <c r="F46" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" s="5">
-        <v>0.3153690000000001</v>
+        <v>0.3542370000000001</v>
       </c>
       <c r="H46" s="3">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="I46" s="6">
-        <v>0.1553398058252427</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="J46" s="3">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K46" s="5">
-        <v>2.635681000000001</v>
+        <v>2.674549000000001</v>
       </c>
       <c r="L46" s="3">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="M46" s="6">
-        <v>0.2271914132379249</v>
+        <v>0.2231833910034602</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2501,40 +2501,40 @@
         <v>47</v>
       </c>
       <c r="B47" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C47" s="5">
-        <v>0.198228</v>
+        <v>0.038868</v>
       </c>
       <c r="D47" s="3">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="E47" s="6">
-        <v>0.1071428571428571</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F47" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G47" s="5">
-        <v>0.4518140000000001</v>
+        <v>0.4906820000000002</v>
       </c>
       <c r="H47" s="3">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="I47" s="6">
-        <v>0.1182795698924731</v>
+        <v>0.1076233183856502</v>
       </c>
       <c r="J47" s="3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K47" s="5">
-        <v>1.927104</v>
+        <v>1.965972000000001</v>
       </c>
       <c r="L47" s="3">
-        <v>644</v>
+        <v>681</v>
       </c>
       <c r="M47" s="6">
-        <v>0.1459627329192547</v>
+        <v>0.1409691629955947</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2542,40 +2542,40 @@
         <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C48" s="5">
-        <v>0.326492</v>
+        <v>0.35701</v>
       </c>
       <c r="D48" s="3">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="E48" s="6">
-        <v>0.1212121212121212</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="F48" s="3">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G48" s="5">
-        <v>0.7629190000000002</v>
+        <v>1.119929</v>
       </c>
       <c r="H48" s="3">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="I48" s="6">
-        <v>0.1510204081632653</v>
+        <v>0.1753246753246753</v>
       </c>
       <c r="J48" s="3">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K48" s="5">
-        <v>4.537548999999996</v>
+        <v>4.894558999999996</v>
       </c>
       <c r="L48" s="3">
-        <v>1170</v>
+        <v>1223</v>
       </c>
       <c r="M48" s="6">
-        <v>0.1897435897435897</v>
+        <v>0.1954210956663941</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2583,40 +2583,40 @@
         <v>49</v>
       </c>
       <c r="B49" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C49" s="5">
-        <v>0.319799</v>
+        <v>0.181553</v>
       </c>
       <c r="D49" s="3">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E49" s="6">
-        <v>0.3061224489795918</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="F49" s="3">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G49" s="5">
-        <v>0.6185420000000001</v>
+        <v>0.8000950000000002</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="I49" s="6">
-        <v>0.29</v>
+        <v>0.2913385826771653</v>
       </c>
       <c r="J49" s="3">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K49" s="5">
-        <v>2.915886000000002</v>
+        <v>3.097439000000002</v>
       </c>
       <c r="L49" s="3">
-        <v>369</v>
+        <v>396</v>
       </c>
       <c r="M49" s="6">
-        <v>0.3766937669376694</v>
+        <v>0.3712121212121212</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2627,37 +2627,37 @@
         <v>7</v>
       </c>
       <c r="C50" s="5">
-        <v>0.177735</v>
+        <v>0.128593</v>
       </c>
       <c r="D50" s="3">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E50" s="6">
-        <v>0.2413793103448276</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="F50" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G50" s="5">
-        <v>0.4293259999999999</v>
+        <v>0.5579189999999998</v>
       </c>
       <c r="H50" s="3">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="I50" s="6">
-        <v>0.2727272727272727</v>
+        <v>0.2840909090909091</v>
       </c>
       <c r="J50" s="3">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K50" s="5">
-        <v>1.619475</v>
+        <v>1.748068</v>
       </c>
       <c r="L50" s="3">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="M50" s="6">
-        <v>0.2633587786259542</v>
+        <v>0.2676056338028169</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2665,40 +2665,40 @@
         <v>51</v>
       </c>
       <c r="B51" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="5">
-        <v>0.046642</v>
+        <v>0.066076</v>
       </c>
       <c r="D51" s="3">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E51" s="6">
-        <v>0.05882352941176471</v>
+        <v>0.125</v>
       </c>
       <c r="F51" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G51" s="5">
-        <v>0.1477</v>
+        <v>0.213776</v>
       </c>
       <c r="H51" s="3">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="I51" s="6">
-        <v>0.08333333333333333</v>
+        <v>0.09375</v>
       </c>
       <c r="J51" s="3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K51" s="5">
-        <v>0.6838280000000001</v>
+        <v>0.7499040000000001</v>
       </c>
       <c r="L51" s="3">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="M51" s="6">
-        <v>0.0960960960960961</v>
+        <v>0.09831460674157304</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2706,40 +2706,40 @@
         <v>52</v>
       </c>
       <c r="B52" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" s="5">
-        <v>0.07492799999999999</v>
+        <v>0.019434</v>
       </c>
       <c r="D52" s="3">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E52" s="6">
-        <v>0.1875</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F52" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G52" s="5">
-        <v>0.141004</v>
+        <v>0.160438</v>
       </c>
       <c r="H52" s="3">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I52" s="6">
-        <v>0.2</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="J52" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K52" s="5">
-        <v>0.9000440000000003</v>
+        <v>0.9194780000000002</v>
       </c>
       <c r="L52" s="3">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M52" s="6">
-        <v>0.2657342657342657</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2747,40 +2747,40 @@
         <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C53" s="5">
-        <v>0.225787</v>
+        <v>0.131034</v>
       </c>
       <c r="D53" s="3">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E53" s="6">
-        <v>0.3214285714285715</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="F53" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G53" s="5">
-        <v>0.518702</v>
+        <v>0.6497360000000001</v>
       </c>
       <c r="H53" s="3">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I53" s="6">
-        <v>0.4285714285714285</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="J53" s="3">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="K53" s="5">
-        <v>2.688763</v>
+        <v>2.819797</v>
       </c>
       <c r="L53" s="3">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M53" s="6">
-        <v>0.4647302904564315</v>
+        <v>0.4661354581673307</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2788,40 +2788,40 @@
         <v>54</v>
       </c>
       <c r="B54" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" s="5">
-        <v>0.207107</v>
+        <v>0.12992</v>
       </c>
       <c r="D54" s="3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E54" s="6">
-        <v>0.2580645161290323</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="F54" s="3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G54" s="5">
-        <v>0.6358549999999999</v>
+        <v>0.765775</v>
       </c>
       <c r="H54" s="3">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="I54" s="6">
-        <v>0.3103448275862069</v>
+        <v>0.308411214953271</v>
       </c>
       <c r="J54" s="3">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K54" s="5">
-        <v>2.268311000000002</v>
+        <v>2.398231000000002</v>
       </c>
       <c r="L54" s="3">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="M54" s="6">
-        <v>0.2824858757062147</v>
+        <v>0.2834224598930482</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2829,40 +2829,40 @@
         <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55" s="5">
-        <v>0.058302</v>
+        <v>0.019434</v>
       </c>
       <c r="D55" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E55" s="6">
-        <v>0.1764705882352941</v>
+        <v>0.125</v>
       </c>
       <c r="F55" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G55" s="5">
-        <v>0.104944</v>
+        <v>0.124378</v>
       </c>
       <c r="H55" s="3">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="I55" s="6">
-        <v>0.1724137931034483</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="J55" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K55" s="5">
-        <v>0.498048</v>
+        <v>0.5174820000000001</v>
       </c>
       <c r="L55" s="3">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M55" s="6">
-        <v>0.2222222222222222</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2870,40 +2870,40 @@
         <v>56</v>
       </c>
       <c r="B56" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C56" s="5">
-        <v>0.05864199999999999</v>
+        <v>0.068302</v>
       </c>
       <c r="D56" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E56" s="6">
-        <v>0.07692307692307693</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="F56" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G56" s="5">
-        <v>0.05864199999999999</v>
+        <v>0.126944</v>
       </c>
       <c r="H56" s="3">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="I56" s="6">
-        <v>0.03636363636363636</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="J56" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K56" s="5">
-        <v>0.720955</v>
+        <v>0.7892570000000001</v>
       </c>
       <c r="L56" s="3">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M56" s="6">
-        <v>0.1191489361702128</v>
+        <v>0.12109375</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2911,40 +2911,40 @@
         <v>57</v>
       </c>
       <c r="B57" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C57" s="5">
-        <v>0.252706</v>
+        <v>0.05864199999999999</v>
       </c>
       <c r="D57" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E57" s="6">
-        <v>0.4666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="F57" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G57" s="5">
-        <v>0.465041</v>
+        <v>0.523683</v>
       </c>
       <c r="H57" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I57" s="6">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="J57" s="3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K57" s="5">
-        <v>1.972996</v>
+        <v>2.031638</v>
       </c>
       <c r="L57" s="3">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M57" s="6">
-        <v>0.4814814814814815</v>
+        <v>0.4620689655172414</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2952,40 +2952,40 @@
         <v>11</v>
       </c>
       <c r="B58" s="3">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="C58" s="5">
-        <v>5.985795</v>
+        <v>3.430444999999999</v>
       </c>
       <c r="D58" s="3">
-        <v>1917</v>
+        <v>1070</v>
       </c>
       <c r="E58" s="6">
-        <v>0.1377151799687011</v>
+        <v>0.1523364485981308</v>
       </c>
       <c r="F58" s="3">
-        <v>530</v>
+        <v>693</v>
       </c>
       <c r="G58" s="5">
-        <v>11.823812</v>
+        <v>15.254257</v>
       </c>
       <c r="H58" s="3">
-        <v>3841</v>
+        <v>4889</v>
       </c>
       <c r="I58" s="6">
-        <v>0.137984899765686</v>
+        <v>0.1417467784823072</v>
       </c>
       <c r="J58" s="3">
-        <v>2812</v>
+        <v>2975</v>
       </c>
       <c r="K58" s="5">
-        <v>62.26686100000001</v>
+        <v>65.69730599999998</v>
       </c>
       <c r="L58" s="3">
-        <v>16745</v>
+        <v>17771</v>
       </c>
       <c r="M58" s="6">
-        <v>0.1679307255897283</v>
+        <v>0.16740757413764</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E309"/>
+  <dimension ref="A1:E317"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3528,7 +3528,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="5">
-        <v>0.4911059999999999</v>
+        <v>0.491106</v>
       </c>
       <c r="D35" s="3">
         <v>60</v>
@@ -4321,7 +4321,7 @@
         <v>24</v>
       </c>
       <c r="C89" s="5">
-        <v>0.4515620000000001</v>
+        <v>0.451562</v>
       </c>
       <c r="D89" s="3">
         <v>270</v>
@@ -4636,7 +4636,7 @@
         <v>261</v>
       </c>
       <c r="C109" s="5">
-        <v>5.823127999999999</v>
+        <v>5.823128</v>
       </c>
       <c r="D109" s="3">
         <v>1950</v>
@@ -4679,7 +4679,7 @@
         <v>43</v>
       </c>
       <c r="C113" s="5">
-        <v>0.8049980000000001</v>
+        <v>0.8049980000000002</v>
       </c>
       <c r="D113" s="3">
         <v>483</v>
@@ -4827,7 +4827,7 @@
     <row r="123" spans="1:5">
       <c r="A123" s="3"/>
       <c r="B123" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -4858,7 +4858,7 @@
         <v>38</v>
       </c>
       <c r="C125" s="5">
-        <v>0.7412270000000002</v>
+        <v>0.7412270000000001</v>
       </c>
       <c r="D125" s="3">
         <v>382</v>
@@ -5006,7 +5006,7 @@
     <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -5034,123 +5034,158 @@
         <v>3</v>
       </c>
       <c r="B137" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C137" s="5">
-        <v>0</v>
+        <v>0.792284</v>
       </c>
       <c r="D137" s="3">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="E137" s="6">
-        <v>0</v>
+        <v>0.1206896551724138</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B138" s="3">
+        <v>33</v>
+      </c>
+      <c r="C138" s="5">
+        <v>0.7366200000000002</v>
+      </c>
+      <c r="D138" s="3">
+        <v>187</v>
+      </c>
+      <c r="E138" s="6">
+        <v>0.1764705882352941</v>
+      </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="3"/>
-      <c r="B139" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
+      <c r="A139" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="3">
+        <v>26</v>
+      </c>
+      <c r="C139" s="5">
+        <v>0.5616370000000001</v>
+      </c>
+      <c r="D139" s="3">
+        <v>180</v>
+      </c>
+      <c r="E139" s="6">
+        <v>0.1444444444444444</v>
+      </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="B140" s="3">
+        <v>31</v>
+      </c>
+      <c r="C140" s="5">
+        <v>0.6760440000000001</v>
+      </c>
+      <c r="D140" s="3">
+        <v>123</v>
+      </c>
+      <c r="E140" s="6">
+        <v>0.2520325203252032</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B141" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C141" s="5">
-        <v>0</v>
+        <v>0.038868</v>
       </c>
       <c r="D141" s="3">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E141" s="6">
-        <v>0</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B142" s="3">
+        <v>21</v>
+      </c>
+      <c r="C142" s="5">
+        <v>0.4347460000000001</v>
+      </c>
+      <c r="D142" s="3">
+        <v>125</v>
+      </c>
+      <c r="E142" s="6">
+        <v>0.168</v>
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="3"/>
-      <c r="B143" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
+      <c r="A143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="3">
+        <v>5</v>
+      </c>
+      <c r="C143" s="5">
+        <v>0.126944</v>
+      </c>
+      <c r="D143" s="3">
+        <v>33</v>
+      </c>
+      <c r="E143" s="6">
+        <v>0.1515151515151515</v>
+      </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B144" s="3">
+        <v>0</v>
+      </c>
+      <c r="C144" s="5">
+        <v>0</v>
+      </c>
+      <c r="D144" s="3">
+        <v>28</v>
+      </c>
+      <c r="E144" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B145" s="3">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="C145" s="5">
-        <v>0</v>
+        <v>3.367143</v>
       </c>
       <c r="D145" s="3">
-        <v>0</v>
+        <v>1071</v>
       </c>
       <c r="E145" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="4" t="s">
-        <v>4</v>
+        <v>0.1493930905695612</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -5198,7 +5233,7 @@
     <row r="151" spans="1:5">
       <c r="A151" s="3"/>
       <c r="B151" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -5246,7 +5281,7 @@
     <row r="155" spans="1:5">
       <c r="A155" s="3"/>
       <c r="B155" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -5294,7 +5329,7 @@
     <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -5342,7 +5377,7 @@
     <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -5390,7 +5425,7 @@
     <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -5438,7 +5473,7 @@
     <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -5486,7 +5521,7 @@
     <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -5534,7 +5569,7 @@
     <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -5582,7 +5617,7 @@
     <row r="183" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -5630,7 +5665,7 @@
     <row r="187" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -5678,7 +5713,7 @@
     <row r="191" spans="1:5">
       <c r="A191" s="3"/>
       <c r="B191" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -5726,7 +5761,7 @@
     <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -5774,7 +5809,7 @@
     <row r="199" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -5822,7 +5857,7 @@
     <row r="203" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -5870,7 +5905,7 @@
     <row r="207" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -5918,7 +5953,7 @@
     <row r="211" spans="1:5">
       <c r="A211" s="3"/>
       <c r="B211" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -5966,7 +6001,7 @@
     <row r="215" spans="1:5">
       <c r="A215" s="3"/>
       <c r="B215" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -6014,7 +6049,7 @@
     <row r="219" spans="1:5">
       <c r="A219" s="3"/>
       <c r="B219" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -6062,7 +6097,7 @@
     <row r="223" spans="1:5">
       <c r="A223" s="3"/>
       <c r="B223" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -6110,7 +6145,7 @@
     <row r="227" spans="1:5">
       <c r="A227" s="3"/>
       <c r="B227" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -6158,7 +6193,7 @@
     <row r="231" spans="1:5">
       <c r="A231" s="3"/>
       <c r="B231" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -6206,7 +6241,7 @@
     <row r="235" spans="1:5">
       <c r="A235" s="3"/>
       <c r="B235" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -6254,7 +6289,7 @@
     <row r="239" spans="1:5">
       <c r="A239" s="3"/>
       <c r="B239" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -6302,7 +6337,7 @@
     <row r="243" spans="1:5">
       <c r="A243" s="3"/>
       <c r="B243" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -6350,7 +6385,7 @@
     <row r="247" spans="1:5">
       <c r="A247" s="3"/>
       <c r="B247" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -6398,7 +6433,7 @@
     <row r="251" spans="1:5">
       <c r="A251" s="3"/>
       <c r="B251" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -6446,7 +6481,7 @@
     <row r="255" spans="1:5">
       <c r="A255" s="3"/>
       <c r="B255" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -6494,7 +6529,7 @@
     <row r="259" spans="1:5">
       <c r="A259" s="3"/>
       <c r="B259" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -6542,7 +6577,7 @@
     <row r="263" spans="1:5">
       <c r="A263" s="3"/>
       <c r="B263" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -6590,7 +6625,7 @@
     <row r="267" spans="1:5">
       <c r="A267" s="3"/>
       <c r="B267" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -6638,7 +6673,7 @@
     <row r="271" spans="1:5">
       <c r="A271" s="3"/>
       <c r="B271" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -6686,7 +6721,7 @@
     <row r="275" spans="1:5">
       <c r="A275" s="3"/>
       <c r="B275" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -6734,7 +6769,7 @@
     <row r="279" spans="1:5">
       <c r="A279" s="3"/>
       <c r="B279" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -6782,7 +6817,7 @@
     <row r="283" spans="1:5">
       <c r="A283" s="3"/>
       <c r="B283" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -6830,7 +6865,7 @@
     <row r="287" spans="1:5">
       <c r="A287" s="3"/>
       <c r="B287" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -6878,7 +6913,7 @@
     <row r="291" spans="1:5">
       <c r="A291" s="3"/>
       <c r="B291" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -6926,7 +6961,7 @@
     <row r="295" spans="1:5">
       <c r="A295" s="3"/>
       <c r="B295" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -6974,7 +7009,7 @@
     <row r="299" spans="1:5">
       <c r="A299" s="3"/>
       <c r="B299" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -7020,37 +7055,133 @@
       </c>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A303" s="3"/>
+      <c r="B303" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+      <c r="E303" s="4"/>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D304" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305" s="3">
+        <v>0</v>
+      </c>
+      <c r="C305" s="5">
+        <v>0</v>
+      </c>
+      <c r="D305" s="3">
+        <v>0</v>
+      </c>
+      <c r="E305" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="3"/>
+      <c r="B307" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B309" s="3">
+        <v>0</v>
+      </c>
+      <c r="C309" s="5">
+        <v>0</v>
+      </c>
+      <c r="D309" s="3">
+        <v>0</v>
+      </c>
+      <c r="E309" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="305" spans="1:1">
-      <c r="A305" s="4" t="s">
+    <row r="313" spans="1:5">
+      <c r="A313" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:1">
-      <c r="A306" s="4" t="s">
+    <row r="314" spans="1:5">
+      <c r="A314" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:1">
-      <c r="A307" s="4" t="s">
+    <row r="315" spans="1:5">
+      <c r="A315" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:1">
-      <c r="A308" s="4" t="s">
+    <row r="316" spans="1:5">
+      <c r="A316" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:1">
-      <c r="A309" s="4" t="s">
+    <row r="317" spans="1:5">
+      <c r="A317" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7070,8 +7201,6 @@
     <mergeCell ref="B111:E111"/>
     <mergeCell ref="B123:E123"/>
     <mergeCell ref="B135:E135"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="B143:E143"/>
     <mergeCell ref="B147:E147"/>
     <mergeCell ref="B151:E151"/>
     <mergeCell ref="B155:E155"/>
@@ -7111,6 +7240,8 @@
     <mergeCell ref="B291:E291"/>
     <mergeCell ref="B295:E295"/>
     <mergeCell ref="B299:E299"/>
+    <mergeCell ref="B303:E303"/>
+    <mergeCell ref="B307:E307"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7196,7 +7327,7 @@
         <v>433</v>
       </c>
       <c r="C6" s="5">
-        <v>9.938784999999974</v>
+        <v>9.938784999999976</v>
       </c>
       <c r="D6" s="3">
         <v>2108</v>
@@ -7534,16 +7665,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="3">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C29" s="5">
-        <v>1.616188</v>
+        <v>2.408472000000001</v>
       </c>
       <c r="D29" s="3">
-        <v>897</v>
+        <v>1241</v>
       </c>
       <c r="E29" s="6">
-        <v>0.09364548494983277</v>
+        <v>0.1015310233682514</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7551,16 +7682,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="3">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C30" s="5">
-        <v>3.933567999999996</v>
+        <v>4.670187999999995</v>
       </c>
       <c r="D30" s="3">
-        <v>976</v>
+        <v>1159</v>
       </c>
       <c r="E30" s="6">
-        <v>0.1711065573770492</v>
+        <v>0.1725625539257981</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7568,16 +7699,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="3">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="C31" s="5">
-        <v>1.260809</v>
+        <v>1.822446</v>
       </c>
       <c r="D31" s="3">
-        <v>701</v>
+        <v>875</v>
       </c>
       <c r="E31" s="6">
-        <v>0.08559201141226819</v>
+        <v>0.09828571428571428</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7585,16 +7716,16 @@
         <v>6</v>
       </c>
       <c r="B32" s="3">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="C32" s="5">
-        <v>2.596073000000001</v>
+        <v>3.272117000000001</v>
       </c>
       <c r="D32" s="3">
-        <v>433</v>
+        <v>552</v>
       </c>
       <c r="E32" s="6">
-        <v>0.2586605080831409</v>
+        <v>0.2590579710144927</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7602,16 +7733,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C33" s="5">
-        <v>0.246785</v>
+        <v>0.285653</v>
       </c>
       <c r="D33" s="3">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="E33" s="6">
-        <v>0.08759124087591241</v>
+        <v>0.07608695652173914</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7619,16 +7750,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="3">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C34" s="5">
-        <v>1.530102000000001</v>
+        <v>1.964848000000001</v>
       </c>
       <c r="D34" s="3">
-        <v>534</v>
+        <v>654</v>
       </c>
       <c r="E34" s="6">
-        <v>0.1404494382022472</v>
+        <v>0.1467889908256881</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7636,16 +7767,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C35" s="5">
-        <v>0.5236830000000001</v>
+        <v>0.6506270000000002</v>
       </c>
       <c r="D35" s="3">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E35" s="6">
-        <v>0.1647058823529412</v>
+        <v>0.1623931623931624</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7659,10 +7790,10 @@
         <v>0.019434</v>
       </c>
       <c r="D36" s="3">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E36" s="6">
-        <v>0.01265822784810127</v>
+        <v>0.009345794392523364</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7670,16 +7801,16 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>525</v>
+        <v>685</v>
       </c>
       <c r="C37" s="5">
-        <v>11.726642</v>
+        <v>15.093785</v>
       </c>
       <c r="D37" s="3">
-        <v>3842</v>
+        <v>4889</v>
       </c>
       <c r="E37" s="6">
-        <v>0.1366475793857366</v>
+        <v>0.140110452035181</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8172,7 +8303,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E679"/>
+  <dimension ref="A1:E718"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8352,7 +8483,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="5">
-        <v>0.248756</v>
+        <v>0.2487559999999999</v>
       </c>
       <c r="D12" s="3">
         <v>124</v>
@@ -12564,7 +12695,7 @@
         <v>4</v>
       </c>
       <c r="C268" s="5">
-        <v>0.04364199999999999</v>
+        <v>0.043642</v>
       </c>
       <c r="D268" s="3">
         <v>39</v>
@@ -15238,7 +15369,7 @@
     <row r="431" spans="1:5">
       <c r="A431" s="3"/>
       <c r="B431" s="4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
@@ -15944,7 +16075,7 @@
     <row r="474" spans="1:5">
       <c r="A474" s="3"/>
       <c r="B474" s="4" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -15972,2178 +16103,2836 @@
         <v>20</v>
       </c>
       <c r="B476" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" s="5">
-        <v>0</v>
+        <v>0.027208</v>
       </c>
       <c r="D476" s="3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E476" s="6">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B477" s="3">
+        <v>1</v>
+      </c>
+      <c r="C477" s="5">
+        <v>0.024434</v>
+      </c>
+      <c r="D477" s="3">
+        <v>66</v>
+      </c>
+      <c r="E477" s="6">
+        <v>0.01515151515151515</v>
+      </c>
     </row>
     <row r="478" spans="1:5">
-      <c r="A478" s="3"/>
-      <c r="B478" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C478" s="4"/>
-      <c r="D478" s="4"/>
-      <c r="E478" s="4"/>
+      <c r="A478" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B478" s="3">
+        <v>3</v>
+      </c>
+      <c r="C478" s="5">
+        <v>0.066076</v>
+      </c>
+      <c r="D478" s="3">
+        <v>6</v>
+      </c>
+      <c r="E478" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B479" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C479" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D479" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E479" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="B479" s="3">
+        <v>5</v>
+      </c>
+      <c r="C479" s="5">
+        <v>0.09717000000000001</v>
+      </c>
+      <c r="D479" s="3">
+        <v>35</v>
+      </c>
+      <c r="E479" s="6">
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B480" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C480" s="5">
-        <v>0</v>
+        <v>0.131604</v>
       </c>
       <c r="D480" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E480" s="6">
-        <v>0</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B481" s="3">
+        <v>14</v>
+      </c>
+      <c r="C481" s="5">
+        <v>0.2926150000000001</v>
+      </c>
+      <c r="D481" s="3">
+        <v>78</v>
+      </c>
+      <c r="E481" s="6">
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="482" spans="1:5">
-      <c r="A482" s="3"/>
-      <c r="B482" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C482" s="4"/>
-      <c r="D482" s="4"/>
-      <c r="E482" s="4"/>
+      <c r="A482" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B482" s="3">
+        <v>8</v>
+      </c>
+      <c r="C482" s="5">
+        <v>0.077554</v>
+      </c>
+      <c r="D482" s="3">
+        <v>24</v>
+      </c>
+      <c r="E482" s="6">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B483" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C483" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D483" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E483" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B483" s="3">
+        <v>6</v>
+      </c>
+      <c r="C483" s="5">
+        <v>0.075623</v>
+      </c>
+      <c r="D483" s="3">
+        <v>67</v>
+      </c>
+      <c r="E483" s="6">
+        <v>0.08955223880597014</v>
       </c>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B484" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C484" s="5">
-        <v>0</v>
+        <v>0.176201</v>
       </c>
       <c r="D484" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E484" s="6">
-        <v>0</v>
+        <v>0.1372549019607843</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B485" s="3">
+        <v>1</v>
+      </c>
+      <c r="C485" s="5">
+        <v>0.027208</v>
+      </c>
+      <c r="D485" s="3">
+        <v>34</v>
+      </c>
+      <c r="E485" s="6">
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="486" spans="1:5">
-      <c r="A486" s="3"/>
-      <c r="B486" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C486" s="4"/>
-      <c r="D486" s="4"/>
-      <c r="E486" s="4"/>
+      <c r="A486" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B486" s="3">
+        <v>12</v>
+      </c>
+      <c r="C486" s="5">
+        <v>0.296023</v>
+      </c>
+      <c r="D486" s="3">
+        <v>30</v>
+      </c>
+      <c r="E486" s="6">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B487" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C487" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D487" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E487" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="B487" s="3">
+        <v>6</v>
+      </c>
+      <c r="C487" s="5">
+        <v>0.12825</v>
+      </c>
+      <c r="D487" s="3">
+        <v>25</v>
+      </c>
+      <c r="E487" s="6">
+        <v>0.24</v>
       </c>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B488" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C488" s="5">
-        <v>0</v>
+        <v>0.037998</v>
       </c>
       <c r="D488" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E488" s="6">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="B489" s="3">
+        <v>4</v>
+      </c>
+      <c r="C489" s="5">
+        <v>0.04650599999999999</v>
+      </c>
+      <c r="D489" s="3">
+        <v>27</v>
+      </c>
+      <c r="E489" s="6">
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="490" spans="1:5">
-      <c r="A490" s="3"/>
-      <c r="B490" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C490" s="4"/>
-      <c r="D490" s="4"/>
-      <c r="E490" s="4"/>
+      <c r="A490" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B490" s="3">
+        <v>1</v>
+      </c>
+      <c r="C490" s="5">
+        <v>0.024434</v>
+      </c>
+      <c r="D490" s="3">
+        <v>15</v>
+      </c>
+      <c r="E490" s="6">
+        <v>0.06666666666666667</v>
+      </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B491" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C491" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D491" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E491" s="4" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="B491" s="3">
+        <v>0</v>
+      </c>
+      <c r="C491" s="5">
+        <v>0</v>
+      </c>
+      <c r="D491" s="3">
+        <v>8</v>
+      </c>
+      <c r="E491" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B492" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C492" s="5">
-        <v>0</v>
+        <v>0.038868</v>
       </c>
       <c r="D492" s="3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E492" s="6">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="B493" s="3">
+        <v>0</v>
+      </c>
+      <c r="C493" s="5">
+        <v>0</v>
+      </c>
+      <c r="D493" s="3">
+        <v>12</v>
+      </c>
+      <c r="E493" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:5">
-      <c r="A494" s="3"/>
-      <c r="B494" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C494" s="4"/>
-      <c r="D494" s="4"/>
-      <c r="E494" s="4"/>
+      <c r="A494" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B494" s="3">
+        <v>0</v>
+      </c>
+      <c r="C494" s="5">
+        <v>0</v>
+      </c>
+      <c r="D494" s="3">
+        <v>28</v>
+      </c>
+      <c r="E494" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B495" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C495" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B495" s="3">
+        <v>3</v>
+      </c>
+      <c r="C495" s="5">
+        <v>0.063302</v>
+      </c>
+      <c r="D495" s="3">
         <v>14</v>
       </c>
-      <c r="D495" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E495" s="4" t="s">
-        <v>16</v>
+      <c r="E495" s="6">
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B496" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C496" s="5">
-        <v>0</v>
+        <v>0.063302</v>
       </c>
       <c r="D496" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E496" s="6">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="B497" s="3">
+        <v>2</v>
+      </c>
+      <c r="C497" s="5">
+        <v>0.048868</v>
+      </c>
+      <c r="D497" s="3">
+        <v>33</v>
+      </c>
+      <c r="E497" s="6">
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="3"/>
-      <c r="B498" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C498" s="4"/>
-      <c r="D498" s="4"/>
-      <c r="E498" s="4"/>
+      <c r="A498" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B498" s="3">
+        <v>4</v>
+      </c>
+      <c r="C498" s="5">
+        <v>0.099727</v>
+      </c>
+      <c r="D498" s="3">
+        <v>9</v>
+      </c>
+      <c r="E498" s="6">
+        <v>0.4444444444444444</v>
+      </c>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B499" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C499" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D499" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E499" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
+      </c>
+      <c r="B499" s="3">
+        <v>11</v>
+      </c>
+      <c r="C499" s="5">
+        <v>0.190588</v>
+      </c>
+      <c r="D499" s="3">
+        <v>21</v>
+      </c>
+      <c r="E499" s="6">
+        <v>0.5238095238095238</v>
       </c>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B500" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C500" s="5">
-        <v>0</v>
+        <v>0.083076</v>
       </c>
       <c r="D500" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E500" s="6">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="B501" s="3">
+        <v>0</v>
+      </c>
+      <c r="C501" s="5">
+        <v>0</v>
+      </c>
+      <c r="D501" s="3">
+        <v>8</v>
+      </c>
+      <c r="E501" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:5">
-      <c r="A502" s="3"/>
-      <c r="B502" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C502" s="4"/>
-      <c r="D502" s="4"/>
-      <c r="E502" s="4"/>
+      <c r="A502" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B502" s="3">
+        <v>3</v>
+      </c>
+      <c r="C502" s="5">
+        <v>0.076076</v>
+      </c>
+      <c r="D502" s="3">
+        <v>32</v>
+      </c>
+      <c r="E502" s="6">
+        <v>0.09375</v>
+      </c>
     </row>
     <row r="503" spans="1:5">
       <c r="A503" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B503" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C503" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D503" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E503" s="4" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="B503" s="3">
+        <v>2</v>
+      </c>
+      <c r="C503" s="5">
+        <v>0.038868</v>
+      </c>
+      <c r="D503" s="3">
+        <v>20</v>
+      </c>
+      <c r="E503" s="6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B504" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C504" s="5">
-        <v>0</v>
+        <v>0.038868</v>
       </c>
       <c r="D504" s="3">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E504" s="6">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="B505" s="3">
+        <v>17</v>
+      </c>
+      <c r="C505" s="5">
+        <v>0.35701</v>
+      </c>
+      <c r="D505" s="3">
+        <v>66</v>
+      </c>
+      <c r="E505" s="6">
+        <v>0.2575757575757576</v>
       </c>
     </row>
     <row r="506" spans="1:5">
-      <c r="A506" s="3"/>
-      <c r="B506" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C506" s="4"/>
-      <c r="D506" s="4"/>
-      <c r="E506" s="4"/>
+      <c r="A506" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B506" s="3">
+        <v>8</v>
+      </c>
+      <c r="C506" s="5">
+        <v>0.181553</v>
+      </c>
+      <c r="D506" s="3">
+        <v>29</v>
+      </c>
+      <c r="E506" s="6">
+        <v>0.2758620689655172</v>
+      </c>
     </row>
     <row r="507" spans="1:5">
       <c r="A507" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B507" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C507" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D507" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E507" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="B507" s="3">
+        <v>7</v>
+      </c>
+      <c r="C507" s="5">
+        <v>0.128593</v>
+      </c>
+      <c r="D507" s="3">
+        <v>23</v>
+      </c>
+      <c r="E507" s="6">
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B508" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C508" s="5">
-        <v>0</v>
+        <v>0.066076</v>
       </c>
       <c r="D508" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E508" s="6">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="509" spans="1:5">
       <c r="A509" s="4" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="B509" s="3">
+        <v>1</v>
+      </c>
+      <c r="C509" s="5">
+        <v>0.019434</v>
+      </c>
+      <c r="D509" s="3">
+        <v>7</v>
+      </c>
+      <c r="E509" s="6">
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="510" spans="1:5">
-      <c r="A510" s="3"/>
-      <c r="B510" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C510" s="4"/>
-      <c r="D510" s="4"/>
-      <c r="E510" s="4"/>
+      <c r="A510" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B510" s="3">
+        <v>5</v>
+      </c>
+      <c r="C510" s="5">
+        <v>0.131034</v>
+      </c>
+      <c r="D510" s="3">
+        <v>11</v>
+      </c>
+      <c r="E510" s="6">
+        <v>0.4545454545454545</v>
+      </c>
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B511" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C511" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D511" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E511" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="B511" s="3">
+        <v>6</v>
+      </c>
+      <c r="C511" s="5">
+        <v>0.12992</v>
+      </c>
+      <c r="D511" s="3">
+        <v>21</v>
+      </c>
+      <c r="E511" s="6">
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B512" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" s="5">
-        <v>0</v>
+        <v>0.019434</v>
       </c>
       <c r="D512" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E512" s="6">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="513" spans="1:5">
       <c r="A513" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="B513" s="3">
+        <v>3</v>
+      </c>
+      <c r="C513" s="5">
+        <v>0.068302</v>
+      </c>
+      <c r="D513" s="3">
+        <v>23</v>
+      </c>
+      <c r="E513" s="6">
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="514" spans="1:5">
-      <c r="A514" s="3"/>
-      <c r="B514" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C514" s="4"/>
-      <c r="D514" s="4"/>
-      <c r="E514" s="4"/>
+      <c r="A514" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B514" s="3">
+        <v>2</v>
+      </c>
+      <c r="C514" s="5">
+        <v>0.05864199999999999</v>
+      </c>
+      <c r="D514" s="3">
+        <v>10</v>
+      </c>
+      <c r="E514" s="6">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B515" s="3">
+        <v>163</v>
+      </c>
+      <c r="C515" s="5">
+        <v>3.430444999999999</v>
+      </c>
+      <c r="D515" s="3">
+        <v>1070</v>
+      </c>
+      <c r="E515" s="6">
+        <v>0.1523364485981308</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="3"/>
+      <c r="B517" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C517" s="4"/>
+      <c r="D517" s="4"/>
+      <c r="E517" s="4"/>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B515" s="4" t="s">
+      <c r="B518" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C515" s="4" t="s">
+      <c r="C518" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D515" s="4" t="s">
+      <c r="D518" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E515" s="4" t="s">
+      <c r="E518" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="516" spans="1:5">
-      <c r="A516" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B516" s="3">
-        <v>0</v>
-      </c>
-      <c r="C516" s="5">
-        <v>0</v>
-      </c>
-      <c r="D516" s="3">
-        <v>0</v>
-      </c>
-      <c r="E516" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
-      <c r="A517" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
-      <c r="A518" s="3"/>
-      <c r="B518" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C518" s="4"/>
-      <c r="D518" s="4"/>
-      <c r="E518" s="4"/>
     </row>
     <row r="519" spans="1:5">
       <c r="A519" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B519" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C519" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D519" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E519" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B519" s="3">
+        <v>0</v>
+      </c>
+      <c r="C519" s="5">
+        <v>0</v>
+      </c>
+      <c r="D519" s="3">
+        <v>0</v>
+      </c>
+      <c r="E519" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B520" s="3">
-        <v>0</v>
-      </c>
-      <c r="C520" s="5">
-        <v>0</v>
-      </c>
-      <c r="D520" s="3">
-        <v>0</v>
-      </c>
-      <c r="E520" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="521" spans="1:5">
-      <c r="A521" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A521" s="3"/>
+      <c r="B521" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C521" s="4"/>
+      <c r="D521" s="4"/>
+      <c r="E521" s="4"/>
     </row>
     <row r="522" spans="1:5">
-      <c r="A522" s="3"/>
+      <c r="A522" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B522" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C522" s="4"/>
-      <c r="D522" s="4"/>
-      <c r="E522" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D522" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E522" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B523" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C523" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D523" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E523" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B523" s="3">
+        <v>0</v>
+      </c>
+      <c r="C523" s="5">
+        <v>0</v>
+      </c>
+      <c r="D523" s="3">
+        <v>0</v>
+      </c>
+      <c r="E523" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B524" s="3">
-        <v>0</v>
-      </c>
-      <c r="C524" s="5">
-        <v>0</v>
-      </c>
-      <c r="D524" s="3">
-        <v>0</v>
-      </c>
-      <c r="E524" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="525" spans="1:5">
-      <c r="A525" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A525" s="3"/>
+      <c r="B525" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C525" s="4"/>
+      <c r="D525" s="4"/>
+      <c r="E525" s="4"/>
     </row>
     <row r="526" spans="1:5">
-      <c r="A526" s="3"/>
+      <c r="A526" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B526" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C526" s="4"/>
-      <c r="D526" s="4"/>
-      <c r="E526" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D526" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E526" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B527" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C527" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D527" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E527" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B527" s="3">
+        <v>0</v>
+      </c>
+      <c r="C527" s="5">
+        <v>0</v>
+      </c>
+      <c r="D527" s="3">
+        <v>0</v>
+      </c>
+      <c r="E527" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B528" s="3">
-        <v>0</v>
-      </c>
-      <c r="C528" s="5">
-        <v>0</v>
-      </c>
-      <c r="D528" s="3">
-        <v>0</v>
-      </c>
-      <c r="E528" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="529" spans="1:5">
-      <c r="A529" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A529" s="3"/>
+      <c r="B529" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C529" s="4"/>
+      <c r="D529" s="4"/>
+      <c r="E529" s="4"/>
     </row>
     <row r="530" spans="1:5">
-      <c r="A530" s="3"/>
+      <c r="A530" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B530" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C530" s="4"/>
-      <c r="D530" s="4"/>
-      <c r="E530" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D530" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E530" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B531" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C531" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D531" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E531" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B531" s="3">
+        <v>0</v>
+      </c>
+      <c r="C531" s="5">
+        <v>0</v>
+      </c>
+      <c r="D531" s="3">
+        <v>0</v>
+      </c>
+      <c r="E531" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B532" s="3">
-        <v>0</v>
-      </c>
-      <c r="C532" s="5">
-        <v>0</v>
-      </c>
-      <c r="D532" s="3">
-        <v>0</v>
-      </c>
-      <c r="E532" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="533" spans="1:5">
-      <c r="A533" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A533" s="3"/>
+      <c r="B533" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C533" s="4"/>
+      <c r="D533" s="4"/>
+      <c r="E533" s="4"/>
     </row>
     <row r="534" spans="1:5">
-      <c r="A534" s="3"/>
+      <c r="A534" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B534" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C534" s="4"/>
-      <c r="D534" s="4"/>
-      <c r="E534" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C534" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D534" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E534" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B535" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C535" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D535" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E535" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B535" s="3">
+        <v>0</v>
+      </c>
+      <c r="C535" s="5">
+        <v>0</v>
+      </c>
+      <c r="D535" s="3">
+        <v>0</v>
+      </c>
+      <c r="E535" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B536" s="3">
-        <v>0</v>
-      </c>
-      <c r="C536" s="5">
-        <v>0</v>
-      </c>
-      <c r="D536" s="3">
-        <v>0</v>
-      </c>
-      <c r="E536" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="537" spans="1:5">
-      <c r="A537" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A537" s="3"/>
+      <c r="B537" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C537" s="4"/>
+      <c r="D537" s="4"/>
+      <c r="E537" s="4"/>
     </row>
     <row r="538" spans="1:5">
-      <c r="A538" s="3"/>
+      <c r="A538" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B538" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C538" s="4"/>
-      <c r="D538" s="4"/>
-      <c r="E538" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D538" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E538" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B539" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C539" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D539" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E539" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B539" s="3">
+        <v>0</v>
+      </c>
+      <c r="C539" s="5">
+        <v>0</v>
+      </c>
+      <c r="D539" s="3">
+        <v>0</v>
+      </c>
+      <c r="E539" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B540" s="3">
-        <v>0</v>
-      </c>
-      <c r="C540" s="5">
-        <v>0</v>
-      </c>
-      <c r="D540" s="3">
-        <v>0</v>
-      </c>
-      <c r="E540" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="541" spans="1:5">
-      <c r="A541" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A541" s="3"/>
+      <c r="B541" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C541" s="4"/>
+      <c r="D541" s="4"/>
+      <c r="E541" s="4"/>
     </row>
     <row r="542" spans="1:5">
-      <c r="A542" s="3"/>
+      <c r="A542" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B542" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C542" s="4"/>
-      <c r="D542" s="4"/>
-      <c r="E542" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D542" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E542" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="543" spans="1:5">
       <c r="A543" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B543" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C543" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D543" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E543" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B543" s="3">
+        <v>0</v>
+      </c>
+      <c r="C543" s="5">
+        <v>0</v>
+      </c>
+      <c r="D543" s="3">
+        <v>0</v>
+      </c>
+      <c r="E543" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B544" s="3">
-        <v>0</v>
-      </c>
-      <c r="C544" s="5">
-        <v>0</v>
-      </c>
-      <c r="D544" s="3">
-        <v>0</v>
-      </c>
-      <c r="E544" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="545" spans="1:5">
-      <c r="A545" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A545" s="3"/>
+      <c r="B545" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C545" s="4"/>
+      <c r="D545" s="4"/>
+      <c r="E545" s="4"/>
     </row>
     <row r="546" spans="1:5">
-      <c r="A546" s="3"/>
+      <c r="A546" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B546" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C546" s="4"/>
-      <c r="D546" s="4"/>
-      <c r="E546" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C546" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D546" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E546" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="547" spans="1:5">
       <c r="A547" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B547" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C547" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D547" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E547" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B547" s="3">
+        <v>0</v>
+      </c>
+      <c r="C547" s="5">
+        <v>0</v>
+      </c>
+      <c r="D547" s="3">
+        <v>0</v>
+      </c>
+      <c r="E547" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:5">
       <c r="A548" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B548" s="3">
-        <v>0</v>
-      </c>
-      <c r="C548" s="5">
-        <v>0</v>
-      </c>
-      <c r="D548" s="3">
-        <v>0</v>
-      </c>
-      <c r="E548" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="549" spans="1:5">
-      <c r="A549" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A549" s="3"/>
+      <c r="B549" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C549" s="4"/>
+      <c r="D549" s="4"/>
+      <c r="E549" s="4"/>
     </row>
     <row r="550" spans="1:5">
-      <c r="A550" s="3"/>
+      <c r="A550" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B550" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C550" s="4"/>
-      <c r="D550" s="4"/>
-      <c r="E550" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C550" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D550" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E550" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="551" spans="1:5">
       <c r="A551" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B551" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C551" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D551" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E551" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B551" s="3">
+        <v>0</v>
+      </c>
+      <c r="C551" s="5">
+        <v>0</v>
+      </c>
+      <c r="D551" s="3">
+        <v>0</v>
+      </c>
+      <c r="E551" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B552" s="3">
-        <v>0</v>
-      </c>
-      <c r="C552" s="5">
-        <v>0</v>
-      </c>
-      <c r="D552" s="3">
-        <v>0</v>
-      </c>
-      <c r="E552" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="553" spans="1:5">
-      <c r="A553" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A553" s="3"/>
+      <c r="B553" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C553" s="4"/>
+      <c r="D553" s="4"/>
+      <c r="E553" s="4"/>
     </row>
     <row r="554" spans="1:5">
-      <c r="A554" s="3"/>
+      <c r="A554" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B554" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C554" s="4"/>
-      <c r="D554" s="4"/>
-      <c r="E554" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C554" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D554" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E554" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="555" spans="1:5">
       <c r="A555" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B555" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C555" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D555" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E555" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B555" s="3">
+        <v>0</v>
+      </c>
+      <c r="C555" s="5">
+        <v>0</v>
+      </c>
+      <c r="D555" s="3">
+        <v>0</v>
+      </c>
+      <c r="E555" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B556" s="3">
-        <v>0</v>
-      </c>
-      <c r="C556" s="5">
-        <v>0</v>
-      </c>
-      <c r="D556" s="3">
-        <v>0</v>
-      </c>
-      <c r="E556" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="557" spans="1:5">
-      <c r="A557" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A557" s="3"/>
+      <c r="B557" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C557" s="4"/>
+      <c r="D557" s="4"/>
+      <c r="E557" s="4"/>
     </row>
     <row r="558" spans="1:5">
-      <c r="A558" s="3"/>
+      <c r="A558" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B558" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C558" s="4"/>
-      <c r="D558" s="4"/>
-      <c r="E558" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C558" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D558" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E558" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="559" spans="1:5">
       <c r="A559" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B559" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C559" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D559" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E559" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B559" s="3">
+        <v>0</v>
+      </c>
+      <c r="C559" s="5">
+        <v>0</v>
+      </c>
+      <c r="D559" s="3">
+        <v>0</v>
+      </c>
+      <c r="E559" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:5">
       <c r="A560" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B560" s="3">
-        <v>0</v>
-      </c>
-      <c r="C560" s="5">
-        <v>0</v>
-      </c>
-      <c r="D560" s="3">
-        <v>0</v>
-      </c>
-      <c r="E560" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="561" spans="1:5">
-      <c r="A561" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A561" s="3"/>
+      <c r="B561" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C561" s="4"/>
+      <c r="D561" s="4"/>
+      <c r="E561" s="4"/>
     </row>
     <row r="562" spans="1:5">
-      <c r="A562" s="3"/>
+      <c r="A562" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B562" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C562" s="4"/>
-      <c r="D562" s="4"/>
-      <c r="E562" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C562" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D562" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E562" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B563" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C563" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D563" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E563" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B563" s="3">
+        <v>0</v>
+      </c>
+      <c r="C563" s="5">
+        <v>0</v>
+      </c>
+      <c r="D563" s="3">
+        <v>0</v>
+      </c>
+      <c r="E563" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:5">
       <c r="A564" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B564" s="3">
-        <v>0</v>
-      </c>
-      <c r="C564" s="5">
-        <v>0</v>
-      </c>
-      <c r="D564" s="3">
-        <v>0</v>
-      </c>
-      <c r="E564" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="565" spans="1:5">
-      <c r="A565" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A565" s="3"/>
+      <c r="B565" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C565" s="4"/>
+      <c r="D565" s="4"/>
+      <c r="E565" s="4"/>
     </row>
     <row r="566" spans="1:5">
-      <c r="A566" s="3"/>
+      <c r="A566" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B566" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C566" s="4"/>
-      <c r="D566" s="4"/>
-      <c r="E566" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C566" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D566" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E566" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="567" spans="1:5">
       <c r="A567" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B567" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C567" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D567" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E567" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B567" s="3">
+        <v>0</v>
+      </c>
+      <c r="C567" s="5">
+        <v>0</v>
+      </c>
+      <c r="D567" s="3">
+        <v>0</v>
+      </c>
+      <c r="E567" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:5">
       <c r="A568" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B568" s="3">
-        <v>0</v>
-      </c>
-      <c r="C568" s="5">
-        <v>0</v>
-      </c>
-      <c r="D568" s="3">
-        <v>0</v>
-      </c>
-      <c r="E568" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="569" spans="1:5">
-      <c r="A569" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A569" s="3"/>
+      <c r="B569" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C569" s="4"/>
+      <c r="D569" s="4"/>
+      <c r="E569" s="4"/>
     </row>
     <row r="570" spans="1:5">
-      <c r="A570" s="3"/>
+      <c r="A570" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B570" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C570" s="4"/>
-      <c r="D570" s="4"/>
-      <c r="E570" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C570" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D570" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E570" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B571" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C571" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D571" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E571" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B571" s="3">
+        <v>0</v>
+      </c>
+      <c r="C571" s="5">
+        <v>0</v>
+      </c>
+      <c r="D571" s="3">
+        <v>0</v>
+      </c>
+      <c r="E571" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:5">
       <c r="A572" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B572" s="3">
-        <v>0</v>
-      </c>
-      <c r="C572" s="5">
-        <v>0</v>
-      </c>
-      <c r="D572" s="3">
-        <v>0</v>
-      </c>
-      <c r="E572" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="573" spans="1:5">
-      <c r="A573" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A573" s="3"/>
+      <c r="B573" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C573" s="4"/>
+      <c r="D573" s="4"/>
+      <c r="E573" s="4"/>
     </row>
     <row r="574" spans="1:5">
-      <c r="A574" s="3"/>
+      <c r="A574" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B574" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C574" s="4"/>
-      <c r="D574" s="4"/>
-      <c r="E574" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C574" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D574" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E574" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="575" spans="1:5">
       <c r="A575" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B575" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C575" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D575" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E575" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B575" s="3">
+        <v>0</v>
+      </c>
+      <c r="C575" s="5">
+        <v>0</v>
+      </c>
+      <c r="D575" s="3">
+        <v>0</v>
+      </c>
+      <c r="E575" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:5">
       <c r="A576" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B576" s="3">
-        <v>0</v>
-      </c>
-      <c r="C576" s="5">
-        <v>0</v>
-      </c>
-      <c r="D576" s="3">
-        <v>0</v>
-      </c>
-      <c r="E576" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="577" spans="1:5">
-      <c r="A577" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A577" s="3"/>
+      <c r="B577" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C577" s="4"/>
+      <c r="D577" s="4"/>
+      <c r="E577" s="4"/>
     </row>
     <row r="578" spans="1:5">
-      <c r="A578" s="3"/>
+      <c r="A578" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B578" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C578" s="4"/>
-      <c r="D578" s="4"/>
-      <c r="E578" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C578" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D578" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E578" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B579" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C579" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D579" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E579" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B579" s="3">
+        <v>0</v>
+      </c>
+      <c r="C579" s="5">
+        <v>0</v>
+      </c>
+      <c r="D579" s="3">
+        <v>0</v>
+      </c>
+      <c r="E579" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B580" s="3">
-        <v>0</v>
-      </c>
-      <c r="C580" s="5">
-        <v>0</v>
-      </c>
-      <c r="D580" s="3">
-        <v>0</v>
-      </c>
-      <c r="E580" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="581" spans="1:5">
-      <c r="A581" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A581" s="3"/>
+      <c r="B581" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C581" s="4"/>
+      <c r="D581" s="4"/>
+      <c r="E581" s="4"/>
     </row>
     <row r="582" spans="1:5">
-      <c r="A582" s="3"/>
+      <c r="A582" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B582" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C582" s="4"/>
-      <c r="D582" s="4"/>
-      <c r="E582" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C582" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D582" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E582" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="583" spans="1:5">
       <c r="A583" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B583" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C583" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D583" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E583" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B583" s="3">
+        <v>0</v>
+      </c>
+      <c r="C583" s="5">
+        <v>0</v>
+      </c>
+      <c r="D583" s="3">
+        <v>0</v>
+      </c>
+      <c r="E583" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B584" s="3">
-        <v>0</v>
-      </c>
-      <c r="C584" s="5">
-        <v>0</v>
-      </c>
-      <c r="D584" s="3">
-        <v>0</v>
-      </c>
-      <c r="E584" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="585" spans="1:5">
-      <c r="A585" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A585" s="3"/>
+      <c r="B585" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C585" s="4"/>
+      <c r="D585" s="4"/>
+      <c r="E585" s="4"/>
     </row>
     <row r="586" spans="1:5">
-      <c r="A586" s="3"/>
+      <c r="A586" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B586" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C586" s="4"/>
-      <c r="D586" s="4"/>
-      <c r="E586" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C586" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D586" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E586" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="587" spans="1:5">
       <c r="A587" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B587" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C587" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D587" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E587" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B587" s="3">
+        <v>0</v>
+      </c>
+      <c r="C587" s="5">
+        <v>0</v>
+      </c>
+      <c r="D587" s="3">
+        <v>0</v>
+      </c>
+      <c r="E587" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:5">
       <c r="A588" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B588" s="3">
-        <v>0</v>
-      </c>
-      <c r="C588" s="5">
-        <v>0</v>
-      </c>
-      <c r="D588" s="3">
-        <v>0</v>
-      </c>
-      <c r="E588" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="589" spans="1:5">
-      <c r="A589" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A589" s="3"/>
+      <c r="B589" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C589" s="4"/>
+      <c r="D589" s="4"/>
+      <c r="E589" s="4"/>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="3"/>
+      <c r="A590" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B590" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C590" s="4"/>
-      <c r="D590" s="4"/>
-      <c r="E590" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C590" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D590" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E590" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B591" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C591" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D591" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E591" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B591" s="3">
+        <v>0</v>
+      </c>
+      <c r="C591" s="5">
+        <v>0</v>
+      </c>
+      <c r="D591" s="3">
+        <v>0</v>
+      </c>
+      <c r="E591" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:5">
       <c r="A592" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B592" s="3">
-        <v>0</v>
-      </c>
-      <c r="C592" s="5">
-        <v>0</v>
-      </c>
-      <c r="D592" s="3">
-        <v>0</v>
-      </c>
-      <c r="E592" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="593" spans="1:5">
-      <c r="A593" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A593" s="3"/>
+      <c r="B593" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C593" s="4"/>
+      <c r="D593" s="4"/>
+      <c r="E593" s="4"/>
     </row>
     <row r="594" spans="1:5">
-      <c r="A594" s="3"/>
+      <c r="A594" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B594" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C594" s="4"/>
-      <c r="D594" s="4"/>
-      <c r="E594" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C594" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D594" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E594" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B595" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C595" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D595" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E595" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B595" s="3">
+        <v>0</v>
+      </c>
+      <c r="C595" s="5">
+        <v>0</v>
+      </c>
+      <c r="D595" s="3">
+        <v>0</v>
+      </c>
+      <c r="E595" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:5">
       <c r="A596" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B596" s="3">
-        <v>0</v>
-      </c>
-      <c r="C596" s="5">
-        <v>0</v>
-      </c>
-      <c r="D596" s="3">
-        <v>0</v>
-      </c>
-      <c r="E596" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="597" spans="1:5">
-      <c r="A597" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A597" s="3"/>
+      <c r="B597" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C597" s="4"/>
+      <c r="D597" s="4"/>
+      <c r="E597" s="4"/>
     </row>
     <row r="598" spans="1:5">
-      <c r="A598" s="3"/>
+      <c r="A598" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B598" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C598" s="4"/>
-      <c r="D598" s="4"/>
-      <c r="E598" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C598" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D598" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E598" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="599" spans="1:5">
       <c r="A599" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B599" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C599" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D599" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E599" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B599" s="3">
+        <v>0</v>
+      </c>
+      <c r="C599" s="5">
+        <v>0</v>
+      </c>
+      <c r="D599" s="3">
+        <v>0</v>
+      </c>
+      <c r="E599" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:5">
       <c r="A600" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B600" s="3">
-        <v>0</v>
-      </c>
-      <c r="C600" s="5">
-        <v>0</v>
-      </c>
-      <c r="D600" s="3">
-        <v>0</v>
-      </c>
-      <c r="E600" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A601" s="3"/>
+      <c r="B601" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C601" s="4"/>
+      <c r="D601" s="4"/>
+      <c r="E601" s="4"/>
     </row>
     <row r="602" spans="1:5">
-      <c r="A602" s="3"/>
+      <c r="A602" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B602" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C602" s="4"/>
-      <c r="D602" s="4"/>
-      <c r="E602" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C602" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D602" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E602" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="603" spans="1:5">
       <c r="A603" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B603" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C603" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D603" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E603" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B603" s="3">
+        <v>0</v>
+      </c>
+      <c r="C603" s="5">
+        <v>0</v>
+      </c>
+      <c r="D603" s="3">
+        <v>0</v>
+      </c>
+      <c r="E603" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:5">
       <c r="A604" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B604" s="3">
-        <v>0</v>
-      </c>
-      <c r="C604" s="5">
-        <v>0</v>
-      </c>
-      <c r="D604" s="3">
-        <v>0</v>
-      </c>
-      <c r="E604" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="605" spans="1:5">
-      <c r="A605" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A605" s="3"/>
+      <c r="B605" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C605" s="4"/>
+      <c r="D605" s="4"/>
+      <c r="E605" s="4"/>
     </row>
     <row r="606" spans="1:5">
-      <c r="A606" s="3"/>
+      <c r="A606" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B606" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C606" s="4"/>
-      <c r="D606" s="4"/>
-      <c r="E606" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C606" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D606" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E606" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B607" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C607" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D607" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E607" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B607" s="3">
+        <v>0</v>
+      </c>
+      <c r="C607" s="5">
+        <v>0</v>
+      </c>
+      <c r="D607" s="3">
+        <v>0</v>
+      </c>
+      <c r="E607" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:5">
       <c r="A608" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B608" s="3">
-        <v>0</v>
-      </c>
-      <c r="C608" s="5">
-        <v>0</v>
-      </c>
-      <c r="D608" s="3">
-        <v>0</v>
-      </c>
-      <c r="E608" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="609" spans="1:5">
-      <c r="A609" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A609" s="3"/>
+      <c r="B609" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C609" s="4"/>
+      <c r="D609" s="4"/>
+      <c r="E609" s="4"/>
     </row>
     <row r="610" spans="1:5">
-      <c r="A610" s="3"/>
+      <c r="A610" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B610" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C610" s="4"/>
-      <c r="D610" s="4"/>
-      <c r="E610" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C610" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D610" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E610" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="611" spans="1:5">
       <c r="A611" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B611" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C611" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D611" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E611" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B611" s="3">
+        <v>0</v>
+      </c>
+      <c r="C611" s="5">
+        <v>0</v>
+      </c>
+      <c r="D611" s="3">
+        <v>0</v>
+      </c>
+      <c r="E611" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:5">
       <c r="A612" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B612" s="3">
-        <v>0</v>
-      </c>
-      <c r="C612" s="5">
-        <v>0</v>
-      </c>
-      <c r="D612" s="3">
-        <v>0</v>
-      </c>
-      <c r="E612" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="613" spans="1:5">
-      <c r="A613" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A613" s="3"/>
+      <c r="B613" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C613" s="4"/>
+      <c r="D613" s="4"/>
+      <c r="E613" s="4"/>
     </row>
     <row r="614" spans="1:5">
-      <c r="A614" s="3"/>
+      <c r="A614" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B614" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C614" s="4"/>
-      <c r="D614" s="4"/>
-      <c r="E614" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C614" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D614" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E614" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="615" spans="1:5">
       <c r="A615" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B615" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C615" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D615" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E615" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B615" s="3">
+        <v>0</v>
+      </c>
+      <c r="C615" s="5">
+        <v>0</v>
+      </c>
+      <c r="D615" s="3">
+        <v>0</v>
+      </c>
+      <c r="E615" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:5">
       <c r="A616" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B616" s="3">
-        <v>0</v>
-      </c>
-      <c r="C616" s="5">
-        <v>0</v>
-      </c>
-      <c r="D616" s="3">
-        <v>0</v>
-      </c>
-      <c r="E616" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="617" spans="1:5">
-      <c r="A617" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A617" s="3"/>
+      <c r="B617" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C617" s="4"/>
+      <c r="D617" s="4"/>
+      <c r="E617" s="4"/>
     </row>
     <row r="618" spans="1:5">
-      <c r="A618" s="3"/>
+      <c r="A618" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B618" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C618" s="4"/>
-      <c r="D618" s="4"/>
-      <c r="E618" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C618" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D618" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E618" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B619" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C619" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D619" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E619" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B619" s="3">
+        <v>0</v>
+      </c>
+      <c r="C619" s="5">
+        <v>0</v>
+      </c>
+      <c r="D619" s="3">
+        <v>0</v>
+      </c>
+      <c r="E619" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:5">
       <c r="A620" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B620" s="3">
-        <v>0</v>
-      </c>
-      <c r="C620" s="5">
-        <v>0</v>
-      </c>
-      <c r="D620" s="3">
-        <v>0</v>
-      </c>
-      <c r="E620" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="621" spans="1:5">
-      <c r="A621" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A621" s="3"/>
+      <c r="B621" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C621" s="4"/>
+      <c r="D621" s="4"/>
+      <c r="E621" s="4"/>
     </row>
     <row r="622" spans="1:5">
-      <c r="A622" s="3"/>
+      <c r="A622" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B622" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C622" s="4"/>
-      <c r="D622" s="4"/>
-      <c r="E622" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C622" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D622" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E622" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="623" spans="1:5">
       <c r="A623" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B623" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C623" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D623" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E623" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B623" s="3">
+        <v>0</v>
+      </c>
+      <c r="C623" s="5">
+        <v>0</v>
+      </c>
+      <c r="D623" s="3">
+        <v>0</v>
+      </c>
+      <c r="E623" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:5">
       <c r="A624" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B624" s="3">
-        <v>0</v>
-      </c>
-      <c r="C624" s="5">
-        <v>0</v>
-      </c>
-      <c r="D624" s="3">
-        <v>0</v>
-      </c>
-      <c r="E624" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="625" spans="1:5">
-      <c r="A625" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A625" s="3"/>
+      <c r="B625" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C625" s="4"/>
+      <c r="D625" s="4"/>
+      <c r="E625" s="4"/>
     </row>
     <row r="626" spans="1:5">
-      <c r="A626" s="3"/>
+      <c r="A626" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B626" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C626" s="4"/>
-      <c r="D626" s="4"/>
-      <c r="E626" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C626" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D626" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E626" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="627" spans="1:5">
       <c r="A627" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B627" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C627" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D627" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E627" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B627" s="3">
+        <v>0</v>
+      </c>
+      <c r="C627" s="5">
+        <v>0</v>
+      </c>
+      <c r="D627" s="3">
+        <v>0</v>
+      </c>
+      <c r="E627" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:5">
       <c r="A628" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B628" s="3">
-        <v>0</v>
-      </c>
-      <c r="C628" s="5">
-        <v>0</v>
-      </c>
-      <c r="D628" s="3">
-        <v>0</v>
-      </c>
-      <c r="E628" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="629" spans="1:5">
-      <c r="A629" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A629" s="3"/>
+      <c r="B629" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C629" s="4"/>
+      <c r="D629" s="4"/>
+      <c r="E629" s="4"/>
     </row>
     <row r="630" spans="1:5">
-      <c r="A630" s="3"/>
+      <c r="A630" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B630" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C630" s="4"/>
-      <c r="D630" s="4"/>
-      <c r="E630" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C630" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D630" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E630" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="631" spans="1:5">
       <c r="A631" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B631" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C631" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D631" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E631" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B631" s="3">
+        <v>0</v>
+      </c>
+      <c r="C631" s="5">
+        <v>0</v>
+      </c>
+      <c r="D631" s="3">
+        <v>0</v>
+      </c>
+      <c r="E631" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:5">
       <c r="A632" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B632" s="3">
-        <v>0</v>
-      </c>
-      <c r="C632" s="5">
-        <v>0</v>
-      </c>
-      <c r="D632" s="3">
-        <v>0</v>
-      </c>
-      <c r="E632" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="633" spans="1:5">
-      <c r="A633" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A633" s="3"/>
+      <c r="B633" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C633" s="4"/>
+      <c r="D633" s="4"/>
+      <c r="E633" s="4"/>
     </row>
     <row r="634" spans="1:5">
-      <c r="A634" s="3"/>
+      <c r="A634" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B634" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C634" s="4"/>
-      <c r="D634" s="4"/>
-      <c r="E634" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C634" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D634" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E634" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B635" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C635" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D635" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E635" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B635" s="3">
+        <v>0</v>
+      </c>
+      <c r="C635" s="5">
+        <v>0</v>
+      </c>
+      <c r="D635" s="3">
+        <v>0</v>
+      </c>
+      <c r="E635" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:5">
       <c r="A636" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B636" s="3">
-        <v>0</v>
-      </c>
-      <c r="C636" s="5">
-        <v>0</v>
-      </c>
-      <c r="D636" s="3">
-        <v>0</v>
-      </c>
-      <c r="E636" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="637" spans="1:5">
-      <c r="A637" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A637" s="3"/>
+      <c r="B637" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C637" s="4"/>
+      <c r="D637" s="4"/>
+      <c r="E637" s="4"/>
     </row>
     <row r="638" spans="1:5">
-      <c r="A638" s="3"/>
+      <c r="A638" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B638" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C638" s="4"/>
-      <c r="D638" s="4"/>
-      <c r="E638" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C638" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D638" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E638" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="639" spans="1:5">
       <c r="A639" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B639" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C639" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D639" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E639" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B639" s="3">
+        <v>0</v>
+      </c>
+      <c r="C639" s="5">
+        <v>0</v>
+      </c>
+      <c r="D639" s="3">
+        <v>0</v>
+      </c>
+      <c r="E639" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:5">
       <c r="A640" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" s="3"/>
+      <c r="B641" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C641" s="4"/>
+      <c r="D641" s="4"/>
+      <c r="E641" s="4"/>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C642" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D642" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E642" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B640" s="3">
-        <v>0</v>
-      </c>
-      <c r="C640" s="5">
-        <v>0</v>
-      </c>
-      <c r="D640" s="3">
-        <v>0</v>
-      </c>
-      <c r="E640" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="1:1">
-      <c r="A641" s="4" t="s">
+      <c r="B643" s="3">
+        <v>0</v>
+      </c>
+      <c r="C643" s="5">
+        <v>0</v>
+      </c>
+      <c r="D643" s="3">
+        <v>0</v>
+      </c>
+      <c r="E643" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="642" spans="1:1">
-      <c r="A642" s="4" t="s">
+    <row r="645" spans="1:5">
+      <c r="A645" s="3"/>
+      <c r="B645" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C645" s="4"/>
+      <c r="D645" s="4"/>
+      <c r="E645" s="4"/>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C646" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D646" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E646" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5">
+      <c r="A647" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B647" s="3">
+        <v>0</v>
+      </c>
+      <c r="C647" s="5">
+        <v>0</v>
+      </c>
+      <c r="D647" s="3">
+        <v>0</v>
+      </c>
+      <c r="E647" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5">
+      <c r="A648" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" s="3"/>
+      <c r="B649" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C649" s="4"/>
+      <c r="D649" s="4"/>
+      <c r="E649" s="4"/>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C650" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D650" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E650" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5">
+      <c r="A651" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B651" s="3">
+        <v>0</v>
+      </c>
+      <c r="C651" s="5">
+        <v>0</v>
+      </c>
+      <c r="D651" s="3">
+        <v>0</v>
+      </c>
+      <c r="E651" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" s="3"/>
+      <c r="B653" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C653" s="4"/>
+      <c r="D653" s="4"/>
+      <c r="E653" s="4"/>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C654" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D654" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E654" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B655" s="3">
+        <v>0</v>
+      </c>
+      <c r="C655" s="5">
+        <v>0</v>
+      </c>
+      <c r="D655" s="3">
+        <v>0</v>
+      </c>
+      <c r="E655" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="3"/>
+      <c r="B657" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C657" s="4"/>
+      <c r="D657" s="4"/>
+      <c r="E657" s="4"/>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C658" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D658" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E658" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B659" s="3">
+        <v>0</v>
+      </c>
+      <c r="C659" s="5">
+        <v>0</v>
+      </c>
+      <c r="D659" s="3">
+        <v>0</v>
+      </c>
+      <c r="E659" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="3"/>
+      <c r="B661" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C661" s="4"/>
+      <c r="D661" s="4"/>
+      <c r="E661" s="4"/>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C662" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D662" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E662" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B663" s="3">
+        <v>0</v>
+      </c>
+      <c r="C663" s="5">
+        <v>0</v>
+      </c>
+      <c r="D663" s="3">
+        <v>0</v>
+      </c>
+      <c r="E663" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="3"/>
+      <c r="B665" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C665" s="4"/>
+      <c r="D665" s="4"/>
+      <c r="E665" s="4"/>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C666" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D666" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E666" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B667" s="3">
+        <v>0</v>
+      </c>
+      <c r="C667" s="5">
+        <v>0</v>
+      </c>
+      <c r="D667" s="3">
+        <v>0</v>
+      </c>
+      <c r="E667" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="3"/>
+      <c r="B669" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C669" s="4"/>
+      <c r="D669" s="4"/>
+      <c r="E669" s="4"/>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C670" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D670" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E670" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B671" s="3">
+        <v>0</v>
+      </c>
+      <c r="C671" s="5">
+        <v>0</v>
+      </c>
+      <c r="D671" s="3">
+        <v>0</v>
+      </c>
+      <c r="E671" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="A673" s="3"/>
+      <c r="B673" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C673" s="4"/>
+      <c r="D673" s="4"/>
+      <c r="E673" s="4"/>
+    </row>
+    <row r="674" spans="1:5">
+      <c r="A674" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C674" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D674" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E674" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5">
+      <c r="A675" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B675" s="3">
+        <v>0</v>
+      </c>
+      <c r="C675" s="5">
+        <v>0</v>
+      </c>
+      <c r="D675" s="3">
+        <v>0</v>
+      </c>
+      <c r="E675" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5">
+      <c r="A676" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5">
+      <c r="A677" s="3"/>
+      <c r="B677" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C677" s="4"/>
+      <c r="D677" s="4"/>
+      <c r="E677" s="4"/>
+    </row>
+    <row r="678" spans="1:5">
+      <c r="A678" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C678" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D678" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E678" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5">
+      <c r="A679" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B679" s="3">
+        <v>0</v>
+      </c>
+      <c r="C679" s="5">
+        <v>0</v>
+      </c>
+      <c r="D679" s="3">
+        <v>0</v>
+      </c>
+      <c r="E679" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5">
+      <c r="A680" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5">
+      <c r="A681" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="643" spans="1:1">
-      <c r="A643" s="4" t="s">
+    <row r="682" spans="1:5">
+      <c r="A682" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="1:1">
-      <c r="A644" s="4" t="s">
+    <row r="683" spans="1:5">
+      <c r="A683" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="645" spans="1:1">
-      <c r="A645" s="4" t="s">
+    <row r="684" spans="1:5">
+      <c r="A684" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="646" spans="1:1">
-      <c r="A646" s="4" t="s">
+    <row r="685" spans="1:5">
+      <c r="A685" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="647" spans="1:1">
-      <c r="A647" s="4" t="s">
+    <row r="686" spans="1:5">
+      <c r="A686" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="648" spans="1:1">
-      <c r="A648" s="4" t="s">
+    <row r="687" spans="1:5">
+      <c r="A687" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="649" spans="1:1">
-      <c r="A649" s="4" t="s">
+    <row r="688" spans="1:5">
+      <c r="A688" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="650" spans="1:1">
-      <c r="A650" s="4" t="s">
+    <row r="689" spans="1:1">
+      <c r="A689" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="651" spans="1:1">
-      <c r="A651" s="4" t="s">
+    <row r="690" spans="1:1">
+      <c r="A690" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="652" spans="1:1">
-      <c r="A652" s="4" t="s">
+    <row r="691" spans="1:1">
+      <c r="A691" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="653" spans="1:1">
-      <c r="A653" s="4" t="s">
+    <row r="692" spans="1:1">
+      <c r="A692" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="654" spans="1:1">
-      <c r="A654" s="4" t="s">
+    <row r="693" spans="1:1">
+      <c r="A693" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="655" spans="1:1">
-      <c r="A655" s="4" t="s">
+    <row r="694" spans="1:1">
+      <c r="A694" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="656" spans="1:1">
-      <c r="A656" s="4" t="s">
+    <row r="695" spans="1:1">
+      <c r="A695" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="657" spans="1:1">
-      <c r="A657" s="4" t="s">
+    <row r="696" spans="1:1">
+      <c r="A696" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="658" spans="1:1">
-      <c r="A658" s="4" t="s">
+    <row r="697" spans="1:1">
+      <c r="A697" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="1:1">
-      <c r="A659" s="4" t="s">
+    <row r="698" spans="1:1">
+      <c r="A698" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="660" spans="1:1">
-      <c r="A660" s="4" t="s">
+    <row r="699" spans="1:1">
+      <c r="A699" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="661" spans="1:1">
-      <c r="A661" s="4" t="s">
+    <row r="700" spans="1:1">
+      <c r="A700" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="662" spans="1:1">
-      <c r="A662" s="4" t="s">
+    <row r="701" spans="1:1">
+      <c r="A701" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="663" spans="1:1">
-      <c r="A663" s="4" t="s">
+    <row r="702" spans="1:1">
+      <c r="A702" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="664" spans="1:1">
-      <c r="A664" s="4" t="s">
+    <row r="703" spans="1:1">
+      <c r="A703" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="665" spans="1:1">
-      <c r="A665" s="4" t="s">
+    <row r="704" spans="1:1">
+      <c r="A704" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="666" spans="1:1">
-      <c r="A666" s="4" t="s">
+    <row r="705" spans="1:1">
+      <c r="A705" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="667" spans="1:1">
-      <c r="A667" s="4" t="s">
+    <row r="706" spans="1:1">
+      <c r="A706" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="668" spans="1:1">
-      <c r="A668" s="4" t="s">
+    <row r="707" spans="1:1">
+      <c r="A707" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="669" spans="1:1">
-      <c r="A669" s="4" t="s">
+    <row r="708" spans="1:1">
+      <c r="A708" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="670" spans="1:1">
-      <c r="A670" s="4" t="s">
+    <row r="709" spans="1:1">
+      <c r="A709" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="671" spans="1:1">
-      <c r="A671" s="4" t="s">
+    <row r="710" spans="1:1">
+      <c r="A710" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="672" spans="1:1">
-      <c r="A672" s="4" t="s">
+    <row r="711" spans="1:1">
+      <c r="A711" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="673" spans="1:1">
-      <c r="A673" s="4" t="s">
+    <row r="712" spans="1:1">
+      <c r="A712" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="674" spans="1:1">
-      <c r="A674" s="4" t="s">
+    <row r="713" spans="1:1">
+      <c r="A713" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="675" spans="1:1">
-      <c r="A675" s="4" t="s">
+    <row r="714" spans="1:1">
+      <c r="A714" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="676" spans="1:1">
-      <c r="A676" s="4" t="s">
+    <row r="715" spans="1:1">
+      <c r="A715" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="677" spans="1:1">
-      <c r="A677" s="4" t="s">
+    <row r="716" spans="1:1">
+      <c r="A716" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="678" spans="1:1">
-      <c r="A678" s="4" t="s">
+    <row r="717" spans="1:1">
+      <c r="A717" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="679" spans="1:1">
-      <c r="A679" s="4" t="s">
+    <row r="718" spans="1:1">
+      <c r="A718" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -18163,47 +18952,47 @@
     <mergeCell ref="B388:E388"/>
     <mergeCell ref="B431:E431"/>
     <mergeCell ref="B474:E474"/>
-    <mergeCell ref="B478:E478"/>
-    <mergeCell ref="B482:E482"/>
-    <mergeCell ref="B486:E486"/>
-    <mergeCell ref="B490:E490"/>
-    <mergeCell ref="B494:E494"/>
-    <mergeCell ref="B498:E498"/>
-    <mergeCell ref="B502:E502"/>
-    <mergeCell ref="B506:E506"/>
-    <mergeCell ref="B510:E510"/>
-    <mergeCell ref="B514:E514"/>
-    <mergeCell ref="B518:E518"/>
-    <mergeCell ref="B522:E522"/>
-    <mergeCell ref="B526:E526"/>
-    <mergeCell ref="B530:E530"/>
-    <mergeCell ref="B534:E534"/>
-    <mergeCell ref="B538:E538"/>
-    <mergeCell ref="B542:E542"/>
-    <mergeCell ref="B546:E546"/>
-    <mergeCell ref="B550:E550"/>
-    <mergeCell ref="B554:E554"/>
-    <mergeCell ref="B558:E558"/>
-    <mergeCell ref="B562:E562"/>
-    <mergeCell ref="B566:E566"/>
-    <mergeCell ref="B570:E570"/>
-    <mergeCell ref="B574:E574"/>
-    <mergeCell ref="B578:E578"/>
-    <mergeCell ref="B582:E582"/>
-    <mergeCell ref="B586:E586"/>
-    <mergeCell ref="B590:E590"/>
-    <mergeCell ref="B594:E594"/>
-    <mergeCell ref="B598:E598"/>
-    <mergeCell ref="B602:E602"/>
-    <mergeCell ref="B606:E606"/>
-    <mergeCell ref="B610:E610"/>
-    <mergeCell ref="B614:E614"/>
-    <mergeCell ref="B618:E618"/>
-    <mergeCell ref="B622:E622"/>
-    <mergeCell ref="B626:E626"/>
-    <mergeCell ref="B630:E630"/>
-    <mergeCell ref="B634:E634"/>
-    <mergeCell ref="B638:E638"/>
+    <mergeCell ref="B517:E517"/>
+    <mergeCell ref="B521:E521"/>
+    <mergeCell ref="B525:E525"/>
+    <mergeCell ref="B529:E529"/>
+    <mergeCell ref="B533:E533"/>
+    <mergeCell ref="B537:E537"/>
+    <mergeCell ref="B541:E541"/>
+    <mergeCell ref="B545:E545"/>
+    <mergeCell ref="B549:E549"/>
+    <mergeCell ref="B553:E553"/>
+    <mergeCell ref="B557:E557"/>
+    <mergeCell ref="B561:E561"/>
+    <mergeCell ref="B565:E565"/>
+    <mergeCell ref="B569:E569"/>
+    <mergeCell ref="B573:E573"/>
+    <mergeCell ref="B577:E577"/>
+    <mergeCell ref="B581:E581"/>
+    <mergeCell ref="B585:E585"/>
+    <mergeCell ref="B589:E589"/>
+    <mergeCell ref="B593:E593"/>
+    <mergeCell ref="B597:E597"/>
+    <mergeCell ref="B601:E601"/>
+    <mergeCell ref="B605:E605"/>
+    <mergeCell ref="B609:E609"/>
+    <mergeCell ref="B613:E613"/>
+    <mergeCell ref="B617:E617"/>
+    <mergeCell ref="B621:E621"/>
+    <mergeCell ref="B625:E625"/>
+    <mergeCell ref="B629:E629"/>
+    <mergeCell ref="B633:E633"/>
+    <mergeCell ref="B637:E637"/>
+    <mergeCell ref="B641:E641"/>
+    <mergeCell ref="B645:E645"/>
+    <mergeCell ref="B649:E649"/>
+    <mergeCell ref="B653:E653"/>
+    <mergeCell ref="B657:E657"/>
+    <mergeCell ref="B661:E661"/>
+    <mergeCell ref="B665:E665"/>
+    <mergeCell ref="B669:E669"/>
+    <mergeCell ref="B673:E673"/>
+    <mergeCell ref="B677:E677"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19250,7 +20039,7 @@
         <v>12</v>
       </c>
       <c r="C64" s="5">
-        <v>0.2487559999999999</v>
+        <v>0.248756</v>
       </c>
       <c r="D64" s="3">
         <v>46</v>
@@ -19681,16 +20470,16 @@
         <v>20</v>
       </c>
       <c r="B91" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" s="5">
-        <v>0.143813</v>
+        <v>0.171021</v>
       </c>
       <c r="D91" s="3">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="E91" s="6">
-        <v>0.03488372093023256</v>
+        <v>0.03414634146341464</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -19698,16 +20487,16 @@
         <v>21</v>
       </c>
       <c r="B92" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" s="5">
-        <v>0.04563</v>
+        <v>0.07006400000000002</v>
       </c>
       <c r="D92" s="3">
-        <v>184</v>
+        <v>248</v>
       </c>
       <c r="E92" s="6">
-        <v>0.01630434782608696</v>
+        <v>0.01612903225806452</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -19715,16 +20504,16 @@
         <v>22</v>
       </c>
       <c r="B93" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C93" s="5">
-        <v>0.102</v>
+        <v>0.168076</v>
       </c>
       <c r="D93" s="3">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E93" s="6">
-        <v>0.3529411764705883</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -19732,16 +20521,16 @@
         <v>23</v>
       </c>
       <c r="B94" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C94" s="5">
-        <v>0.09717000000000001</v>
+        <v>0.19434</v>
       </c>
       <c r="D94" s="3">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="E94" s="6">
-        <v>0.05747126436781609</v>
+        <v>0.08264462809917356</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -19749,16 +20538,16 @@
         <v>24</v>
       </c>
       <c r="B95" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C95" s="5">
-        <v>0.215755</v>
+        <v>0.347359</v>
       </c>
       <c r="D95" s="3">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E95" s="6">
-        <v>0.08163265306122448</v>
+        <v>0.08759124087591241</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -19766,16 +20555,16 @@
         <v>25</v>
       </c>
       <c r="B96" s="3">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C96" s="5">
-        <v>0.7748840000000002</v>
+        <v>1.067499</v>
       </c>
       <c r="D96" s="3">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="E96" s="6">
-        <v>0.1966292134831461</v>
+        <v>0.19140625</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -19783,16 +20572,16 @@
         <v>26</v>
       </c>
       <c r="B97" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C97" s="5">
-        <v>0.066882</v>
+        <v>0.144436</v>
       </c>
       <c r="D97" s="3">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E97" s="6">
-        <v>0.2222222222222222</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -19800,16 +20589,16 @@
         <v>27</v>
       </c>
       <c r="B98" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C98" s="5">
-        <v>0.170054</v>
+        <v>0.245677</v>
       </c>
       <c r="D98" s="3">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="E98" s="6">
-        <v>0.104</v>
+        <v>0.09947643979057591</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -19817,16 +20606,16 @@
         <v>28</v>
       </c>
       <c r="B99" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C99" s="5">
-        <v>0.246849</v>
+        <v>0.4230500000000001</v>
       </c>
       <c r="D99" s="3">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="E99" s="6">
-        <v>0.06341463414634146</v>
+        <v>0.07874015748031496</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -19834,16 +20623,16 @@
         <v>29</v>
       </c>
       <c r="B100" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C100" s="5">
-        <v>0.364777</v>
+        <v>0.391985</v>
       </c>
       <c r="D100" s="3">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E100" s="6">
-        <v>0.07909604519774012</v>
+        <v>0.07109004739336493</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -19851,16 +20640,16 @@
         <v>30</v>
       </c>
       <c r="B101" s="3">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C101" s="5">
-        <v>1.460825</v>
+        <v>1.756848</v>
       </c>
       <c r="D101" s="3">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="E101" s="6">
-        <v>0.3243243243243243</v>
+        <v>0.3348837209302326</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -19868,13 +20657,13 @@
         <v>31</v>
       </c>
       <c r="B102" s="3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C102" s="5">
-        <v>0.9185170000000001</v>
+        <v>1.046767</v>
       </c>
       <c r="D102" s="3">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="E102" s="6">
         <v>0.25</v>
@@ -19885,16 +20674,16 @@
         <v>32</v>
       </c>
       <c r="B103" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C103" s="5">
-        <v>0.199094</v>
+        <v>0.237092</v>
       </c>
       <c r="D103" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E103" s="6">
-        <v>0.2571428571428571</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -19902,16 +20691,16 @@
         <v>33</v>
       </c>
       <c r="B104" s="3">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C104" s="5">
-        <v>0.3256749999999999</v>
+        <v>0.3721809999999999</v>
       </c>
       <c r="D104" s="3">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="E104" s="6">
-        <v>0.130952380952381</v>
+        <v>0.134020618556701</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -19919,16 +20708,16 @@
         <v>34</v>
       </c>
       <c r="B105" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C105" s="5">
-        <v>0.4178310000000001</v>
+        <v>0.4422650000000001</v>
       </c>
       <c r="D105" s="3">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E105" s="6">
-        <v>0.2131147540983606</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -19942,7 +20731,7 @@
         <v>0</v>
       </c>
       <c r="D106" s="3">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E106" s="6">
         <v>0</v>
@@ -19953,16 +20742,16 @@
         <v>36</v>
       </c>
       <c r="B107" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C107" s="5">
-        <v>0.17102</v>
+        <v>0.209888</v>
       </c>
       <c r="D107" s="3">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E107" s="6">
-        <v>0.2162162162162162</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -19976,10 +20765,10 @@
         <v>0.07576500000000001</v>
       </c>
       <c r="D108" s="3">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E108" s="6">
-        <v>0.09302325581395349</v>
+        <v>0.07272727272727272</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -19993,10 +20782,10 @@
         <v>0.019434</v>
       </c>
       <c r="D109" s="3">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="E109" s="6">
-        <v>0.01265822784810127</v>
+        <v>0.009345794392523364</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -20004,16 +20793,16 @@
         <v>38</v>
       </c>
       <c r="B110" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C110" s="5">
-        <v>0.09717000000000001</v>
+        <v>0.160472</v>
       </c>
       <c r="D110" s="3">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E110" s="6">
-        <v>0.0847457627118644</v>
+        <v>0.1095890410958904</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -20021,16 +20810,16 @@
         <v>39</v>
       </c>
       <c r="B111" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" s="5">
-        <v>0.09717000000000001</v>
+        <v>0.160472</v>
       </c>
       <c r="D111" s="3">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E111" s="6">
-        <v>0.07142857142857142</v>
+        <v>0.08791208791208792</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -20038,16 +20827,16 @@
         <v>40</v>
       </c>
       <c r="B112" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C112" s="5">
-        <v>0.117284</v>
+        <v>0.166152</v>
       </c>
       <c r="D112" s="3">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E112" s="6">
-        <v>0.02531645569620253</v>
+        <v>0.03157894736842105</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -20055,16 +20844,16 @@
         <v>41</v>
       </c>
       <c r="B113" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C113" s="5">
-        <v>0.156378</v>
+        <v>0.256105</v>
       </c>
       <c r="D113" s="3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E113" s="6">
-        <v>0.2727272727272727</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -20072,16 +20861,16 @@
         <v>42</v>
       </c>
       <c r="B114" s="3">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C114" s="5">
-        <v>0.5717679999999998</v>
+        <v>0.7623559999999998</v>
       </c>
       <c r="D114" s="3">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E114" s="6">
-        <v>0.603448275862069</v>
+        <v>0.5897435897435898</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -20089,16 +20878,16 @@
         <v>43</v>
       </c>
       <c r="B115" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C115" s="5">
-        <v>0.10751</v>
+        <v>0.190586</v>
       </c>
       <c r="D115" s="3">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="E115" s="6">
-        <v>0.0198019801980198</v>
+        <v>0.02892561983471074</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -20112,10 +20901,10 @@
         <v>0.049943</v>
       </c>
       <c r="D116" s="3">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E116" s="6">
-        <v>0.0303030303030303</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -20123,16 +20912,16 @@
         <v>45</v>
       </c>
       <c r="B117" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" s="5">
-        <v>0.160756</v>
+        <v>0.236832</v>
       </c>
       <c r="D117" s="3">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="E117" s="6">
-        <v>0.0505050505050505</v>
+        <v>0.06106870229007633</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -20140,16 +20929,16 @@
         <v>46</v>
       </c>
       <c r="B118" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C118" s="5">
-        <v>0.3153690000000001</v>
+        <v>0.3542370000000001</v>
       </c>
       <c r="D118" s="3">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E118" s="6">
-        <v>0.1553398058252427</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -20157,16 +20946,16 @@
         <v>47</v>
       </c>
       <c r="B119" s="3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C119" s="5">
-        <v>0.4518140000000001</v>
+        <v>0.4906820000000002</v>
       </c>
       <c r="D119" s="3">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="E119" s="6">
-        <v>0.1182795698924731</v>
+        <v>0.1076233183856502</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -20174,16 +20963,16 @@
         <v>48</v>
       </c>
       <c r="B120" s="3">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C120" s="5">
-        <v>0.7629190000000002</v>
+        <v>1.119929</v>
       </c>
       <c r="D120" s="3">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="E120" s="6">
-        <v>0.1510204081632653</v>
+        <v>0.1753246753246753</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -20191,16 +20980,16 @@
         <v>49</v>
       </c>
       <c r="B121" s="3">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C121" s="5">
-        <v>0.6185420000000001</v>
+        <v>0.8000950000000002</v>
       </c>
       <c r="D121" s="3">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E121" s="6">
-        <v>0.29</v>
+        <v>0.2913385826771653</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -20208,16 +20997,16 @@
         <v>50</v>
       </c>
       <c r="B122" s="3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C122" s="5">
-        <v>0.4293259999999999</v>
+        <v>0.5579189999999998</v>
       </c>
       <c r="D122" s="3">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E122" s="6">
-        <v>0.2727272727272727</v>
+        <v>0.2840909090909091</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -20225,16 +21014,16 @@
         <v>51</v>
       </c>
       <c r="B123" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C123" s="5">
-        <v>0.1477</v>
+        <v>0.213776</v>
       </c>
       <c r="D123" s="3">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E123" s="6">
-        <v>0.08333333333333333</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -20242,16 +21031,16 @@
         <v>52</v>
       </c>
       <c r="B124" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C124" s="5">
-        <v>0.141004</v>
+        <v>0.160438</v>
       </c>
       <c r="D124" s="3">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E124" s="6">
-        <v>0.2</v>
+        <v>0.1891891891891892</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -20259,16 +21048,16 @@
         <v>53</v>
       </c>
       <c r="B125" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C125" s="5">
-        <v>0.518702</v>
+        <v>0.6497360000000001</v>
       </c>
       <c r="D125" s="3">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E125" s="6">
-        <v>0.4285714285714285</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -20276,16 +21065,16 @@
         <v>54</v>
       </c>
       <c r="B126" s="3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C126" s="5">
-        <v>0.6358549999999999</v>
+        <v>0.765775</v>
       </c>
       <c r="D126" s="3">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E126" s="6">
-        <v>0.3103448275862069</v>
+        <v>0.308411214953271</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -20293,16 +21082,16 @@
         <v>55</v>
       </c>
       <c r="B127" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C127" s="5">
-        <v>0.104944</v>
+        <v>0.124378</v>
       </c>
       <c r="D127" s="3">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E127" s="6">
-        <v>0.1724137931034483</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -20310,16 +21099,16 @@
         <v>56</v>
       </c>
       <c r="B128" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C128" s="5">
-        <v>0.05864199999999999</v>
+        <v>0.126944</v>
       </c>
       <c r="D128" s="3">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="E128" s="6">
-        <v>0.03636363636363636</v>
+        <v>0.06493506493506493</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -20327,16 +21116,16 @@
         <v>57</v>
       </c>
       <c r="B129" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C129" s="5">
-        <v>0.465041</v>
+        <v>0.523683</v>
       </c>
       <c r="D129" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E129" s="6">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -20344,16 +21133,16 @@
         <v>11</v>
       </c>
       <c r="B130" s="3">
-        <v>530</v>
+        <v>693</v>
       </c>
       <c r="C130" s="5">
-        <v>11.823812</v>
+        <v>15.254257</v>
       </c>
       <c r="D130" s="3">
-        <v>3841</v>
+        <v>4889</v>
       </c>
       <c r="E130" s="6">
-        <v>0.137984899765686</v>
+        <v>0.1417467784823072</v>
       </c>
     </row>
     <row r="132" spans="1:5">

--- a/驾意险业务统计表.xlsx
+++ b/驾意险业务统计表.xlsx
@@ -23,7 +23,7 @@
     <t>驾意险业务统计表</t>
   </si>
   <si>
-    <t>数据统计范围：2020-1-1 至 03-19</t>
+    <t>数据统计范围：2020-1-1 至 03-29</t>
   </si>
   <si>
     <t>中心支公司</t>
@@ -56,7 +56,7 @@
     <t>合计</t>
   </si>
   <si>
-    <t>第12周统计数据</t>
+    <t>第13周统计数据</t>
   </si>
   <si>
     <t>驾意险件数</t>
@@ -227,7 +227,7 @@
     <t>第11周统计数据</t>
   </si>
   <si>
-    <t>第13周统计数据</t>
+    <t>第12周统计数据</t>
   </si>
   <si>
     <t>第14周统计数据</t>
@@ -888,40 +888,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5">
-        <v>0.792284</v>
+        <v>0.4790150000000001</v>
       </c>
       <c r="D5" s="3">
-        <v>348</v>
+        <v>284</v>
       </c>
       <c r="E5" s="6">
-        <v>0.1206896551724138</v>
+        <v>0.09154929577464789</v>
       </c>
       <c r="F5" s="3">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="G5" s="5">
-        <v>2.408472000000001</v>
+        <v>3.114431000000001</v>
       </c>
       <c r="H5" s="3">
-        <v>1241</v>
+        <v>1608</v>
       </c>
       <c r="I5" s="6">
-        <v>0.1015310233682514</v>
+        <v>0.1013681592039801</v>
       </c>
       <c r="J5" s="3">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="K5" s="5">
-        <v>8.998412999999969</v>
+        <v>9.704371999999966</v>
       </c>
       <c r="L5" s="3">
-        <v>4289</v>
+        <v>4650</v>
       </c>
       <c r="M5" s="6">
-        <v>0.1072511074842621</v>
+        <v>0.1068817204301075</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -929,40 +929,40 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5">
-        <v>0.7366200000000002</v>
+        <v>1.518662</v>
       </c>
       <c r="D6" s="3">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="E6" s="6">
-        <v>0.1764705882352941</v>
+        <v>0.1926910299003322</v>
       </c>
       <c r="F6" s="3">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="G6" s="5">
-        <v>4.670187999999995</v>
+        <v>6.533400999999992</v>
       </c>
       <c r="H6" s="3">
-        <v>1159</v>
+        <v>1546</v>
       </c>
       <c r="I6" s="6">
-        <v>0.1725625539257981</v>
+        <v>0.1765847347994825</v>
       </c>
       <c r="J6" s="3">
-        <v>889</v>
+        <v>962</v>
       </c>
       <c r="K6" s="5">
-        <v>20.50985899999995</v>
+        <v>22.37307199999994</v>
       </c>
       <c r="L6" s="3">
-        <v>4583</v>
+        <v>4966</v>
       </c>
       <c r="M6" s="6">
-        <v>0.1939777438359153</v>
+        <v>0.193717277486911</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -970,40 +970,40 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5">
-        <v>0.5616370000000001</v>
+        <v>0.501447</v>
       </c>
       <c r="D7" s="3">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="E7" s="6">
-        <v>0.1444444444444444</v>
+        <v>0.0954356846473029</v>
       </c>
       <c r="F7" s="3">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G7" s="5">
-        <v>1.822446</v>
+        <v>2.421908000000001</v>
       </c>
       <c r="H7" s="3">
-        <v>875</v>
+        <v>1168</v>
       </c>
       <c r="I7" s="6">
-        <v>0.09828571428571428</v>
+        <v>0.09845890410958905</v>
       </c>
       <c r="J7" s="3">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="K7" s="5">
-        <v>8.139826999999981</v>
+        <v>8.739288999999978</v>
       </c>
       <c r="L7" s="3">
-        <v>3215</v>
+        <v>3505</v>
       </c>
       <c r="M7" s="6">
-        <v>0.1116640746500778</v>
+        <v>0.1106990014265335</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1011,40 +1011,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C8" s="5">
-        <v>0.6760440000000001</v>
+        <v>0.8331230000000002</v>
       </c>
       <c r="D8" s="3">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E8" s="6">
-        <v>0.2520325203252032</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="F8" s="3">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="G8" s="5">
-        <v>3.272117000000001</v>
+        <v>4.223499999999999</v>
       </c>
       <c r="H8" s="3">
-        <v>552</v>
+        <v>746</v>
       </c>
       <c r="I8" s="6">
-        <v>0.2590579710144927</v>
+        <v>0.2506702412868633</v>
       </c>
       <c r="J8" s="3">
-        <v>545</v>
+        <v>589</v>
       </c>
       <c r="K8" s="5">
-        <v>12.25039899999995</v>
+        <v>13.20178199999994</v>
       </c>
       <c r="L8" s="3">
-        <v>1926</v>
+        <v>2117</v>
       </c>
       <c r="M8" s="6">
-        <v>0.2829698857736241</v>
+        <v>0.2782239017477562</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1052,40 +1052,40 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
-        <v>0.038868</v>
+        <v>0.110335</v>
       </c>
       <c r="D9" s="3">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E9" s="6">
-        <v>0.0425531914893617</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="F9" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5">
-        <v>0.285653</v>
+        <v>0.395988</v>
       </c>
       <c r="H9" s="3">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="I9" s="6">
-        <v>0.07608695652173914</v>
+        <v>0.07421875</v>
       </c>
       <c r="J9" s="3">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K9" s="5">
-        <v>2.333820000000001</v>
+        <v>2.444155000000001</v>
       </c>
       <c r="L9" s="3">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="M9" s="6">
-        <v>0.1788617886178862</v>
+        <v>0.1678832116788321</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1093,40 +1093,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5">
-        <v>0.4347460000000001</v>
+        <v>0.6150600000000002</v>
       </c>
       <c r="D10" s="3">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="E10" s="6">
-        <v>0.168</v>
+        <v>0.1075268817204301</v>
       </c>
       <c r="F10" s="3">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="G10" s="5">
-        <v>1.964848000000001</v>
+        <v>2.715946000000001</v>
       </c>
       <c r="H10" s="3">
-        <v>654</v>
+        <v>1001</v>
       </c>
       <c r="I10" s="6">
-        <v>0.1467889908256881</v>
+        <v>0.1328671328671329</v>
       </c>
       <c r="J10" s="3">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="K10" s="5">
-        <v>9.535079999999944</v>
+        <v>10.28617799999993</v>
       </c>
       <c r="L10" s="3">
-        <v>2486</v>
+        <v>2793</v>
       </c>
       <c r="M10" s="6">
-        <v>0.1866452131938858</v>
+        <v>0.1793770139634801</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1134,40 +1134,40 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
-        <v>0.126944</v>
+        <v>0.180812</v>
       </c>
       <c r="D11" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="6">
-        <v>0.1515151515151515</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="F11" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G11" s="5">
-        <v>0.6506270000000002</v>
+        <v>0.8558730000000003</v>
       </c>
       <c r="H11" s="3">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="I11" s="6">
-        <v>0.1623931623931624</v>
+        <v>0.1741935483870968</v>
       </c>
       <c r="J11" s="3">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="K11" s="5">
-        <v>2.820895000000001</v>
+        <v>3.026141000000002</v>
       </c>
       <c r="L11" s="3">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="M11" s="6">
-        <v>0.2443890274314214</v>
+        <v>0.2414578587699317</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E12" s="6">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0.019434</v>
       </c>
       <c r="H12" s="3">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="I12" s="6">
-        <v>0.009345794392523364</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="J12" s="3">
         <v>10</v>
@@ -1205,10 +1205,10 @@
         <v>0.2453130000000001</v>
       </c>
       <c r="L12" s="3">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="M12" s="6">
-        <v>0.03861003861003861</v>
+        <v>0.03205128205128205</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1216,40 +1216,40 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C13" s="5">
-        <v>3.367143</v>
+        <v>4.238454000000001</v>
       </c>
       <c r="D13" s="3">
-        <v>1071</v>
+        <v>1398</v>
       </c>
       <c r="E13" s="6">
-        <v>0.1493930905695612</v>
+        <v>0.1344778254649499</v>
       </c>
       <c r="F13" s="3">
-        <v>685</v>
+        <v>918</v>
       </c>
       <c r="G13" s="5">
-        <v>15.093785</v>
+        <v>20.28048099999999</v>
       </c>
       <c r="H13" s="3">
-        <v>4889</v>
+        <v>6641</v>
       </c>
       <c r="I13" s="6">
-        <v>0.140110452035181</v>
+        <v>0.1382321939466948</v>
       </c>
       <c r="J13" s="3">
-        <v>2935</v>
+        <v>3168</v>
       </c>
       <c r="K13" s="5">
-        <v>64.83360599999979</v>
+        <v>70.02030199999976</v>
       </c>
       <c r="L13" s="3">
-        <v>17774</v>
+        <v>19467</v>
       </c>
       <c r="M13" s="6">
-        <v>0.1651288398784742</v>
+        <v>0.1627369394359686</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1353,40 +1353,40 @@
         <v>20</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5">
-        <v>0.027208</v>
+        <v>0.038868</v>
       </c>
       <c r="D19" s="3">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E19" s="6">
-        <v>0.0303030303030303</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="F19" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G19" s="5">
-        <v>0.171021</v>
+        <v>0.300399</v>
       </c>
       <c r="H19" s="3">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="I19" s="6">
-        <v>0.03414634146341464</v>
+        <v>0.04727272727272727</v>
       </c>
       <c r="J19" s="3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K19" s="5">
-        <v>0.661781</v>
+        <v>0.7911590000000001</v>
       </c>
       <c r="L19" s="3">
-        <v>760</v>
+        <v>829</v>
       </c>
       <c r="M19" s="6">
-        <v>0.03421052631578948</v>
+        <v>0.03860072376357056</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1394,40 +1394,40 @@
         <v>21</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="5">
-        <v>0.024434</v>
+        <v>0.05164199999999999</v>
       </c>
       <c r="D20" s="3">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E20" s="6">
-        <v>0.01515151515151515</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="F20" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G20" s="5">
-        <v>0.07006400000000002</v>
+        <v>0.170574</v>
       </c>
       <c r="H20" s="3">
-        <v>248</v>
+        <v>343</v>
       </c>
       <c r="I20" s="6">
-        <v>0.01612903225806452</v>
+        <v>0.02332361516034985</v>
       </c>
       <c r="J20" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K20" s="5">
-        <v>0.3715170000000001</v>
+        <v>0.4720270000000001</v>
       </c>
       <c r="L20" s="3">
-        <v>900</v>
+        <v>993</v>
       </c>
       <c r="M20" s="6">
-        <v>0.01666666666666667</v>
+        <v>0.01913393756294058</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1435,16 +1435,16 @@
         <v>22</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C21" s="5">
-        <v>0.066076</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>9</v>
@@ -1453,10 +1453,10 @@
         <v>0.168076</v>
       </c>
       <c r="H21" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I21" s="6">
-        <v>0.391304347826087</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="J21" s="3">
         <v>20</v>
@@ -1465,10 +1465,10 @@
         <v>0.38185</v>
       </c>
       <c r="L21" s="3">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M21" s="6">
-        <v>0.4347826086956522</v>
+        <v>0.392156862745098</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1476,40 +1476,40 @@
         <v>23</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" s="5">
-        <v>0.09717000000000001</v>
+        <v>0.046642</v>
       </c>
       <c r="D22" s="3">
         <v>35</v>
       </c>
       <c r="E22" s="6">
-        <v>0.1428571428571428</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="F22" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G22" s="5">
-        <v>0.19434</v>
+        <v>0.240982</v>
       </c>
       <c r="H22" s="3">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="I22" s="6">
-        <v>0.08264462809917356</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="J22" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K22" s="5">
-        <v>0.6152280000000002</v>
+        <v>0.6618700000000003</v>
       </c>
       <c r="L22" s="3">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="M22" s="6">
-        <v>0.09337349397590361</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1517,40 +1517,40 @@
         <v>24</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="5">
-        <v>0.131604</v>
+        <v>0.063415</v>
       </c>
       <c r="D23" s="3">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E23" s="6">
-        <v>0.1025641025641026</v>
+        <v>0.12</v>
       </c>
       <c r="F23" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G23" s="5">
-        <v>0.347359</v>
+        <v>0.435208</v>
       </c>
       <c r="H23" s="3">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="I23" s="6">
-        <v>0.08759124087591241</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="J23" s="3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K23" s="5">
-        <v>0.7694350000000001</v>
+        <v>0.8572840000000002</v>
       </c>
       <c r="L23" s="3">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="M23" s="6">
-        <v>0.05781584582441113</v>
+        <v>0.06212424849699399</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1558,40 +1558,40 @@
         <v>25</v>
       </c>
       <c r="B24" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C24" s="5">
-        <v>0.2926150000000001</v>
+        <v>0.168788</v>
       </c>
       <c r="D24" s="3">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E24" s="6">
-        <v>0.1794871794871795</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="F24" s="3">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G24" s="5">
-        <v>1.067499</v>
+        <v>1.275155</v>
       </c>
       <c r="H24" s="3">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="I24" s="6">
-        <v>0.19140625</v>
+        <v>0.184375</v>
       </c>
       <c r="J24" s="3">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="K24" s="5">
-        <v>4.121255999999997</v>
+        <v>4.328911999999996</v>
       </c>
       <c r="L24" s="3">
-        <v>925</v>
+        <v>988</v>
       </c>
       <c r="M24" s="6">
-        <v>0.2118918918918919</v>
+        <v>0.208502024291498</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1599,40 +1599,40 @@
         <v>26</v>
       </c>
       <c r="B25" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25" s="5">
-        <v>0.077554</v>
+        <v>0.06596200000000001</v>
       </c>
       <c r="D25" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E25" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G25" s="5">
-        <v>0.144436</v>
+        <v>0.215228</v>
       </c>
       <c r="H25" s="3">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I25" s="6">
-        <v>0.2666666666666667</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="J25" s="3">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K25" s="5">
-        <v>0.9735589999999996</v>
+        <v>1.044351</v>
       </c>
       <c r="L25" s="3">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M25" s="6">
-        <v>0.3135593220338983</v>
+        <v>0.324</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1640,40 +1640,40 @@
         <v>27</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C26" s="5">
-        <v>0.075623</v>
+        <v>0.043698</v>
       </c>
       <c r="D26" s="3">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="E26" s="6">
-        <v>0.08955223880597014</v>
+        <v>0.1</v>
       </c>
       <c r="F26" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G26" s="5">
-        <v>0.245677</v>
+        <v>0.308809</v>
       </c>
       <c r="H26" s="3">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="I26" s="6">
-        <v>0.09947643979057591</v>
+        <v>0.09871244635193133</v>
       </c>
       <c r="J26" s="3">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K26" s="5">
-        <v>1.103787</v>
+        <v>1.166919</v>
       </c>
       <c r="L26" s="3">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="M26" s="6">
-        <v>0.1137820512820513</v>
+        <v>0.1126126126126126</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1681,40 +1681,40 @@
         <v>28</v>
       </c>
       <c r="B27" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="5">
-        <v>0.176201</v>
+        <v>0.16415</v>
       </c>
       <c r="D27" s="3">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E27" s="6">
-        <v>0.1372549019607843</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="F27" s="3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="G27" s="5">
-        <v>0.4230500000000001</v>
+        <v>0.6260680000000001</v>
       </c>
       <c r="H27" s="3">
-        <v>254</v>
+        <v>341</v>
       </c>
       <c r="I27" s="6">
-        <v>0.07874015748031496</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J27" s="3">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="K27" s="5">
-        <v>2.283173</v>
+        <v>2.486191</v>
       </c>
       <c r="L27" s="3">
-        <v>1052</v>
+        <v>1137</v>
       </c>
       <c r="M27" s="6">
-        <v>0.09790874524714829</v>
+        <v>0.1002638522427441</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1722,40 +1722,40 @@
         <v>29</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5">
-        <v>0.027208</v>
+        <v>0.06798</v>
       </c>
       <c r="D28" s="3">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E28" s="6">
-        <v>0.02941176470588235</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="F28" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G28" s="5">
-        <v>0.391985</v>
+        <v>0.459965</v>
       </c>
       <c r="H28" s="3">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="I28" s="6">
-        <v>0.07109004739336493</v>
+        <v>0.06766917293233082</v>
       </c>
       <c r="J28" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K28" s="5">
-        <v>1.44682</v>
+        <v>1.5148</v>
       </c>
       <c r="L28" s="3">
-        <v>823</v>
+        <v>878</v>
       </c>
       <c r="M28" s="6">
-        <v>0.07411907654921021</v>
+        <v>0.07289293849658314</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1763,40 +1763,40 @@
         <v>30</v>
       </c>
       <c r="B29" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C29" s="5">
-        <v>0.296023</v>
+        <v>0.425366</v>
       </c>
       <c r="D29" s="3">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E29" s="6">
-        <v>0.4</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="F29" s="3">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G29" s="5">
-        <v>1.756848</v>
+        <v>2.302706000000001</v>
       </c>
       <c r="H29" s="3">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="I29" s="6">
-        <v>0.3348837209302326</v>
+        <v>0.3429602888086642</v>
       </c>
       <c r="J29" s="3">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="K29" s="5">
-        <v>7.342453999999999</v>
+        <v>7.888311999999998</v>
       </c>
       <c r="L29" s="3">
-        <v>879</v>
+        <v>941</v>
       </c>
       <c r="M29" s="6">
-        <v>0.3617747440273038</v>
+        <v>0.3623804463336875</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1804,40 +1804,40 @@
         <v>31</v>
       </c>
       <c r="B30" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C30" s="5">
-        <v>0.12825</v>
+        <v>0.364227</v>
       </c>
       <c r="D30" s="3">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E30" s="6">
-        <v>0.24</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="F30" s="3">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G30" s="5">
-        <v>1.046767</v>
+        <v>1.559288</v>
       </c>
       <c r="H30" s="3">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="I30" s="6">
-        <v>0.25</v>
+        <v>0.2350597609561753</v>
       </c>
       <c r="J30" s="3">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="K30" s="5">
-        <v>3.957483999999998</v>
+        <v>4.470004999999998</v>
       </c>
       <c r="L30" s="3">
-        <v>602</v>
+        <v>683</v>
       </c>
       <c r="M30" s="6">
-        <v>0.2691029900332226</v>
+        <v>0.2620790629575402</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1848,37 +1848,37 @@
         <v>2</v>
       </c>
       <c r="C31" s="5">
-        <v>0.037998</v>
+        <v>0.048868</v>
       </c>
       <c r="D31" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E31" s="6">
-        <v>0.4</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="F31" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" s="5">
-        <v>0.237092</v>
+        <v>0.28596</v>
       </c>
       <c r="H31" s="3">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I31" s="6">
-        <v>0.275</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="J31" s="3">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K31" s="5">
-        <v>1.48886</v>
+        <v>1.537728</v>
       </c>
       <c r="L31" s="3">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M31" s="6">
-        <v>0.3115577889447236</v>
+        <v>0.2962962962962963</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1886,40 +1886,40 @@
         <v>33</v>
       </c>
       <c r="B32" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C32" s="5">
-        <v>0.04650599999999999</v>
+        <v>0.162515</v>
       </c>
       <c r="D32" s="3">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E32" s="6">
-        <v>0.1481481481481481</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="F32" s="3">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G32" s="5">
-        <v>0.3721809999999999</v>
+        <v>0.5715930000000001</v>
       </c>
       <c r="H32" s="3">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="I32" s="6">
-        <v>0.134020618556701</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="J32" s="3">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K32" s="5">
-        <v>1.406098999999999</v>
+        <v>1.605510999999999</v>
       </c>
       <c r="L32" s="3">
-        <v>687</v>
+        <v>753</v>
       </c>
       <c r="M32" s="6">
-        <v>0.1368267831149927</v>
+        <v>0.1407702523240372</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1927,40 +1927,40 @@
         <v>34</v>
       </c>
       <c r="B33" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C33" s="5">
-        <v>0.024434</v>
+        <v>0.285556</v>
       </c>
       <c r="D33" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="6">
-        <v>0.06666666666666667</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="F33" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G33" s="5">
-        <v>0.4422650000000001</v>
+        <v>0.7278210000000001</v>
       </c>
       <c r="H33" s="3">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="I33" s="6">
-        <v>0.1842105263157895</v>
+        <v>0.2087912087912088</v>
       </c>
       <c r="J33" s="3">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K33" s="5">
-        <v>2.584969000000001</v>
+        <v>2.870525000000001</v>
       </c>
       <c r="L33" s="3">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="M33" s="6">
-        <v>0.2625368731563422</v>
+        <v>0.2655367231638418</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1968,40 +1968,40 @@
         <v>35</v>
       </c>
       <c r="B34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="5">
-        <v>0</v>
+        <v>0.027208</v>
       </c>
       <c r="D34" s="3">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E34" s="6">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="5">
-        <v>0</v>
+        <v>0.027208</v>
       </c>
       <c r="H34" s="3">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I34" s="6">
-        <v>0</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="J34" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K34" s="5">
-        <v>0.389794</v>
+        <v>0.417002</v>
       </c>
       <c r="L34" s="3">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="M34" s="6">
-        <v>0.07335907335907337</v>
+        <v>0.07092198581560284</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2012,37 +2012,37 @@
         <v>2</v>
       </c>
       <c r="C35" s="5">
-        <v>0.038868</v>
+        <v>0.044259</v>
       </c>
       <c r="D35" s="3">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E35" s="6">
-        <v>0.07407407407407407</v>
+        <v>0.25</v>
       </c>
       <c r="F35" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G35" s="5">
-        <v>0.209888</v>
+        <v>0.254147</v>
       </c>
       <c r="H35" s="3">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I35" s="6">
-        <v>0.15625</v>
+        <v>0.16</v>
       </c>
       <c r="J35" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K35" s="5">
-        <v>0.9833640000000003</v>
+        <v>1.027623</v>
       </c>
       <c r="L35" s="3">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="M35" s="6">
-        <v>0.2640449438202247</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2050,40 +2050,40 @@
         <v>37</v>
       </c>
       <c r="B36" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" s="5">
-        <v>0</v>
+        <v>0.038868</v>
       </c>
       <c r="D36" s="3">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E36" s="6">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="F36" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G36" s="5">
-        <v>0.07576500000000001</v>
+        <v>0.114633</v>
       </c>
       <c r="H36" s="3">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I36" s="6">
-        <v>0.07272727272727272</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="J36" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K36" s="5">
-        <v>0.9606620000000001</v>
+        <v>0.9995300000000001</v>
       </c>
       <c r="L36" s="3">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="M36" s="6">
-        <v>0.247191011235955</v>
+        <v>0.213953488372093</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E37" s="6">
         <v>0</v>
@@ -2109,10 +2109,10 @@
         <v>0.019434</v>
       </c>
       <c r="H37" s="3">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="I37" s="6">
-        <v>0.009345794392523364</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="J37" s="3">
         <v>10</v>
@@ -2121,10 +2121,10 @@
         <v>0.2453130000000001</v>
       </c>
       <c r="L37" s="3">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="M37" s="6">
-        <v>0.03861003861003861</v>
+        <v>0.03205128205128205</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2132,40 +2132,40 @@
         <v>38</v>
       </c>
       <c r="B38" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C38" s="5">
-        <v>0.063302</v>
+        <v>0.111802</v>
       </c>
       <c r="D38" s="3">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E38" s="6">
-        <v>0.2142857142857143</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="F38" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G38" s="5">
-        <v>0.160472</v>
+        <v>0.316533</v>
       </c>
       <c r="H38" s="3">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="I38" s="6">
-        <v>0.1095890410958904</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="J38" s="3">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K38" s="5">
-        <v>0.8637000000000004</v>
+        <v>1.019761</v>
       </c>
       <c r="L38" s="3">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="M38" s="6">
-        <v>0.1593625498007968</v>
+        <v>0.1620689655172414</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2173,40 +2173,40 @@
         <v>39</v>
       </c>
       <c r="B39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39" s="5">
-        <v>0.063302</v>
+        <v>0.111802</v>
       </c>
       <c r="D39" s="3">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E39" s="6">
-        <v>0.1428571428571428</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="F39" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G39" s="5">
-        <v>0.160472</v>
+        <v>0.316533</v>
       </c>
       <c r="H39" s="3">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="I39" s="6">
-        <v>0.08791208791208792</v>
+        <v>0.1171875</v>
       </c>
       <c r="J39" s="3">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K39" s="5">
-        <v>0.8637000000000004</v>
+        <v>1.019761</v>
       </c>
       <c r="L39" s="3">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="M39" s="6">
-        <v>0.1762114537444934</v>
+        <v>0.1787072243346008</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2214,40 +2214,40 @@
         <v>40</v>
       </c>
       <c r="B40" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="5">
-        <v>0.048868</v>
+        <v>0.07330199999999999</v>
       </c>
       <c r="D40" s="3">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E40" s="6">
-        <v>0.06060606060606061</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="F40" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G40" s="5">
-        <v>0.166152</v>
+        <v>0.263888</v>
       </c>
       <c r="H40" s="3">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="I40" s="6">
-        <v>0.03157894736842105</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="J40" s="3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K40" s="5">
-        <v>1.222423</v>
+        <v>1.320159</v>
       </c>
       <c r="L40" s="3">
-        <v>671</v>
+        <v>727</v>
       </c>
       <c r="M40" s="6">
-        <v>0.06408345752608048</v>
+        <v>0.06464924346629987</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2255,40 +2255,40 @@
         <v>41</v>
       </c>
       <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.024434</v>
+      </c>
+      <c r="D41" s="3">
         <v>4</v>
       </c>
-      <c r="C41" s="5">
-        <v>0.099727</v>
-      </c>
-      <c r="D41" s="3">
-        <v>9</v>
-      </c>
       <c r="E41" s="6">
-        <v>0.4444444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="F41" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G41" s="5">
-        <v>0.256105</v>
+        <v>0.280539</v>
       </c>
       <c r="H41" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I41" s="6">
-        <v>0.3225806451612903</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="J41" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K41" s="5">
-        <v>1.253609</v>
+        <v>1.278043</v>
       </c>
       <c r="L41" s="3">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="M41" s="6">
-        <v>0.4152542372881356</v>
+        <v>0.4065040650406504</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2296,40 +2296,40 @@
         <v>42</v>
       </c>
       <c r="B42" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C42" s="5">
-        <v>0.190588</v>
+        <v>0.272475</v>
       </c>
       <c r="D42" s="3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E42" s="6">
-        <v>0.5238095238095238</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="F42" s="3">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="G42" s="5">
-        <v>0.7623559999999998</v>
+        <v>1.064153</v>
       </c>
       <c r="H42" s="3">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="I42" s="6">
-        <v>0.5897435897435898</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="J42" s="3">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K42" s="5">
-        <v>3.078726000000003</v>
+        <v>3.380523000000003</v>
       </c>
       <c r="L42" s="3">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="M42" s="6">
-        <v>0.5795053003533569</v>
+        <v>0.5642633228840125</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2337,16 +2337,16 @@
         <v>43</v>
       </c>
       <c r="B43" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C43" s="5">
-        <v>0.083076</v>
+        <v>0</v>
       </c>
       <c r="D43" s="3">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E43" s="6">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>7</v>
@@ -2355,10 +2355,10 @@
         <v>0.190586</v>
       </c>
       <c r="H43" s="3">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="I43" s="6">
-        <v>0.02892561983471074</v>
+        <v>0.02243589743589744</v>
       </c>
       <c r="J43" s="3">
         <v>36</v>
@@ -2367,10 +2367,10 @@
         <v>0.9773640000000001</v>
       </c>
       <c r="L43" s="3">
-        <v>879</v>
+        <v>947</v>
       </c>
       <c r="M43" s="6">
-        <v>0.0409556313993174</v>
+        <v>0.03801478352692714</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="6">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         <v>0.049943</v>
       </c>
       <c r="H44" s="3">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I44" s="6">
-        <v>0.02439024390243903</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="J44" s="3">
         <v>6</v>
@@ -2408,10 +2408,10 @@
         <v>0.169519</v>
       </c>
       <c r="L44" s="3">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M44" s="6">
-        <v>0.02714932126696833</v>
+        <v>0.02620087336244541</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2419,40 +2419,40 @@
         <v>45</v>
       </c>
       <c r="B45" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C45" s="5">
-        <v>0.076076</v>
+        <v>0.019434</v>
       </c>
       <c r="D45" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E45" s="6">
-        <v>0.09375</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="F45" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" s="5">
-        <v>0.236832</v>
+        <v>0.256266</v>
       </c>
       <c r="H45" s="3">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="I45" s="6">
-        <v>0.06106870229007633</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="J45" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K45" s="5">
-        <v>0.5744859999999999</v>
+        <v>0.59392</v>
       </c>
       <c r="L45" s="3">
-        <v>567</v>
+        <v>609</v>
       </c>
       <c r="M45" s="6">
-        <v>0.03703703703703703</v>
+        <v>0.0361247947454844</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2460,40 +2460,40 @@
         <v>46</v>
       </c>
       <c r="B46" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C46" s="5">
-        <v>0.038868</v>
+        <v>0.240982</v>
       </c>
       <c r="D46" s="3">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E46" s="6">
-        <v>0.1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="F46" s="3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G46" s="5">
-        <v>0.3542370000000001</v>
+        <v>0.6535210000000002</v>
       </c>
       <c r="H46" s="3">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="I46" s="6">
-        <v>0.1475409836065574</v>
+        <v>0.1793478260869565</v>
       </c>
       <c r="J46" s="3">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="K46" s="5">
-        <v>2.674549000000001</v>
+        <v>2.973833000000001</v>
       </c>
       <c r="L46" s="3">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="M46" s="6">
-        <v>0.2231833910034602</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2501,40 +2501,40 @@
         <v>47</v>
       </c>
       <c r="B47" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C47" s="5">
-        <v>0.038868</v>
+        <v>0.156416</v>
       </c>
       <c r="D47" s="3">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E47" s="6">
-        <v>0.05263157894736842</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="F47" s="3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G47" s="5">
-        <v>0.4906820000000002</v>
+        <v>0.6665320000000002</v>
       </c>
       <c r="H47" s="3">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="I47" s="6">
-        <v>0.1076233183856502</v>
+        <v>0.1050955414012739</v>
       </c>
       <c r="J47" s="3">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K47" s="5">
-        <v>1.965972000000001</v>
+        <v>2.141822</v>
       </c>
       <c r="L47" s="3">
-        <v>681</v>
+        <v>772</v>
       </c>
       <c r="M47" s="6">
-        <v>0.1409691629955947</v>
+        <v>0.1360103626943005</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2542,40 +2542,40 @@
         <v>48</v>
       </c>
       <c r="B48" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C48" s="5">
-        <v>0.35701</v>
+        <v>0.217662</v>
       </c>
       <c r="D48" s="3">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="E48" s="6">
-        <v>0.2575757575757576</v>
+        <v>0.0625</v>
       </c>
       <c r="F48" s="3">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G48" s="5">
-        <v>1.119929</v>
+        <v>1.395893</v>
       </c>
       <c r="H48" s="3">
-        <v>308</v>
+        <v>502</v>
       </c>
       <c r="I48" s="6">
-        <v>0.1753246753246753</v>
+        <v>0.1334661354581673</v>
       </c>
       <c r="J48" s="3">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="K48" s="5">
-        <v>4.894558999999996</v>
+        <v>5.170522999999993</v>
       </c>
       <c r="L48" s="3">
-        <v>1223</v>
+        <v>1377</v>
       </c>
       <c r="M48" s="6">
-        <v>0.1954210956663941</v>
+        <v>0.1830065359477124</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2583,40 +2583,40 @@
         <v>49</v>
       </c>
       <c r="B49" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" s="5">
-        <v>0.181553</v>
+        <v>0.127688</v>
       </c>
       <c r="D49" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E49" s="6">
-        <v>0.2758620689655172</v>
+        <v>0.2</v>
       </c>
       <c r="F49" s="3">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G49" s="5">
-        <v>0.8000950000000002</v>
+        <v>0.9744250000000002</v>
       </c>
       <c r="H49" s="3">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="I49" s="6">
-        <v>0.2913385826771653</v>
+        <v>0.2710843373493976</v>
       </c>
       <c r="J49" s="3">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="K49" s="5">
-        <v>3.097439000000002</v>
+        <v>3.271769000000002</v>
       </c>
       <c r="L49" s="3">
-        <v>396</v>
+        <v>435</v>
       </c>
       <c r="M49" s="6">
-        <v>0.3712121212121212</v>
+        <v>0.3563218390804598</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -2624,40 +2624,40 @@
         <v>50</v>
       </c>
       <c r="B50" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50" s="5">
-        <v>0.128593</v>
+        <v>0.108933</v>
       </c>
       <c r="D50" s="3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E50" s="6">
-        <v>0.3043478260869565</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="F50" s="3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G50" s="5">
-        <v>0.5579189999999998</v>
+        <v>0.686286</v>
       </c>
       <c r="H50" s="3">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="I50" s="6">
-        <v>0.2840909090909091</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="J50" s="3">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K50" s="5">
-        <v>1.748068</v>
+        <v>1.876434999999999</v>
       </c>
       <c r="L50" s="3">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="M50" s="6">
-        <v>0.2676056338028169</v>
+        <v>0.2553846153846154</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -2665,40 +2665,40 @@
         <v>51</v>
       </c>
       <c r="B51" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" s="5">
-        <v>0.066076</v>
+        <v>0.069274</v>
       </c>
       <c r="D51" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E51" s="6">
-        <v>0.125</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="F51" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G51" s="5">
-        <v>0.213776</v>
+        <v>0.28305</v>
       </c>
       <c r="H51" s="3">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="I51" s="6">
-        <v>0.09375</v>
+        <v>0.09848484848484848</v>
       </c>
       <c r="J51" s="3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K51" s="5">
-        <v>0.7499040000000001</v>
+        <v>0.8191780000000002</v>
       </c>
       <c r="L51" s="3">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="M51" s="6">
-        <v>0.09831460674157304</v>
+        <v>0.09974424552429667</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -2706,40 +2706,40 @@
         <v>52</v>
       </c>
       <c r="B52" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="5">
-        <v>0.019434</v>
+        <v>0</v>
       </c>
       <c r="D52" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E52" s="6">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G52" s="5">
-        <v>0.160438</v>
+        <v>0.185414</v>
       </c>
       <c r="H52" s="3">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I52" s="6">
-        <v>0.1891891891891892</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="J52" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52" s="5">
-        <v>0.9194780000000002</v>
+        <v>0.9444540000000002</v>
       </c>
       <c r="L52" s="3">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M52" s="6">
-        <v>0.26</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -2747,40 +2747,40 @@
         <v>53</v>
       </c>
       <c r="B53" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C53" s="5">
-        <v>0.131034</v>
+        <v>0.274584</v>
       </c>
       <c r="D53" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E53" s="6">
-        <v>0.4545454545454545</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F53" s="3">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G53" s="5">
-        <v>0.6497360000000001</v>
+        <v>0.9243200000000003</v>
       </c>
       <c r="H53" s="3">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I53" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="J53" s="3">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K53" s="5">
-        <v>2.819797</v>
+        <v>3.094381</v>
       </c>
       <c r="L53" s="3">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M53" s="6">
-        <v>0.4661354581673307</v>
+        <v>0.4813432835820896</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -2788,40 +2788,40 @@
         <v>54</v>
       </c>
       <c r="B54" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" s="5">
-        <v>0.12992</v>
+        <v>0.194342</v>
       </c>
       <c r="D54" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E54" s="6">
-        <v>0.2857142857142857</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="F54" s="3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G54" s="5">
-        <v>0.765775</v>
+        <v>0.987325</v>
       </c>
       <c r="H54" s="3">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="I54" s="6">
-        <v>0.308411214953271</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="J54" s="3">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K54" s="5">
-        <v>2.398231000000002</v>
+        <v>2.619781000000002</v>
       </c>
       <c r="L54" s="3">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="M54" s="6">
-        <v>0.2834224598930482</v>
+        <v>0.2811735941320294</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -2829,40 +2829,40 @@
         <v>55</v>
       </c>
       <c r="B55" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55" s="5">
-        <v>0.019434</v>
+        <v>0.058302</v>
       </c>
       <c r="D55" s="3">
         <v>8</v>
       </c>
       <c r="E55" s="6">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="F55" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G55" s="5">
-        <v>0.124378</v>
+        <v>0.18268</v>
       </c>
       <c r="H55" s="3">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="I55" s="6">
-        <v>0.1621621621621622</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="J55" s="3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K55" s="5">
-        <v>0.5174820000000001</v>
+        <v>0.5757840000000001</v>
       </c>
       <c r="L55" s="3">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M55" s="6">
-        <v>0.2173913043478261</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -2873,37 +2873,37 @@
         <v>3</v>
       </c>
       <c r="C56" s="5">
-        <v>0.068302</v>
+        <v>0.07330199999999999</v>
       </c>
       <c r="D56" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E56" s="6">
-        <v>0.1304347826086956</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="F56" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G56" s="5">
-        <v>0.126944</v>
+        <v>0.200246</v>
       </c>
       <c r="H56" s="3">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="I56" s="6">
-        <v>0.06493506493506493</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="J56" s="3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K56" s="5">
-        <v>0.7892570000000001</v>
+        <v>0.862559</v>
       </c>
       <c r="L56" s="3">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="M56" s="6">
-        <v>0.12109375</v>
+        <v>0.1214285714285714</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -2911,40 +2911,40 @@
         <v>57</v>
       </c>
       <c r="B57" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C57" s="5">
-        <v>0.05864199999999999</v>
+        <v>0.10751</v>
       </c>
       <c r="D57" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E57" s="6">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F57" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G57" s="5">
-        <v>0.523683</v>
+        <v>0.6556270000000001</v>
       </c>
       <c r="H57" s="3">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I57" s="6">
-        <v>0.35</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="J57" s="3">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K57" s="5">
-        <v>2.031638</v>
+        <v>2.163582000000001</v>
       </c>
       <c r="L57" s="3">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M57" s="6">
-        <v>0.4620689655172414</v>
+        <v>0.4528301886792453</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -2952,40 +2952,40 @@
         <v>11</v>
       </c>
       <c r="B58" s="3">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C58" s="5">
-        <v>3.430444999999999</v>
+        <v>4.350256</v>
       </c>
       <c r="D58" s="3">
-        <v>1070</v>
+        <v>1399</v>
       </c>
       <c r="E58" s="6">
-        <v>0.1523364485981308</v>
+        <v>0.1379556826304503</v>
       </c>
       <c r="F58" s="3">
-        <v>693</v>
+        <v>933</v>
       </c>
       <c r="G58" s="5">
-        <v>15.254257</v>
+        <v>20.597014</v>
       </c>
       <c r="H58" s="3">
-        <v>4889</v>
+        <v>6640</v>
       </c>
       <c r="I58" s="6">
-        <v>0.1417467784823072</v>
+        <v>0.1405120481927711</v>
       </c>
       <c r="J58" s="3">
-        <v>2975</v>
+        <v>3215</v>
       </c>
       <c r="K58" s="5">
-        <v>65.69730599999998</v>
+        <v>71.04006300000002</v>
       </c>
       <c r="L58" s="3">
-        <v>17771</v>
+        <v>19463</v>
       </c>
       <c r="M58" s="6">
-        <v>0.16740757413764</v>
+        <v>0.1651852232441042</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +3007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:E325"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3528,7 +3528,7 @@
         <v>18</v>
       </c>
       <c r="C35" s="5">
-        <v>0.491106</v>
+        <v>0.4911059999999999</v>
       </c>
       <c r="D35" s="3">
         <v>60</v>
@@ -3562,7 +3562,7 @@
         <v>417</v>
       </c>
       <c r="C37" s="5">
-        <v>9.420119000000003</v>
+        <v>9.420119000000001</v>
       </c>
       <c r="D37" s="3">
         <v>2557</v>
@@ -3639,7 +3639,7 @@
         <v>20</v>
       </c>
       <c r="C43" s="5">
-        <v>0.424928</v>
+        <v>0.4249280000000001</v>
       </c>
       <c r="D43" s="3">
         <v>199</v>
@@ -3656,7 +3656,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="5">
-        <v>0.420717</v>
+        <v>0.4207170000000001</v>
       </c>
       <c r="D44" s="3">
         <v>79</v>
@@ -3801,7 +3801,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="5">
-        <v>0.281474</v>
+        <v>0.2814739999999999</v>
       </c>
       <c r="D54" s="3">
         <v>59</v>
@@ -3920,7 +3920,7 @@
         <v>45</v>
       </c>
       <c r="C61" s="5">
-        <v>0.894252</v>
+        <v>0.8942519999999999</v>
       </c>
       <c r="D61" s="3">
         <v>266</v>
@@ -3980,7 +3980,7 @@
         <v>34</v>
       </c>
       <c r="C66" s="5">
-        <v>0.8088360000000001</v>
+        <v>0.808836</v>
       </c>
       <c r="D66" s="3">
         <v>153</v>
@@ -4048,7 +4048,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="5">
-        <v>0.4430960000000001</v>
+        <v>0.443096</v>
       </c>
       <c r="D70" s="3">
         <v>62</v>
@@ -4193,7 +4193,7 @@
         <v>32</v>
       </c>
       <c r="C80" s="5">
-        <v>0.6979670000000002</v>
+        <v>0.6979670000000001</v>
       </c>
       <c r="D80" s="3">
         <v>97</v>
@@ -4406,7 +4406,7 @@
         <v>24</v>
       </c>
       <c r="C94" s="5">
-        <v>0.481398</v>
+        <v>0.4813979999999999</v>
       </c>
       <c r="D94" s="3">
         <v>135</v>
@@ -4517,7 +4517,7 @@
         <v>111</v>
       </c>
       <c r="C102" s="5">
-        <v>2.544607999999999</v>
+        <v>2.544608</v>
       </c>
       <c r="D102" s="3">
         <v>641</v>
@@ -4679,7 +4679,7 @@
         <v>43</v>
       </c>
       <c r="C113" s="5">
-        <v>0.8049980000000002</v>
+        <v>0.8049980000000001</v>
       </c>
       <c r="D113" s="3">
         <v>483</v>
@@ -4713,7 +4713,7 @@
         <v>27</v>
       </c>
       <c r="C115" s="5">
-        <v>0.5028659999999999</v>
+        <v>0.502866</v>
       </c>
       <c r="D115" s="3">
         <v>336</v>
@@ -4892,7 +4892,7 @@
         <v>30</v>
       </c>
       <c r="C127" s="5">
-        <v>0.675235</v>
+        <v>0.6752350000000001</v>
       </c>
       <c r="D127" s="3">
         <v>343</v>
@@ -5006,7 +5006,7 @@
     <row r="135" spans="1:5">
       <c r="A135" s="3"/>
       <c r="B135" s="4" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -5034,16 +5034,16 @@
         <v>3</v>
       </c>
       <c r="B137" s="3">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C137" s="5">
-        <v>0.792284</v>
+        <v>1.019228</v>
       </c>
       <c r="D137" s="3">
-        <v>348</v>
+        <v>439</v>
       </c>
       <c r="E137" s="6">
-        <v>0.1206896551724138</v>
+        <v>0.1207289293849658</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5051,16 +5051,16 @@
         <v>4</v>
       </c>
       <c r="B138" s="3">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C138" s="5">
-        <v>0.7366200000000002</v>
+        <v>1.081171000000001</v>
       </c>
       <c r="D138" s="3">
-        <v>187</v>
+        <v>281</v>
       </c>
       <c r="E138" s="6">
-        <v>0.1764705882352941</v>
+        <v>0.1708185053380783</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5068,16 +5068,16 @@
         <v>5</v>
       </c>
       <c r="B139" s="3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C139" s="5">
-        <v>0.5616370000000001</v>
+        <v>0.6596520000000001</v>
       </c>
       <c r="D139" s="3">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E139" s="6">
-        <v>0.1444444444444444</v>
+        <v>0.1338912133891213</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5085,16 +5085,16 @@
         <v>6</v>
       </c>
       <c r="B140" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C140" s="5">
-        <v>0.6760440000000001</v>
+        <v>0.7943040000000001</v>
       </c>
       <c r="D140" s="3">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="E140" s="6">
-        <v>0.2520325203252032</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5108,10 +5108,10 @@
         <v>0.038868</v>
       </c>
       <c r="D141" s="3">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E141" s="6">
-        <v>0.0425531914893617</v>
+        <v>0.03508771929824561</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5119,16 +5119,16 @@
         <v>8</v>
       </c>
       <c r="B142" s="3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C142" s="5">
-        <v>0.4347460000000001</v>
+        <v>0.5707840000000001</v>
       </c>
       <c r="D142" s="3">
-        <v>125</v>
+        <v>203</v>
       </c>
       <c r="E142" s="6">
-        <v>0.168</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5136,16 +5136,16 @@
         <v>9</v>
       </c>
       <c r="B143" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" s="5">
-        <v>0.126944</v>
+        <v>0.151378</v>
       </c>
       <c r="D143" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E143" s="6">
-        <v>0.1515151515151515</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="D144" s="3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E144" s="6">
         <v>0</v>
@@ -5170,22 +5170,22 @@
         <v>11</v>
       </c>
       <c r="B145" s="3">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="C145" s="5">
-        <v>3.367143</v>
+        <v>4.315385000000001</v>
       </c>
       <c r="D145" s="3">
-        <v>1071</v>
+        <v>1462</v>
       </c>
       <c r="E145" s="6">
-        <v>0.1493930905695612</v>
+        <v>0.140218878248974</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="3"/>
       <c r="B147" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -5213,123 +5213,158 @@
         <v>3</v>
       </c>
       <c r="B149" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C149" s="5">
-        <v>0</v>
+        <v>0.4790150000000001</v>
       </c>
       <c r="D149" s="3">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="E149" s="6">
-        <v>0</v>
+        <v>0.09154929577464789</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="B150" s="3">
+        <v>58</v>
+      </c>
+      <c r="C150" s="5">
+        <v>1.518662</v>
+      </c>
+      <c r="D150" s="3">
+        <v>301</v>
+      </c>
+      <c r="E150" s="6">
+        <v>0.1926910299003322</v>
+      </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="3"/>
-      <c r="B151" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
+      <c r="A151" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="3">
+        <v>23</v>
+      </c>
+      <c r="C151" s="5">
+        <v>0.501447</v>
+      </c>
+      <c r="D151" s="3">
+        <v>241</v>
+      </c>
+      <c r="E151" s="6">
+        <v>0.0954356846473029</v>
+      </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="B152" s="3">
+        <v>39</v>
+      </c>
+      <c r="C152" s="5">
+        <v>0.8331230000000002</v>
+      </c>
+      <c r="D152" s="3">
+        <v>151</v>
+      </c>
+      <c r="E152" s="6">
+        <v>0.2582781456953642</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B153" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C153" s="5">
-        <v>0</v>
+        <v>0.110335</v>
       </c>
       <c r="D153" s="3">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E153" s="6">
-        <v>0</v>
+        <v>0.07936507936507936</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B154" s="3">
+        <v>30</v>
+      </c>
+      <c r="C154" s="5">
+        <v>0.6150600000000002</v>
+      </c>
+      <c r="D154" s="3">
+        <v>279</v>
+      </c>
+      <c r="E154" s="6">
+        <v>0.1075268817204301</v>
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="3"/>
-      <c r="B155" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
+      <c r="A155" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" s="3">
+        <v>7</v>
+      </c>
+      <c r="C155" s="5">
+        <v>0.180812</v>
+      </c>
+      <c r="D155" s="3">
+        <v>31</v>
+      </c>
+      <c r="E155" s="6">
+        <v>0.2258064516129032</v>
+      </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B156" s="3">
+        <v>0</v>
+      </c>
+      <c r="C156" s="5">
+        <v>0</v>
+      </c>
+      <c r="D156" s="3">
+        <v>48</v>
+      </c>
+      <c r="E156" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B157" s="3">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="C157" s="5">
-        <v>0</v>
+        <v>4.238454000000001</v>
       </c>
       <c r="D157" s="3">
-        <v>0</v>
+        <v>1398</v>
       </c>
       <c r="E157" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="4" t="s">
-        <v>4</v>
+        <v>0.1344778254649499</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="3"/>
       <c r="B159" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -5377,7 +5412,7 @@
     <row r="163" spans="1:5">
       <c r="A163" s="3"/>
       <c r="B163" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -5425,7 +5460,7 @@
     <row r="167" spans="1:5">
       <c r="A167" s="3"/>
       <c r="B167" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -5473,7 +5508,7 @@
     <row r="171" spans="1:5">
       <c r="A171" s="3"/>
       <c r="B171" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -5521,7 +5556,7 @@
     <row r="175" spans="1:5">
       <c r="A175" s="3"/>
       <c r="B175" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -5569,7 +5604,7 @@
     <row r="179" spans="1:5">
       <c r="A179" s="3"/>
       <c r="B179" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -5617,7 +5652,7 @@
     <row r="183" spans="1:5">
       <c r="A183" s="3"/>
       <c r="B183" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -5665,7 +5700,7 @@
     <row r="187" spans="1:5">
       <c r="A187" s="3"/>
       <c r="B187" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -5713,7 +5748,7 @@
     <row r="191" spans="1:5">
       <c r="A191" s="3"/>
       <c r="B191" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -5761,7 +5796,7 @@
     <row r="195" spans="1:5">
       <c r="A195" s="3"/>
       <c r="B195" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -5809,7 +5844,7 @@
     <row r="199" spans="1:5">
       <c r="A199" s="3"/>
       <c r="B199" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -5857,7 +5892,7 @@
     <row r="203" spans="1:5">
       <c r="A203" s="3"/>
       <c r="B203" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -5905,7 +5940,7 @@
     <row r="207" spans="1:5">
       <c r="A207" s="3"/>
       <c r="B207" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -5953,7 +5988,7 @@
     <row r="211" spans="1:5">
       <c r="A211" s="3"/>
       <c r="B211" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -6001,7 +6036,7 @@
     <row r="215" spans="1:5">
       <c r="A215" s="3"/>
       <c r="B215" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -6049,7 +6084,7 @@
     <row r="219" spans="1:5">
       <c r="A219" s="3"/>
       <c r="B219" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -6097,7 +6132,7 @@
     <row r="223" spans="1:5">
       <c r="A223" s="3"/>
       <c r="B223" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -6145,7 +6180,7 @@
     <row r="227" spans="1:5">
       <c r="A227" s="3"/>
       <c r="B227" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -6193,7 +6228,7 @@
     <row r="231" spans="1:5">
       <c r="A231" s="3"/>
       <c r="B231" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -6241,7 +6276,7 @@
     <row r="235" spans="1:5">
       <c r="A235" s="3"/>
       <c r="B235" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -6289,7 +6324,7 @@
     <row r="239" spans="1:5">
       <c r="A239" s="3"/>
       <c r="B239" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -6337,7 +6372,7 @@
     <row r="243" spans="1:5">
       <c r="A243" s="3"/>
       <c r="B243" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -6385,7 +6420,7 @@
     <row r="247" spans="1:5">
       <c r="A247" s="3"/>
       <c r="B247" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -6433,7 +6468,7 @@
     <row r="251" spans="1:5">
       <c r="A251" s="3"/>
       <c r="B251" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -6481,7 +6516,7 @@
     <row r="255" spans="1:5">
       <c r="A255" s="3"/>
       <c r="B255" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -6529,7 +6564,7 @@
     <row r="259" spans="1:5">
       <c r="A259" s="3"/>
       <c r="B259" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -6577,7 +6612,7 @@
     <row r="263" spans="1:5">
       <c r="A263" s="3"/>
       <c r="B263" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -6625,7 +6660,7 @@
     <row r="267" spans="1:5">
       <c r="A267" s="3"/>
       <c r="B267" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -6673,7 +6708,7 @@
     <row r="271" spans="1:5">
       <c r="A271" s="3"/>
       <c r="B271" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -6721,7 +6756,7 @@
     <row r="275" spans="1:5">
       <c r="A275" s="3"/>
       <c r="B275" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -6769,7 +6804,7 @@
     <row r="279" spans="1:5">
       <c r="A279" s="3"/>
       <c r="B279" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -6817,7 +6852,7 @@
     <row r="283" spans="1:5">
       <c r="A283" s="3"/>
       <c r="B283" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -6865,7 +6900,7 @@
     <row r="287" spans="1:5">
       <c r="A287" s="3"/>
       <c r="B287" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -6913,7 +6948,7 @@
     <row r="291" spans="1:5">
       <c r="A291" s="3"/>
       <c r="B291" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -6961,7 +6996,7 @@
     <row r="295" spans="1:5">
       <c r="A295" s="3"/>
       <c r="B295" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -7009,7 +7044,7 @@
     <row r="299" spans="1:5">
       <c r="A299" s="3"/>
       <c r="B299" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -7057,7 +7092,7 @@
     <row r="303" spans="1:5">
       <c r="A303" s="3"/>
       <c r="B303" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -7105,7 +7140,7 @@
     <row r="307" spans="1:5">
       <c r="A307" s="3"/>
       <c r="B307" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -7151,37 +7186,133 @@
       </c>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A311" s="3"/>
+      <c r="B311" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4"/>
+      <c r="E311" s="4"/>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D312" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B313" s="3">
+        <v>0</v>
+      </c>
+      <c r="C313" s="5">
+        <v>0</v>
+      </c>
+      <c r="D313" s="3">
+        <v>0</v>
+      </c>
+      <c r="E313" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A315" s="3"/>
+      <c r="B315" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4"/>
+      <c r="E315" s="4"/>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D316" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B317" s="3">
+        <v>0</v>
+      </c>
+      <c r="C317" s="5">
+        <v>0</v>
+      </c>
+      <c r="D317" s="3">
+        <v>0</v>
+      </c>
+      <c r="E317" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7202,8 +7333,6 @@
     <mergeCell ref="B123:E123"/>
     <mergeCell ref="B135:E135"/>
     <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B151:E151"/>
-    <mergeCell ref="B155:E155"/>
     <mergeCell ref="B159:E159"/>
     <mergeCell ref="B163:E163"/>
     <mergeCell ref="B167:E167"/>
@@ -7242,6 +7371,8 @@
     <mergeCell ref="B299:E299"/>
     <mergeCell ref="B303:E303"/>
     <mergeCell ref="B307:E307"/>
+    <mergeCell ref="B311:E311"/>
+    <mergeCell ref="B315:E315"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7361,7 +7492,7 @@
         <v>280</v>
       </c>
       <c r="C8" s="5">
-        <v>6.285626999999993</v>
+        <v>6.285626999999994</v>
       </c>
       <c r="D8" s="3">
         <v>935</v>
@@ -7506,7 +7637,7 @@
         <v>256</v>
       </c>
       <c r="C18" s="5">
-        <v>5.900885999999998</v>
+        <v>5.900885999999999</v>
       </c>
       <c r="D18" s="3">
         <v>1347</v>
@@ -7540,7 +7671,7 @@
         <v>122</v>
       </c>
       <c r="C20" s="5">
-        <v>2.692655000000002</v>
+        <v>2.692655000000001</v>
       </c>
       <c r="D20" s="3">
         <v>457</v>
@@ -7665,16 +7796,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="3">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="C29" s="5">
-        <v>2.408472000000001</v>
+        <v>3.114431000000001</v>
       </c>
       <c r="D29" s="3">
-        <v>1241</v>
+        <v>1608</v>
       </c>
       <c r="E29" s="6">
-        <v>0.1015310233682514</v>
+        <v>0.1013681592039801</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7682,16 +7813,16 @@
         <v>4</v>
       </c>
       <c r="B30" s="3">
-        <v>200</v>
+        <v>273</v>
       </c>
       <c r="C30" s="5">
-        <v>4.670187999999995</v>
+        <v>6.533400999999992</v>
       </c>
       <c r="D30" s="3">
-        <v>1159</v>
+        <v>1546</v>
       </c>
       <c r="E30" s="6">
-        <v>0.1725625539257981</v>
+        <v>0.1765847347994825</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7699,16 +7830,16 @@
         <v>5</v>
       </c>
       <c r="B31" s="3">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="C31" s="5">
-        <v>1.822446</v>
+        <v>2.421908000000001</v>
       </c>
       <c r="D31" s="3">
-        <v>875</v>
+        <v>1168</v>
       </c>
       <c r="E31" s="6">
-        <v>0.09828571428571428</v>
+        <v>0.09845890410958905</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -7716,16 +7847,16 @@
         <v>6</v>
       </c>
       <c r="B32" s="3">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="C32" s="5">
-        <v>3.272117000000001</v>
+        <v>4.223499999999999</v>
       </c>
       <c r="D32" s="3">
-        <v>552</v>
+        <v>746</v>
       </c>
       <c r="E32" s="6">
-        <v>0.2590579710144927</v>
+        <v>0.2506702412868633</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7733,16 +7864,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C33" s="5">
-        <v>0.285653</v>
+        <v>0.395988</v>
       </c>
       <c r="D33" s="3">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="E33" s="6">
-        <v>0.07608695652173914</v>
+        <v>0.07421875</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7750,16 +7881,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="3">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C34" s="5">
-        <v>1.964848000000001</v>
+        <v>2.715946000000001</v>
       </c>
       <c r="D34" s="3">
-        <v>654</v>
+        <v>1001</v>
       </c>
       <c r="E34" s="6">
-        <v>0.1467889908256881</v>
+        <v>0.1328671328671329</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7767,16 +7898,16 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C35" s="5">
-        <v>0.6506270000000002</v>
+        <v>0.8558730000000003</v>
       </c>
       <c r="D35" s="3">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="E35" s="6">
-        <v>0.1623931623931624</v>
+        <v>0.1741935483870968</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -7790,10 +7921,10 @@
         <v>0.019434</v>
       </c>
       <c r="D36" s="3">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="E36" s="6">
-        <v>0.009345794392523364</v>
+        <v>0.006211180124223602</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -7801,16 +7932,16 @@
         <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>685</v>
+        <v>918</v>
       </c>
       <c r="C37" s="5">
-        <v>15.093785</v>
+        <v>20.28048099999999</v>
       </c>
       <c r="D37" s="3">
-        <v>4889</v>
+        <v>6641</v>
       </c>
       <c r="E37" s="6">
-        <v>0.140110452035181</v>
+        <v>0.1382321939466948</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -8303,7 +8434,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E718"/>
+  <dimension ref="A1:E757"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8483,7 +8614,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="5">
-        <v>0.2487559999999999</v>
+        <v>0.248756</v>
       </c>
       <c r="D12" s="3">
         <v>124</v>
@@ -8500,7 +8631,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="5">
-        <v>0.544409</v>
+        <v>0.5444090000000001</v>
       </c>
       <c r="D13" s="3">
         <v>193</v>
@@ -8602,7 +8733,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="5">
-        <v>0.8675150000000001</v>
+        <v>0.8675149999999999</v>
       </c>
       <c r="D19" s="3">
         <v>72</v>
@@ -8840,7 +8971,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="5">
-        <v>0.2870579999999999</v>
+        <v>0.287058</v>
       </c>
       <c r="D33" s="3">
         <v>59</v>
@@ -9461,7 +9592,7 @@
         <v>23</v>
       </c>
       <c r="C71" s="5">
-        <v>0.327422</v>
+        <v>0.3274219999999999</v>
       </c>
       <c r="D71" s="3">
         <v>29</v>
@@ -9861,7 +9992,7 @@
         <v>29</v>
       </c>
       <c r="C96" s="5">
-        <v>0.5980030000000001</v>
+        <v>0.5980030000000002</v>
       </c>
       <c r="D96" s="3">
         <v>120</v>
@@ -9912,7 +10043,7 @@
         <v>13</v>
       </c>
       <c r="C99" s="5">
-        <v>0.285538</v>
+        <v>0.2855379999999999</v>
       </c>
       <c r="D99" s="3">
         <v>162</v>
@@ -10269,7 +10400,7 @@
         <v>27</v>
       </c>
       <c r="C120" s="5">
-        <v>0.5635880000000001</v>
+        <v>0.5635879999999999</v>
       </c>
       <c r="D120" s="3">
         <v>276</v>
@@ -10286,7 +10417,7 @@
         <v>26</v>
       </c>
       <c r="C121" s="5">
-        <v>0.523153</v>
+        <v>0.5231530000000001</v>
       </c>
       <c r="D121" s="3">
         <v>63</v>
@@ -12035,7 +12166,7 @@
         <v>16</v>
       </c>
       <c r="C228" s="5">
-        <v>0.3526899999999999</v>
+        <v>0.35269</v>
       </c>
       <c r="D228" s="3">
         <v>34</v>
@@ -12695,7 +12826,7 @@
         <v>4</v>
       </c>
       <c r="C268" s="5">
-        <v>0.043642</v>
+        <v>0.04364199999999999</v>
       </c>
       <c r="D268" s="3">
         <v>39</v>
@@ -13239,7 +13370,7 @@
         <v>162</v>
       </c>
       <c r="C300" s="5">
-        <v>3.626030999999999</v>
+        <v>3.626031</v>
       </c>
       <c r="D300" s="3">
         <v>898</v>
@@ -15221,7 +15352,7 @@
         <v>10</v>
       </c>
       <c r="C421" s="5">
-        <v>0.23454</v>
+        <v>0.2345400000000001</v>
       </c>
       <c r="D421" s="3">
         <v>31</v>
@@ -15357,7 +15488,7 @@
         <v>247</v>
       </c>
       <c r="C429" s="5">
-        <v>5.371614000000001</v>
+        <v>5.371613999999999</v>
       </c>
       <c r="D429" s="3">
         <v>1802</v>
@@ -16075,7 +16206,7 @@
     <row r="474" spans="1:5">
       <c r="A474" s="3"/>
       <c r="B474" s="4" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -16103,16 +16234,16 @@
         <v>20</v>
       </c>
       <c r="B476" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C476" s="5">
-        <v>0.027208</v>
+        <v>0.117718</v>
       </c>
       <c r="D476" s="3">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E476" s="6">
-        <v>0.0303030303030303</v>
+        <v>0.09433962264150944</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -16120,16 +16251,16 @@
         <v>21</v>
       </c>
       <c r="B477" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C477" s="5">
-        <v>0.024434</v>
+        <v>0.07330199999999999</v>
       </c>
       <c r="D477" s="3">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E477" s="6">
-        <v>0.01515151515151515</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -16160,10 +16291,10 @@
         <v>0.09717000000000001</v>
       </c>
       <c r="D479" s="3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E479" s="6">
-        <v>0.1428571428571428</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -16171,16 +16302,16 @@
         <v>24</v>
       </c>
       <c r="B480" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C480" s="5">
-        <v>0.131604</v>
+        <v>0.156038</v>
       </c>
       <c r="D480" s="3">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="E480" s="6">
-        <v>0.1025641025641026</v>
+        <v>0.09615384615384616</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -16188,16 +16319,16 @@
         <v>25</v>
       </c>
       <c r="B481" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C481" s="5">
-        <v>0.2926150000000001</v>
+        <v>0.3314830000000001</v>
       </c>
       <c r="D481" s="3">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E481" s="6">
-        <v>0.1794871794871795</v>
+        <v>0.1684210526315789</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -16205,16 +16336,16 @@
         <v>26</v>
       </c>
       <c r="B482" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C482" s="5">
-        <v>0.077554</v>
+        <v>0.08238399999999999</v>
       </c>
       <c r="D482" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E482" s="6">
-        <v>0.3333333333333333</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -16222,16 +16353,16 @@
         <v>27</v>
       </c>
       <c r="B483" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C483" s="5">
-        <v>0.075623</v>
+        <v>0.095057</v>
       </c>
       <c r="D483" s="3">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E483" s="6">
-        <v>0.08955223880597014</v>
+        <v>0.08860759493670886</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -16239,16 +16370,16 @@
         <v>28</v>
       </c>
       <c r="B484" s="3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C484" s="5">
-        <v>0.176201</v>
+        <v>0.215069</v>
       </c>
       <c r="D484" s="3">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E484" s="6">
-        <v>0.1372549019607843</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -16262,10 +16393,10 @@
         <v>0.027208</v>
       </c>
       <c r="D485" s="3">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E485" s="6">
-        <v>0.02941176470588235</v>
+        <v>0.02173913043478261</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -16273,16 +16404,16 @@
         <v>30</v>
       </c>
       <c r="B486" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C486" s="5">
-        <v>0.296023</v>
+        <v>0.416515</v>
       </c>
       <c r="D486" s="3">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E486" s="6">
-        <v>0.4</v>
+        <v>0.3863636363636364</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -16290,16 +16421,16 @@
         <v>31</v>
       </c>
       <c r="B487" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C487" s="5">
-        <v>0.12825</v>
+        <v>0.276544</v>
       </c>
       <c r="D487" s="3">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E487" s="6">
-        <v>0.24</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -16313,10 +16444,10 @@
         <v>0.037998</v>
       </c>
       <c r="D488" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E488" s="6">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -16324,16 +16455,16 @@
         <v>33</v>
       </c>
       <c r="B489" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C489" s="5">
-        <v>0.04650599999999999</v>
+        <v>0.08340299999999999</v>
       </c>
       <c r="D489" s="3">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E489" s="6">
-        <v>0.1481481481481481</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -16347,10 +16478,10 @@
         <v>0.024434</v>
       </c>
       <c r="D490" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E490" s="6">
-        <v>0.06666666666666667</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -16364,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="D491" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E491" s="6">
         <v>0</v>
@@ -16381,10 +16512,10 @@
         <v>0.038868</v>
       </c>
       <c r="D492" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E492" s="6">
-        <v>0.07407407407407407</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -16398,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="D493" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E493" s="6">
         <v>0</v>
@@ -16415,7 +16546,7 @@
         <v>0</v>
       </c>
       <c r="D494" s="3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E494" s="6">
         <v>0</v>
@@ -16426,16 +16557,16 @@
         <v>38</v>
       </c>
       <c r="B495" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C495" s="5">
-        <v>0.063302</v>
+        <v>0.107561</v>
       </c>
       <c r="D495" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E495" s="6">
-        <v>0.2142857142857143</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -16443,16 +16574,16 @@
         <v>39</v>
       </c>
       <c r="B496" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C496" s="5">
-        <v>0.063302</v>
+        <v>0.107561</v>
       </c>
       <c r="D496" s="3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E496" s="6">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -16460,16 +16591,16 @@
         <v>40</v>
       </c>
       <c r="B497" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C497" s="5">
-        <v>0.048868</v>
+        <v>0.07330199999999999</v>
       </c>
       <c r="D497" s="3">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E497" s="6">
-        <v>0.06060606060606061</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -16483,10 +16614,10 @@
         <v>0.099727</v>
       </c>
       <c r="D498" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E498" s="6">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -16494,16 +16625,16 @@
         <v>42</v>
       </c>
       <c r="B499" s="3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C499" s="5">
-        <v>0.190588</v>
+        <v>0.21991</v>
       </c>
       <c r="D499" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E499" s="6">
-        <v>0.5238095238095238</v>
+        <v>0.4827586206896552</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -16517,10 +16648,10 @@
         <v>0.083076</v>
       </c>
       <c r="D500" s="3">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E500" s="6">
-        <v>0.07142857142857142</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -16534,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="D501" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E501" s="6">
         <v>0</v>
@@ -16551,10 +16682,10 @@
         <v>0.076076</v>
       </c>
       <c r="D502" s="3">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E502" s="6">
-        <v>0.09375</v>
+        <v>0.06818181818181818</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -16562,16 +16693,16 @@
         <v>46</v>
       </c>
       <c r="B503" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C503" s="5">
-        <v>0.038868</v>
+        <v>0.09717000000000001</v>
       </c>
       <c r="D503" s="3">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E503" s="6">
-        <v>0.1</v>
+        <v>0.1351351351351351</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -16579,16 +16710,16 @@
         <v>47</v>
       </c>
       <c r="B504" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C504" s="5">
-        <v>0.038868</v>
+        <v>0.058302</v>
       </c>
       <c r="D504" s="3">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E504" s="6">
-        <v>0.05263157894736842</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -16596,16 +16727,16 @@
         <v>48</v>
       </c>
       <c r="B505" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C505" s="5">
-        <v>0.35701</v>
+        <v>0.4153120000000001</v>
       </c>
       <c r="D505" s="3">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="E505" s="6">
-        <v>0.2575757575757576</v>
+        <v>0.1834862385321101</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -16613,16 +16744,16 @@
         <v>49</v>
       </c>
       <c r="B506" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C506" s="5">
-        <v>0.181553</v>
+        <v>0.228195</v>
       </c>
       <c r="D506" s="3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E506" s="6">
-        <v>0.2758620689655172</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -16630,16 +16761,16 @@
         <v>50</v>
       </c>
       <c r="B507" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C507" s="5">
-        <v>0.128593</v>
+        <v>0.148027</v>
       </c>
       <c r="D507" s="3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E507" s="6">
-        <v>0.3043478260869565</v>
+        <v>0.2580645161290323</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -16653,10 +16784,10 @@
         <v>0.066076</v>
       </c>
       <c r="D508" s="3">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E508" s="6">
-        <v>0.125</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -16664,16 +16795,16 @@
         <v>52</v>
       </c>
       <c r="B509" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C509" s="5">
-        <v>0.019434</v>
+        <v>0.04441000000000001</v>
       </c>
       <c r="D509" s="3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E509" s="6">
-        <v>0.1428571428571428</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -16687,10 +16818,10 @@
         <v>0.131034</v>
       </c>
       <c r="D510" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E510" s="6">
-        <v>0.4545454545454545</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -16698,16 +16829,16 @@
         <v>54</v>
       </c>
       <c r="B511" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C511" s="5">
-        <v>0.12992</v>
+        <v>0.157128</v>
       </c>
       <c r="D511" s="3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E511" s="6">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -16721,10 +16852,10 @@
         <v>0.019434</v>
       </c>
       <c r="D512" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E512" s="6">
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -16738,10 +16869,10 @@
         <v>0.068302</v>
       </c>
       <c r="D513" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E513" s="6">
-        <v>0.1304347826086956</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -16749,16 +16880,16 @@
         <v>57</v>
       </c>
       <c r="B514" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C514" s="5">
-        <v>0.05864199999999999</v>
+        <v>0.083076</v>
       </c>
       <c r="D514" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E514" s="6">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -16766,22 +16897,22 @@
         <v>11</v>
       </c>
       <c r="B515" s="3">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="C515" s="5">
-        <v>3.430444999999999</v>
+        <v>4.422946</v>
       </c>
       <c r="D515" s="3">
-        <v>1070</v>
+        <v>1459</v>
       </c>
       <c r="E515" s="6">
-        <v>0.1523364485981308</v>
+        <v>0.1439342015078821</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="3"/>
       <c r="B517" s="4" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
@@ -16809,292 +16940,412 @@
         <v>20</v>
       </c>
       <c r="B519" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C519" s="5">
-        <v>0</v>
+        <v>0.038868</v>
       </c>
       <c r="D519" s="3">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E519" s="6">
-        <v>0</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="520" spans="1:5">
       <c r="A520" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="B520" s="3">
+        <v>2</v>
+      </c>
+      <c r="C520" s="5">
+        <v>0.05164199999999999</v>
+      </c>
+      <c r="D520" s="3">
+        <v>78</v>
+      </c>
+      <c r="E520" s="6">
+        <v>0.02564102564102564</v>
+      </c>
     </row>
     <row r="521" spans="1:5">
-      <c r="A521" s="3"/>
-      <c r="B521" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C521" s="4"/>
-      <c r="D521" s="4"/>
-      <c r="E521" s="4"/>
+      <c r="A521" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B521" s="3">
+        <v>0</v>
+      </c>
+      <c r="C521" s="5">
+        <v>0</v>
+      </c>
+      <c r="D521" s="3">
+        <v>5</v>
+      </c>
+      <c r="E521" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B522" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C522" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D522" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E522" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="B522" s="3">
+        <v>2</v>
+      </c>
+      <c r="C522" s="5">
+        <v>0.046642</v>
+      </c>
+      <c r="D522" s="3">
+        <v>35</v>
+      </c>
+      <c r="E522" s="6">
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="523" spans="1:5">
       <c r="A523" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B523" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C523" s="5">
-        <v>0</v>
+        <v>0.063415</v>
       </c>
       <c r="D523" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E523" s="6">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B524" s="3">
+        <v>8</v>
+      </c>
+      <c r="C524" s="5">
+        <v>0.168788</v>
+      </c>
+      <c r="D524" s="3">
+        <v>48</v>
+      </c>
+      <c r="E524" s="6">
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="525" spans="1:5">
-      <c r="A525" s="3"/>
-      <c r="B525" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C525" s="4"/>
-      <c r="D525" s="4"/>
-      <c r="E525" s="4"/>
+      <c r="A525" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B525" s="3">
+        <v>6</v>
+      </c>
+      <c r="C525" s="5">
+        <v>0.06596200000000001</v>
+      </c>
+      <c r="D525" s="3">
+        <v>12</v>
+      </c>
+      <c r="E525" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="526" spans="1:5">
       <c r="A526" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B526" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C526" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D526" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E526" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B526" s="3">
+        <v>3</v>
+      </c>
+      <c r="C526" s="5">
+        <v>0.043698</v>
+      </c>
+      <c r="D526" s="3">
+        <v>30</v>
+      </c>
+      <c r="E526" s="6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="527" spans="1:5">
       <c r="A527" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B527" s="3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C527" s="5">
-        <v>0</v>
+        <v>0.16415</v>
       </c>
       <c r="D527" s="3">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E527" s="6">
-        <v>0</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B528" s="3">
+        <v>3</v>
+      </c>
+      <c r="C528" s="5">
+        <v>0.06798</v>
+      </c>
+      <c r="D528" s="3">
+        <v>43</v>
+      </c>
+      <c r="E528" s="6">
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="529" spans="1:5">
-      <c r="A529" s="3"/>
-      <c r="B529" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C529" s="4"/>
-      <c r="D529" s="4"/>
-      <c r="E529" s="4"/>
+      <c r="A529" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B529" s="3">
+        <v>18</v>
+      </c>
+      <c r="C529" s="5">
+        <v>0.425366</v>
+      </c>
+      <c r="D529" s="3">
+        <v>49</v>
+      </c>
+      <c r="E529" s="6">
+        <v>0.3673469387755102</v>
+      </c>
     </row>
     <row r="530" spans="1:5">
       <c r="A530" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B530" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C530" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D530" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E530" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="B530" s="3">
+        <v>11</v>
+      </c>
+      <c r="C530" s="5">
+        <v>0.364227</v>
+      </c>
+      <c r="D530" s="3">
+        <v>65</v>
+      </c>
+      <c r="E530" s="6">
+        <v>0.1692307692307692</v>
       </c>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B531" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C531" s="5">
-        <v>0</v>
+        <v>0.048868</v>
       </c>
       <c r="D531" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E531" s="6">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="B532" s="3">
+        <v>10</v>
+      </c>
+      <c r="C532" s="5">
+        <v>0.162515</v>
+      </c>
+      <c r="D532" s="3">
+        <v>54</v>
+      </c>
+      <c r="E532" s="6">
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="533" spans="1:5">
-      <c r="A533" s="3"/>
-      <c r="B533" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C533" s="4"/>
-      <c r="D533" s="4"/>
-      <c r="E533" s="4"/>
+      <c r="A533" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B533" s="3">
+        <v>5</v>
+      </c>
+      <c r="C533" s="5">
+        <v>0.285556</v>
+      </c>
+      <c r="D533" s="3">
+        <v>14</v>
+      </c>
+      <c r="E533" s="6">
+        <v>0.3571428571428572</v>
+      </c>
     </row>
     <row r="534" spans="1:5">
       <c r="A534" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B534" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C534" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D534" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E534" s="4" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="B534" s="3">
+        <v>1</v>
+      </c>
+      <c r="C534" s="5">
+        <v>0.027208</v>
+      </c>
+      <c r="D534" s="3">
+        <v>22</v>
+      </c>
+      <c r="E534" s="6">
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B535" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C535" s="5">
-        <v>0</v>
+        <v>0.044259</v>
       </c>
       <c r="D535" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E535" s="6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="536" spans="1:5">
       <c r="A536" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="B536" s="3">
+        <v>2</v>
+      </c>
+      <c r="C536" s="5">
+        <v>0.038868</v>
+      </c>
+      <c r="D536" s="3">
+        <v>34</v>
+      </c>
+      <c r="E536" s="6">
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="537" spans="1:5">
-      <c r="A537" s="3"/>
-      <c r="B537" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C537" s="4"/>
-      <c r="D537" s="4"/>
-      <c r="E537" s="4"/>
+      <c r="A537" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B537" s="3">
+        <v>0</v>
+      </c>
+      <c r="C537" s="5">
+        <v>0</v>
+      </c>
+      <c r="D537" s="3">
+        <v>48</v>
+      </c>
+      <c r="E537" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="538" spans="1:5">
       <c r="A538" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B538" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C538" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D538" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E538" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="B538" s="3">
+        <v>5</v>
+      </c>
+      <c r="C538" s="5">
+        <v>0.111802</v>
+      </c>
+      <c r="D538" s="3">
+        <v>33</v>
+      </c>
+      <c r="E538" s="6">
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="539" spans="1:5">
       <c r="A539" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B539" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C539" s="5">
-        <v>0</v>
+        <v>0.111802</v>
       </c>
       <c r="D539" s="3">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E539" s="6">
-        <v>0</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="540" spans="1:5">
       <c r="A540" s="4" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="B540" s="3">
+        <v>3</v>
+      </c>
+      <c r="C540" s="5">
+        <v>0.07330199999999999</v>
+      </c>
+      <c r="D540" s="3">
+        <v>49</v>
+      </c>
+      <c r="E540" s="6">
+        <v>0.06122448979591837</v>
       </c>
     </row>
     <row r="541" spans="1:5">
-      <c r="A541" s="3"/>
-      <c r="B541" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C541" s="4"/>
-      <c r="D541" s="4"/>
-      <c r="E541" s="4"/>
+      <c r="A541" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B541" s="3">
+        <v>1</v>
+      </c>
+      <c r="C541" s="5">
+        <v>0.024434</v>
+      </c>
+      <c r="D541" s="3">
+        <v>4</v>
+      </c>
+      <c r="E541" s="6">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="542" spans="1:5">
       <c r="A542" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B542" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B542" s="3">
         <v>13</v>
       </c>
-      <c r="C542" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D542" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E542" s="4" t="s">
-        <v>16</v>
+      <c r="C542" s="5">
+        <v>0.272475</v>
+      </c>
+      <c r="D542" s="3">
+        <v>28</v>
+      </c>
+      <c r="E542" s="6">
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="543" spans="1:5">
       <c r="A543" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B543" s="3">
         <v>0</v>
@@ -17103,7 +17354,7 @@
         <v>0</v>
       </c>
       <c r="D543" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E543" s="6">
         <v>0</v>
@@ -17111,1828 +17362,2366 @@
     </row>
     <row r="544" spans="1:5">
       <c r="A544" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="B544" s="3">
+        <v>0</v>
+      </c>
+      <c r="C544" s="5">
+        <v>0</v>
+      </c>
+      <c r="D544" s="3">
+        <v>7</v>
+      </c>
+      <c r="E544" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:5">
-      <c r="A545" s="3"/>
-      <c r="B545" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C545" s="4"/>
-      <c r="D545" s="4"/>
-      <c r="E545" s="4"/>
+      <c r="A545" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B545" s="3">
+        <v>1</v>
+      </c>
+      <c r="C545" s="5">
+        <v>0.019434</v>
+      </c>
+      <c r="D545" s="3">
+        <v>30</v>
+      </c>
+      <c r="E545" s="6">
+        <v>0.03333333333333333</v>
+      </c>
     </row>
     <row r="546" spans="1:5">
       <c r="A546" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B546" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C546" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D546" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E546" s="4" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="B546" s="3">
+        <v>12</v>
+      </c>
+      <c r="C546" s="5">
+        <v>0.240982</v>
+      </c>
+      <c r="D546" s="3">
+        <v>45</v>
+      </c>
+      <c r="E546" s="6">
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="547" spans="1:5">
       <c r="A547" s="4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B547" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C547" s="5">
-        <v>0</v>
+        <v>0.156416</v>
       </c>
       <c r="D547" s="3">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E547" s="6">
-        <v>0</v>
+        <v>0.1081081081081081</v>
       </c>
     </row>
     <row r="548" spans="1:5">
       <c r="A548" s="4" t="s">
-        <v>21</v>
+        <v>48</v>
+      </c>
+      <c r="B548" s="3">
+        <v>10</v>
+      </c>
+      <c r="C548" s="5">
+        <v>0.217662</v>
+      </c>
+      <c r="D548" s="3">
+        <v>160</v>
+      </c>
+      <c r="E548" s="6">
+        <v>0.0625</v>
       </c>
     </row>
     <row r="549" spans="1:5">
-      <c r="A549" s="3"/>
-      <c r="B549" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C549" s="4"/>
-      <c r="D549" s="4"/>
-      <c r="E549" s="4"/>
+      <c r="A549" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B549" s="3">
+        <v>6</v>
+      </c>
+      <c r="C549" s="5">
+        <v>0.127688</v>
+      </c>
+      <c r="D549" s="3">
+        <v>30</v>
+      </c>
+      <c r="E549" s="6">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B550" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C550" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D550" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E550" s="4" t="s">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="B550" s="3">
+        <v>6</v>
+      </c>
+      <c r="C550" s="5">
+        <v>0.108933</v>
+      </c>
+      <c r="D550" s="3">
+        <v>33</v>
+      </c>
+      <c r="E550" s="6">
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="551" spans="1:5">
       <c r="A551" s="4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B551" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C551" s="5">
-        <v>0</v>
+        <v>0.069274</v>
       </c>
       <c r="D551" s="3">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E551" s="6">
-        <v>0</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="4" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="B552" s="3">
+        <v>0</v>
+      </c>
+      <c r="C552" s="5">
+        <v>0</v>
+      </c>
+      <c r="D552" s="3">
+        <v>10</v>
+      </c>
+      <c r="E552" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:5">
-      <c r="A553" s="3"/>
-      <c r="B553" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C553" s="4"/>
-      <c r="D553" s="4"/>
-      <c r="E553" s="4"/>
+      <c r="A553" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B553" s="3">
+        <v>12</v>
+      </c>
+      <c r="C553" s="5">
+        <v>0.274584</v>
+      </c>
+      <c r="D553" s="3">
+        <v>14</v>
+      </c>
+      <c r="E553" s="6">
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="554" spans="1:5">
       <c r="A554" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B554" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C554" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D554" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E554" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="B554" s="3">
+        <v>8</v>
+      </c>
+      <c r="C554" s="5">
+        <v>0.194342</v>
+      </c>
+      <c r="D554" s="3">
+        <v>29</v>
+      </c>
+      <c r="E554" s="6">
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="555" spans="1:5">
       <c r="A555" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B555" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C555" s="5">
-        <v>0</v>
+        <v>0.058302</v>
       </c>
       <c r="D555" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E555" s="6">
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="556" spans="1:5">
       <c r="A556" s="4" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="B556" s="3">
+        <v>3</v>
+      </c>
+      <c r="C556" s="5">
+        <v>0.07330199999999999</v>
+      </c>
+      <c r="D556" s="3">
+        <v>19</v>
+      </c>
+      <c r="E556" s="6">
+        <v>0.1578947368421053</v>
       </c>
     </row>
     <row r="557" spans="1:5">
-      <c r="A557" s="3"/>
-      <c r="B557" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C557" s="4"/>
-      <c r="D557" s="4"/>
-      <c r="E557" s="4"/>
+      <c r="A557" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B557" s="3">
+        <v>4</v>
+      </c>
+      <c r="C557" s="5">
+        <v>0.10751</v>
+      </c>
+      <c r="D557" s="3">
+        <v>12</v>
+      </c>
+      <c r="E557" s="6">
+        <v>0.3333333333333333</v>
+      </c>
     </row>
     <row r="558" spans="1:5">
       <c r="A558" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B558" s="3">
+        <v>193</v>
+      </c>
+      <c r="C558" s="5">
+        <v>4.350256</v>
+      </c>
+      <c r="D558" s="3">
+        <v>1399</v>
+      </c>
+      <c r="E558" s="6">
+        <v>0.1379556826304503</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="3"/>
+      <c r="B560" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C560" s="4"/>
+      <c r="D560" s="4"/>
+      <c r="E560" s="4"/>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B558" s="4" t="s">
+      <c r="B561" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C558" s="4" t="s">
+      <c r="C561" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D558" s="4" t="s">
+      <c r="D561" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E558" s="4" t="s">
+      <c r="E561" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="559" spans="1:5">
-      <c r="A559" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B559" s="3">
-        <v>0</v>
-      </c>
-      <c r="C559" s="5">
-        <v>0</v>
-      </c>
-      <c r="D559" s="3">
-        <v>0</v>
-      </c>
-      <c r="E559" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5">
-      <c r="A560" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5">
-      <c r="A561" s="3"/>
-      <c r="B561" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C561" s="4"/>
-      <c r="D561" s="4"/>
-      <c r="E561" s="4"/>
     </row>
     <row r="562" spans="1:5">
       <c r="A562" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B562" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C562" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D562" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E562" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B562" s="3">
+        <v>0</v>
+      </c>
+      <c r="C562" s="5">
+        <v>0</v>
+      </c>
+      <c r="D562" s="3">
+        <v>0</v>
+      </c>
+      <c r="E562" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:5">
       <c r="A563" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B563" s="3">
-        <v>0</v>
-      </c>
-      <c r="C563" s="5">
-        <v>0</v>
-      </c>
-      <c r="D563" s="3">
-        <v>0</v>
-      </c>
-      <c r="E563" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="564" spans="1:5">
-      <c r="A564" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A564" s="3"/>
+      <c r="B564" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C564" s="4"/>
+      <c r="D564" s="4"/>
+      <c r="E564" s="4"/>
     </row>
     <row r="565" spans="1:5">
-      <c r="A565" s="3"/>
+      <c r="A565" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B565" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C565" s="4"/>
-      <c r="D565" s="4"/>
-      <c r="E565" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C565" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D565" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E565" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="566" spans="1:5">
       <c r="A566" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B566" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C566" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D566" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E566" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B566" s="3">
+        <v>0</v>
+      </c>
+      <c r="C566" s="5">
+        <v>0</v>
+      </c>
+      <c r="D566" s="3">
+        <v>0</v>
+      </c>
+      <c r="E566" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:5">
       <c r="A567" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B567" s="3">
-        <v>0</v>
-      </c>
-      <c r="C567" s="5">
-        <v>0</v>
-      </c>
-      <c r="D567" s="3">
-        <v>0</v>
-      </c>
-      <c r="E567" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="568" spans="1:5">
-      <c r="A568" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A568" s="3"/>
+      <c r="B568" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C568" s="4"/>
+      <c r="D568" s="4"/>
+      <c r="E568" s="4"/>
     </row>
     <row r="569" spans="1:5">
-      <c r="A569" s="3"/>
+      <c r="A569" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B569" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C569" s="4"/>
-      <c r="D569" s="4"/>
-      <c r="E569" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C569" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D569" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E569" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="570" spans="1:5">
       <c r="A570" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B570" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C570" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D570" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E570" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B570" s="3">
+        <v>0</v>
+      </c>
+      <c r="C570" s="5">
+        <v>0</v>
+      </c>
+      <c r="D570" s="3">
+        <v>0</v>
+      </c>
+      <c r="E570" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:5">
       <c r="A571" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B571" s="3">
-        <v>0</v>
-      </c>
-      <c r="C571" s="5">
-        <v>0</v>
-      </c>
-      <c r="D571" s="3">
-        <v>0</v>
-      </c>
-      <c r="E571" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="572" spans="1:5">
-      <c r="A572" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A572" s="3"/>
+      <c r="B572" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C572" s="4"/>
+      <c r="D572" s="4"/>
+      <c r="E572" s="4"/>
     </row>
     <row r="573" spans="1:5">
-      <c r="A573" s="3"/>
+      <c r="A573" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B573" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C573" s="4"/>
-      <c r="D573" s="4"/>
-      <c r="E573" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C573" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D573" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E573" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="574" spans="1:5">
       <c r="A574" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B574" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C574" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D574" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E574" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B574" s="3">
+        <v>0</v>
+      </c>
+      <c r="C574" s="5">
+        <v>0</v>
+      </c>
+      <c r="D574" s="3">
+        <v>0</v>
+      </c>
+      <c r="E574" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:5">
       <c r="A575" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B575" s="3">
-        <v>0</v>
-      </c>
-      <c r="C575" s="5">
-        <v>0</v>
-      </c>
-      <c r="D575" s="3">
-        <v>0</v>
-      </c>
-      <c r="E575" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="576" spans="1:5">
-      <c r="A576" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A576" s="3"/>
+      <c r="B576" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C576" s="4"/>
+      <c r="D576" s="4"/>
+      <c r="E576" s="4"/>
     </row>
     <row r="577" spans="1:5">
-      <c r="A577" s="3"/>
+      <c r="A577" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B577" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C577" s="4"/>
-      <c r="D577" s="4"/>
-      <c r="E577" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C577" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D577" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E577" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="578" spans="1:5">
       <c r="A578" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B578" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C578" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D578" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E578" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B578" s="3">
+        <v>0</v>
+      </c>
+      <c r="C578" s="5">
+        <v>0</v>
+      </c>
+      <c r="D578" s="3">
+        <v>0</v>
+      </c>
+      <c r="E578" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:5">
       <c r="A579" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B579" s="3">
-        <v>0</v>
-      </c>
-      <c r="C579" s="5">
-        <v>0</v>
-      </c>
-      <c r="D579" s="3">
-        <v>0</v>
-      </c>
-      <c r="E579" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="580" spans="1:5">
-      <c r="A580" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A580" s="3"/>
+      <c r="B580" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C580" s="4"/>
+      <c r="D580" s="4"/>
+      <c r="E580" s="4"/>
     </row>
     <row r="581" spans="1:5">
-      <c r="A581" s="3"/>
+      <c r="A581" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B581" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C581" s="4"/>
-      <c r="D581" s="4"/>
-      <c r="E581" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C581" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D581" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E581" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="582" spans="1:5">
       <c r="A582" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B582" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C582" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D582" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E582" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B582" s="3">
+        <v>0</v>
+      </c>
+      <c r="C582" s="5">
+        <v>0</v>
+      </c>
+      <c r="D582" s="3">
+        <v>0</v>
+      </c>
+      <c r="E582" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:5">
       <c r="A583" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B583" s="3">
-        <v>0</v>
-      </c>
-      <c r="C583" s="5">
-        <v>0</v>
-      </c>
-      <c r="D583" s="3">
-        <v>0</v>
-      </c>
-      <c r="E583" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="584" spans="1:5">
-      <c r="A584" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A584" s="3"/>
+      <c r="B584" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C584" s="4"/>
+      <c r="D584" s="4"/>
+      <c r="E584" s="4"/>
     </row>
     <row r="585" spans="1:5">
-      <c r="A585" s="3"/>
+      <c r="A585" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B585" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C585" s="4"/>
-      <c r="D585" s="4"/>
-      <c r="E585" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C585" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D585" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E585" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="586" spans="1:5">
       <c r="A586" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B586" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C586" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D586" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E586" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B586" s="3">
+        <v>0</v>
+      </c>
+      <c r="C586" s="5">
+        <v>0</v>
+      </c>
+      <c r="D586" s="3">
+        <v>0</v>
+      </c>
+      <c r="E586" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:5">
       <c r="A587" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B587" s="3">
-        <v>0</v>
-      </c>
-      <c r="C587" s="5">
-        <v>0</v>
-      </c>
-      <c r="D587" s="3">
-        <v>0</v>
-      </c>
-      <c r="E587" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="588" spans="1:5">
-      <c r="A588" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A588" s="3"/>
+      <c r="B588" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C588" s="4"/>
+      <c r="D588" s="4"/>
+      <c r="E588" s="4"/>
     </row>
     <row r="589" spans="1:5">
-      <c r="A589" s="3"/>
+      <c r="A589" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B589" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C589" s="4"/>
-      <c r="D589" s="4"/>
-      <c r="E589" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C589" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D589" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E589" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="590" spans="1:5">
       <c r="A590" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B590" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C590" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D590" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E590" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B590" s="3">
+        <v>0</v>
+      </c>
+      <c r="C590" s="5">
+        <v>0</v>
+      </c>
+      <c r="D590" s="3">
+        <v>0</v>
+      </c>
+      <c r="E590" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B591" s="3">
-        <v>0</v>
-      </c>
-      <c r="C591" s="5">
-        <v>0</v>
-      </c>
-      <c r="D591" s="3">
-        <v>0</v>
-      </c>
-      <c r="E591" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="592" spans="1:5">
-      <c r="A592" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A592" s="3"/>
+      <c r="B592" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C592" s="4"/>
+      <c r="D592" s="4"/>
+      <c r="E592" s="4"/>
     </row>
     <row r="593" spans="1:5">
-      <c r="A593" s="3"/>
+      <c r="A593" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B593" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C593" s="4"/>
-      <c r="D593" s="4"/>
-      <c r="E593" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C593" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D593" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E593" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="594" spans="1:5">
       <c r="A594" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B594" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C594" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D594" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E594" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B594" s="3">
+        <v>0</v>
+      </c>
+      <c r="C594" s="5">
+        <v>0</v>
+      </c>
+      <c r="D594" s="3">
+        <v>0</v>
+      </c>
+      <c r="E594" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:5">
       <c r="A595" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B595" s="3">
-        <v>0</v>
-      </c>
-      <c r="C595" s="5">
-        <v>0</v>
-      </c>
-      <c r="D595" s="3">
-        <v>0</v>
-      </c>
-      <c r="E595" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="596" spans="1:5">
-      <c r="A596" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A596" s="3"/>
+      <c r="B596" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C596" s="4"/>
+      <c r="D596" s="4"/>
+      <c r="E596" s="4"/>
     </row>
     <row r="597" spans="1:5">
-      <c r="A597" s="3"/>
+      <c r="A597" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B597" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C597" s="4"/>
-      <c r="D597" s="4"/>
-      <c r="E597" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C597" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D597" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E597" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="598" spans="1:5">
       <c r="A598" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B598" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C598" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D598" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E598" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B598" s="3">
+        <v>0</v>
+      </c>
+      <c r="C598" s="5">
+        <v>0</v>
+      </c>
+      <c r="D598" s="3">
+        <v>0</v>
+      </c>
+      <c r="E598" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:5">
       <c r="A599" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B599" s="3">
-        <v>0</v>
-      </c>
-      <c r="C599" s="5">
-        <v>0</v>
-      </c>
-      <c r="D599" s="3">
-        <v>0</v>
-      </c>
-      <c r="E599" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="600" spans="1:5">
-      <c r="A600" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A600" s="3"/>
+      <c r="B600" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C600" s="4"/>
+      <c r="D600" s="4"/>
+      <c r="E600" s="4"/>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="3"/>
+      <c r="A601" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B601" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C601" s="4"/>
-      <c r="D601" s="4"/>
-      <c r="E601" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C601" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D601" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E601" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B602" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C602" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D602" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E602" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B602" s="3">
+        <v>0</v>
+      </c>
+      <c r="C602" s="5">
+        <v>0</v>
+      </c>
+      <c r="D602" s="3">
+        <v>0</v>
+      </c>
+      <c r="E602" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:5">
       <c r="A603" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B603" s="3">
-        <v>0</v>
-      </c>
-      <c r="C603" s="5">
-        <v>0</v>
-      </c>
-      <c r="D603" s="3">
-        <v>0</v>
-      </c>
-      <c r="E603" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="604" spans="1:5">
-      <c r="A604" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A604" s="3"/>
+      <c r="B604" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C604" s="4"/>
+      <c r="D604" s="4"/>
+      <c r="E604" s="4"/>
     </row>
     <row r="605" spans="1:5">
-      <c r="A605" s="3"/>
+      <c r="A605" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B605" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C605" s="4"/>
-      <c r="D605" s="4"/>
-      <c r="E605" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C605" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D605" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E605" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="606" spans="1:5">
       <c r="A606" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B606" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C606" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D606" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E606" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B606" s="3">
+        <v>0</v>
+      </c>
+      <c r="C606" s="5">
+        <v>0</v>
+      </c>
+      <c r="D606" s="3">
+        <v>0</v>
+      </c>
+      <c r="E606" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:5">
       <c r="A607" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B607" s="3">
-        <v>0</v>
-      </c>
-      <c r="C607" s="5">
-        <v>0</v>
-      </c>
-      <c r="D607" s="3">
-        <v>0</v>
-      </c>
-      <c r="E607" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="608" spans="1:5">
-      <c r="A608" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A608" s="3"/>
+      <c r="B608" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C608" s="4"/>
+      <c r="D608" s="4"/>
+      <c r="E608" s="4"/>
     </row>
     <row r="609" spans="1:5">
-      <c r="A609" s="3"/>
+      <c r="A609" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B609" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C609" s="4"/>
-      <c r="D609" s="4"/>
-      <c r="E609" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C609" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D609" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E609" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="610" spans="1:5">
       <c r="A610" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B610" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C610" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D610" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E610" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B610" s="3">
+        <v>0</v>
+      </c>
+      <c r="C610" s="5">
+        <v>0</v>
+      </c>
+      <c r="D610" s="3">
+        <v>0</v>
+      </c>
+      <c r="E610" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:5">
       <c r="A611" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B611" s="3">
-        <v>0</v>
-      </c>
-      <c r="C611" s="5">
-        <v>0</v>
-      </c>
-      <c r="D611" s="3">
-        <v>0</v>
-      </c>
-      <c r="E611" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="612" spans="1:5">
-      <c r="A612" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A612" s="3"/>
+      <c r="B612" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C612" s="4"/>
+      <c r="D612" s="4"/>
+      <c r="E612" s="4"/>
     </row>
     <row r="613" spans="1:5">
-      <c r="A613" s="3"/>
+      <c r="A613" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B613" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C613" s="4"/>
-      <c r="D613" s="4"/>
-      <c r="E613" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C613" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D613" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E613" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="614" spans="1:5">
       <c r="A614" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B614" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C614" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D614" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E614" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B614" s="3">
+        <v>0</v>
+      </c>
+      <c r="C614" s="5">
+        <v>0</v>
+      </c>
+      <c r="D614" s="3">
+        <v>0</v>
+      </c>
+      <c r="E614" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:5">
       <c r="A615" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B615" s="3">
-        <v>0</v>
-      </c>
-      <c r="C615" s="5">
-        <v>0</v>
-      </c>
-      <c r="D615" s="3">
-        <v>0</v>
-      </c>
-      <c r="E615" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="616" spans="1:5">
-      <c r="A616" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A616" s="3"/>
+      <c r="B616" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C616" s="4"/>
+      <c r="D616" s="4"/>
+      <c r="E616" s="4"/>
     </row>
     <row r="617" spans="1:5">
-      <c r="A617" s="3"/>
+      <c r="A617" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B617" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C617" s="4"/>
-      <c r="D617" s="4"/>
-      <c r="E617" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C617" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D617" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E617" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="618" spans="1:5">
       <c r="A618" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B618" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C618" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D618" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E618" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B618" s="3">
+        <v>0</v>
+      </c>
+      <c r="C618" s="5">
+        <v>0</v>
+      </c>
+      <c r="D618" s="3">
+        <v>0</v>
+      </c>
+      <c r="E618" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:5">
       <c r="A619" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B619" s="3">
-        <v>0</v>
-      </c>
-      <c r="C619" s="5">
-        <v>0</v>
-      </c>
-      <c r="D619" s="3">
-        <v>0</v>
-      </c>
-      <c r="E619" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="620" spans="1:5">
-      <c r="A620" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A620" s="3"/>
+      <c r="B620" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C620" s="4"/>
+      <c r="D620" s="4"/>
+      <c r="E620" s="4"/>
     </row>
     <row r="621" spans="1:5">
-      <c r="A621" s="3"/>
+      <c r="A621" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B621" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C621" s="4"/>
-      <c r="D621" s="4"/>
-      <c r="E621" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C621" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D621" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E621" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="622" spans="1:5">
       <c r="A622" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B622" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C622" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D622" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E622" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B622" s="3">
+        <v>0</v>
+      </c>
+      <c r="C622" s="5">
+        <v>0</v>
+      </c>
+      <c r="D622" s="3">
+        <v>0</v>
+      </c>
+      <c r="E622" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:5">
       <c r="A623" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B623" s="3">
-        <v>0</v>
-      </c>
-      <c r="C623" s="5">
-        <v>0</v>
-      </c>
-      <c r="D623" s="3">
-        <v>0</v>
-      </c>
-      <c r="E623" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="624" spans="1:5">
-      <c r="A624" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A624" s="3"/>
+      <c r="B624" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C624" s="4"/>
+      <c r="D624" s="4"/>
+      <c r="E624" s="4"/>
     </row>
     <row r="625" spans="1:5">
-      <c r="A625" s="3"/>
+      <c r="A625" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B625" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C625" s="4"/>
-      <c r="D625" s="4"/>
-      <c r="E625" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C625" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D625" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E625" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="626" spans="1:5">
       <c r="A626" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B626" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C626" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D626" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E626" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B626" s="3">
+        <v>0</v>
+      </c>
+      <c r="C626" s="5">
+        <v>0</v>
+      </c>
+      <c r="D626" s="3">
+        <v>0</v>
+      </c>
+      <c r="E626" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:5">
       <c r="A627" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B627" s="3">
-        <v>0</v>
-      </c>
-      <c r="C627" s="5">
-        <v>0</v>
-      </c>
-      <c r="D627" s="3">
-        <v>0</v>
-      </c>
-      <c r="E627" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="628" spans="1:5">
-      <c r="A628" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A628" s="3"/>
+      <c r="B628" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C628" s="4"/>
+      <c r="D628" s="4"/>
+      <c r="E628" s="4"/>
     </row>
     <row r="629" spans="1:5">
-      <c r="A629" s="3"/>
+      <c r="A629" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B629" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C629" s="4"/>
-      <c r="D629" s="4"/>
-      <c r="E629" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C629" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D629" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E629" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="630" spans="1:5">
       <c r="A630" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B630" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C630" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D630" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E630" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B630" s="3">
+        <v>0</v>
+      </c>
+      <c r="C630" s="5">
+        <v>0</v>
+      </c>
+      <c r="D630" s="3">
+        <v>0</v>
+      </c>
+      <c r="E630" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:5">
       <c r="A631" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B631" s="3">
-        <v>0</v>
-      </c>
-      <c r="C631" s="5">
-        <v>0</v>
-      </c>
-      <c r="D631" s="3">
-        <v>0</v>
-      </c>
-      <c r="E631" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="632" spans="1:5">
-      <c r="A632" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A632" s="3"/>
+      <c r="B632" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C632" s="4"/>
+      <c r="D632" s="4"/>
+      <c r="E632" s="4"/>
     </row>
     <row r="633" spans="1:5">
-      <c r="A633" s="3"/>
+      <c r="A633" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B633" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C633" s="4"/>
-      <c r="D633" s="4"/>
-      <c r="E633" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C633" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D633" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E633" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="634" spans="1:5">
       <c r="A634" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B634" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C634" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D634" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E634" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B634" s="3">
+        <v>0</v>
+      </c>
+      <c r="C634" s="5">
+        <v>0</v>
+      </c>
+      <c r="D634" s="3">
+        <v>0</v>
+      </c>
+      <c r="E634" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:5">
       <c r="A635" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B635" s="3">
-        <v>0</v>
-      </c>
-      <c r="C635" s="5">
-        <v>0</v>
-      </c>
-      <c r="D635" s="3">
-        <v>0</v>
-      </c>
-      <c r="E635" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="636" spans="1:5">
-      <c r="A636" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A636" s="3"/>
+      <c r="B636" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C636" s="4"/>
+      <c r="D636" s="4"/>
+      <c r="E636" s="4"/>
     </row>
     <row r="637" spans="1:5">
-      <c r="A637" s="3"/>
+      <c r="A637" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B637" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C637" s="4"/>
-      <c r="D637" s="4"/>
-      <c r="E637" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C637" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D637" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E637" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="638" spans="1:5">
       <c r="A638" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B638" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C638" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D638" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E638" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B638" s="3">
+        <v>0</v>
+      </c>
+      <c r="C638" s="5">
+        <v>0</v>
+      </c>
+      <c r="D638" s="3">
+        <v>0</v>
+      </c>
+      <c r="E638" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:5">
       <c r="A639" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B639" s="3">
-        <v>0</v>
-      </c>
-      <c r="C639" s="5">
-        <v>0</v>
-      </c>
-      <c r="D639" s="3">
-        <v>0</v>
-      </c>
-      <c r="E639" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="640" spans="1:5">
-      <c r="A640" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A640" s="3"/>
+      <c r="B640" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C640" s="4"/>
+      <c r="D640" s="4"/>
+      <c r="E640" s="4"/>
     </row>
     <row r="641" spans="1:5">
-      <c r="A641" s="3"/>
+      <c r="A641" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B641" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C641" s="4"/>
-      <c r="D641" s="4"/>
-      <c r="E641" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C641" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D641" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E641" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="642" spans="1:5">
       <c r="A642" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B642" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C642" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D642" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E642" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B642" s="3">
+        <v>0</v>
+      </c>
+      <c r="C642" s="5">
+        <v>0</v>
+      </c>
+      <c r="D642" s="3">
+        <v>0</v>
+      </c>
+      <c r="E642" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:5">
       <c r="A643" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B643" s="3">
-        <v>0</v>
-      </c>
-      <c r="C643" s="5">
-        <v>0</v>
-      </c>
-      <c r="D643" s="3">
-        <v>0</v>
-      </c>
-      <c r="E643" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="644" spans="1:5">
-      <c r="A644" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A644" s="3"/>
+      <c r="B644" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C644" s="4"/>
+      <c r="D644" s="4"/>
+      <c r="E644" s="4"/>
     </row>
     <row r="645" spans="1:5">
-      <c r="A645" s="3"/>
+      <c r="A645" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B645" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C645" s="4"/>
-      <c r="D645" s="4"/>
-      <c r="E645" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C645" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D645" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E645" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="646" spans="1:5">
       <c r="A646" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B646" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C646" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D646" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E646" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B646" s="3">
+        <v>0</v>
+      </c>
+      <c r="C646" s="5">
+        <v>0</v>
+      </c>
+      <c r="D646" s="3">
+        <v>0</v>
+      </c>
+      <c r="E646" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:5">
       <c r="A647" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B647" s="3">
-        <v>0</v>
-      </c>
-      <c r="C647" s="5">
-        <v>0</v>
-      </c>
-      <c r="D647" s="3">
-        <v>0</v>
-      </c>
-      <c r="E647" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="648" spans="1:5">
-      <c r="A648" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A648" s="3"/>
+      <c r="B648" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C648" s="4"/>
+      <c r="D648" s="4"/>
+      <c r="E648" s="4"/>
     </row>
     <row r="649" spans="1:5">
-      <c r="A649" s="3"/>
+      <c r="A649" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B649" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C649" s="4"/>
-      <c r="D649" s="4"/>
-      <c r="E649" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C649" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D649" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E649" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="650" spans="1:5">
       <c r="A650" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B650" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C650" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D650" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E650" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B650" s="3">
+        <v>0</v>
+      </c>
+      <c r="C650" s="5">
+        <v>0</v>
+      </c>
+      <c r="D650" s="3">
+        <v>0</v>
+      </c>
+      <c r="E650" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:5">
       <c r="A651" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B651" s="3">
-        <v>0</v>
-      </c>
-      <c r="C651" s="5">
-        <v>0</v>
-      </c>
-      <c r="D651" s="3">
-        <v>0</v>
-      </c>
-      <c r="E651" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="652" spans="1:5">
-      <c r="A652" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A652" s="3"/>
+      <c r="B652" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C652" s="4"/>
+      <c r="D652" s="4"/>
+      <c r="E652" s="4"/>
     </row>
     <row r="653" spans="1:5">
-      <c r="A653" s="3"/>
+      <c r="A653" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B653" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C653" s="4"/>
-      <c r="D653" s="4"/>
-      <c r="E653" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C653" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E653" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="654" spans="1:5">
       <c r="A654" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B654" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C654" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D654" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E654" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B654" s="3">
+        <v>0</v>
+      </c>
+      <c r="C654" s="5">
+        <v>0</v>
+      </c>
+      <c r="D654" s="3">
+        <v>0</v>
+      </c>
+      <c r="E654" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:5">
       <c r="A655" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B655" s="3">
-        <v>0</v>
-      </c>
-      <c r="C655" s="5">
-        <v>0</v>
-      </c>
-      <c r="D655" s="3">
-        <v>0</v>
-      </c>
-      <c r="E655" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="656" spans="1:5">
-      <c r="A656" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A656" s="3"/>
+      <c r="B656" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C656" s="4"/>
+      <c r="D656" s="4"/>
+      <c r="E656" s="4"/>
     </row>
     <row r="657" spans="1:5">
-      <c r="A657" s="3"/>
+      <c r="A657" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B657" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C657" s="4"/>
-      <c r="D657" s="4"/>
-      <c r="E657" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C657" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E657" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="658" spans="1:5">
       <c r="A658" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B658" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C658" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D658" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E658" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B658" s="3">
+        <v>0</v>
+      </c>
+      <c r="C658" s="5">
+        <v>0</v>
+      </c>
+      <c r="D658" s="3">
+        <v>0</v>
+      </c>
+      <c r="E658" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:5">
       <c r="A659" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B659" s="3">
-        <v>0</v>
-      </c>
-      <c r="C659" s="5">
-        <v>0</v>
-      </c>
-      <c r="D659" s="3">
-        <v>0</v>
-      </c>
-      <c r="E659" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="660" spans="1:5">
-      <c r="A660" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A660" s="3"/>
+      <c r="B660" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C660" s="4"/>
+      <c r="D660" s="4"/>
+      <c r="E660" s="4"/>
     </row>
     <row r="661" spans="1:5">
-      <c r="A661" s="3"/>
+      <c r="A661" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B661" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C661" s="4"/>
-      <c r="D661" s="4"/>
-      <c r="E661" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C661" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D661" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E661" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="662" spans="1:5">
       <c r="A662" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B662" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C662" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D662" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E662" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B662" s="3">
+        <v>0</v>
+      </c>
+      <c r="C662" s="5">
+        <v>0</v>
+      </c>
+      <c r="D662" s="3">
+        <v>0</v>
+      </c>
+      <c r="E662" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:5">
       <c r="A663" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B663" s="3">
-        <v>0</v>
-      </c>
-      <c r="C663" s="5">
-        <v>0</v>
-      </c>
-      <c r="D663" s="3">
-        <v>0</v>
-      </c>
-      <c r="E663" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="664" spans="1:5">
-      <c r="A664" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A664" s="3"/>
+      <c r="B664" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C664" s="4"/>
+      <c r="D664" s="4"/>
+      <c r="E664" s="4"/>
     </row>
     <row r="665" spans="1:5">
-      <c r="A665" s="3"/>
+      <c r="A665" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B665" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C665" s="4"/>
-      <c r="D665" s="4"/>
-      <c r="E665" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C665" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E665" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="666" spans="1:5">
       <c r="A666" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B666" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C666" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D666" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E666" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B666" s="3">
+        <v>0</v>
+      </c>
+      <c r="C666" s="5">
+        <v>0</v>
+      </c>
+      <c r="D666" s="3">
+        <v>0</v>
+      </c>
+      <c r="E666" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:5">
       <c r="A667" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B667" s="3">
-        <v>0</v>
-      </c>
-      <c r="C667" s="5">
-        <v>0</v>
-      </c>
-      <c r="D667" s="3">
-        <v>0</v>
-      </c>
-      <c r="E667" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="668" spans="1:5">
-      <c r="A668" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A668" s="3"/>
+      <c r="B668" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C668" s="4"/>
+      <c r="D668" s="4"/>
+      <c r="E668" s="4"/>
     </row>
     <row r="669" spans="1:5">
-      <c r="A669" s="3"/>
+      <c r="A669" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B669" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C669" s="4"/>
-      <c r="D669" s="4"/>
-      <c r="E669" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C669" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D669" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E669" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="670" spans="1:5">
       <c r="A670" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B670" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C670" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D670" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E670" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B670" s="3">
+        <v>0</v>
+      </c>
+      <c r="C670" s="5">
+        <v>0</v>
+      </c>
+      <c r="D670" s="3">
+        <v>0</v>
+      </c>
+      <c r="E670" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:5">
       <c r="A671" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B671" s="3">
-        <v>0</v>
-      </c>
-      <c r="C671" s="5">
-        <v>0</v>
-      </c>
-      <c r="D671" s="3">
-        <v>0</v>
-      </c>
-      <c r="E671" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="672" spans="1:5">
-      <c r="A672" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A672" s="3"/>
+      <c r="B672" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C672" s="4"/>
+      <c r="D672" s="4"/>
+      <c r="E672" s="4"/>
     </row>
     <row r="673" spans="1:5">
-      <c r="A673" s="3"/>
+      <c r="A673" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B673" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C673" s="4"/>
-      <c r="D673" s="4"/>
-      <c r="E673" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C673" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D673" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E673" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="674" spans="1:5">
       <c r="A674" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B674" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C674" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D674" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E674" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B674" s="3">
+        <v>0</v>
+      </c>
+      <c r="C674" s="5">
+        <v>0</v>
+      </c>
+      <c r="D674" s="3">
+        <v>0</v>
+      </c>
+      <c r="E674" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:5">
       <c r="A675" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B675" s="3">
-        <v>0</v>
-      </c>
-      <c r="C675" s="5">
-        <v>0</v>
-      </c>
-      <c r="D675" s="3">
-        <v>0</v>
-      </c>
-      <c r="E675" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="676" spans="1:5">
-      <c r="A676" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A676" s="3"/>
+      <c r="B676" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C676" s="4"/>
+      <c r="D676" s="4"/>
+      <c r="E676" s="4"/>
     </row>
     <row r="677" spans="1:5">
-      <c r="A677" s="3"/>
+      <c r="A677" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B677" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C677" s="4"/>
-      <c r="D677" s="4"/>
-      <c r="E677" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C677" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D677" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E677" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="678" spans="1:5">
       <c r="A678" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B678" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C678" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D678" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E678" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B678" s="3">
+        <v>0</v>
+      </c>
+      <c r="C678" s="5">
+        <v>0</v>
+      </c>
+      <c r="D678" s="3">
+        <v>0</v>
+      </c>
+      <c r="E678" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:5">
       <c r="A679" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B679" s="3">
-        <v>0</v>
-      </c>
-      <c r="C679" s="5">
-        <v>0</v>
-      </c>
-      <c r="D679" s="3">
-        <v>0</v>
-      </c>
-      <c r="E679" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="680" spans="1:5">
-      <c r="A680" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A680" s="3"/>
+      <c r="B680" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C680" s="4"/>
+      <c r="D680" s="4"/>
+      <c r="E680" s="4"/>
     </row>
     <row r="681" spans="1:5">
       <c r="A681" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C681" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D681" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E681" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="682" spans="1:5">
       <c r="A682" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B682" s="3">
+        <v>0</v>
+      </c>
+      <c r="C682" s="5">
+        <v>0</v>
+      </c>
+      <c r="D682" s="3">
+        <v>0</v>
+      </c>
+      <c r="E682" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:5">
       <c r="A683" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="684" spans="1:5">
-      <c r="A684" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="A684" s="3"/>
+      <c r="B684" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C684" s="4"/>
+      <c r="D684" s="4"/>
+      <c r="E684" s="4"/>
     </row>
     <row r="685" spans="1:5">
       <c r="A685" s="4" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C685" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D685" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E685" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="686" spans="1:5">
       <c r="A686" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="B686" s="3">
+        <v>0</v>
+      </c>
+      <c r="C686" s="5">
+        <v>0</v>
+      </c>
+      <c r="D686" s="3">
+        <v>0</v>
+      </c>
+      <c r="E686" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:5">
       <c r="A687" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5">
+      <c r="A688" s="3"/>
+      <c r="B688" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C688" s="4"/>
+      <c r="D688" s="4"/>
+      <c r="E688" s="4"/>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="A689" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C689" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D689" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E689" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="A690" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B690" s="3">
+        <v>0</v>
+      </c>
+      <c r="C690" s="5">
+        <v>0</v>
+      </c>
+      <c r="D690" s="3">
+        <v>0</v>
+      </c>
+      <c r="E690" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="A692" s="3"/>
+      <c r="B692" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C692" s="4"/>
+      <c r="D692" s="4"/>
+      <c r="E692" s="4"/>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C693" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D693" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E693" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B694" s="3">
+        <v>0</v>
+      </c>
+      <c r="C694" s="5">
+        <v>0</v>
+      </c>
+      <c r="D694" s="3">
+        <v>0</v>
+      </c>
+      <c r="E694" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="A696" s="3"/>
+      <c r="B696" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C696" s="4"/>
+      <c r="D696" s="4"/>
+      <c r="E696" s="4"/>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C697" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D697" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E697" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5">
+      <c r="A698" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B698" s="3">
+        <v>0</v>
+      </c>
+      <c r="C698" s="5">
+        <v>0</v>
+      </c>
+      <c r="D698" s="3">
+        <v>0</v>
+      </c>
+      <c r="E698" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="A699" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="A700" s="3"/>
+      <c r="B700" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C700" s="4"/>
+      <c r="D700" s="4"/>
+      <c r="E700" s="4"/>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C701" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D701" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E701" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5">
+      <c r="A702" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B702" s="3">
+        <v>0</v>
+      </c>
+      <c r="C702" s="5">
+        <v>0</v>
+      </c>
+      <c r="D702" s="3">
+        <v>0</v>
+      </c>
+      <c r="E702" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5">
+      <c r="A703" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="A704" s="3"/>
+      <c r="B704" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C704" s="4"/>
+      <c r="D704" s="4"/>
+      <c r="E704" s="4"/>
+    </row>
+    <row r="705" spans="1:5">
+      <c r="A705" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C705" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D705" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E705" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5">
+      <c r="A706" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B706" s="3">
+        <v>0</v>
+      </c>
+      <c r="C706" s="5">
+        <v>0</v>
+      </c>
+      <c r="D706" s="3">
+        <v>0</v>
+      </c>
+      <c r="E706" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5">
+      <c r="A707" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5">
+      <c r="A708" s="3"/>
+      <c r="B708" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C708" s="4"/>
+      <c r="D708" s="4"/>
+      <c r="E708" s="4"/>
+    </row>
+    <row r="709" spans="1:5">
+      <c r="A709" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C709" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D709" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E709" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5">
+      <c r="A710" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B710" s="3">
+        <v>0</v>
+      </c>
+      <c r="C710" s="5">
+        <v>0</v>
+      </c>
+      <c r="D710" s="3">
+        <v>0</v>
+      </c>
+      <c r="E710" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5">
+      <c r="A711" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5">
+      <c r="A712" s="3"/>
+      <c r="B712" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C712" s="4"/>
+      <c r="D712" s="4"/>
+      <c r="E712" s="4"/>
+    </row>
+    <row r="713" spans="1:5">
+      <c r="A713" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C713" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D713" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E713" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5">
+      <c r="A714" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B714" s="3">
+        <v>0</v>
+      </c>
+      <c r="C714" s="5">
+        <v>0</v>
+      </c>
+      <c r="D714" s="3">
+        <v>0</v>
+      </c>
+      <c r="E714" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5">
+      <c r="A715" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5">
+      <c r="A716" s="3"/>
+      <c r="B716" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C716" s="4"/>
+      <c r="D716" s="4"/>
+      <c r="E716" s="4"/>
+    </row>
+    <row r="717" spans="1:5">
+      <c r="A717" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C717" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D717" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E717" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B718" s="3">
+        <v>0</v>
+      </c>
+      <c r="C718" s="5">
+        <v>0</v>
+      </c>
+      <c r="D718" s="3">
+        <v>0</v>
+      </c>
+      <c r="E718" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="A719" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="688" spans="1:5">
-      <c r="A688" s="4" t="s">
+    <row r="727" spans="1:1">
+      <c r="A727" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="689" spans="1:1">
-      <c r="A689" s="4" t="s">
+    <row r="728" spans="1:1">
+      <c r="A728" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="690" spans="1:1">
-      <c r="A690" s="4" t="s">
+    <row r="729" spans="1:1">
+      <c r="A729" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="691" spans="1:1">
-      <c r="A691" s="4" t="s">
+    <row r="730" spans="1:1">
+      <c r="A730" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="692" spans="1:1">
-      <c r="A692" s="4" t="s">
+    <row r="731" spans="1:1">
+      <c r="A731" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="693" spans="1:1">
-      <c r="A693" s="4" t="s">
+    <row r="732" spans="1:1">
+      <c r="A732" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="694" spans="1:1">
-      <c r="A694" s="4" t="s">
+    <row r="733" spans="1:1">
+      <c r="A733" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="695" spans="1:1">
-      <c r="A695" s="4" t="s">
+    <row r="734" spans="1:1">
+      <c r="A734" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="696" spans="1:1">
-      <c r="A696" s="4" t="s">
+    <row r="735" spans="1:1">
+      <c r="A735" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="697" spans="1:1">
-      <c r="A697" s="4" t="s">
+    <row r="736" spans="1:1">
+      <c r="A736" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="698" spans="1:1">
-      <c r="A698" s="4" t="s">
+    <row r="737" spans="1:1">
+      <c r="A737" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="699" spans="1:1">
-      <c r="A699" s="4" t="s">
+    <row r="738" spans="1:1">
+      <c r="A738" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="700" spans="1:1">
-      <c r="A700" s="4" t="s">
+    <row r="739" spans="1:1">
+      <c r="A739" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="701" spans="1:1">
-      <c r="A701" s="4" t="s">
+    <row r="740" spans="1:1">
+      <c r="A740" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="702" spans="1:1">
-      <c r="A702" s="4" t="s">
+    <row r="741" spans="1:1">
+      <c r="A741" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="703" spans="1:1">
-      <c r="A703" s="4" t="s">
+    <row r="742" spans="1:1">
+      <c r="A742" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="704" spans="1:1">
-      <c r="A704" s="4" t="s">
+    <row r="743" spans="1:1">
+      <c r="A743" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="705" spans="1:1">
-      <c r="A705" s="4" t="s">
+    <row r="744" spans="1:1">
+      <c r="A744" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="706" spans="1:1">
-      <c r="A706" s="4" t="s">
+    <row r="745" spans="1:1">
+      <c r="A745" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="707" spans="1:1">
-      <c r="A707" s="4" t="s">
+    <row r="746" spans="1:1">
+      <c r="A746" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="708" spans="1:1">
-      <c r="A708" s="4" t="s">
+    <row r="747" spans="1:1">
+      <c r="A747" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="709" spans="1:1">
-      <c r="A709" s="4" t="s">
+    <row r="748" spans="1:1">
+      <c r="A748" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="710" spans="1:1">
-      <c r="A710" s="4" t="s">
+    <row r="749" spans="1:1">
+      <c r="A749" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="711" spans="1:1">
-      <c r="A711" s="4" t="s">
+    <row r="750" spans="1:1">
+      <c r="A750" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="712" spans="1:1">
-      <c r="A712" s="4" t="s">
+    <row r="751" spans="1:1">
+      <c r="A751" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="713" spans="1:1">
-      <c r="A713" s="4" t="s">
+    <row r="752" spans="1:1">
+      <c r="A752" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="714" spans="1:1">
-      <c r="A714" s="4" t="s">
+    <row r="753" spans="1:1">
+      <c r="A753" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="715" spans="1:1">
-      <c r="A715" s="4" t="s">
+    <row r="754" spans="1:1">
+      <c r="A754" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="716" spans="1:1">
-      <c r="A716" s="4" t="s">
+    <row r="755" spans="1:1">
+      <c r="A755" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="717" spans="1:1">
-      <c r="A717" s="4" t="s">
+    <row r="756" spans="1:1">
+      <c r="A756" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="718" spans="1:1">
-      <c r="A718" s="4" t="s">
+    <row r="757" spans="1:1">
+      <c r="A757" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -18953,46 +19742,46 @@
     <mergeCell ref="B431:E431"/>
     <mergeCell ref="B474:E474"/>
     <mergeCell ref="B517:E517"/>
-    <mergeCell ref="B521:E521"/>
-    <mergeCell ref="B525:E525"/>
-    <mergeCell ref="B529:E529"/>
-    <mergeCell ref="B533:E533"/>
-    <mergeCell ref="B537:E537"/>
-    <mergeCell ref="B541:E541"/>
-    <mergeCell ref="B545:E545"/>
-    <mergeCell ref="B549:E549"/>
-    <mergeCell ref="B553:E553"/>
-    <mergeCell ref="B557:E557"/>
-    <mergeCell ref="B561:E561"/>
-    <mergeCell ref="B565:E565"/>
-    <mergeCell ref="B569:E569"/>
-    <mergeCell ref="B573:E573"/>
-    <mergeCell ref="B577:E577"/>
-    <mergeCell ref="B581:E581"/>
-    <mergeCell ref="B585:E585"/>
-    <mergeCell ref="B589:E589"/>
-    <mergeCell ref="B593:E593"/>
-    <mergeCell ref="B597:E597"/>
-    <mergeCell ref="B601:E601"/>
-    <mergeCell ref="B605:E605"/>
-    <mergeCell ref="B609:E609"/>
-    <mergeCell ref="B613:E613"/>
-    <mergeCell ref="B617:E617"/>
-    <mergeCell ref="B621:E621"/>
-    <mergeCell ref="B625:E625"/>
-    <mergeCell ref="B629:E629"/>
-    <mergeCell ref="B633:E633"/>
-    <mergeCell ref="B637:E637"/>
-    <mergeCell ref="B641:E641"/>
-    <mergeCell ref="B645:E645"/>
-    <mergeCell ref="B649:E649"/>
-    <mergeCell ref="B653:E653"/>
-    <mergeCell ref="B657:E657"/>
-    <mergeCell ref="B661:E661"/>
-    <mergeCell ref="B665:E665"/>
-    <mergeCell ref="B669:E669"/>
-    <mergeCell ref="B673:E673"/>
-    <mergeCell ref="B677:E677"/>
+    <mergeCell ref="B560:E560"/>
+    <mergeCell ref="B564:E564"/>
+    <mergeCell ref="B568:E568"/>
+    <mergeCell ref="B572:E572"/>
+    <mergeCell ref="B576:E576"/>
+    <mergeCell ref="B580:E580"/>
+    <mergeCell ref="B584:E584"/>
+    <mergeCell ref="B588:E588"/>
+    <mergeCell ref="B592:E592"/>
+    <mergeCell ref="B596:E596"/>
+    <mergeCell ref="B600:E600"/>
+    <mergeCell ref="B604:E604"/>
+    <mergeCell ref="B608:E608"/>
+    <mergeCell ref="B612:E612"/>
+    <mergeCell ref="B616:E616"/>
+    <mergeCell ref="B620:E620"/>
+    <mergeCell ref="B624:E624"/>
+    <mergeCell ref="B628:E628"/>
+    <mergeCell ref="B632:E632"/>
+    <mergeCell ref="B636:E636"/>
+    <mergeCell ref="B640:E640"/>
+    <mergeCell ref="B644:E644"/>
+    <mergeCell ref="B648:E648"/>
+    <mergeCell ref="B652:E652"/>
+    <mergeCell ref="B656:E656"/>
+    <mergeCell ref="B660:E660"/>
+    <mergeCell ref="B664:E664"/>
+    <mergeCell ref="B668:E668"/>
+    <mergeCell ref="B672:E672"/>
+    <mergeCell ref="B676:E676"/>
+    <mergeCell ref="B680:E680"/>
+    <mergeCell ref="B684:E684"/>
+    <mergeCell ref="B688:E688"/>
+    <mergeCell ref="B692:E692"/>
+    <mergeCell ref="B696:E696"/>
+    <mergeCell ref="B700:E700"/>
+    <mergeCell ref="B704:E704"/>
+    <mergeCell ref="B708:E708"/>
+    <mergeCell ref="B712:E712"/>
+    <mergeCell ref="B716:E716"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20470,16 +21259,16 @@
         <v>20</v>
       </c>
       <c r="B91" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C91" s="5">
-        <v>0.171021</v>
+        <v>0.300399</v>
       </c>
       <c r="D91" s="3">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="E91" s="6">
-        <v>0.03414634146341464</v>
+        <v>0.04727272727272727</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -20487,16 +21276,16 @@
         <v>21</v>
       </c>
       <c r="B92" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C92" s="5">
-        <v>0.07006400000000002</v>
+        <v>0.170574</v>
       </c>
       <c r="D92" s="3">
-        <v>248</v>
+        <v>343</v>
       </c>
       <c r="E92" s="6">
-        <v>0.01612903225806452</v>
+        <v>0.02332361516034985</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -20510,10 +21299,10 @@
         <v>0.168076</v>
       </c>
       <c r="D93" s="3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E93" s="6">
-        <v>0.391304347826087</v>
+        <v>0.3214285714285715</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -20521,16 +21310,16 @@
         <v>23</v>
       </c>
       <c r="B94" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C94" s="5">
-        <v>0.19434</v>
+        <v>0.240982</v>
       </c>
       <c r="D94" s="3">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="E94" s="6">
-        <v>0.08264462809917356</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -20538,16 +21327,16 @@
         <v>24</v>
       </c>
       <c r="B95" s="3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C95" s="5">
-        <v>0.347359</v>
+        <v>0.435208</v>
       </c>
       <c r="D95" s="3">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="E95" s="6">
-        <v>0.08759124087591241</v>
+        <v>0.0935672514619883</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -20555,16 +21344,16 @@
         <v>25</v>
       </c>
       <c r="B96" s="3">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C96" s="5">
-        <v>1.067499</v>
+        <v>1.275155</v>
       </c>
       <c r="D96" s="3">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="E96" s="6">
-        <v>0.19140625</v>
+        <v>0.184375</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -20572,16 +21361,16 @@
         <v>26</v>
       </c>
       <c r="B97" s="3">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C97" s="5">
-        <v>0.144436</v>
+        <v>0.215228</v>
       </c>
       <c r="D97" s="3">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E97" s="6">
-        <v>0.2666666666666667</v>
+        <v>0.3108108108108108</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -20589,16 +21378,16 @@
         <v>27</v>
       </c>
       <c r="B98" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C98" s="5">
-        <v>0.245677</v>
+        <v>0.308809</v>
       </c>
       <c r="D98" s="3">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="E98" s="6">
-        <v>0.09947643979057591</v>
+        <v>0.09871244635193133</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -20606,16 +21395,16 @@
         <v>28</v>
       </c>
       <c r="B99" s="3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C99" s="5">
-        <v>0.4230500000000001</v>
+        <v>0.6260680000000001</v>
       </c>
       <c r="D99" s="3">
-        <v>254</v>
+        <v>341</v>
       </c>
       <c r="E99" s="6">
-        <v>0.07874015748031496</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -20623,16 +21412,16 @@
         <v>29</v>
       </c>
       <c r="B100" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C100" s="5">
-        <v>0.391985</v>
+        <v>0.459965</v>
       </c>
       <c r="D100" s="3">
-        <v>211</v>
+        <v>266</v>
       </c>
       <c r="E100" s="6">
-        <v>0.07109004739336493</v>
+        <v>0.06766917293233082</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -20640,16 +21429,16 @@
         <v>30</v>
       </c>
       <c r="B101" s="3">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C101" s="5">
-        <v>1.756848</v>
+        <v>2.302706000000001</v>
       </c>
       <c r="D101" s="3">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="E101" s="6">
-        <v>0.3348837209302326</v>
+        <v>0.3429602888086642</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -20657,16 +21446,16 @@
         <v>31</v>
       </c>
       <c r="B102" s="3">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C102" s="5">
-        <v>1.046767</v>
+        <v>1.559288</v>
       </c>
       <c r="D102" s="3">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="E102" s="6">
-        <v>0.25</v>
+        <v>0.2350597609561753</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -20674,16 +21463,16 @@
         <v>32</v>
       </c>
       <c r="B103" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C103" s="5">
-        <v>0.237092</v>
+        <v>0.28596</v>
       </c>
       <c r="D103" s="3">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E103" s="6">
-        <v>0.275</v>
+        <v>0.2280701754385965</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -20691,16 +21480,16 @@
         <v>33</v>
       </c>
       <c r="B104" s="3">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C104" s="5">
-        <v>0.3721809999999999</v>
+        <v>0.5715930000000001</v>
       </c>
       <c r="D104" s="3">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="E104" s="6">
-        <v>0.134020618556701</v>
+        <v>0.1461538461538462</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -20708,16 +21497,16 @@
         <v>34</v>
       </c>
       <c r="B105" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C105" s="5">
-        <v>0.4422650000000001</v>
+        <v>0.7278210000000001</v>
       </c>
       <c r="D105" s="3">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E105" s="6">
-        <v>0.1842105263157895</v>
+        <v>0.2087912087912088</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -20725,16 +21514,16 @@
         <v>35</v>
       </c>
       <c r="B106" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" s="5">
-        <v>0</v>
+        <v>0.027208</v>
       </c>
       <c r="D106" s="3">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="E106" s="6">
-        <v>0</v>
+        <v>0.01111111111111111</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -20742,16 +21531,16 @@
         <v>36</v>
       </c>
       <c r="B107" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C107" s="5">
-        <v>0.209888</v>
+        <v>0.254147</v>
       </c>
       <c r="D107" s="3">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E107" s="6">
-        <v>0.15625</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -20759,16 +21548,16 @@
         <v>37</v>
       </c>
       <c r="B108" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C108" s="5">
-        <v>0.07576500000000001</v>
+        <v>0.114633</v>
       </c>
       <c r="D108" s="3">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="E108" s="6">
-        <v>0.07272727272727272</v>
+        <v>0.06521739130434782</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -20782,10 +21571,10 @@
         <v>0.019434</v>
       </c>
       <c r="D109" s="3">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="E109" s="6">
-        <v>0.009345794392523364</v>
+        <v>0.006211180124223602</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -20793,16 +21582,16 @@
         <v>38</v>
       </c>
       <c r="B110" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C110" s="5">
-        <v>0.160472</v>
+        <v>0.316533</v>
       </c>
       <c r="D110" s="3">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="E110" s="6">
-        <v>0.1095890410958904</v>
+        <v>0.1339285714285714</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -20810,16 +21599,16 @@
         <v>39</v>
       </c>
       <c r="B111" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C111" s="5">
-        <v>0.160472</v>
+        <v>0.316533</v>
       </c>
       <c r="D111" s="3">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E111" s="6">
-        <v>0.08791208791208792</v>
+        <v>0.1171875</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -20827,16 +21616,16 @@
         <v>40</v>
       </c>
       <c r="B112" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C112" s="5">
-        <v>0.166152</v>
+        <v>0.263888</v>
       </c>
       <c r="D112" s="3">
-        <v>190</v>
+        <v>246</v>
       </c>
       <c r="E112" s="6">
-        <v>0.03157894736842105</v>
+        <v>0.04065040650406504</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -20844,16 +21633,16 @@
         <v>41</v>
       </c>
       <c r="B113" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C113" s="5">
-        <v>0.256105</v>
+        <v>0.280539</v>
       </c>
       <c r="D113" s="3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E113" s="6">
-        <v>0.3225806451612903</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -20861,16 +21650,16 @@
         <v>42</v>
       </c>
       <c r="B114" s="3">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C114" s="5">
-        <v>0.7623559999999998</v>
+        <v>1.064153</v>
       </c>
       <c r="D114" s="3">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="E114" s="6">
-        <v>0.5897435897435898</v>
+        <v>0.543859649122807</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -20884,10 +21673,10 @@
         <v>0.190586</v>
       </c>
       <c r="D115" s="3">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="E115" s="6">
-        <v>0.02892561983471074</v>
+        <v>0.02243589743589744</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -20901,10 +21690,10 @@
         <v>0.049943</v>
       </c>
       <c r="D116" s="3">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E116" s="6">
-        <v>0.02439024390243903</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -20912,16 +21701,16 @@
         <v>45</v>
       </c>
       <c r="B117" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" s="5">
-        <v>0.236832</v>
+        <v>0.256266</v>
       </c>
       <c r="D117" s="3">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="E117" s="6">
-        <v>0.06106870229007633</v>
+        <v>0.05202312138728324</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -20929,16 +21718,16 @@
         <v>46</v>
       </c>
       <c r="B118" s="3">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C118" s="5">
-        <v>0.3542370000000001</v>
+        <v>0.6535210000000002</v>
       </c>
       <c r="D118" s="3">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="E118" s="6">
-        <v>0.1475409836065574</v>
+        <v>0.1793478260869565</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -20946,16 +21735,16 @@
         <v>47</v>
       </c>
       <c r="B119" s="3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C119" s="5">
-        <v>0.4906820000000002</v>
+        <v>0.6665320000000002</v>
       </c>
       <c r="D119" s="3">
-        <v>223</v>
+        <v>314</v>
       </c>
       <c r="E119" s="6">
-        <v>0.1076233183856502</v>
+        <v>0.1050955414012739</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -20963,16 +21752,16 @@
         <v>48</v>
       </c>
       <c r="B120" s="3">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C120" s="5">
-        <v>1.119929</v>
+        <v>1.395893</v>
       </c>
       <c r="D120" s="3">
-        <v>308</v>
+        <v>502</v>
       </c>
       <c r="E120" s="6">
-        <v>0.1753246753246753</v>
+        <v>0.1334661354581673</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -20980,16 +21769,16 @@
         <v>49</v>
       </c>
       <c r="B121" s="3">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C121" s="5">
-        <v>0.8000950000000002</v>
+        <v>0.9744250000000002</v>
       </c>
       <c r="D121" s="3">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="E121" s="6">
-        <v>0.2913385826771653</v>
+        <v>0.2710843373493976</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -20997,16 +21786,16 @@
         <v>50</v>
       </c>
       <c r="B122" s="3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C122" s="5">
-        <v>0.5579189999999998</v>
+        <v>0.686286</v>
       </c>
       <c r="D122" s="3">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="E122" s="6">
-        <v>0.2840909090909091</v>
+        <v>0.248062015503876</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -21014,16 +21803,16 @@
         <v>51</v>
       </c>
       <c r="B123" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C123" s="5">
-        <v>0.213776</v>
+        <v>0.28305</v>
       </c>
       <c r="D123" s="3">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="E123" s="6">
-        <v>0.09375</v>
+        <v>0.09848484848484848</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -21031,16 +21820,16 @@
         <v>52</v>
       </c>
       <c r="B124" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" s="5">
-        <v>0.160438</v>
+        <v>0.185414</v>
       </c>
       <c r="D124" s="3">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E124" s="6">
-        <v>0.1891891891891892</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -21048,16 +21837,16 @@
         <v>53</v>
       </c>
       <c r="B125" s="3">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C125" s="5">
-        <v>0.6497360000000001</v>
+        <v>0.9243200000000003</v>
       </c>
       <c r="D125" s="3">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E125" s="6">
-        <v>0.4333333333333333</v>
+        <v>0.4871794871794872</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -21065,16 +21854,16 @@
         <v>54</v>
       </c>
       <c r="B126" s="3">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C126" s="5">
-        <v>0.765775</v>
+        <v>0.987325</v>
       </c>
       <c r="D126" s="3">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="E126" s="6">
-        <v>0.308411214953271</v>
+        <v>0.2937062937062937</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -21082,16 +21871,16 @@
         <v>55</v>
       </c>
       <c r="B127" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C127" s="5">
-        <v>0.124378</v>
+        <v>0.18268</v>
       </c>
       <c r="D127" s="3">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E127" s="6">
-        <v>0.1621621621621622</v>
+        <v>0.1956521739130435</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -21099,16 +21888,16 @@
         <v>56</v>
       </c>
       <c r="B128" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C128" s="5">
-        <v>0.126944</v>
+        <v>0.200246</v>
       </c>
       <c r="D128" s="3">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="E128" s="6">
-        <v>0.06493506493506493</v>
+        <v>0.07920792079207921</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -21116,16 +21905,16 @@
         <v>57</v>
       </c>
       <c r="B129" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C129" s="5">
-        <v>0.523683</v>
+        <v>0.6556270000000001</v>
       </c>
       <c r="D129" s="3">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E129" s="6">
-        <v>0.35</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -21133,16 +21922,16 @@
         <v>11</v>
       </c>
       <c r="B130" s="3">
-        <v>693</v>
+        <v>933</v>
       </c>
       <c r="C130" s="5">
-        <v>15.254257</v>
+        <v>20.597014</v>
       </c>
       <c r="D130" s="3">
-        <v>4889</v>
+        <v>6640</v>
       </c>
       <c r="E130" s="6">
-        <v>0.1417467784823072</v>
+        <v>0.1405120481927711</v>
       </c>
     </row>
     <row r="132" spans="1:5">
